--- a/Broker Analysis.xlsx
+++ b/Broker Analysis.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Others\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD26DA6-0B23-4539-A2D6-EFC9665E5290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA59A3A7-7332-4AC6-AE6E-51D2694AC3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-05-28" sheetId="4" r:id="rId1"/>
+    <sheet name="2025-05-21" sheetId="3" r:id="rId2"/>
+    <sheet name="2025-05-20" sheetId="2" r:id="rId3"/>
+    <sheet name="2025-05-19" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="1886">
   <si>
     <t>B1</t>
   </si>
@@ -1699,6 +1702,3990 @@
   </si>
   <si>
     <t>Top 5</t>
+  </si>
+  <si>
+    <t>SARBTM/34544/872.11</t>
+  </si>
+  <si>
+    <t>BHL/96894/222.60</t>
+  </si>
+  <si>
+    <t>SHEL/66475/271.02</t>
+  </si>
+  <si>
+    <t>HPPL/31071/543.25</t>
+  </si>
+  <si>
+    <t>RNLI/19211/512.11</t>
+  </si>
+  <si>
+    <t>SHPC/35990/578.96</t>
+  </si>
+  <si>
+    <t>HIDCL/44866/313.82</t>
+  </si>
+  <si>
+    <t>CFCL/17133/550.13</t>
+  </si>
+  <si>
+    <t>MLBL/22294/396.98</t>
+  </si>
+  <si>
+    <t>JOSHI/17703/421.87</t>
+  </si>
+  <si>
+    <t>MERO/44332/696.49</t>
+  </si>
+  <si>
+    <t>UPCL/54993/405.86</t>
+  </si>
+  <si>
+    <t>BHL/86068/223.56</t>
+  </si>
+  <si>
+    <t>HPPL/28971/562.19</t>
+  </si>
+  <si>
+    <t>SBI/32371/388.70</t>
+  </si>
+  <si>
+    <t>NGPL/52284/370.83</t>
+  </si>
+  <si>
+    <t>AHPC/75285/284.92</t>
+  </si>
+  <si>
+    <t>SARBTM/21345/877.75</t>
+  </si>
+  <si>
+    <t>HPPL/21235/556.21</t>
+  </si>
+  <si>
+    <t>HDL/6339/1,233.24</t>
+  </si>
+  <si>
+    <t>NRIC/248440/1,291.68</t>
+  </si>
+  <si>
+    <t>SHPC/56487/579.54</t>
+  </si>
+  <si>
+    <t>HRL/32181/970.23</t>
+  </si>
+  <si>
+    <t>NGPL/78756/364.93</t>
+  </si>
+  <si>
+    <t>NHPC/121698/224.12</t>
+  </si>
+  <si>
+    <t>RADHI/41247/665.77</t>
+  </si>
+  <si>
+    <t>NGPL/27736/369.57</t>
+  </si>
+  <si>
+    <t>NIFRA/25651/302.46</t>
+  </si>
+  <si>
+    <t>HIDCL/28268/313.95</t>
+  </si>
+  <si>
+    <t>UPCL/26319/382.46</t>
+  </si>
+  <si>
+    <t>LBBL/298132/451.27</t>
+  </si>
+  <si>
+    <t>NICA/99091/349.09</t>
+  </si>
+  <si>
+    <t>HPPL/50820/547.16</t>
+  </si>
+  <si>
+    <t>RADHI/57631/610.04</t>
+  </si>
+  <si>
+    <t>SHIVM/14839/541.74</t>
+  </si>
+  <si>
+    <t>GHL/29475/264.13</t>
+  </si>
+  <si>
+    <t>NTC/5858/869.13</t>
+  </si>
+  <si>
+    <t>SRLI/11847/407.86</t>
+  </si>
+  <si>
+    <t>SANIMA/89740/307.24</t>
+  </si>
+  <si>
+    <t>BHL/44857/223.29</t>
+  </si>
+  <si>
+    <t>HATHY/7109/1,305.24</t>
+  </si>
+  <si>
+    <t>CIT/4607/1,923.63</t>
+  </si>
+  <si>
+    <t>HRL/7861/976.72</t>
+  </si>
+  <si>
+    <t>CREST/18644/2,061.61</t>
+  </si>
+  <si>
+    <t>NICA/47037/353.06</t>
+  </si>
+  <si>
+    <t>HRL/11923/986.36</t>
+  </si>
+  <si>
+    <t>NMIC/4971/2,162.52</t>
+  </si>
+  <si>
+    <t>CHCL/19023/495.71</t>
+  </si>
+  <si>
+    <t>NGPL/248997/370.72</t>
+  </si>
+  <si>
+    <t>NIFRA/64591/294.58</t>
+  </si>
+  <si>
+    <t>HIDCL/57817/313.50</t>
+  </si>
+  <si>
+    <t>CHDC/4819/2,587.77</t>
+  </si>
+  <si>
+    <t>NLIC/16311/767.20</t>
+  </si>
+  <si>
+    <t>TPC/205664/588.84</t>
+  </si>
+  <si>
+    <t>HURJA/417814/264.15</t>
+  </si>
+  <si>
+    <t>SPDL/222437/379.74</t>
+  </si>
+  <si>
+    <t>SARBTM/85715/876.68</t>
+  </si>
+  <si>
+    <t>RHPL/177068/397.25</t>
+  </si>
+  <si>
+    <t>SHL/181477/552.71</t>
+  </si>
+  <si>
+    <t>BPCL/208543/481.80</t>
+  </si>
+  <si>
+    <t>SHIVM/130291/533.29</t>
+  </si>
+  <si>
+    <t>LBBL/80271/440.52</t>
+  </si>
+  <si>
+    <t>BHL/116050/223.12</t>
+  </si>
+  <si>
+    <t>LICN/20734/970.08</t>
+  </si>
+  <si>
+    <t>BARUN/33938/542.71</t>
+  </si>
+  <si>
+    <t>UPPER/74415/205.51</t>
+  </si>
+  <si>
+    <t>SHPC/27814/570.60</t>
+  </si>
+  <si>
+    <t>NLICL/18159/626.92</t>
+  </si>
+  <si>
+    <t>NRIC/25374/1,279.73</t>
+  </si>
+  <si>
+    <t>NGPL/77682/361.81</t>
+  </si>
+  <si>
+    <t>LBBL/32102/471.36</t>
+  </si>
+  <si>
+    <t>UPCL/29840/400.56</t>
+  </si>
+  <si>
+    <t>SHEL/42055/274.52</t>
+  </si>
+  <si>
+    <t>UMHL/96205/478.00</t>
+  </si>
+  <si>
+    <t>LBBL/49757/460.66</t>
+  </si>
+  <si>
+    <t>HRL/22039/985.46</t>
+  </si>
+  <si>
+    <t>NLIC/22030/762.71</t>
+  </si>
+  <si>
+    <t>AKJCL/71431/214.41</t>
+  </si>
+  <si>
+    <t>HPPL/25754/568.92</t>
+  </si>
+  <si>
+    <t>BPCL/27356/495.99</t>
+  </si>
+  <si>
+    <t>HRL/12023/995.24</t>
+  </si>
+  <si>
+    <t>NRIC/10686/1,257.41</t>
+  </si>
+  <si>
+    <t>BHL/153580/223.84</t>
+  </si>
+  <si>
+    <t>HPPL/49396/567.07</t>
+  </si>
+  <si>
+    <t>PRIN/16707/875.85</t>
+  </si>
+  <si>
+    <t>SIKLES/14368/1,012.67</t>
+  </si>
+  <si>
+    <t>MEN/25115/571.95</t>
+  </si>
+  <si>
+    <t>HIDCL/108329/307.77</t>
+  </si>
+  <si>
+    <t>AHPC/81796/296.81</t>
+  </si>
+  <si>
+    <t>SHPC/36631/586.93</t>
+  </si>
+  <si>
+    <t>NIFRA/70072/293.05</t>
+  </si>
+  <si>
+    <t>BHL/84075/223.64</t>
+  </si>
+  <si>
+    <t>NGPL/82676/364.62</t>
+  </si>
+  <si>
+    <t>AKPL/91381/251.55</t>
+  </si>
+  <si>
+    <t>BHL/101265/223.05</t>
+  </si>
+  <si>
+    <t>AHPC/60192/291.15</t>
+  </si>
+  <si>
+    <t>AKJCL/74870/213.31</t>
+  </si>
+  <si>
+    <t>NGPL/327705/362.24</t>
+  </si>
+  <si>
+    <t>RADHI/200470/631.35</t>
+  </si>
+  <si>
+    <t>GBIME/385860/217.57</t>
+  </si>
+  <si>
+    <t>SAHAS/140385/518.55</t>
+  </si>
+  <si>
+    <t>NABBC/12189/1,658.48</t>
+  </si>
+  <si>
+    <t>HRL/46514/975.77</t>
+  </si>
+  <si>
+    <t>RADHI/36210/677.86</t>
+  </si>
+  <si>
+    <t>DORDI/53066/409.53</t>
+  </si>
+  <si>
+    <t>NYADI/38168/489.02</t>
+  </si>
+  <si>
+    <t>GLBSL/6325/2,881.76</t>
+  </si>
+  <si>
+    <t>HIDCL/294334/310.16</t>
+  </si>
+  <si>
+    <t>RADHI/123177/652.87</t>
+  </si>
+  <si>
+    <t>CHDC/25238/2,557.88</t>
+  </si>
+  <si>
+    <t>NGPL/65411/367.04</t>
+  </si>
+  <si>
+    <t>UPCL/62490/379.20</t>
+  </si>
+  <si>
+    <t>RADHI/193407/697.20</t>
+  </si>
+  <si>
+    <t>HRL/43586/979.22</t>
+  </si>
+  <si>
+    <t>HPPL/56663/583.84</t>
+  </si>
+  <si>
+    <t>SBL/124337/272.74</t>
+  </si>
+  <si>
+    <t>SHIVM/59998/540.71</t>
+  </si>
+  <si>
+    <t>NGPL/415634/359.89</t>
+  </si>
+  <si>
+    <t>API/287089/302.72</t>
+  </si>
+  <si>
+    <t>HPPL/89753/567.18</t>
+  </si>
+  <si>
+    <t>MEN/84217/580.12</t>
+  </si>
+  <si>
+    <t>NRN/17920/1,996.49</t>
+  </si>
+  <si>
+    <t>RADHI/75219/684.12</t>
+  </si>
+  <si>
+    <t>HDHPC/145323/214.10</t>
+  </si>
+  <si>
+    <t>SHPC/41904/585.67</t>
+  </si>
+  <si>
+    <t>API/79919/294.56</t>
+  </si>
+  <si>
+    <t>SHIVM/38025/538.26</t>
+  </si>
+  <si>
+    <t>BPCL/53304/504.35</t>
+  </si>
+  <si>
+    <t>SHEL/55029/277.09</t>
+  </si>
+  <si>
+    <t>EBL/22329/618.09</t>
+  </si>
+  <si>
+    <t>SANIMA/37378/305.81</t>
+  </si>
+  <si>
+    <t>CHDC/4414/2,563.28</t>
+  </si>
+  <si>
+    <t>LICN/5632/945.72</t>
+  </si>
+  <si>
+    <t>NRIC/3908/1,278.03</t>
+  </si>
+  <si>
+    <t>API/15890/301.03</t>
+  </si>
+  <si>
+    <t>UPCL/11721/386.49</t>
+  </si>
+  <si>
+    <t>RIDI/15116/267.58</t>
+  </si>
+  <si>
+    <t>RADHI/147238/647.80</t>
+  </si>
+  <si>
+    <t>NGPL/229443/360.87</t>
+  </si>
+  <si>
+    <t>BPCL/83175/497.39</t>
+  </si>
+  <si>
+    <t>CHL/67396/438.94</t>
+  </si>
+  <si>
+    <t>CHDC/10128/2,555.20</t>
+  </si>
+  <si>
+    <t>NRN/63142/2,012.41</t>
+  </si>
+  <si>
+    <t>RADHI/139781/661.60</t>
+  </si>
+  <si>
+    <t>UPCL/154029/392.67</t>
+  </si>
+  <si>
+    <t>SARBTM/57760/877.23</t>
+  </si>
+  <si>
+    <t>PCBL/95545/242.24</t>
+  </si>
+  <si>
+    <t>BPCL/79162/497.78</t>
+  </si>
+  <si>
+    <t>NGPL/82065/356.27</t>
+  </si>
+  <si>
+    <t>SHEL/51959/278.93</t>
+  </si>
+  <si>
+    <t>API/47851/303.40</t>
+  </si>
+  <si>
+    <t>LEC/37681/226.26</t>
+  </si>
+  <si>
+    <t>CHDC/18613/2,594.95</t>
+  </si>
+  <si>
+    <t>BHL/119610/222.59</t>
+  </si>
+  <si>
+    <t>NYADI/42016/516.40</t>
+  </si>
+  <si>
+    <t>SHEL/75434/272.71</t>
+  </si>
+  <si>
+    <t>HPPL/33617/566.58</t>
+  </si>
+  <si>
+    <t>SHPC/330485/585.37</t>
+  </si>
+  <si>
+    <t>SAHAS/116987/518.44</t>
+  </si>
+  <si>
+    <t>AHPC/196187/295.86</t>
+  </si>
+  <si>
+    <t>MERO/75824/730.14</t>
+  </si>
+  <si>
+    <t>BHL/241429/223.44</t>
+  </si>
+  <si>
+    <t>SHIVM/93854/540.88</t>
+  </si>
+  <si>
+    <t>CHDC/13985/2,573.57</t>
+  </si>
+  <si>
+    <t>SARBTM/27272/872.56</t>
+  </si>
+  <si>
+    <t>GHL/72470/260.09</t>
+  </si>
+  <si>
+    <t>BPCL/38902/481.75</t>
+  </si>
+  <si>
+    <t>NHPC/482569/231.42</t>
+  </si>
+  <si>
+    <t>SHPC/191556/575.59</t>
+  </si>
+  <si>
+    <t>PPCL/246080/347.07</t>
+  </si>
+  <si>
+    <t>BPCL/85441/510.51</t>
+  </si>
+  <si>
+    <t>NGPL/63300/362.45</t>
+  </si>
+  <si>
+    <t>SHPC/559332/586.60</t>
+  </si>
+  <si>
+    <t>NLIC/74481/766.75</t>
+  </si>
+  <si>
+    <t>SICL/68792/792.87</t>
+  </si>
+  <si>
+    <t>SCB/48608/612.22</t>
+  </si>
+  <si>
+    <t>HATHY/17941/1,301.17</t>
+  </si>
+  <si>
+    <t>HPPL/25660/558.17</t>
+  </si>
+  <si>
+    <t>BHL/50712/222.64</t>
+  </si>
+  <si>
+    <t>API/36397/301.51</t>
+  </si>
+  <si>
+    <t>HIDCL/35568/303.03</t>
+  </si>
+  <si>
+    <t>AKPL/24353/251.55</t>
+  </si>
+  <si>
+    <t>AHPC/250687/292.09</t>
+  </si>
+  <si>
+    <t>NIFRA/140669/302.50</t>
+  </si>
+  <si>
+    <t>SHEL/71865/267.89</t>
+  </si>
+  <si>
+    <t>HRL/16700/978.10</t>
+  </si>
+  <si>
+    <t>MBJC/42029/329.01</t>
+  </si>
+  <si>
+    <t>NIFRA/187781/297.60</t>
+  </si>
+  <si>
+    <t>AHPC/151050/297.64</t>
+  </si>
+  <si>
+    <t>SHPC/67785/578.47</t>
+  </si>
+  <si>
+    <t>HIDCL/112696/315.98</t>
+  </si>
+  <si>
+    <t>SHL/63476/559.14</t>
+  </si>
+  <si>
+    <t>NIFRA/198406/297.91</t>
+  </si>
+  <si>
+    <t>HPPL/83165/564.43</t>
+  </si>
+  <si>
+    <t>BHL/160537/221.76</t>
+  </si>
+  <si>
+    <t>MEN/53361/572.93</t>
+  </si>
+  <si>
+    <t>NTC/25776/873.80</t>
+  </si>
+  <si>
+    <t>RADHI/236253/693.10</t>
+  </si>
+  <si>
+    <t>SHEL/104763/283.65</t>
+  </si>
+  <si>
+    <t>CHDC/6729/2,580.08</t>
+  </si>
+  <si>
+    <t>UPCL/39966/389.96</t>
+  </si>
+  <si>
+    <t>SHIVM/23431/539.42</t>
+  </si>
+  <si>
+    <t>BHL/69585/221.90</t>
+  </si>
+  <si>
+    <t>AHPC/47375/296.57</t>
+  </si>
+  <si>
+    <t>SHIVM/20116/531.10</t>
+  </si>
+  <si>
+    <t>SAHAS/20034/515.77</t>
+  </si>
+  <si>
+    <t>SHEL/34900/269.64</t>
+  </si>
+  <si>
+    <t>CHDC/7895/2,591.88</t>
+  </si>
+  <si>
+    <t>IHL/18015/613.82</t>
+  </si>
+  <si>
+    <t>HPPL/14969/573.42</t>
+  </si>
+  <si>
+    <t>API/25509/305.86</t>
+  </si>
+  <si>
+    <t>BHL/38793/221.14</t>
+  </si>
+  <si>
+    <t>BGWT/17347/977.17</t>
+  </si>
+  <si>
+    <t>SPDL/24660/375.29</t>
+  </si>
+  <si>
+    <t>RADHI/10802/657.21</t>
+  </si>
+  <si>
+    <t>SHIVM/13597/532.52</t>
+  </si>
+  <si>
+    <t>RNLI/12036/512.64</t>
+  </si>
+  <si>
+    <t>STC/14667/5,127.22</t>
+  </si>
+  <si>
+    <t>RADHI/97511/708.18</t>
+  </si>
+  <si>
+    <t>CBBL/17280/840.44</t>
+  </si>
+  <si>
+    <t>MLBL/26504/390.98</t>
+  </si>
+  <si>
+    <t>BHL/40973/222.49</t>
+  </si>
+  <si>
+    <t>GMLI/190943/2,574.87</t>
+  </si>
+  <si>
+    <t>NRIC/51977/1,288.76</t>
+  </si>
+  <si>
+    <t>HDL/18712/1,211.80</t>
+  </si>
+  <si>
+    <t>NLG/27619/806.52</t>
+  </si>
+  <si>
+    <t>KPCL/40693/533.54</t>
+  </si>
+  <si>
+    <t>SARBTM/71069/869.83</t>
+  </si>
+  <si>
+    <t>NRIC/31789/1,269.53</t>
+  </si>
+  <si>
+    <t>RADHI/47417/668.12</t>
+  </si>
+  <si>
+    <t>GFCL/33408/653.29</t>
+  </si>
+  <si>
+    <t>CHDC/8412/2,564.08</t>
+  </si>
+  <si>
+    <t>NGPL/175059/369.36</t>
+  </si>
+  <si>
+    <t>HIDCL/147650/314.87</t>
+  </si>
+  <si>
+    <t>BHL/178842/222.58</t>
+  </si>
+  <si>
+    <t>NTC/31992/879.77</t>
+  </si>
+  <si>
+    <t>KBL/140648/199.91</t>
+  </si>
+  <si>
+    <t>NRN/269024/1,995.02</t>
+  </si>
+  <si>
+    <t>RADHI/290894/659.48</t>
+  </si>
+  <si>
+    <t>BARUN/317133/557.52</t>
+  </si>
+  <si>
+    <t>OHL/179827/937.08</t>
+  </si>
+  <si>
+    <t>API/255454/307.25</t>
+  </si>
+  <si>
+    <t>NGPL/97793/367.68</t>
+  </si>
+  <si>
+    <t>SHPC/49400/589.53</t>
+  </si>
+  <si>
+    <t>CHDC/11809/2,560.78</t>
+  </si>
+  <si>
+    <t>UPCL/35131/386.39</t>
+  </si>
+  <si>
+    <t>API/42880/301.45</t>
+  </si>
+  <si>
+    <t>UPCL/153645/387.90</t>
+  </si>
+  <si>
+    <t>RADHI/65920/673.22</t>
+  </si>
+  <si>
+    <t>LBBL/86284/473.37</t>
+  </si>
+  <si>
+    <t>HIDCL/118540/314.10</t>
+  </si>
+  <si>
+    <t>BPCL/52713/481.67</t>
+  </si>
+  <si>
+    <t>NRN/19346/2,038.89</t>
+  </si>
+  <si>
+    <t>SHL/40865/566.68</t>
+  </si>
+  <si>
+    <t>BPCL/34638/523.13</t>
+  </si>
+  <si>
+    <t>CREST/4500/2,043.01</t>
+  </si>
+  <si>
+    <t>NRIC/6092/1,282.30</t>
+  </si>
+  <si>
+    <t>UMHL/655301/490.34</t>
+  </si>
+  <si>
+    <t>RIDI/467044/268.54</t>
+  </si>
+  <si>
+    <t>AHPC/135127/294.80</t>
+  </si>
+  <si>
+    <t>SHIVM/58818/536.87</t>
+  </si>
+  <si>
+    <t>SHL/47469/553.81</t>
+  </si>
+  <si>
+    <t>SHPC/143309/572.67</t>
+  </si>
+  <si>
+    <t>UPCL/87247/387.09</t>
+  </si>
+  <si>
+    <t>NGPL/89004/357.42</t>
+  </si>
+  <si>
+    <t>SHEL/61548/283.95</t>
+  </si>
+  <si>
+    <t>LSL/500397/213.56</t>
+  </si>
+  <si>
+    <t>SHPC/106509/598.18</t>
+  </si>
+  <si>
+    <t>BPCL/127265/481.01</t>
+  </si>
+  <si>
+    <t>CHL/93168/461.51</t>
+  </si>
+  <si>
+    <t>NRIC/31179/1,232.70</t>
+  </si>
+  <si>
+    <t>SIKLES/68974/1,090.44</t>
+  </si>
+  <si>
+    <t>PHCL/121599/601.87</t>
+  </si>
+  <si>
+    <t>SARBTM/86510/866.45</t>
+  </si>
+  <si>
+    <t>NRIC/45017/1,240.67</t>
+  </si>
+  <si>
+    <t>SMHL/31972/998.09</t>
+  </si>
+  <si>
+    <t>NRN/83327/2,017.49</t>
+  </si>
+  <si>
+    <t>CHDC/45871/2,577.09</t>
+  </si>
+  <si>
+    <t>RADHI/86592/646.38</t>
+  </si>
+  <si>
+    <t>NGPL/126896/363.43</t>
+  </si>
+  <si>
+    <t>HIDCL/77432/304.44</t>
+  </si>
+  <si>
+    <t>SHIVM/58039/536.84</t>
+  </si>
+  <si>
+    <t>HRL/10177/965.52</t>
+  </si>
+  <si>
+    <t>UMHL/18612/499.08</t>
+  </si>
+  <si>
+    <t>RNLI/11952/512.42</t>
+  </si>
+  <si>
+    <t>SHEL/97049/273.62</t>
+  </si>
+  <si>
+    <t>SPC/37890/545.26</t>
+  </si>
+  <si>
+    <t>HIDCL/60685/311.00</t>
+  </si>
+  <si>
+    <t>SHPC/19997/595.29</t>
+  </si>
+  <si>
+    <t>BPCL/25839/458.58</t>
+  </si>
+  <si>
+    <t>NGPL/178950/367.00</t>
+  </si>
+  <si>
+    <t>SHL/82765/542.30</t>
+  </si>
+  <si>
+    <t>SHPC/63134/573.37</t>
+  </si>
+  <si>
+    <t>API/100329/303.90</t>
+  </si>
+  <si>
+    <t>HIDCL/86095/317.60</t>
+  </si>
+  <si>
+    <t>GLBSL/7722/2,905.01</t>
+  </si>
+  <si>
+    <t>NRIC/12896/1,284.65</t>
+  </si>
+  <si>
+    <t>CREST/5929/2,040.60</t>
+  </si>
+  <si>
+    <t>SHL/19764/536.31</t>
+  </si>
+  <si>
+    <t>SHPC/13184/583.36</t>
+  </si>
+  <si>
+    <t>RADHI/158381/668.31</t>
+  </si>
+  <si>
+    <t>LBBL/100665/467.00</t>
+  </si>
+  <si>
+    <t>AHPC/115550/284.58</t>
+  </si>
+  <si>
+    <t>SHL/56158/553.24</t>
+  </si>
+  <si>
+    <t>CORBL/86188/2,398.41</t>
+  </si>
+  <si>
+    <t>SINDU/96707/986.83</t>
+  </si>
+  <si>
+    <t>GRDBL/40430/1,295.50</t>
+  </si>
+  <si>
+    <t>JOSHI/92999/420.93</t>
+  </si>
+  <si>
+    <t>RADHI/38534/690.56</t>
+  </si>
+  <si>
+    <t>NRN/11748/2,031.62</t>
+  </si>
+  <si>
+    <t>UPCL/46454/402.06</t>
+  </si>
+  <si>
+    <t>TVCL/36086/518.10</t>
+  </si>
+  <si>
+    <t>SHPC/34945/569.17</t>
+  </si>
+  <si>
+    <t>DHPL/40718/361.85</t>
+  </si>
+  <si>
+    <t>NRN/23851/2,037.11</t>
+  </si>
+  <si>
+    <t>NGPL/51995/367.22</t>
+  </si>
+  <si>
+    <t>UPCL/25135/395.07</t>
+  </si>
+  <si>
+    <t>SHPC/22338/585.53</t>
+  </si>
+  <si>
+    <t>RADHI/58404/639.63</t>
+  </si>
+  <si>
+    <t>UPCL/51483/356.83</t>
+  </si>
+  <si>
+    <t>CHDC/73224/2,576.56</t>
+  </si>
+  <si>
+    <t>SHPC/181077/583.13</t>
+  </si>
+  <si>
+    <t>PMLI/90979/553.36</t>
+  </si>
+  <si>
+    <t>GCIL/67237/514.47</t>
+  </si>
+  <si>
+    <t>API/95887/306.17</t>
+  </si>
+  <si>
+    <t>HIDCL/28824/291.92</t>
+  </si>
+  <si>
+    <t>ALICL/10922/727.01</t>
+  </si>
+  <si>
+    <t>API/14585/300.65</t>
+  </si>
+  <si>
+    <t>CHDC/1507/2,523.93</t>
+  </si>
+  <si>
+    <t>BHL/4839/220.56</t>
+  </si>
+  <si>
+    <t>SANIMA/1200/304.95</t>
+  </si>
+  <si>
+    <t>ALICL/37684/723.96</t>
+  </si>
+  <si>
+    <t>UPCL/56020/404.83</t>
+  </si>
+  <si>
+    <t>KBL/107763/201.40</t>
+  </si>
+  <si>
+    <t>SHPC/38874/563.84</t>
+  </si>
+  <si>
+    <t>HRL/17394/984.46</t>
+  </si>
+  <si>
+    <t>RADHI/89977/693.87</t>
+  </si>
+  <si>
+    <t>UPCL/164053/401.06</t>
+  </si>
+  <si>
+    <t>SAHAS/93929/519.73</t>
+  </si>
+  <si>
+    <t>NIFRA/135275/301.96</t>
+  </si>
+  <si>
+    <t>RIDI/110398/269.50</t>
+  </si>
+  <si>
+    <t>RADHI/83825/666.20</t>
+  </si>
+  <si>
+    <t>UPCL/33428/388.26</t>
+  </si>
+  <si>
+    <t>SHEL/39225/280.26</t>
+  </si>
+  <si>
+    <t>UMHL/17371/493.30</t>
+  </si>
+  <si>
+    <t>RADHI/17808/689.87</t>
+  </si>
+  <si>
+    <t>CGH/6947/870.33</t>
+  </si>
+  <si>
+    <t>UPCL/18567/378.81</t>
+  </si>
+  <si>
+    <t>HIDCL/100964/311.66</t>
+  </si>
+  <si>
+    <t>KSBBL/49490/445.07</t>
+  </si>
+  <si>
+    <t>UMHL/29036/486.84</t>
+  </si>
+  <si>
+    <t>PCBL/48924/240.44</t>
+  </si>
+  <si>
+    <t>SGIC/15504/562.30</t>
+  </si>
+  <si>
+    <t>RADHI/43025/678.94</t>
+  </si>
+  <si>
+    <t>NGPL/61440/359.43</t>
+  </si>
+  <si>
+    <t>SHEL/50842/281.96</t>
+  </si>
+  <si>
+    <t>SHPC/25103/574.69</t>
+  </si>
+  <si>
+    <t>BPCL/18318/497.32</t>
+  </si>
+  <si>
+    <t>NGPL/98150/369.67</t>
+  </si>
+  <si>
+    <t>CHDC/6143/2,569.71</t>
+  </si>
+  <si>
+    <t>NRIC/11140/1,286.61</t>
+  </si>
+  <si>
+    <t>UPCL/22451/395.18</t>
+  </si>
+  <si>
+    <t>RADHI/10653/688.10</t>
+  </si>
+  <si>
+    <t>UPCL/130200/401.76</t>
+  </si>
+  <si>
+    <t>RADHI/48471/683.43</t>
+  </si>
+  <si>
+    <t>NMIC/3660/2,153.80</t>
+  </si>
+  <si>
+    <t>NRIC/30336/1,251.83</t>
+  </si>
+  <si>
+    <t>SHPC/37436/575.50</t>
+  </si>
+  <si>
+    <t>BPCL/31280/498.89</t>
+  </si>
+  <si>
+    <t>RADHI/26481/682.22</t>
+  </si>
+  <si>
+    <t>SAPDBL/13143/929.52</t>
+  </si>
+  <si>
+    <t>RADHI/28365/688.23</t>
+  </si>
+  <si>
+    <t>SHIVM/22137/531.10</t>
+  </si>
+  <si>
+    <t>NGPL/33332/356.30</t>
+  </si>
+  <si>
+    <t>DORDI/20195/408.53</t>
+  </si>
+  <si>
+    <t>SBI/17932/415.83</t>
+  </si>
+  <si>
+    <t>EBL/28525/623.46</t>
+  </si>
+  <si>
+    <t>BARUN/16150/544.25</t>
+  </si>
+  <si>
+    <t>NGPL/8860/353.31</t>
+  </si>
+  <si>
+    <t>AHPC/7038/293.94</t>
+  </si>
+  <si>
+    <t>SMJC/3312/542.12</t>
+  </si>
+  <si>
+    <t>HURJA/98976/265.33</t>
+  </si>
+  <si>
+    <t>UPCL/36659/390.25</t>
+  </si>
+  <si>
+    <t>SHPC/22972/575.29</t>
+  </si>
+  <si>
+    <t>BPCL/23306/502.06</t>
+  </si>
+  <si>
+    <t>NGPL/37856/363.35</t>
+  </si>
+  <si>
+    <t>HIDCL/77548/304.46</t>
+  </si>
+  <si>
+    <t>SHPC/25400/574.62</t>
+  </si>
+  <si>
+    <t>NRN/5234/2,086.35</t>
+  </si>
+  <si>
+    <t>SAPDBL/10063/853.52</t>
+  </si>
+  <si>
+    <t>CHDC/2997/2,574.59</t>
+  </si>
+  <si>
+    <t>HRL/7153/972.03</t>
+  </si>
+  <si>
+    <t>BPCL/12820/464.79</t>
+  </si>
+  <si>
+    <t>NGPL/9850/357.13</t>
+  </si>
+  <si>
+    <t>NMIC/1190/2,109.10</t>
+  </si>
+  <si>
+    <t>MKHL/237382/705.56</t>
+  </si>
+  <si>
+    <t>BPCL/130998/503.85</t>
+  </si>
+  <si>
+    <t>RADHI/94438/663.35</t>
+  </si>
+  <si>
+    <t>UPCL/76136/387.48</t>
+  </si>
+  <si>
+    <t>HLI/61179/414.70</t>
+  </si>
+  <si>
+    <t>NMIC/6406/2,237.35</t>
+  </si>
+  <si>
+    <t>SHPC/22479/575.44</t>
+  </si>
+  <si>
+    <t>CREST/3649/2,052.24</t>
+  </si>
+  <si>
+    <t>NRIC/5063/1,252.62</t>
+  </si>
+  <si>
+    <t>LBBL/11118/465.54</t>
+  </si>
+  <si>
+    <t>SHL/139637/557.12</t>
+  </si>
+  <si>
+    <t>LBBL/152491/473.95</t>
+  </si>
+  <si>
+    <t>NRIC/26421/1,281.53</t>
+  </si>
+  <si>
+    <t>UPCL/108468/396.29</t>
+  </si>
+  <si>
+    <t>NRN/13108/2,012.27</t>
+  </si>
+  <si>
+    <t>SHPC/50434/594.44</t>
+  </si>
+  <si>
+    <t>NGPL/42151/363.05</t>
+  </si>
+  <si>
+    <t>NMIC/3920/2,196.50</t>
+  </si>
+  <si>
+    <t>HURJA/34730/258.05</t>
+  </si>
+  <si>
+    <t>RADHI/14099/661.93</t>
+  </si>
+  <si>
+    <t>RADHI/46583/683.88</t>
+  </si>
+  <si>
+    <t>AHPC/49711/292.28</t>
+  </si>
+  <si>
+    <t>NGPL/40285/362.72</t>
+  </si>
+  <si>
+    <t>API/38990/311.75</t>
+  </si>
+  <si>
+    <t>UPCL/28862/389.05</t>
+  </si>
+  <si>
+    <t>LBBL/25171/469.38</t>
+  </si>
+  <si>
+    <t>SHPC/16844/586.11</t>
+  </si>
+  <si>
+    <t>SHIVM/13734/537.39</t>
+  </si>
+  <si>
+    <t>NMIC/3485/2,125.59</t>
+  </si>
+  <si>
+    <t>PHCL/85507/611.55</t>
+  </si>
+  <si>
+    <t>MLBL/37104/389.85</t>
+  </si>
+  <si>
+    <t>HDL/8600/1,181.22</t>
+  </si>
+  <si>
+    <t>HRL/8810/979.01</t>
+  </si>
+  <si>
+    <t>CHDC/3541/2,598.82</t>
+  </si>
+  <si>
+    <t>NGPL/21756/369.59</t>
+  </si>
+  <si>
+    <t>LEC/9800/230.94</t>
+  </si>
+  <si>
+    <t>AHPC/2800/301.69</t>
+  </si>
+  <si>
+    <t>SARBTM/33696/874.02</t>
+  </si>
+  <si>
+    <t>HPPL/32441/543.09</t>
+  </si>
+  <si>
+    <t>BHL/72952/221.61</t>
+  </si>
+  <si>
+    <t>SHEL/50874/272.84</t>
+  </si>
+  <si>
+    <t>RNLI/17723/512.22</t>
+  </si>
+  <si>
+    <t>SHPC/39719/579.12</t>
+  </si>
+  <si>
+    <t>HIDCL/33437/313.73</t>
+  </si>
+  <si>
+    <t>CFCL/17083/549.95</t>
+  </si>
+  <si>
+    <t>MLBL/21788/397.20</t>
+  </si>
+  <si>
+    <t>JOSHI/16883/420.36</t>
+  </si>
+  <si>
+    <t>MERO/40724/695.93</t>
+  </si>
+  <si>
+    <t>UPCL/49258/406.25</t>
+  </si>
+  <si>
+    <t>HPPL/28271/560.17</t>
+  </si>
+  <si>
+    <t>BHL/69106/222.65</t>
+  </si>
+  <si>
+    <t>SBI/32436/388.71</t>
+  </si>
+  <si>
+    <t>NGPL/75941/375.17</t>
+  </si>
+  <si>
+    <t>SARBTM/21022/878.06</t>
+  </si>
+  <si>
+    <t>AHPC/63989/286.70</t>
+  </si>
+  <si>
+    <t>HPPL/20562/553.37</t>
+  </si>
+  <si>
+    <t>HDL/6526/1,233.59</t>
+  </si>
+  <si>
+    <t>NRIC/270846/1,293.12</t>
+  </si>
+  <si>
+    <t>NGPL/113570/366.48</t>
+  </si>
+  <si>
+    <t>HRL/38056/972.37</t>
+  </si>
+  <si>
+    <t>SHPC/50570/580.63</t>
+  </si>
+  <si>
+    <t>NHPC/84863/225.86</t>
+  </si>
+  <si>
+    <t>RADHI/44473/679.95</t>
+  </si>
+  <si>
+    <t>HIDCL/28060/313.63</t>
+  </si>
+  <si>
+    <t>GHL/29446/263.57</t>
+  </si>
+  <si>
+    <t>NGPL/12161/372.61</t>
+  </si>
+  <si>
+    <t>GLH/25059/270.94</t>
+  </si>
+  <si>
+    <t>LBBL/277341/451.43</t>
+  </si>
+  <si>
+    <t>NICA/95981/348.76</t>
+  </si>
+  <si>
+    <t>HPPL/50520/545.16</t>
+  </si>
+  <si>
+    <t>SADBL/48011/432.52</t>
+  </si>
+  <si>
+    <t>NRIC/10301/1,256.17</t>
+  </si>
+  <si>
+    <t>LICN/11007/933.22</t>
+  </si>
+  <si>
+    <t>GHL/34305/264.11</t>
+  </si>
+  <si>
+    <t>SHIVM/16179/541.51</t>
+  </si>
+  <si>
+    <t>NTC/7223/870.58</t>
+  </si>
+  <si>
+    <t>NIMB/24135/209.26</t>
+  </si>
+  <si>
+    <t>SANIMA/61279/306.81</t>
+  </si>
+  <si>
+    <t>CIT/4618/1,923.95</t>
+  </si>
+  <si>
+    <t>HATHY/6529/1,304.25</t>
+  </si>
+  <si>
+    <t>BHL/36466/222.37</t>
+  </si>
+  <si>
+    <t>RNLI/14576/511.10</t>
+  </si>
+  <si>
+    <t>CREST/20154/2,048.32</t>
+  </si>
+  <si>
+    <t>HRL/13913/988.29</t>
+  </si>
+  <si>
+    <t>NICA/32586/346.31</t>
+  </si>
+  <si>
+    <t>NMIC/4921/2,158.32</t>
+  </si>
+  <si>
+    <t>HPPL/16637/565.24</t>
+  </si>
+  <si>
+    <t>NGPL/240875/373.06</t>
+  </si>
+  <si>
+    <t>HIDCL/73229/312.89</t>
+  </si>
+  <si>
+    <t>NIFRA/64305/293.29</t>
+  </si>
+  <si>
+    <t>BHL/61629/221.94</t>
+  </si>
+  <si>
+    <t>SAHAS/23147/522.26</t>
+  </si>
+  <si>
+    <t>HURJA/463175/263.68</t>
+  </si>
+  <si>
+    <t>TPC/198621/588.67</t>
+  </si>
+  <si>
+    <t>SARBTM/86852/877.84</t>
+  </si>
+  <si>
+    <t>SPDL/202268/379.76</t>
+  </si>
+  <si>
+    <t>RHPL/176241/397.23</t>
+  </si>
+  <si>
+    <t>BPCL/212311/481.56</t>
+  </si>
+  <si>
+    <t>SHL/166024/553.43</t>
+  </si>
+  <si>
+    <t>SHIVM/119538/533.46</t>
+  </si>
+  <si>
+    <t>SADBL/109604/424.86</t>
+  </si>
+  <si>
+    <t>LBBL/74760/443.16</t>
+  </si>
+  <si>
+    <t>LICN/21794/970.02</t>
+  </si>
+  <si>
+    <t>BARUN/37854/542.71</t>
+  </si>
+  <si>
+    <t>SHPC/29921/570.70</t>
+  </si>
+  <si>
+    <t>UPPER/70787/205.51</t>
+  </si>
+  <si>
+    <t>CREST/4099/2,078.59</t>
+  </si>
+  <si>
+    <t>LBBL/62267/470.77</t>
+  </si>
+  <si>
+    <t>NGPL/54855/363.11</t>
+  </si>
+  <si>
+    <t>UPCL/20752/401.32</t>
+  </si>
+  <si>
+    <t>SHEL/38160/275.04</t>
+  </si>
+  <si>
+    <t>GMLI/2910/2,542.31</t>
+  </si>
+  <si>
+    <t>UMHL/80655/479.77</t>
+  </si>
+  <si>
+    <t>LBBL/51257/460.96</t>
+  </si>
+  <si>
+    <t>HRL/19400/982.93</t>
+  </si>
+  <si>
+    <t>NLIC/22076/762.73</t>
+  </si>
+  <si>
+    <t>HPPL/28600/562.10</t>
+  </si>
+  <si>
+    <t>AKJCL/72944/214.43</t>
+  </si>
+  <si>
+    <t>HPPL/25954/563.10</t>
+  </si>
+  <si>
+    <t>BPCL/28121/495.79</t>
+  </si>
+  <si>
+    <t>SHL/24796/556.36</t>
+  </si>
+  <si>
+    <t>SHEL/53891/269.95</t>
+  </si>
+  <si>
+    <t>HPPL/46380/562.62</t>
+  </si>
+  <si>
+    <t>BHL/75768/221.80</t>
+  </si>
+  <si>
+    <t>SIKLES/14673/1,007.22</t>
+  </si>
+  <si>
+    <t>PRIN/16621/875.76</t>
+  </si>
+  <si>
+    <t>MEN/23765/573.13</t>
+  </si>
+  <si>
+    <t>HIDCL/86501/306.95</t>
+  </si>
+  <si>
+    <t>AHPC/79407/296.85</t>
+  </si>
+  <si>
+    <t>HPPL/35510/559.53</t>
+  </si>
+  <si>
+    <t>GMLI/7095/2,508.61</t>
+  </si>
+  <si>
+    <t>NIFRA/61800/291.66</t>
+  </si>
+  <si>
+    <t>NGPL/84045/366.53</t>
+  </si>
+  <si>
+    <t>AHPC/81969/291.39</t>
+  </si>
+  <si>
+    <t>AKPL/88131/251.60</t>
+  </si>
+  <si>
+    <t>NRIC/12797/1,281.02</t>
+  </si>
+  <si>
+    <t>HPPL/31193/554.75</t>
+  </si>
+  <si>
+    <t>NGPL/296979/364.95</t>
+  </si>
+  <si>
+    <t>SAHAS/201530/524.10</t>
+  </si>
+  <si>
+    <t>GBIME/339260/217.29</t>
+  </si>
+  <si>
+    <t>RADHI/118607/648.98</t>
+  </si>
+  <si>
+    <t>NABBC/11419/1,636.33</t>
+  </si>
+  <si>
+    <t>HRL/44876/975.64</t>
+  </si>
+  <si>
+    <t>RADHI/57424/690.66</t>
+  </si>
+  <si>
+    <t>DORDI/59893/411.23</t>
+  </si>
+  <si>
+    <t>GLBSL/6445/2,878.49</t>
+  </si>
+  <si>
+    <t>NYADI/37398/486.05</t>
+  </si>
+  <si>
+    <t>HIDCL/275049/309.64</t>
+  </si>
+  <si>
+    <t>CHDC/32040/2,564.36</t>
+  </si>
+  <si>
+    <t>SHL/77759/575.73</t>
+  </si>
+  <si>
+    <t>UPCL/85125/381.66</t>
+  </si>
+  <si>
+    <t>NGPL/60218/369.04</t>
+  </si>
+  <si>
+    <t>RADHI/192547/702.35</t>
+  </si>
+  <si>
+    <t>SBL/150718/275.99</t>
+  </si>
+  <si>
+    <t>HRL/41767/980.41</t>
+  </si>
+  <si>
+    <t>SAHAS/44489/517.81</t>
+  </si>
+  <si>
+    <t>MKHL/31266/723.49</t>
+  </si>
+  <si>
+    <t>NGPL/392103/363.81</t>
+  </si>
+  <si>
+    <t>API/310616/302.86</t>
+  </si>
+  <si>
+    <t>HPPL/93084/565.01</t>
+  </si>
+  <si>
+    <t>MEN/85082/581.17</t>
+  </si>
+  <si>
+    <t>NRN/21504/1,998.76</t>
+  </si>
+  <si>
+    <t>RADHI/63570/694.08</t>
+  </si>
+  <si>
+    <t>HDHPC/141972/213.89</t>
+  </si>
+  <si>
+    <t>SHPC/42991/586.33</t>
+  </si>
+  <si>
+    <t>SHIVM/30595/538.40</t>
+  </si>
+  <si>
+    <t>SHEL/53136/280.44</t>
+  </si>
+  <si>
+    <t>BPCL/55918/503.75</t>
+  </si>
+  <si>
+    <t>EBL/30847/618.02</t>
+  </si>
+  <si>
+    <t>SANIMA/58709/310.68</t>
+  </si>
+  <si>
+    <t>SHEL/63999/277.31</t>
+  </si>
+  <si>
+    <t>KBL/75966/200.46</t>
+  </si>
+  <si>
+    <t>MEN/7706/579.44</t>
+  </si>
+  <si>
+    <t>SHPC/7276/585.96</t>
+  </si>
+  <si>
+    <t>UPCL/11221/387.01</t>
+  </si>
+  <si>
+    <t>LICN/4562/942.25</t>
+  </si>
+  <si>
+    <t>RIDI/14774/267.59</t>
+  </si>
+  <si>
+    <t>RADHI/124232/652.81</t>
+  </si>
+  <si>
+    <t>GLH/167702/270.78</t>
+  </si>
+  <si>
+    <t>BPCL/86241/497.20</t>
+  </si>
+  <si>
+    <t>NGPL/129007/362.52</t>
+  </si>
+  <si>
+    <t>CHL/68522/434.74</t>
+  </si>
+  <si>
+    <t>NRN/71945/2,019.00</t>
+  </si>
+  <si>
+    <t>RADHI/157435/666.65</t>
+  </si>
+  <si>
+    <t>UPCL/202694/397.56</t>
+  </si>
+  <si>
+    <t>SARBTM/57687/877.28</t>
+  </si>
+  <si>
+    <t>PCBL/95936/242.17</t>
+  </si>
+  <si>
+    <t>BPCL/79340/498.48</t>
+  </si>
+  <si>
+    <t>RADHI/30772/651.56</t>
+  </si>
+  <si>
+    <t>NGPL/42931/363.97</t>
+  </si>
+  <si>
+    <t>SHEL/55134/279.35</t>
+  </si>
+  <si>
+    <t>API/40499/303.39</t>
+  </si>
+  <si>
+    <t>NYADI/66322/515.15</t>
+  </si>
+  <si>
+    <t>BHL/107505/221.73</t>
+  </si>
+  <si>
+    <t>SHEL/81794/272.92</t>
+  </si>
+  <si>
+    <t>SAPDBL/22928/897.28</t>
+  </si>
+  <si>
+    <t>HPPL/34457/564.05</t>
+  </si>
+  <si>
+    <t>SHPC/359140/585.86</t>
+  </si>
+  <si>
+    <t>SAHAS/115496/518.86</t>
+  </si>
+  <si>
+    <t>MERO/80799/731.31</t>
+  </si>
+  <si>
+    <t>AHPC/167939/297.24</t>
+  </si>
+  <si>
+    <t>UPCL/107294/399.85</t>
+  </si>
+  <si>
+    <t>SHIVM/91296/540.87</t>
+  </si>
+  <si>
+    <t>CHDC/14583/2,574.39</t>
+  </si>
+  <si>
+    <t>SARBTM/26858/873.10</t>
+  </si>
+  <si>
+    <t>NRIC/16917/1,252.46</t>
+  </si>
+  <si>
+    <t>SBL/74101/276.20</t>
+  </si>
+  <si>
+    <t>NHPC/474069/231.41</t>
+  </si>
+  <si>
+    <t>SHPC/183894/576.01</t>
+  </si>
+  <si>
+    <t>PPCL/252574/346.77</t>
+  </si>
+  <si>
+    <t>HRL/47816/991.41</t>
+  </si>
+  <si>
+    <t>BPCL/82370/510.36</t>
+  </si>
+  <si>
+    <t>SHPC/578854/587.04</t>
+  </si>
+  <si>
+    <t>NLIC/69899/766.36</t>
+  </si>
+  <si>
+    <t>SICL/56081/788.52</t>
+  </si>
+  <si>
+    <t>SCB/49088/612.03</t>
+  </si>
+  <si>
+    <t>SHEL/79735/276.81</t>
+  </si>
+  <si>
+    <t>HPPL/25520/557.23</t>
+  </si>
+  <si>
+    <t>API/37040/302.01</t>
+  </si>
+  <si>
+    <t>HIDCL/36551/302.75</t>
+  </si>
+  <si>
+    <t>BHL/45973/222.08</t>
+  </si>
+  <si>
+    <t>AKPL/24288/251.55</t>
+  </si>
+  <si>
+    <t>AHPC/255482/292.28</t>
+  </si>
+  <si>
+    <t>SHEL/97174/268.01</t>
+  </si>
+  <si>
+    <t>HRL/20980/979.86</t>
+  </si>
+  <si>
+    <t>MBJC/42635/328.79</t>
+  </si>
+  <si>
+    <t>HDHPC/48489/214.92</t>
+  </si>
+  <si>
+    <t>AHPC/125187/297.77</t>
+  </si>
+  <si>
+    <t>SHPC/63285/581.33</t>
+  </si>
+  <si>
+    <t>SHL/58676/564.44</t>
+  </si>
+  <si>
+    <t>NIFRA/95858/296.57</t>
+  </si>
+  <si>
+    <t>AKPL/115020/251.27</t>
+  </si>
+  <si>
+    <t>HPPL/77522/559.30</t>
+  </si>
+  <si>
+    <t>NIFRA/127495/292.52</t>
+  </si>
+  <si>
+    <t>MEN/61934/575.38</t>
+  </si>
+  <si>
+    <t>BHL/157706/220.90</t>
+  </si>
+  <si>
+    <t>SHPC/37380/584.21</t>
+  </si>
+  <si>
+    <t>RADHI/275139/697.64</t>
+  </si>
+  <si>
+    <t>SHEL/107003/283.56</t>
+  </si>
+  <si>
+    <t>CHDC/9111/2,579.38</t>
+  </si>
+  <si>
+    <t>SPIL/22386/804.54</t>
+  </si>
+  <si>
+    <t>UPCL/44150/391.54</t>
+  </si>
+  <si>
+    <t>AHPC/48868/296.63</t>
+  </si>
+  <si>
+    <t>BHL/63164/221.17</t>
+  </si>
+  <si>
+    <t>API/31623/303.91</t>
+  </si>
+  <si>
+    <t>SHEL/32155/270.31</t>
+  </si>
+  <si>
+    <t>CHDC/8869/2,592.60</t>
+  </si>
+  <si>
+    <t>IHL/17015/613.82</t>
+  </si>
+  <si>
+    <t>API/27455/305.86</t>
+  </si>
+  <si>
+    <t>RNLI/17009/512.24</t>
+  </si>
+  <si>
+    <t>AKJCL/36210/211.59</t>
+  </si>
+  <si>
+    <t>BGWT/16212/975.66</t>
+  </si>
+  <si>
+    <t>RADHI/12687/677.07</t>
+  </si>
+  <si>
+    <t>SPDL/20585/375.35</t>
+  </si>
+  <si>
+    <t>ULBSL/1960/3,321.39</t>
+  </si>
+  <si>
+    <t>RNLI/11956/512.66</t>
+  </si>
+  <si>
+    <t>RADHI/115789/716.03</t>
+  </si>
+  <si>
+    <t>STC/14018/5,124.84</t>
+  </si>
+  <si>
+    <t>BARUN/31394/541.89</t>
+  </si>
+  <si>
+    <t>CBBL/17189/840.44</t>
+  </si>
+  <si>
+    <t>MLBL/26116/391.30</t>
+  </si>
+  <si>
+    <t>GMLI/191348/2,577.77</t>
+  </si>
+  <si>
+    <t>NRIC/150990/1,293.38</t>
+  </si>
+  <si>
+    <t>NLG/34360/816.49</t>
+  </si>
+  <si>
+    <t>KPCL/48689/532.74</t>
+  </si>
+  <si>
+    <t>NMIC/10920/2,131.07</t>
+  </si>
+  <si>
+    <t>RADHI/68992/687.25</t>
+  </si>
+  <si>
+    <t>SARBTM/29966/869.43</t>
+  </si>
+  <si>
+    <t>CHDC/9809/2,563.55</t>
+  </si>
+  <si>
+    <t>NRN/10389/2,036.83</t>
+  </si>
+  <si>
+    <t>NRIC/15297/1,270.05</t>
+  </si>
+  <si>
+    <t>NGPL/208507/370.36</t>
+  </si>
+  <si>
+    <t>SHIVM/53986/536.50</t>
+  </si>
+  <si>
+    <t>NTC/32828/879.47</t>
+  </si>
+  <si>
+    <t>BHL/127133/221.45</t>
+  </si>
+  <si>
+    <t>HIDCL/85672/313.49</t>
+  </si>
+  <si>
+    <t>NRN/208813/2,001.78</t>
+  </si>
+  <si>
+    <t>OHL/187319/950.07</t>
+  </si>
+  <si>
+    <t>RADHI/225193/670.54</t>
+  </si>
+  <si>
+    <t>API/234714/307.39</t>
+  </si>
+  <si>
+    <t>AKPL/247045/254.63</t>
+  </si>
+  <si>
+    <t>NGPL/91707/369.56</t>
+  </si>
+  <si>
+    <t>CHDC/13320/2,560.67</t>
+  </si>
+  <si>
+    <t>SHPC/47829/591.58</t>
+  </si>
+  <si>
+    <t>KBL/77741/201.99</t>
+  </si>
+  <si>
+    <t>API/54497/301.63</t>
+  </si>
+  <si>
+    <t>RADHI/89533/681.84</t>
+  </si>
+  <si>
+    <t>UPCL/140662/388.97</t>
+  </si>
+  <si>
+    <t>LBBL/85984/473.39</t>
+  </si>
+  <si>
+    <t>HIDCL/127285/313.62</t>
+  </si>
+  <si>
+    <t>SHL/40529/557.24</t>
+  </si>
+  <si>
+    <t>NRN/15627/2,040.65</t>
+  </si>
+  <si>
+    <t>SHL/41865/567.05</t>
+  </si>
+  <si>
+    <t>BPCL/29618/523.13</t>
+  </si>
+  <si>
+    <t>CREST/4420/2,043.01</t>
+  </si>
+  <si>
+    <t>KSBBL/15081/460.34</t>
+  </si>
+  <si>
+    <t>UMHL/569804/492.72</t>
+  </si>
+  <si>
+    <t>RIDI/487566/268.63</t>
+  </si>
+  <si>
+    <t>AHPC/123644/295.58</t>
+  </si>
+  <si>
+    <t>SHL/64493/558.55</t>
+  </si>
+  <si>
+    <t>SHIVM/59256/536.99</t>
+  </si>
+  <si>
+    <t>SHPC/142894/573.94</t>
+  </si>
+  <si>
+    <t>UPCL/108392/391.00</t>
+  </si>
+  <si>
+    <t>NGPL/89522/358.97</t>
+  </si>
+  <si>
+    <t>SHEL/57698/283.90</t>
+  </si>
+  <si>
+    <t>BPCL/23896/489.85</t>
+  </si>
+  <si>
+    <t>LSL/500907/213.56</t>
+  </si>
+  <si>
+    <t>BPCL/152104/479.64</t>
+  </si>
+  <si>
+    <t>SHPC/105280/598.57</t>
+  </si>
+  <si>
+    <t>CHL/86498/460.52</t>
+  </si>
+  <si>
+    <t>NRIC/31249/1,240.91</t>
+  </si>
+  <si>
+    <t>SARBTM/99683/863.98</t>
+  </si>
+  <si>
+    <t>PHCL/108692/602.66</t>
+  </si>
+  <si>
+    <t>SMHL/49583/1,003.25</t>
+  </si>
+  <si>
+    <t>NRIC/40925/1,238.92</t>
+  </si>
+  <si>
+    <t>NRN/82763/2,020.93</t>
+  </si>
+  <si>
+    <t>CHDC/46224/2,577.01</t>
+  </si>
+  <si>
+    <t>NGPL/117471/365.17</t>
+  </si>
+  <si>
+    <t>RADHI/67754/655.96</t>
+  </si>
+  <si>
+    <t>HIDCL/75343/304.09</t>
+  </si>
+  <si>
+    <t>SHIVM/58411/536.85</t>
+  </si>
+  <si>
+    <t>BARUN/24113/559.05</t>
+  </si>
+  <si>
+    <t>UMHL/15091/499.99</t>
+  </si>
+  <si>
+    <t>SHEL/21123/283.35</t>
+  </si>
+  <si>
+    <t>HRL/7035/964.86</t>
+  </si>
+  <si>
+    <t>SHEL/99325/273.72</t>
+  </si>
+  <si>
+    <t>NGPL/53690/370.19</t>
+  </si>
+  <si>
+    <t>SPC/36343/545.31</t>
+  </si>
+  <si>
+    <t>HIDCL/58430/311.00</t>
+  </si>
+  <si>
+    <t>BPCL/35908/459.36</t>
+  </si>
+  <si>
+    <t>NGPL/186114/369.29</t>
+  </si>
+  <si>
+    <t>SHL/82925/545.35</t>
+  </si>
+  <si>
+    <t>SHPC/59561/574.12</t>
+  </si>
+  <si>
+    <t>API/99978/303.90</t>
+  </si>
+  <si>
+    <t>HIDCL/80687/316.62</t>
+  </si>
+  <si>
+    <t>GLBSL/7386/2,904.92</t>
+  </si>
+  <si>
+    <t>NRIC/13196/1,285.46</t>
+  </si>
+  <si>
+    <t>CREST/5859/2,040.60</t>
+  </si>
+  <si>
+    <t>SHPC/18059/584.63</t>
+  </si>
+  <si>
+    <t>NMIC/3000/2,156.78</t>
+  </si>
+  <si>
+    <t>RADHI/155471/674.71</t>
+  </si>
+  <si>
+    <t>LBBL/94661/468.09</t>
+  </si>
+  <si>
+    <t>AHPC/120700/284.74</t>
+  </si>
+  <si>
+    <t>API/95421/306.43</t>
+  </si>
+  <si>
+    <t>SHL/46497/556.56</t>
+  </si>
+  <si>
+    <t>CORBL/79719/2,381.73</t>
+  </si>
+  <si>
+    <t>SINDU/85378/981.64</t>
+  </si>
+  <si>
+    <t>GRDBL/35397/1,272.63</t>
+  </si>
+  <si>
+    <t>JOSHI/92989/420.93</t>
+  </si>
+  <si>
+    <t>NRN/12411/2,030.03</t>
+  </si>
+  <si>
+    <t>API/200/305.50</t>
+  </si>
+  <si>
+    <t>SHPC/55940/571.12</t>
+  </si>
+  <si>
+    <t>UPCL/60192/406.10</t>
+  </si>
+  <si>
+    <t>MEN/34422/592.88</t>
+  </si>
+  <si>
+    <t>TVCL/36946/517.72</t>
+  </si>
+  <si>
+    <t>NRN/8736/2,032.71</t>
+  </si>
+  <si>
+    <t>NRN/33907/2,055.61</t>
+  </si>
+  <si>
+    <t>NGPL/54850/368.05</t>
+  </si>
+  <si>
+    <t>API/43194/306.62</t>
+  </si>
+  <si>
+    <t>MFIL/19734/616.04</t>
+  </si>
+  <si>
+    <t>UPCL/20027/396.04</t>
+  </si>
+  <si>
+    <t>RADHI/59340/648.24</t>
+  </si>
+  <si>
+    <t>UPCL/48032/357.22</t>
+  </si>
+  <si>
+    <t>HRL/14435/976.48</t>
+  </si>
+  <si>
+    <t>MEN/10256/570.87</t>
+  </si>
+  <si>
+    <t>CHDC/74504/2,577.07</t>
+  </si>
+  <si>
+    <t>SHPC/159639/584.98</t>
+  </si>
+  <si>
+    <t>PMLI/87945/553.12</t>
+  </si>
+  <si>
+    <t>GCIL/77183/514.81</t>
+  </si>
+  <si>
+    <t>API/96842/306.25</t>
+  </si>
+  <si>
+    <t>ALICL/11022/727.17</t>
+  </si>
+  <si>
+    <t>HIDCL/25749/291.92</t>
+  </si>
+  <si>
+    <t>API/14635/300.64</t>
+  </si>
+  <si>
+    <t>LSL/17880/215.94</t>
+  </si>
+  <si>
+    <t>BHL/4817/220.41</t>
+  </si>
+  <si>
+    <t>ALICL/34585/722.93</t>
+  </si>
+  <si>
+    <t>SHPC/38654/564.28</t>
+  </si>
+  <si>
+    <t>KBL/95743/200.73</t>
+  </si>
+  <si>
+    <t>UPCL/46322/405.23</t>
+  </si>
+  <si>
+    <t>MEN/30905/570.22</t>
+  </si>
+  <si>
+    <t>UPCL/207179/405.94</t>
+  </si>
+  <si>
+    <t>RADHI/96682/715.96</t>
+  </si>
+  <si>
+    <t>SAHAS/93701/519.73</t>
+  </si>
+  <si>
+    <t>NIFRA/130461/301.85</t>
+  </si>
+  <si>
+    <t>RIDI/113780/269.90</t>
+  </si>
+  <si>
+    <t>NRN/18806/2,062.33</t>
+  </si>
+  <si>
+    <t>RADHI/62636/671.66</t>
+  </si>
+  <si>
+    <t>GLH/32705/270.84</t>
+  </si>
+  <si>
+    <t>SHEL/28573/280.26</t>
+  </si>
+  <si>
+    <t>KPCL/26188/531.50</t>
+  </si>
+  <si>
+    <t>RADHI/15858/695.75</t>
+  </si>
+  <si>
+    <t>UPCL/22117/379.89</t>
+  </si>
+  <si>
+    <t>SHIVM/10948/537.87</t>
+  </si>
+  <si>
+    <t>BPCL/10510/483.23</t>
+  </si>
+  <si>
+    <t>HIDCL/105355/311.33</t>
+  </si>
+  <si>
+    <t>KSBBL/52490/445.84</t>
+  </si>
+  <si>
+    <t>UMHL/27536/487.39</t>
+  </si>
+  <si>
+    <t>PCBL/47927/240.44</t>
+  </si>
+  <si>
+    <t>SGIC/15506/562.13</t>
+  </si>
+  <si>
+    <t>NGPL/163136/367.86</t>
+  </si>
+  <si>
+    <t>RADHI/36665/698.23</t>
+  </si>
+  <si>
+    <t>SHPC/26228/574.69</t>
+  </si>
+  <si>
+    <t>SHEL/47188/282.61</t>
+  </si>
+  <si>
+    <t>TAMOR/17929/522.44</t>
+  </si>
+  <si>
+    <t>NGPL/98623/370.53</t>
+  </si>
+  <si>
+    <t>CHDC/6153/2,569.75</t>
+  </si>
+  <si>
+    <t>NRIC/11940/1,286.38</t>
+  </si>
+  <si>
+    <t>RADHI/17663/701.77</t>
+  </si>
+  <si>
+    <t>UPCL/17221/396.45</t>
+  </si>
+  <si>
+    <t>UPCL/136557/402.31</t>
+  </si>
+  <si>
+    <t>CORBL/16657/2,250.64</t>
+  </si>
+  <si>
+    <t>RADHI/46607/693.62</t>
+  </si>
+  <si>
+    <t>NMIC/4700/2,127.74</t>
+  </si>
+  <si>
+    <t>HURJA/31990/274.41</t>
+  </si>
+  <si>
+    <t>NRIC/31886/1,253.99</t>
+  </si>
+  <si>
+    <t>SHPC/28986/580.01</t>
+  </si>
+  <si>
+    <t>RADHI/25741/682.22</t>
+  </si>
+  <si>
+    <t>BPCL/25580/498.13</t>
+  </si>
+  <si>
+    <t>SAPDBL/13491/929.35</t>
+  </si>
+  <si>
+    <t>RADHI/27837/690.99</t>
+  </si>
+  <si>
+    <t>NGPL/34692/357.11</t>
+  </si>
+  <si>
+    <t>SHIVM/20725/531.10</t>
+  </si>
+  <si>
+    <t>ILI/13962/465.81</t>
+  </si>
+  <si>
+    <t>UPCL/16684/395.61</t>
+  </si>
+  <si>
+    <t>BARUN/16400/544.29</t>
+  </si>
+  <si>
+    <t>NGPL/10159/356.94</t>
+  </si>
+  <si>
+    <t>AHPC/7188/293.95</t>
+  </si>
+  <si>
+    <t>PMHPL/5608/317.37</t>
+  </si>
+  <si>
+    <t>HURJA/111533/264.81</t>
+  </si>
+  <si>
+    <t>UPCL/39948/392.99</t>
+  </si>
+  <si>
+    <t>SHPC/22892/579.14</t>
+  </si>
+  <si>
+    <t>GLH/45519/264.83</t>
+  </si>
+  <si>
+    <t>BPCL/20136/502.06</t>
+  </si>
+  <si>
+    <t>HIDCL/83226/304.42</t>
+  </si>
+  <si>
+    <t>NRN/7412/2,089.24</t>
+  </si>
+  <si>
+    <t>RADHI/10772/671.16</t>
+  </si>
+  <si>
+    <t>USLB/4000/1,790.48</t>
+  </si>
+  <si>
+    <t>BPCL/15820/465.79</t>
+  </si>
+  <si>
+    <t>HRL/7233/972.03</t>
+  </si>
+  <si>
+    <t>NMIC/1450/2,075.83</t>
+  </si>
+  <si>
+    <t>GLH/11100/269.59</t>
+  </si>
+  <si>
+    <t>MKHL/238031/705.63</t>
+  </si>
+  <si>
+    <t>RADHI/116082/692.82</t>
+  </si>
+  <si>
+    <t>BPCL/113375/501.26</t>
+  </si>
+  <si>
+    <t>HLI/59927/414.67</t>
+  </si>
+  <si>
+    <t>PRIN/27833/872.26</t>
+  </si>
+  <si>
+    <t>NMIC/6416/2,219.49</t>
+  </si>
+  <si>
+    <t>SHPC/21499/578.54</t>
+  </si>
+  <si>
+    <t>UPCL/19313/388.17</t>
+  </si>
+  <si>
+    <t>CREST/3659/2,042.19</t>
+  </si>
+  <si>
+    <t>LBBL/12895/469.84</t>
+  </si>
+  <si>
+    <t>LBBL/159305/473.76</t>
+  </si>
+  <si>
+    <t>SHL/121762/558.51</t>
+  </si>
+  <si>
+    <t>NRIC/29006/1,281.71</t>
+  </si>
+  <si>
+    <t>UPCL/103448/396.43</t>
+  </si>
+  <si>
+    <t>NRN/15383/2,018.45</t>
+  </si>
+  <si>
+    <t>SHPC/24642/595.11</t>
+  </si>
+  <si>
+    <t>NMIC/4403/2,153.03</t>
+  </si>
+  <si>
+    <t>HURJA/34730/258.44</t>
+  </si>
+  <si>
+    <t>NGPL/26793/363.25</t>
+  </si>
+  <si>
+    <t>SHL/12315/575.43</t>
+  </si>
+  <si>
+    <t>RADHI/39380/704.91</t>
+  </si>
+  <si>
+    <t>UPCL/42522/395.44</t>
+  </si>
+  <si>
+    <t>AHPC/56381/292.72</t>
+  </si>
+  <si>
+    <t>API/35560/311.75</t>
+  </si>
+  <si>
+    <t>NGPL/30605/364.61</t>
+  </si>
+  <si>
+    <t>UNHPL/41146/344.23</t>
+  </si>
+  <si>
+    <t>SHIVM/24184/538.33</t>
+  </si>
+  <si>
+    <t>SHPC/15644/587.07</t>
+  </si>
+  <si>
+    <t>NGPL/23234/366.78</t>
+  </si>
+  <si>
+    <t>PHCL/89155/611.44</t>
+  </si>
+  <si>
+    <t>RADHI/14462/732.01</t>
+  </si>
+  <si>
+    <t>HDL/8236/1,181.22</t>
+  </si>
+  <si>
+    <t>LEC/9900/230.83</t>
+  </si>
+  <si>
+    <t>RFPL/2881/487.16</t>
+  </si>
+  <si>
+    <t>AHPC/3300/300.54</t>
+  </si>
+  <si>
+    <t>HPPL/28917/527.14</t>
+  </si>
+  <si>
+    <t>NIFRA/38210/286.24</t>
+  </si>
+  <si>
+    <t>MEN/16143/582.88</t>
+  </si>
+  <si>
+    <t>SHEL/34349/275.25</t>
+  </si>
+  <si>
+    <t>RNLI/18182/511.68</t>
+  </si>
+  <si>
+    <t>SHPC/21226/586.28</t>
+  </si>
+  <si>
+    <t>HIDCL/38699/312.69</t>
+  </si>
+  <si>
+    <t>SHIVM/17774/530.26</t>
+  </si>
+  <si>
+    <t>HLI/22166/413.97</t>
+  </si>
+  <si>
+    <t>SARBTM/10308/870.77</t>
+  </si>
+  <si>
+    <t>MERO/31053/703.22</t>
+  </si>
+  <si>
+    <t>UPCL/45794/412.63</t>
+  </si>
+  <si>
+    <t>BPCL/28638/487.94</t>
+  </si>
+  <si>
+    <t>FMDBL/17300/747.90</t>
+  </si>
+  <si>
+    <t>SHEL/47198/277.16</t>
+  </si>
+  <si>
+    <t>NGPL/64626/378.79</t>
+  </si>
+  <si>
+    <t>SARBTM/23563/877.06</t>
+  </si>
+  <si>
+    <t>HPPL/15306/537.32</t>
+  </si>
+  <si>
+    <t>HDL/6206/1,234.43</t>
+  </si>
+  <si>
+    <t>HIDCL/23967/306.75</t>
+  </si>
+  <si>
+    <t>NRIC/341815/1,292.59</t>
+  </si>
+  <si>
+    <t>HRL/49610/963.27</t>
+  </si>
+  <si>
+    <t>SHPC/57235/584.87</t>
+  </si>
+  <si>
+    <t>NGPL/46549/375.39</t>
+  </si>
+  <si>
+    <t>NLICL/22631/623.23</t>
+  </si>
+  <si>
+    <t>RADHI/43871/711.59</t>
+  </si>
+  <si>
+    <t>CHDC/7825/2,545.24</t>
+  </si>
+  <si>
+    <t>UPCL/37220/408.07</t>
+  </si>
+  <si>
+    <t>NRN/8100/2,051.57</t>
+  </si>
+  <si>
+    <t>NGPL/32644/378.49</t>
+  </si>
+  <si>
+    <t>LBBL/281783/451.40</t>
+  </si>
+  <si>
+    <t>SADBL/84336/430.09</t>
+  </si>
+  <si>
+    <t>NICA/93189/349.05</t>
+  </si>
+  <si>
+    <t>LSL/80086/222.01</t>
+  </si>
+  <si>
+    <t>SINDU/16846/843.86</t>
+  </si>
+  <si>
+    <t>GHL/41552/255.46</t>
+  </si>
+  <si>
+    <t>LICN/10870/932.26</t>
+  </si>
+  <si>
+    <t>NTC/8193/872.26</t>
+  </si>
+  <si>
+    <t>CIT/2987/1,927.02</t>
+  </si>
+  <si>
+    <t>SHEL/18514/274.73</t>
+  </si>
+  <si>
+    <t>BHL/47972/221.85</t>
+  </si>
+  <si>
+    <t>NABIL/19998/489.54</t>
+  </si>
+  <si>
+    <t>CIT/4929/1,922.81</t>
+  </si>
+  <si>
+    <t>BARUN/13480/533.90</t>
+  </si>
+  <si>
+    <t>MBJC/15373/321.44</t>
+  </si>
+  <si>
+    <t>UMHL/40704/509.84</t>
+  </si>
+  <si>
+    <t>CREST/5169/2,035.76</t>
+  </si>
+  <si>
+    <t>UPCL/29106/418.40</t>
+  </si>
+  <si>
+    <t>NICA/37788/349.36</t>
+  </si>
+  <si>
+    <t>SHEL/36714/280.36</t>
+  </si>
+  <si>
+    <t>SAHAS/47694/526.26</t>
+  </si>
+  <si>
+    <t>CREST/8041/1,986.46</t>
+  </si>
+  <si>
+    <t>NLG/18656/822.15</t>
+  </si>
+  <si>
+    <t>NIFRA/44806/291.18</t>
+  </si>
+  <si>
+    <t>MEN/18557/586.69</t>
+  </si>
+  <si>
+    <t>HURJA/472342/263.38</t>
+  </si>
+  <si>
+    <t>TPC/195783/588.06</t>
+  </si>
+  <si>
+    <t>SPDL/212350/379.96</t>
+  </si>
+  <si>
+    <t>RHPL/179801/396.93</t>
+  </si>
+  <si>
+    <t>NMIC/24415/2,070.00</t>
+  </si>
+  <si>
+    <t>BPCL/268801/487.72</t>
+  </si>
+  <si>
+    <t>SHL/158505/556.00</t>
+  </si>
+  <si>
+    <t>SHIVM/134953/532.13</t>
+  </si>
+  <si>
+    <t>SADBL/99591/425.81</t>
+  </si>
+  <si>
+    <t>MDB/24402/604.81</t>
+  </si>
+  <si>
+    <t>LICN/22004/969.44</t>
+  </si>
+  <si>
+    <t>BARUN/35826/542.35</t>
+  </si>
+  <si>
+    <t>SHPC/21771/574.12</t>
+  </si>
+  <si>
+    <t>UPPER/53108/205.50</t>
+  </si>
+  <si>
+    <t>CREST/3893/2,052.25</t>
+  </si>
+  <si>
+    <t>LBBL/83103/467.09</t>
+  </si>
+  <si>
+    <t>BPCL/34194/484.70</t>
+  </si>
+  <si>
+    <t>RADHI/24289/701.88</t>
+  </si>
+  <si>
+    <t>UPCL/21036/409.57</t>
+  </si>
+  <si>
+    <t>HDHPC/38903/206.03</t>
+  </si>
+  <si>
+    <t>LBBL/48317/465.80</t>
+  </si>
+  <si>
+    <t>HRL/15358/975.15</t>
+  </si>
+  <si>
+    <t>HPPL/25390/558.06</t>
+  </si>
+  <si>
+    <t>SARBTM/15686/851.51</t>
+  </si>
+  <si>
+    <t>NLIC/16259/760.58</t>
+  </si>
+  <si>
+    <t>SHL/31268/560.16</t>
+  </si>
+  <si>
+    <t>AKJCL/67417/214.63</t>
+  </si>
+  <si>
+    <t>SADBL/34776/418.07</t>
+  </si>
+  <si>
+    <t>BPCL/24934/497.52</t>
+  </si>
+  <si>
+    <t>NRN/6514/2,055.02</t>
+  </si>
+  <si>
+    <t>SHIVM/45309/529.55</t>
+  </si>
+  <si>
+    <t>BARUN/36735/541.50</t>
+  </si>
+  <si>
+    <t>HPPL/32278/540.75</t>
+  </si>
+  <si>
+    <t>PRIN/15491/874.01</t>
+  </si>
+  <si>
+    <t>SIKLES/12931/995.90</t>
+  </si>
+  <si>
+    <t>KBL/214103/214.58</t>
+  </si>
+  <si>
+    <t>HIDCL/66170/305.26</t>
+  </si>
+  <si>
+    <t>GMLI/6288/2,515.24</t>
+  </si>
+  <si>
+    <t>MEN/25539/575.41</t>
+  </si>
+  <si>
+    <t>SHPC/19274/600.73</t>
+  </si>
+  <si>
+    <t>NRIC/32302/1,282.89</t>
+  </si>
+  <si>
+    <t>RADHI/51172/741.84</t>
+  </si>
+  <si>
+    <t>NGPL/82566/374.23</t>
+  </si>
+  <si>
+    <t>BHL/123458/220.67</t>
+  </si>
+  <si>
+    <t>AHPC/67290/293.22</t>
+  </si>
+  <si>
+    <t>SAHAS/211957/524.90</t>
+  </si>
+  <si>
+    <t>NGPL/190477/372.28</t>
+  </si>
+  <si>
+    <t>NABBC/13728/1,589.18</t>
+  </si>
+  <si>
+    <t>GBIME/175685/217.57</t>
+  </si>
+  <si>
+    <t>GVL/57484/455.15</t>
+  </si>
+  <si>
+    <t>RADHI/67194/719.67</t>
+  </si>
+  <si>
+    <t>BPCL/40411/511.32</t>
+  </si>
+  <si>
+    <t>GLBSL/6479/2,865.88</t>
+  </si>
+  <si>
+    <t>HURJA/60122/267.07</t>
+  </si>
+  <si>
+    <t>NYADI/34972/473.16</t>
+  </si>
+  <si>
+    <t>CHDC/53557/2,566.26</t>
+  </si>
+  <si>
+    <t>HIDCL/186521/308.37</t>
+  </si>
+  <si>
+    <t>UMHL/99686/522.00</t>
+  </si>
+  <si>
+    <t>UPCL/68037/406.90</t>
+  </si>
+  <si>
+    <t>SHL/34170/579.15</t>
+  </si>
+  <si>
+    <t>SBL/373467/288.77</t>
+  </si>
+  <si>
+    <t>EBL/107635/647.34</t>
+  </si>
+  <si>
+    <t>HRL/62508/973.25</t>
+  </si>
+  <si>
+    <t>RADHI/65706/730.43</t>
+  </si>
+  <si>
+    <t>CYCL/20316/1,646.70</t>
+  </si>
+  <si>
+    <t>API/367501/302.33</t>
+  </si>
+  <si>
+    <t>NGPL/256122/371.54</t>
+  </si>
+  <si>
+    <t>HPPL/80255/551.08</t>
+  </si>
+  <si>
+    <t>NIFRA/121229/287.90</t>
+  </si>
+  <si>
+    <t>MEN/55777/588.12</t>
+  </si>
+  <si>
+    <t>GBIME/193009/236.93</t>
+  </si>
+  <si>
+    <t>RADHI/39649/724.99</t>
+  </si>
+  <si>
+    <t>SBL/91330/285.65</t>
+  </si>
+  <si>
+    <t>UPCL/52677/410.62</t>
+  </si>
+  <si>
+    <t>HDHPC/105594/213.73</t>
+  </si>
+  <si>
+    <t>BPCL/51652/505.46</t>
+  </si>
+  <si>
+    <t>EBL/33460/621.22</t>
+  </si>
+  <si>
+    <t>SHEL/59595/278.86</t>
+  </si>
+  <si>
+    <t>JBBL/49228/334.97</t>
+  </si>
+  <si>
+    <t>SANIMA/41629/312.61</t>
+  </si>
+  <si>
+    <t>MEN/11419/583.71</t>
+  </si>
+  <si>
+    <t>API/15282/300.45</t>
+  </si>
+  <si>
+    <t>SAHAS/7771/522.36</t>
+  </si>
+  <si>
+    <t>BHPL/3890/983.57</t>
+  </si>
+  <si>
+    <t>RIDI/12698/268.44</t>
+  </si>
+  <si>
+    <t>BPCL/142940/493.88</t>
+  </si>
+  <si>
+    <t>SHIVM/92111/529.46</t>
+  </si>
+  <si>
+    <t>CHL/46556/405.66</t>
+  </si>
+  <si>
+    <t>CHDC/9134/2,544.40</t>
+  </si>
+  <si>
+    <t>UMHL/45993/500.36</t>
+  </si>
+  <si>
+    <t>NRN/70731/2,051.71</t>
+  </si>
+  <si>
+    <t>UPCL/250268/413.73</t>
+  </si>
+  <si>
+    <t>RADHI/97082/697.17</t>
+  </si>
+  <si>
+    <t>CHDC/14894/2,588.74</t>
+  </si>
+  <si>
+    <t>PCBL/77212/241.75</t>
+  </si>
+  <si>
+    <t>BPCL/118137/492.31</t>
+  </si>
+  <si>
+    <t>BHL/86913/223.22</t>
+  </si>
+  <si>
+    <t>SHEL/63348/279.25</t>
+  </si>
+  <si>
+    <t>MEN/25122/592.02</t>
+  </si>
+  <si>
+    <t>SANIMA/35606/314.35</t>
+  </si>
+  <si>
+    <t>SAPDBL/35702/886.14</t>
+  </si>
+  <si>
+    <t>GRDBL/24280/1,193.37</t>
+  </si>
+  <si>
+    <t>NMIC/12246/2,122.41</t>
+  </si>
+  <si>
+    <t>SINDU/27203/896.57</t>
+  </si>
+  <si>
+    <t>SHIVM/40547/530.37</t>
+  </si>
+  <si>
+    <t>SHPC/280418/587.00</t>
+  </si>
+  <si>
+    <t>RADHI/96656/740.62</t>
+  </si>
+  <si>
+    <t>GBIME/330726/233.58</t>
+  </si>
+  <si>
+    <t>MERO/97547/742.33</t>
+  </si>
+  <si>
+    <t>AHPC/172658/297.57</t>
+  </si>
+  <si>
+    <t>CHDC/13816/2,576.89</t>
+  </si>
+  <si>
+    <t>BPCL/60986/491.18</t>
+  </si>
+  <si>
+    <t>SHIVM/43748/533.61</t>
+  </si>
+  <si>
+    <t>NRIC/17239/1,253.78</t>
+  </si>
+  <si>
+    <t>USLB/9783/1,926.84</t>
+  </si>
+  <si>
+    <t>EBL/176088/641.98</t>
+  </si>
+  <si>
+    <t>SHPC/154054/585.06</t>
+  </si>
+  <si>
+    <t>NHPC/364999/233.82</t>
+  </si>
+  <si>
+    <t>HRL/83937/978.79</t>
+  </si>
+  <si>
+    <t>PPCL/185352/345.64</t>
+  </si>
+  <si>
+    <t>SHPC/840544/591.58</t>
+  </si>
+  <si>
+    <t>NLIC/79629/761.37</t>
+  </si>
+  <si>
+    <t>GBIME/146686/224.06</t>
+  </si>
+  <si>
+    <t>SICL/41266/777.20</t>
+  </si>
+  <si>
+    <t>SCB/43986/611.52</t>
+  </si>
+  <si>
+    <t>API/45655/302.00</t>
+  </si>
+  <si>
+    <t>HIDCL/40023/301.21</t>
+  </si>
+  <si>
+    <t>HPPL/16135/536.62</t>
+  </si>
+  <si>
+    <t>AKPL/28704/251.18</t>
+  </si>
+  <si>
+    <t>MEN/10298/590.33</t>
+  </si>
+  <si>
+    <t>AHPC/160510/294.98</t>
+  </si>
+  <si>
+    <t>SHEL/52500/271.88</t>
+  </si>
+  <si>
+    <t>MBJC/35362/327.58</t>
+  </si>
+  <si>
+    <t>CREST/5170/2,031.92</t>
+  </si>
+  <si>
+    <t>RADHI/11888/740.82</t>
+  </si>
+  <si>
+    <t>SHL/183031/566.00</t>
+  </si>
+  <si>
+    <t>NGPL/187637/377.12</t>
+  </si>
+  <si>
+    <t>SHPC/57655/587.62</t>
+  </si>
+  <si>
+    <t>HBL/139406/223.01</t>
+  </si>
+  <si>
+    <t>AKPL/101301/251.90</t>
+  </si>
+  <si>
+    <t>RADHI/62127/721.58</t>
+  </si>
+  <si>
+    <t>MEN/77785/582.66</t>
+  </si>
+  <si>
+    <t>SHPC/69878/587.91</t>
+  </si>
+  <si>
+    <t>HPPL/53573/545.69</t>
+  </si>
+  <si>
+    <t>NTC/27522/873.61</t>
+  </si>
+  <si>
+    <t>RADHI/296720/731.65</t>
+  </si>
+  <si>
+    <t>SHEL/96663/283.62</t>
+  </si>
+  <si>
+    <t>UPCL/55119/402.67</t>
+  </si>
+  <si>
+    <t>SPIL/22220/804.55</t>
+  </si>
+  <si>
+    <t>HURJA/57123/262.05</t>
+  </si>
+  <si>
+    <t>CHDC/16995/2,590.24</t>
+  </si>
+  <si>
+    <t>AHPC/64374/295.28</t>
+  </si>
+  <si>
+    <t>AKPL/47608/250.02</t>
+  </si>
+  <si>
+    <t>BHL/47449/220.69</t>
+  </si>
+  <si>
+    <t>API/29595/304.95</t>
+  </si>
+  <si>
+    <t>CHDC/12272/2,589.37</t>
+  </si>
+  <si>
+    <t>RNLI/18405/511.39</t>
+  </si>
+  <si>
+    <t>API/23241/307.05</t>
+  </si>
+  <si>
+    <t>SPC/13431/533.25</t>
+  </si>
+  <si>
+    <t>NIFRA/24891/288.47</t>
+  </si>
+  <si>
+    <t>RADHI/18462/701.57</t>
+  </si>
+  <si>
+    <t>NMIC/5595/2,088.65</t>
+  </si>
+  <si>
+    <t>MEN/17176/597.83</t>
+  </si>
+  <si>
+    <t>UMHL/18771/511.32</t>
+  </si>
+  <si>
+    <t>BGWT/9641/964.40</t>
+  </si>
+  <si>
+    <t>STC/12066/5,087.82</t>
+  </si>
+  <si>
+    <t>CBBL/18513/848.90</t>
+  </si>
+  <si>
+    <t>RADHI/30888/729.89</t>
+  </si>
+  <si>
+    <t>SADBL/28502/422.10</t>
+  </si>
+  <si>
+    <t>BARUN/18388/539.51</t>
+  </si>
+  <si>
+    <t>GMLI/173945/2,591.16</t>
+  </si>
+  <si>
+    <t>NRIC/248125/1,292.04</t>
+  </si>
+  <si>
+    <t>NLG/94599/833.80</t>
+  </si>
+  <si>
+    <t>NMIC/21557/2,059.84</t>
+  </si>
+  <si>
+    <t>KPCL/47299/532.55</t>
+  </si>
+  <si>
+    <t>RADHI/185492/736.36</t>
+  </si>
+  <si>
+    <t>CREST/12671/1,952.77</t>
+  </si>
+  <si>
+    <t>BEDC/34740/714.06</t>
+  </si>
+  <si>
+    <t>CHDC/8620/2,563.68</t>
+  </si>
+  <si>
+    <t>SARBTM/19287/868.31</t>
+  </si>
+  <si>
+    <t>NGPL/221577/377.25</t>
+  </si>
+  <si>
+    <t>SHPC/57118/582.99</t>
+  </si>
+  <si>
+    <t>SHIVM/48433/531.88</t>
+  </si>
+  <si>
+    <t>NTC/29064/877.76</t>
+  </si>
+  <si>
+    <t>SHEL/79246/275.81</t>
+  </si>
+  <si>
+    <t>NRN/150174/2,037.47</t>
+  </si>
+  <si>
+    <t>KBL/1242662/210.76</t>
+  </si>
+  <si>
+    <t>OHL/137620/950.05</t>
+  </si>
+  <si>
+    <t>AHPC/323331/298.57</t>
+  </si>
+  <si>
+    <t>UPCL/183225/414.87</t>
+  </si>
+  <si>
+    <t>NGPL/167918/377.70</t>
+  </si>
+  <si>
+    <t>SHPC/45630/594.44</t>
+  </si>
+  <si>
+    <t>CHDC/8626/2,565.99</t>
+  </si>
+  <si>
+    <t>UPCL/47336/402.33</t>
+  </si>
+  <si>
+    <t>ALICL/19042/727.48</t>
+  </si>
+  <si>
+    <t>RADHI/115545/735.58</t>
+  </si>
+  <si>
+    <t>UPCL/126228/406.19</t>
+  </si>
+  <si>
+    <t>HIDCL/99010/313.66</t>
+  </si>
+  <si>
+    <t>LBBL/64688/472.97</t>
+  </si>
+  <si>
+    <t>NGPL/70815/375.75</t>
+  </si>
+  <si>
+    <t>RADHI/55519/714.02</t>
+  </si>
+  <si>
+    <t>SHL/26128/567.52</t>
+  </si>
+  <si>
+    <t>CREST/4560/2,025.10</t>
+  </si>
+  <si>
+    <t>KSBBL/15450/460.32</t>
+  </si>
+  <si>
+    <t>NMIC/3197/2,067.24</t>
+  </si>
+  <si>
+    <t>UMHL/410827/498.26</t>
+  </si>
+  <si>
+    <t>RIDI/385134/268.68</t>
+  </si>
+  <si>
+    <t>NGPL/212086/379.62</t>
+  </si>
+  <si>
+    <t>AHPC/118297/297.02</t>
+  </si>
+  <si>
+    <t>MKHL/32307/709.61</t>
+  </si>
+  <si>
+    <t>SHPC/96410/581.46</t>
+  </si>
+  <si>
+    <t>UPCL/64185/401.93</t>
+  </si>
+  <si>
+    <t>RADHI/18003/738.17</t>
+  </si>
+  <si>
+    <t>SHEL/46118/283.76</t>
+  </si>
+  <si>
+    <t>SHL/16290/552.21</t>
+  </si>
+  <si>
+    <t>LSL/557183/215.07</t>
+  </si>
+  <si>
+    <t>BPCL/210845/478.10</t>
+  </si>
+  <si>
+    <t>SHPC/113527/599.13</t>
+  </si>
+  <si>
+    <t>BEDC/68911/758.92</t>
+  </si>
+  <si>
+    <t>NRIC/23651/1,242.96</t>
+  </si>
+  <si>
+    <t>SARBTM/110534/863.79</t>
+  </si>
+  <si>
+    <t>SIKLES/68714/1,090.45</t>
+  </si>
+  <si>
+    <t>PHCL/84589/600.09</t>
+  </si>
+  <si>
+    <t>NIFRA/137675/286.51</t>
+  </si>
+  <si>
+    <t>GFCL/38873/655.10</t>
+  </si>
+  <si>
+    <t>NRN/62921/2,055.32</t>
+  </si>
+  <si>
+    <t>CHDC/48380/2,577.23</t>
+  </si>
+  <si>
+    <t>NGPL/112381/372.78</t>
+  </si>
+  <si>
+    <t>UHEWA/35834/628.94</t>
+  </si>
+  <si>
+    <t>SARBTM/22975/863.46</t>
+  </si>
+  <si>
+    <t>RADHI/69014/725.25</t>
+  </si>
+  <si>
+    <t>NGPL/54745/380.00</t>
+  </si>
+  <si>
+    <t>SHIVM/26236/535.96</t>
+  </si>
+  <si>
+    <t>HIDCL/34976/311.00</t>
+  </si>
+  <si>
+    <t>BARUN/18305/557.72</t>
+  </si>
+  <si>
+    <t>NGPL/105895/377.45</t>
+  </si>
+  <si>
+    <t>SHEL/91615/273.51</t>
+  </si>
+  <si>
+    <t>HIDCL/80756/307.64</t>
+  </si>
+  <si>
+    <t>BPCL/27413/469.33</t>
+  </si>
+  <si>
+    <t>AHPC/36656/291.91</t>
+  </si>
+  <si>
+    <t>NGPL/213855/375.21</t>
+  </si>
+  <si>
+    <t>HIDCL/114950/316.94</t>
+  </si>
+  <si>
+    <t>SHPC/65621/575.38</t>
+  </si>
+  <si>
+    <t>SHL/64707/551.56</t>
+  </si>
+  <si>
+    <t>API/99978/304.15</t>
+  </si>
+  <si>
+    <t>CREST/18648/1,894.54</t>
+  </si>
+  <si>
+    <t>SHPC/39041/587.25</t>
+  </si>
+  <si>
+    <t>BPCL/16922/515.86</t>
+  </si>
+  <si>
+    <t>NGPL/20330/377.53</t>
+  </si>
+  <si>
+    <t>NRIC/5535/1,294.90</t>
+  </si>
+  <si>
+    <t>RADHI/71740/710.60</t>
+  </si>
+  <si>
+    <t>LBBL/98487/466.56</t>
+  </si>
+  <si>
+    <t>API/98561/306.43</t>
+  </si>
+  <si>
+    <t>UPCL/58407/414.89</t>
+  </si>
+  <si>
+    <t>SHL/37491/562.89</t>
+  </si>
+  <si>
+    <t>CORBL/60567/2,266.43</t>
+  </si>
+  <si>
+    <t>JOSHI/78001/423.76</t>
+  </si>
+  <si>
+    <t>GRDBL/28216/1,238.28</t>
+  </si>
+  <si>
+    <t>NRN/15406/2,056.01</t>
+  </si>
+  <si>
+    <t>SINDU/16601/940.31</t>
+  </si>
+  <si>
+    <t>HIDCL/375/306.62</t>
+  </si>
+  <si>
+    <t>HPPL/100/540.00</t>
+  </si>
+  <si>
+    <t>API/100/320.00</t>
+  </si>
+  <si>
+    <t>SHPC/45553/578.83</t>
+  </si>
+  <si>
+    <t>UPCL/54225/410.44</t>
+  </si>
+  <si>
+    <t>TVCL/39784/513.47</t>
+  </si>
+  <si>
+    <t>HIDCL/60027/308.29</t>
+  </si>
+  <si>
+    <t>BNHC/28081/518.72</t>
+  </si>
+  <si>
+    <t>NRN/36709/2,065.81</t>
+  </si>
+  <si>
+    <t>RADHI/21016/714.29</t>
+  </si>
+  <si>
+    <t>API/48402/305.18</t>
+  </si>
+  <si>
+    <t>UPCL/30117/403.37</t>
+  </si>
+  <si>
+    <t>NGPL/38451/374.41</t>
+  </si>
+  <si>
+    <t>RADHI/27549/707.66</t>
+  </si>
+  <si>
+    <t>HRL/14876/975.06</t>
+  </si>
+  <si>
+    <t>MBJC/22428/318.54</t>
+  </si>
+  <si>
+    <t>MEN/10006/570.65</t>
+  </si>
+  <si>
+    <t>AKPL/17716/259.55</t>
+  </si>
+  <si>
+    <t>CHDC/42272/2,577.15</t>
+  </si>
+  <si>
+    <t>SHPC/153827/585.70</t>
+  </si>
+  <si>
+    <t>BPCL/109178/516.59</t>
+  </si>
+  <si>
+    <t>UPCL/84329/414.03</t>
+  </si>
+  <si>
+    <t>RADHI/54317/740.87</t>
+  </si>
+  <si>
+    <t>HIDCL/27550/292.21</t>
+  </si>
+  <si>
+    <t>CHDC/1562/2,524.29</t>
+  </si>
+  <si>
+    <t>RNLI/6149/509.54</t>
+  </si>
+  <si>
+    <t>GVL/5952/458.92</t>
+  </si>
+  <si>
+    <t>ALICL/3600/721.27</t>
+  </si>
+  <si>
+    <t>SHIVM/3100/534.44</t>
+  </si>
+  <si>
+    <t>TRH/1000/948.00</t>
+  </si>
+  <si>
+    <t>AKJCL/3730/208.34</t>
+  </si>
+  <si>
+    <t>BHL/3154/221.01</t>
+  </si>
+  <si>
+    <t>MEN/1158/590.24</t>
+  </si>
+  <si>
+    <t>MEN/52478/583.08</t>
+  </si>
+  <si>
+    <t>NMLBBL/25869/666.05</t>
+  </si>
+  <si>
+    <t>HRL/17339/977.85</t>
+  </si>
+  <si>
+    <t>UPCL/38094/412.49</t>
+  </si>
+  <si>
+    <t>SHPC/25889/567.73</t>
+  </si>
+  <si>
+    <t>UPCL/234344/414.91</t>
+  </si>
+  <si>
+    <t>RADHI/66276/738.13</t>
+  </si>
+  <si>
+    <t>NIFRA/110757/302.28</t>
+  </si>
+  <si>
+    <t>RIDI/125078/269.48</t>
+  </si>
+  <si>
+    <t>SAHAS/57580/525.04</t>
+  </si>
+  <si>
+    <t>NRN/19073/2,072.96</t>
+  </si>
+  <si>
+    <t>RADHI/36002/718.70</t>
+  </si>
+  <si>
+    <t>SHIVM/15273/528.79</t>
+  </si>
+  <si>
+    <t>UMHL/15163/509.96</t>
+  </si>
+  <si>
+    <t>GMLI/2190/2,526.47</t>
+  </si>
+  <si>
+    <t>RADHI/23284/742.56</t>
+  </si>
+  <si>
+    <t>KPCL/19906/525.72</t>
+  </si>
+  <si>
+    <t>SAPDBL/10627/784.52</t>
+  </si>
+  <si>
+    <t>SHIVM/12518/533.27</t>
+  </si>
+  <si>
+    <t>MLBL/16611/379.78</t>
+  </si>
+  <si>
+    <t>HIDCL/101239/309.49</t>
+  </si>
+  <si>
+    <t>KSBBL/48041/446.18</t>
+  </si>
+  <si>
+    <t>CZBIL/89873/212.79</t>
+  </si>
+  <si>
+    <t>SADBL/43021/422.99</t>
+  </si>
+  <si>
+    <t>HDL/9271/1,218.06</t>
+  </si>
+  <si>
+    <t>NGPL/257355/376.68</t>
+  </si>
+  <si>
+    <t>RADHI/39522/725.82</t>
+  </si>
+  <si>
+    <t>SHPC/27928/575.09</t>
+  </si>
+  <si>
+    <t>SHEL/41553/282.64</t>
+  </si>
+  <si>
+    <t>SAPDBL/11815/851.20</t>
+  </si>
+  <si>
+    <t>NGPL/44885/377.97</t>
+  </si>
+  <si>
+    <t>UPCL/40354/410.62</t>
+  </si>
+  <si>
+    <t>NRIC/11269/1,286.19</t>
+  </si>
+  <si>
+    <t>CHDC/5123/2,568.94</t>
+  </si>
+  <si>
+    <t>RADHI/14334/738.68</t>
+  </si>
+  <si>
+    <t>RADHI/60638/726.78</t>
+  </si>
+  <si>
+    <t>UPCL/56611/404.81</t>
+  </si>
+  <si>
+    <t>NGPL/47263/372.11</t>
+  </si>
+  <si>
+    <t>NMIC/6719/2,076.50</t>
+  </si>
+  <si>
+    <t>RIDI/21185/272.36</t>
+  </si>
+  <si>
+    <t>NRIC/31277/1,254.82</t>
+  </si>
+  <si>
+    <t>GRDBL/16871/1,175.94</t>
+  </si>
+  <si>
+    <t>SHPC/22826/583.23</t>
+  </si>
+  <si>
+    <t>SAPDBL/15169/872.77</t>
+  </si>
+  <si>
+    <t>BPCL/13490/507.40</t>
+  </si>
+  <si>
+    <t>GBIME/79101/236.00</t>
+  </si>
+  <si>
+    <t>RADHI/19836/708.27</t>
+  </si>
+  <si>
+    <t>SHIVM/16613/530.21</t>
+  </si>
+  <si>
+    <t>HRL/7521/975.32</t>
+  </si>
+  <si>
+    <t>SHPC/8098/588.40</t>
+  </si>
+  <si>
+    <t>HBL/93995/230.80</t>
+  </si>
+  <si>
+    <t>BARUN/15735/543.71</t>
+  </si>
+  <si>
+    <t>UPCL/6187/429.13</t>
+  </si>
+  <si>
+    <t>AHPC/9031/293.38</t>
+  </si>
+  <si>
+    <t>CREST/1150/1,948.24</t>
+  </si>
+  <si>
+    <t>UPCL/41451/409.93</t>
+  </si>
+  <si>
+    <t>SHPC/26804/579.51</t>
+  </si>
+  <si>
+    <t>HURJA/45997/263.97</t>
+  </si>
+  <si>
+    <t>BPCL/22572/501.49</t>
+  </si>
+  <si>
+    <t>LBBL/20261/469.13</t>
+  </si>
+  <si>
+    <t>HIDCL/121708/301.82</t>
+  </si>
+  <si>
+    <t>NRN/7252/2,077.57</t>
+  </si>
+  <si>
+    <t>USLB/4863/1,832.19</t>
+  </si>
+  <si>
+    <t>CHDC/2867/2,571.24</t>
+  </si>
+  <si>
+    <t>SHPC/9360/597.65</t>
+  </si>
+  <si>
+    <t>BPCL/17365/468.83</t>
+  </si>
+  <si>
+    <t>HRL/6963/972.03</t>
+  </si>
+  <si>
+    <t>ICFC/8250/616.12</t>
+  </si>
+  <si>
+    <t>SHPC/6810/589.15</t>
+  </si>
+  <si>
+    <t>NMIC/1845/2,022.17</t>
+  </si>
+  <si>
+    <t>RADHI/203197/730.78</t>
+  </si>
+  <si>
+    <t>MKHL/210860/710.05</t>
+  </si>
+  <si>
+    <t>NMIC/26260/1,974.61</t>
+  </si>
+  <si>
+    <t>BPCL/54332/501.10</t>
+  </si>
+  <si>
+    <t>PRIN/32093/871.36</t>
+  </si>
+  <si>
+    <t>NMIC/6878/2,175.36</t>
+  </si>
+  <si>
+    <t>SHPC/12834/586.45</t>
+  </si>
+  <si>
+    <t>NICA/17794/366.34</t>
+  </si>
+  <si>
+    <t>CREST/2941/2,021.42</t>
+  </si>
+  <si>
+    <t>UPCL/13066/410.98</t>
+  </si>
+  <si>
+    <t>LBBL/180666/471.01</t>
+  </si>
+  <si>
+    <t>SHL/112712/560.54</t>
+  </si>
+  <si>
+    <t>NICA/121940/366.27</t>
+  </si>
+  <si>
+    <t>SHPC/43198/601.85</t>
+  </si>
+  <si>
+    <t>UMHL/25750/511.20</t>
+  </si>
+  <si>
+    <t>SHPC/36009/591.79</t>
+  </si>
+  <si>
+    <t>NRN/5901/2,057.60</t>
+  </si>
+  <si>
+    <t>NMIC/3970/2,129.72</t>
+  </si>
+  <si>
+    <t>UPCL/19535/412.95</t>
+  </si>
+  <si>
+    <t>BARUN/16577/528.51</t>
+  </si>
+  <si>
+    <t>RADHI/30621/717.99</t>
+  </si>
+  <si>
+    <t>AHPC/58614/291.99</t>
+  </si>
+  <si>
+    <t>API/45940/309.24</t>
+  </si>
+  <si>
+    <t>NLIC/11429/756.21</t>
+  </si>
+  <si>
+    <t>SHPC/13775/579.14</t>
+  </si>
+  <si>
+    <t>UNHPL/37564/344.08</t>
+  </si>
+  <si>
+    <t>SHIVM/23032/537.44</t>
+  </si>
+  <si>
+    <t>NIMB/36585/219.96</t>
+  </si>
+  <si>
+    <t>LBBL/14181/467.56</t>
+  </si>
+  <si>
+    <t>API/18918/306.25</t>
+  </si>
+  <si>
+    <t>PHCL/104505/606.80</t>
+  </si>
+  <si>
+    <t>BGWT/10867/940.96</t>
+  </si>
+  <si>
+    <t>HDL/8229/1,181.37</t>
+  </si>
+  <si>
+    <t>RADHI/11962/756.11</t>
+  </si>
+  <si>
+    <t>CHDC/3361/2,598.21</t>
+  </si>
+  <si>
+    <t>NGPL/15406/388.26</t>
+  </si>
+  <si>
+    <t>UPCL/6908/423.68</t>
+  </si>
+  <si>
+    <t>LEC/11400/228.92</t>
+  </si>
+  <si>
+    <t>SHL/3200/564.80</t>
   </si>
 </sst>
 </file>
@@ -2021,11 +6008,5653 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EEF453-2C93-48DA-92A9-F02917F02C21}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>379</v>
+      </c>
+      <c r="C65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C92" t="s">
+        <v>983</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3009EEF-D0A3-4418-BB02-D308992E6389}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C2" t="s">
+        <v>991</v>
+      </c>
+      <c r="D2" t="s">
+        <v>992</v>
+      </c>
+      <c r="E2" t="s">
+        <v>993</v>
+      </c>
+      <c r="F2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C3" t="s">
+        <v>996</v>
+      </c>
+      <c r="D3" t="s">
+        <v>997</v>
+      </c>
+      <c r="E3" t="s">
+        <v>998</v>
+      </c>
+      <c r="F3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E43" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C57" t="s">
+        <v>829</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>379</v>
+      </c>
+      <c r="C65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D65" t="s">
+        <v>382</v>
+      </c>
+      <c r="E65" t="s">
+        <v>383</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E68" t="s">
+        <v>400</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C70" t="s">
+        <v>410</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>415</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D71" t="s">
+        <v>417</v>
+      </c>
+      <c r="E71" t="s">
+        <v>418</v>
+      </c>
+      <c r="F71" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E74" t="s">
+        <v>437</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>934</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D84" t="s">
+        <v>948</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D85" t="s">
+        <v>501</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F91" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C92" t="s">
+        <v>983</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F92" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>986</v>
+      </c>
+      <c r="C93" t="s">
+        <v>987</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62503B16-5D5E-43EB-8EDC-28C65E9BFBAD}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E4" t="s">
+        <v>571</v>
+      </c>
+      <c r="F4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D5" t="s">
+        <v>575</v>
+      </c>
+      <c r="E5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D6" t="s">
+        <v>580</v>
+      </c>
+      <c r="E6" t="s">
+        <v>581</v>
+      </c>
+      <c r="F6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D7" t="s">
+        <v>585</v>
+      </c>
+      <c r="E7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F7" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C8" t="s">
+        <v>589</v>
+      </c>
+      <c r="D8" t="s">
+        <v>590</v>
+      </c>
+      <c r="E8" t="s">
+        <v>591</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>592</v>
+      </c>
+      <c r="D9" t="s">
+        <v>593</v>
+      </c>
+      <c r="E9" t="s">
+        <v>594</v>
+      </c>
+      <c r="F9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C10" t="s">
+        <v>597</v>
+      </c>
+      <c r="D10" t="s">
+        <v>598</v>
+      </c>
+      <c r="E10" t="s">
+        <v>599</v>
+      </c>
+      <c r="F10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C11" t="s">
+        <v>602</v>
+      </c>
+      <c r="D11" t="s">
+        <v>603</v>
+      </c>
+      <c r="E11" t="s">
+        <v>604</v>
+      </c>
+      <c r="F11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>606</v>
+      </c>
+      <c r="C12" t="s">
+        <v>607</v>
+      </c>
+      <c r="D12" t="s">
+        <v>608</v>
+      </c>
+      <c r="E12" t="s">
+        <v>609</v>
+      </c>
+      <c r="F12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>611</v>
+      </c>
+      <c r="C13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D13" t="s">
+        <v>613</v>
+      </c>
+      <c r="E13" t="s">
+        <v>614</v>
+      </c>
+      <c r="F13" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>616</v>
+      </c>
+      <c r="C14" t="s">
+        <v>617</v>
+      </c>
+      <c r="D14" t="s">
+        <v>618</v>
+      </c>
+      <c r="E14" t="s">
+        <v>619</v>
+      </c>
+      <c r="F14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>621</v>
+      </c>
+      <c r="C15" t="s">
+        <v>622</v>
+      </c>
+      <c r="D15" t="s">
+        <v>623</v>
+      </c>
+      <c r="E15" t="s">
+        <v>624</v>
+      </c>
+      <c r="F15" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C16" t="s">
+        <v>627</v>
+      </c>
+      <c r="D16" t="s">
+        <v>628</v>
+      </c>
+      <c r="E16" t="s">
+        <v>629</v>
+      </c>
+      <c r="F16" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>631</v>
+      </c>
+      <c r="C17" t="s">
+        <v>632</v>
+      </c>
+      <c r="D17" t="s">
+        <v>633</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>635</v>
+      </c>
+      <c r="C18" t="s">
+        <v>636</v>
+      </c>
+      <c r="D18" t="s">
+        <v>637</v>
+      </c>
+      <c r="E18" t="s">
+        <v>638</v>
+      </c>
+      <c r="F18" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>640</v>
+      </c>
+      <c r="C19" t="s">
+        <v>641</v>
+      </c>
+      <c r="D19" t="s">
+        <v>642</v>
+      </c>
+      <c r="E19" t="s">
+        <v>643</v>
+      </c>
+      <c r="F19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>645</v>
+      </c>
+      <c r="C20" t="s">
+        <v>646</v>
+      </c>
+      <c r="D20" t="s">
+        <v>647</v>
+      </c>
+      <c r="E20" t="s">
+        <v>648</v>
+      </c>
+      <c r="F20" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>650</v>
+      </c>
+      <c r="C21" t="s">
+        <v>651</v>
+      </c>
+      <c r="D21" t="s">
+        <v>652</v>
+      </c>
+      <c r="E21" t="s">
+        <v>653</v>
+      </c>
+      <c r="F21" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>655</v>
+      </c>
+      <c r="C22" t="s">
+        <v>656</v>
+      </c>
+      <c r="D22" t="s">
+        <v>657</v>
+      </c>
+      <c r="E22" t="s">
+        <v>658</v>
+      </c>
+      <c r="F22" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>660</v>
+      </c>
+      <c r="C23" t="s">
+        <v>661</v>
+      </c>
+      <c r="D23" t="s">
+        <v>662</v>
+      </c>
+      <c r="E23" t="s">
+        <v>663</v>
+      </c>
+      <c r="F23" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>665</v>
+      </c>
+      <c r="C24" t="s">
+        <v>666</v>
+      </c>
+      <c r="D24" t="s">
+        <v>667</v>
+      </c>
+      <c r="E24" t="s">
+        <v>668</v>
+      </c>
+      <c r="F24" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>670</v>
+      </c>
+      <c r="C25" t="s">
+        <v>671</v>
+      </c>
+      <c r="D25" t="s">
+        <v>672</v>
+      </c>
+      <c r="E25" t="s">
+        <v>673</v>
+      </c>
+      <c r="F25" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>675</v>
+      </c>
+      <c r="C26" t="s">
+        <v>676</v>
+      </c>
+      <c r="D26" t="s">
+        <v>677</v>
+      </c>
+      <c r="E26" t="s">
+        <v>678</v>
+      </c>
+      <c r="F26" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>680</v>
+      </c>
+      <c r="C27" t="s">
+        <v>681</v>
+      </c>
+      <c r="D27" t="s">
+        <v>682</v>
+      </c>
+      <c r="E27" t="s">
+        <v>683</v>
+      </c>
+      <c r="F27" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>685</v>
+      </c>
+      <c r="C28" t="s">
+        <v>686</v>
+      </c>
+      <c r="D28" t="s">
+        <v>687</v>
+      </c>
+      <c r="E28" t="s">
+        <v>688</v>
+      </c>
+      <c r="F28" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>690</v>
+      </c>
+      <c r="C29" t="s">
+        <v>691</v>
+      </c>
+      <c r="D29" t="s">
+        <v>692</v>
+      </c>
+      <c r="E29" t="s">
+        <v>693</v>
+      </c>
+      <c r="F29" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>695</v>
+      </c>
+      <c r="C30" t="s">
+        <v>696</v>
+      </c>
+      <c r="D30" t="s">
+        <v>697</v>
+      </c>
+      <c r="E30" t="s">
+        <v>698</v>
+      </c>
+      <c r="F30" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>700</v>
+      </c>
+      <c r="C31" t="s">
+        <v>701</v>
+      </c>
+      <c r="D31" t="s">
+        <v>702</v>
+      </c>
+      <c r="E31" t="s">
+        <v>703</v>
+      </c>
+      <c r="F31" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>705</v>
+      </c>
+      <c r="C32" t="s">
+        <v>706</v>
+      </c>
+      <c r="D32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E32" t="s">
+        <v>708</v>
+      </c>
+      <c r="F32" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>710</v>
+      </c>
+      <c r="C33" t="s">
+        <v>711</v>
+      </c>
+      <c r="D33" t="s">
+        <v>712</v>
+      </c>
+      <c r="E33" t="s">
+        <v>713</v>
+      </c>
+      <c r="F33" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>715</v>
+      </c>
+      <c r="C34" t="s">
+        <v>716</v>
+      </c>
+      <c r="D34" t="s">
+        <v>717</v>
+      </c>
+      <c r="E34" t="s">
+        <v>718</v>
+      </c>
+      <c r="F34" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>720</v>
+      </c>
+      <c r="C35" t="s">
+        <v>721</v>
+      </c>
+      <c r="D35" t="s">
+        <v>722</v>
+      </c>
+      <c r="E35" t="s">
+        <v>723</v>
+      </c>
+      <c r="F35" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>725</v>
+      </c>
+      <c r="C36" t="s">
+        <v>726</v>
+      </c>
+      <c r="D36" t="s">
+        <v>727</v>
+      </c>
+      <c r="E36" t="s">
+        <v>728</v>
+      </c>
+      <c r="F36" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>730</v>
+      </c>
+      <c r="C37" t="s">
+        <v>731</v>
+      </c>
+      <c r="D37" t="s">
+        <v>732</v>
+      </c>
+      <c r="E37" t="s">
+        <v>733</v>
+      </c>
+      <c r="F37" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>735</v>
+      </c>
+      <c r="C38" t="s">
+        <v>736</v>
+      </c>
+      <c r="D38" t="s">
+        <v>737</v>
+      </c>
+      <c r="E38" t="s">
+        <v>738</v>
+      </c>
+      <c r="F38" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>740</v>
+      </c>
+      <c r="C39" t="s">
+        <v>741</v>
+      </c>
+      <c r="D39" t="s">
+        <v>742</v>
+      </c>
+      <c r="E39" t="s">
+        <v>743</v>
+      </c>
+      <c r="F39" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>745</v>
+      </c>
+      <c r="C40" t="s">
+        <v>746</v>
+      </c>
+      <c r="D40" t="s">
+        <v>747</v>
+      </c>
+      <c r="E40" t="s">
+        <v>748</v>
+      </c>
+      <c r="F40" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>750</v>
+      </c>
+      <c r="C41" t="s">
+        <v>751</v>
+      </c>
+      <c r="D41" t="s">
+        <v>752</v>
+      </c>
+      <c r="E41" t="s">
+        <v>753</v>
+      </c>
+      <c r="F41" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>755</v>
+      </c>
+      <c r="C42" t="s">
+        <v>756</v>
+      </c>
+      <c r="D42" t="s">
+        <v>757</v>
+      </c>
+      <c r="E42" t="s">
+        <v>758</v>
+      </c>
+      <c r="F42" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>760</v>
+      </c>
+      <c r="C43" t="s">
+        <v>761</v>
+      </c>
+      <c r="D43" t="s">
+        <v>762</v>
+      </c>
+      <c r="E43" t="s">
+        <v>763</v>
+      </c>
+      <c r="F43" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>765</v>
+      </c>
+      <c r="C44" t="s">
+        <v>766</v>
+      </c>
+      <c r="D44" t="s">
+        <v>767</v>
+      </c>
+      <c r="E44" t="s">
+        <v>768</v>
+      </c>
+      <c r="F44" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>770</v>
+      </c>
+      <c r="C45" t="s">
+        <v>771</v>
+      </c>
+      <c r="D45" t="s">
+        <v>772</v>
+      </c>
+      <c r="E45" t="s">
+        <v>773</v>
+      </c>
+      <c r="F45" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>775</v>
+      </c>
+      <c r="C46" t="s">
+        <v>776</v>
+      </c>
+      <c r="D46" t="s">
+        <v>777</v>
+      </c>
+      <c r="E46" t="s">
+        <v>778</v>
+      </c>
+      <c r="F46" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>780</v>
+      </c>
+      <c r="C47" t="s">
+        <v>781</v>
+      </c>
+      <c r="D47" t="s">
+        <v>782</v>
+      </c>
+      <c r="E47" t="s">
+        <v>783</v>
+      </c>
+      <c r="F47" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>785</v>
+      </c>
+      <c r="C48" t="s">
+        <v>786</v>
+      </c>
+      <c r="D48" t="s">
+        <v>787</v>
+      </c>
+      <c r="E48" t="s">
+        <v>788</v>
+      </c>
+      <c r="F48" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>790</v>
+      </c>
+      <c r="C49" t="s">
+        <v>791</v>
+      </c>
+      <c r="D49" t="s">
+        <v>792</v>
+      </c>
+      <c r="E49" t="s">
+        <v>793</v>
+      </c>
+      <c r="F49" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>795</v>
+      </c>
+      <c r="C50" t="s">
+        <v>796</v>
+      </c>
+      <c r="D50" t="s">
+        <v>797</v>
+      </c>
+      <c r="E50" t="s">
+        <v>798</v>
+      </c>
+      <c r="F50" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>800</v>
+      </c>
+      <c r="C51" t="s">
+        <v>801</v>
+      </c>
+      <c r="D51" t="s">
+        <v>802</v>
+      </c>
+      <c r="E51" t="s">
+        <v>803</v>
+      </c>
+      <c r="F51" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>805</v>
+      </c>
+      <c r="C52" t="s">
+        <v>806</v>
+      </c>
+      <c r="D52" t="s">
+        <v>807</v>
+      </c>
+      <c r="E52" t="s">
+        <v>808</v>
+      </c>
+      <c r="F52" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>810</v>
+      </c>
+      <c r="C53" t="s">
+        <v>811</v>
+      </c>
+      <c r="D53" t="s">
+        <v>812</v>
+      </c>
+      <c r="E53" t="s">
+        <v>813</v>
+      </c>
+      <c r="F53" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>815</v>
+      </c>
+      <c r="C54" t="s">
+        <v>816</v>
+      </c>
+      <c r="D54" t="s">
+        <v>817</v>
+      </c>
+      <c r="E54" t="s">
+        <v>818</v>
+      </c>
+      <c r="F54" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>820</v>
+      </c>
+      <c r="C55" t="s">
+        <v>821</v>
+      </c>
+      <c r="D55" t="s">
+        <v>822</v>
+      </c>
+      <c r="E55" t="s">
+        <v>823</v>
+      </c>
+      <c r="F55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>824</v>
+      </c>
+      <c r="C56" t="s">
+        <v>825</v>
+      </c>
+      <c r="D56" t="s">
+        <v>826</v>
+      </c>
+      <c r="E56" t="s">
+        <v>827</v>
+      </c>
+      <c r="F56" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>829</v>
+      </c>
+      <c r="C57" t="s">
+        <v>830</v>
+      </c>
+      <c r="D57" t="s">
+        <v>831</v>
+      </c>
+      <c r="E57" t="s">
+        <v>832</v>
+      </c>
+      <c r="F57" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>834</v>
+      </c>
+      <c r="C58" t="s">
+        <v>835</v>
+      </c>
+      <c r="D58" t="s">
+        <v>836</v>
+      </c>
+      <c r="E58" t="s">
+        <v>837</v>
+      </c>
+      <c r="F58" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>839</v>
+      </c>
+      <c r="C59" t="s">
+        <v>344</v>
+      </c>
+      <c r="D59" t="s">
+        <v>840</v>
+      </c>
+      <c r="E59" t="s">
+        <v>841</v>
+      </c>
+      <c r="F59" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>843</v>
+      </c>
+      <c r="C60" t="s">
+        <v>844</v>
+      </c>
+      <c r="D60" t="s">
+        <v>845</v>
+      </c>
+      <c r="E60" t="s">
+        <v>846</v>
+      </c>
+      <c r="F60" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>848</v>
+      </c>
+      <c r="C61" t="s">
+        <v>849</v>
+      </c>
+      <c r="D61" t="s">
+        <v>850</v>
+      </c>
+      <c r="E61" t="s">
+        <v>851</v>
+      </c>
+      <c r="F61" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>853</v>
+      </c>
+      <c r="C62" t="s">
+        <v>854</v>
+      </c>
+      <c r="D62" t="s">
+        <v>855</v>
+      </c>
+      <c r="E62" t="s">
+        <v>856</v>
+      </c>
+      <c r="F62" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>858</v>
+      </c>
+      <c r="C63" t="s">
+        <v>859</v>
+      </c>
+      <c r="D63" t="s">
+        <v>860</v>
+      </c>
+      <c r="E63" t="s">
+        <v>861</v>
+      </c>
+      <c r="F63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>862</v>
+      </c>
+      <c r="C64" t="s">
+        <v>863</v>
+      </c>
+      <c r="D64" t="s">
+        <v>864</v>
+      </c>
+      <c r="E64" t="s">
+        <v>865</v>
+      </c>
+      <c r="F64" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>379</v>
+      </c>
+      <c r="C65" t="s">
+        <v>380</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" t="s">
+        <v>382</v>
+      </c>
+      <c r="F65" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>867</v>
+      </c>
+      <c r="C66" t="s">
+        <v>868</v>
+      </c>
+      <c r="D66" t="s">
+        <v>869</v>
+      </c>
+      <c r="E66" t="s">
+        <v>870</v>
+      </c>
+      <c r="F66" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>872</v>
+      </c>
+      <c r="C67" t="s">
+        <v>873</v>
+      </c>
+      <c r="D67" t="s">
+        <v>874</v>
+      </c>
+      <c r="E67" t="s">
+        <v>875</v>
+      </c>
+      <c r="F67" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>876</v>
+      </c>
+      <c r="C68" t="s">
+        <v>877</v>
+      </c>
+      <c r="D68" t="s">
+        <v>399</v>
+      </c>
+      <c r="E68" t="s">
+        <v>400</v>
+      </c>
+      <c r="F68" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>878</v>
+      </c>
+      <c r="C69" t="s">
+        <v>879</v>
+      </c>
+      <c r="D69" t="s">
+        <v>880</v>
+      </c>
+      <c r="E69" t="s">
+        <v>881</v>
+      </c>
+      <c r="F69" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>883</v>
+      </c>
+      <c r="C70" t="s">
+        <v>884</v>
+      </c>
+      <c r="D70" t="s">
+        <v>410</v>
+      </c>
+      <c r="E70" t="s">
+        <v>885</v>
+      </c>
+      <c r="F70" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>415</v>
+      </c>
+      <c r="C71" t="s">
+        <v>887</v>
+      </c>
+      <c r="D71" t="s">
+        <v>417</v>
+      </c>
+      <c r="E71" t="s">
+        <v>888</v>
+      </c>
+      <c r="F71" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>889</v>
+      </c>
+      <c r="C72" t="s">
+        <v>890</v>
+      </c>
+      <c r="D72" t="s">
+        <v>891</v>
+      </c>
+      <c r="E72" t="s">
+        <v>892</v>
+      </c>
+      <c r="F72" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>894</v>
+      </c>
+      <c r="C73" t="s">
+        <v>895</v>
+      </c>
+      <c r="D73" t="s">
+        <v>896</v>
+      </c>
+      <c r="E73" t="s">
+        <v>897</v>
+      </c>
+      <c r="F73" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>899</v>
+      </c>
+      <c r="C74" t="s">
+        <v>900</v>
+      </c>
+      <c r="D74" t="s">
+        <v>901</v>
+      </c>
+      <c r="E74" t="s">
+        <v>902</v>
+      </c>
+      <c r="F74" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>439</v>
+      </c>
+      <c r="C75" t="s">
+        <v>903</v>
+      </c>
+      <c r="D75" t="s">
+        <v>440</v>
+      </c>
+      <c r="E75" t="s">
+        <v>904</v>
+      </c>
+      <c r="F75" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>906</v>
+      </c>
+      <c r="C76" t="s">
+        <v>907</v>
+      </c>
+      <c r="D76" t="s">
+        <v>908</v>
+      </c>
+      <c r="E76" t="s">
+        <v>909</v>
+      </c>
+      <c r="F76" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>911</v>
+      </c>
+      <c r="C77" t="s">
+        <v>912</v>
+      </c>
+      <c r="D77" t="s">
+        <v>913</v>
+      </c>
+      <c r="E77" t="s">
+        <v>914</v>
+      </c>
+      <c r="F77" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>916</v>
+      </c>
+      <c r="C78" t="s">
+        <v>917</v>
+      </c>
+      <c r="D78" t="s">
+        <v>918</v>
+      </c>
+      <c r="E78" t="s">
+        <v>919</v>
+      </c>
+      <c r="F78" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>921</v>
+      </c>
+      <c r="C79" t="s">
+        <v>464</v>
+      </c>
+      <c r="D79" t="s">
+        <v>922</v>
+      </c>
+      <c r="E79" t="s">
+        <v>466</v>
+      </c>
+      <c r="F79" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>924</v>
+      </c>
+      <c r="C80" t="s">
+        <v>925</v>
+      </c>
+      <c r="D80" t="s">
+        <v>926</v>
+      </c>
+      <c r="E80" t="s">
+        <v>927</v>
+      </c>
+      <c r="F80" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>929</v>
+      </c>
+      <c r="C81" t="s">
+        <v>930</v>
+      </c>
+      <c r="D81" t="s">
+        <v>931</v>
+      </c>
+      <c r="E81" t="s">
+        <v>932</v>
+      </c>
+      <c r="F81" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>934</v>
+      </c>
+      <c r="C82" t="s">
+        <v>935</v>
+      </c>
+      <c r="D82" t="s">
+        <v>936</v>
+      </c>
+      <c r="E82" t="s">
+        <v>937</v>
+      </c>
+      <c r="F82" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>939</v>
+      </c>
+      <c r="C83" t="s">
+        <v>940</v>
+      </c>
+      <c r="D83" t="s">
+        <v>941</v>
+      </c>
+      <c r="E83" t="s">
+        <v>942</v>
+      </c>
+      <c r="F83" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>944</v>
+      </c>
+      <c r="C84" t="s">
+        <v>945</v>
+      </c>
+      <c r="D84" t="s">
+        <v>946</v>
+      </c>
+      <c r="E84" t="s">
+        <v>947</v>
+      </c>
+      <c r="F84" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>949</v>
+      </c>
+      <c r="C85" t="s">
+        <v>950</v>
+      </c>
+      <c r="D85" t="s">
+        <v>501</v>
+      </c>
+      <c r="E85" t="s">
+        <v>951</v>
+      </c>
+      <c r="F85" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>953</v>
+      </c>
+      <c r="C86" t="s">
+        <v>954</v>
+      </c>
+      <c r="D86" t="s">
+        <v>955</v>
+      </c>
+      <c r="E86" t="s">
+        <v>956</v>
+      </c>
+      <c r="F86" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>958</v>
+      </c>
+      <c r="C87" t="s">
+        <v>959</v>
+      </c>
+      <c r="D87" t="s">
+        <v>960</v>
+      </c>
+      <c r="E87" t="s">
+        <v>961</v>
+      </c>
+      <c r="F87" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>963</v>
+      </c>
+      <c r="C88" t="s">
+        <v>964</v>
+      </c>
+      <c r="D88" t="s">
+        <v>965</v>
+      </c>
+      <c r="E88" t="s">
+        <v>966</v>
+      </c>
+      <c r="F88" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>968</v>
+      </c>
+      <c r="C89" t="s">
+        <v>969</v>
+      </c>
+      <c r="D89" t="s">
+        <v>970</v>
+      </c>
+      <c r="E89" t="s">
+        <v>971</v>
+      </c>
+      <c r="F89" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>973</v>
+      </c>
+      <c r="C90" t="s">
+        <v>974</v>
+      </c>
+      <c r="D90" t="s">
+        <v>975</v>
+      </c>
+      <c r="E90" t="s">
+        <v>976</v>
+      </c>
+      <c r="F90" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>535</v>
+      </c>
+      <c r="C91" t="s">
+        <v>978</v>
+      </c>
+      <c r="D91" t="s">
+        <v>979</v>
+      </c>
+      <c r="E91" t="s">
+        <v>980</v>
+      </c>
+      <c r="F91" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>982</v>
+      </c>
+      <c r="C92" t="s">
+        <v>983</v>
+      </c>
+      <c r="D92" t="s">
+        <v>984</v>
+      </c>
+      <c r="E92" t="s">
+        <v>985</v>
+      </c>
+      <c r="F92" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>986</v>
+      </c>
+      <c r="C93" t="s">
+        <v>987</v>
+      </c>
+      <c r="D93" t="s">
+        <v>988</v>
+      </c>
+      <c r="E93" t="s">
+        <v>551</v>
+      </c>
+      <c r="F93" t="s">
+        <v>989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Broker Analysis.xlsx
+++ b/Broker Analysis.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Others\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA59A3A7-7332-4AC6-AE6E-51D2694AC3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A6D65-43AB-4829-A081-6838A3AFEBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-05-28" sheetId="4" r:id="rId1"/>
-    <sheet name="2025-05-21" sheetId="3" r:id="rId2"/>
-    <sheet name="2025-05-20" sheetId="2" r:id="rId3"/>
-    <sheet name="2025-05-19" sheetId="1" r:id="rId4"/>
+    <sheet name="2025-06-02" sheetId="5" r:id="rId1"/>
+    <sheet name="2025-05-28" sheetId="4" r:id="rId2"/>
+    <sheet name="2025-05-21" sheetId="3" r:id="rId3"/>
+    <sheet name="2025-05-20" sheetId="2" r:id="rId4"/>
+    <sheet name="2025-05-19" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="2334">
   <si>
     <t>B1</t>
   </si>
@@ -5686,6 +5687,1350 @@
   </si>
   <si>
     <t>SHL/3200/564.80</t>
+  </si>
+  <si>
+    <t>NIFRA/65319/285.41</t>
+  </si>
+  <si>
+    <t>CHDC/7367/2,543.44</t>
+  </si>
+  <si>
+    <t>HIDCL/49346/303.26</t>
+  </si>
+  <si>
+    <t>EBL/22211/645.15</t>
+  </si>
+  <si>
+    <t>HPPL/23540/519.96</t>
+  </si>
+  <si>
+    <t>SHPC/29013/588.99</t>
+  </si>
+  <si>
+    <t>SHIVM/18309/530.16</t>
+  </si>
+  <si>
+    <t>HLI/23291/413.84</t>
+  </si>
+  <si>
+    <t>HIDCL/27253/306.17</t>
+  </si>
+  <si>
+    <t>SARBTM/6986/863.71</t>
+  </si>
+  <si>
+    <t>SARBTM/33696/857.12</t>
+  </si>
+  <si>
+    <t>UPCL/69807/417.01</t>
+  </si>
+  <si>
+    <t>SPDL/32949/384.81</t>
+  </si>
+  <si>
+    <t>MERO/17323/724.02</t>
+  </si>
+  <si>
+    <t>SHIVM/22802/526.38</t>
+  </si>
+  <si>
+    <t>NGPL/78172/382.46</t>
+  </si>
+  <si>
+    <t>HDL/6823/1,236.79</t>
+  </si>
+  <si>
+    <t>HPPL/12517/529.55</t>
+  </si>
+  <si>
+    <t>CHCL/11476/500.79</t>
+  </si>
+  <si>
+    <t>SHPC/9851/590.64</t>
+  </si>
+  <si>
+    <t>NRIC/347058/1,293.49</t>
+  </si>
+  <si>
+    <t>HRL/55463/960.35</t>
+  </si>
+  <si>
+    <t>SHPC/40827/588.49</t>
+  </si>
+  <si>
+    <t>SAHAS/26482/526.03</t>
+  </si>
+  <si>
+    <t>MEN/23175/586.77</t>
+  </si>
+  <si>
+    <t>CHDC/10615/2,536.58</t>
+  </si>
+  <si>
+    <t>RADHI/24393/735.72</t>
+  </si>
+  <si>
+    <t>UPCL/26982/424.45</t>
+  </si>
+  <si>
+    <t>NICA/31367/359.82</t>
+  </si>
+  <si>
+    <t>GHL/37650/259.58</t>
+  </si>
+  <si>
+    <t>LBBL/256772/453.01</t>
+  </si>
+  <si>
+    <t>BPCL/87082/551.32</t>
+  </si>
+  <si>
+    <t>SADBL/79340/429.47</t>
+  </si>
+  <si>
+    <t>LSL/97802/223.70</t>
+  </si>
+  <si>
+    <t>SINDU/16287/834.51</t>
+  </si>
+  <si>
+    <t>GHL/35452/253.28</t>
+  </si>
+  <si>
+    <t>NTC/8110/872.22</t>
+  </si>
+  <si>
+    <t>CIT/2937/1,926.50</t>
+  </si>
+  <si>
+    <t>SHEL/20504/274.75</t>
+  </si>
+  <si>
+    <t>NLICL/7651/624.22</t>
+  </si>
+  <si>
+    <t>BARUN/26959/526.44</t>
+  </si>
+  <si>
+    <t>NABIL/25102/492.80</t>
+  </si>
+  <si>
+    <t>NGPL/23482/386.18</t>
+  </si>
+  <si>
+    <t>BHL/42498/221.37</t>
+  </si>
+  <si>
+    <t>CIT/2984/1,918.06</t>
+  </si>
+  <si>
+    <t>CREST/6446/2,004.36</t>
+  </si>
+  <si>
+    <t>NMIC/4606/2,126.28</t>
+  </si>
+  <si>
+    <t>NIFRA/32435/284.30</t>
+  </si>
+  <si>
+    <t>SHL/14039/569.52</t>
+  </si>
+  <si>
+    <t>SHEL/27256/283.31</t>
+  </si>
+  <si>
+    <t>SAHAS/60533/527.41</t>
+  </si>
+  <si>
+    <t>NGPL/54751/384.33</t>
+  </si>
+  <si>
+    <t>CREST/9806/1,952.69</t>
+  </si>
+  <si>
+    <t>NLG/19619/821.34</t>
+  </si>
+  <si>
+    <t>AHPC/48075/296.22</t>
+  </si>
+  <si>
+    <t>TPC/185153/586.07</t>
+  </si>
+  <si>
+    <t>HURJA/435351/263.37</t>
+  </si>
+  <si>
+    <t>RHPL/179648/396.09</t>
+  </si>
+  <si>
+    <t>NMIC/26995/2,048.99</t>
+  </si>
+  <si>
+    <t>CREST/18999/1,917.87</t>
+  </si>
+  <si>
+    <t>BPCL/304170/497.26</t>
+  </si>
+  <si>
+    <t>SHIVM/136602/531.32</t>
+  </si>
+  <si>
+    <t>SADBL/89897/426.00</t>
+  </si>
+  <si>
+    <t>AHPC/88923/296.55</t>
+  </si>
+  <si>
+    <t>SHPC/26280/597.36</t>
+  </si>
+  <si>
+    <t>LICN/20629/971.67</t>
+  </si>
+  <si>
+    <t>BARUN/31806/542.26</t>
+  </si>
+  <si>
+    <t>UPPER/56151/205.55</t>
+  </si>
+  <si>
+    <t>NLICL/17045/625.06</t>
+  </si>
+  <si>
+    <t>CREST/4473/2,021.97</t>
+  </si>
+  <si>
+    <t>LBBL/77732/467.02</t>
+  </si>
+  <si>
+    <t>BPCL/59344/513.25</t>
+  </si>
+  <si>
+    <t>NADEP/11010/859.69</t>
+  </si>
+  <si>
+    <t>SAPDBL/10015/847.39</t>
+  </si>
+  <si>
+    <t>NLG/9610/812.15</t>
+  </si>
+  <si>
+    <t>LBBL/57110/465.63</t>
+  </si>
+  <si>
+    <t>NGPL/47473/391.23</t>
+  </si>
+  <si>
+    <t>RADHI/24786/741.47</t>
+  </si>
+  <si>
+    <t>NRN/7236/2,037.86</t>
+  </si>
+  <si>
+    <t>SARBTM/16200/851.51</t>
+  </si>
+  <si>
+    <t>NGPL/56076/386.47</t>
+  </si>
+  <si>
+    <t>SADBL/43835/419.71</t>
+  </si>
+  <si>
+    <t>AKJCL/64776/215.04</t>
+  </si>
+  <si>
+    <t>SAHAS/22324/521.05</t>
+  </si>
+  <si>
+    <t>SHIVM/18926/526.19</t>
+  </si>
+  <si>
+    <t>SHIVM/44559/528.75</t>
+  </si>
+  <si>
+    <t>BARUN/36630/530.94</t>
+  </si>
+  <si>
+    <t>SONA/40577/461.59</t>
+  </si>
+  <si>
+    <t>HPPL/26446/531.51</t>
+  </si>
+  <si>
+    <t>PRIN/15472/873.61</t>
+  </si>
+  <si>
+    <t>KBL/197127/215.40</t>
+  </si>
+  <si>
+    <t>HIDCL/108100/305.30</t>
+  </si>
+  <si>
+    <t>SHPC/31727/604.96</t>
+  </si>
+  <si>
+    <t>NICA/27628/358.18</t>
+  </si>
+  <si>
+    <t>SHEL/31350/278.50</t>
+  </si>
+  <si>
+    <t>RADHI/74828/748.05</t>
+  </si>
+  <si>
+    <t>NRN/14628/2,083.26</t>
+  </si>
+  <si>
+    <t>NGPL/57171/379.10</t>
+  </si>
+  <si>
+    <t>MEN/35582/584.10</t>
+  </si>
+  <si>
+    <t>BHL/91904/219.18</t>
+  </si>
+  <si>
+    <t>SAHAS/168324/527.58</t>
+  </si>
+  <si>
+    <t>NGPL/115654/380.95</t>
+  </si>
+  <si>
+    <t>NABBC/16429/1,569.31</t>
+  </si>
+  <si>
+    <t>BPCL/64524/510.03</t>
+  </si>
+  <si>
+    <t>CORBL/14137/2,399.46</t>
+  </si>
+  <si>
+    <t>RADHI/98865/739.21</t>
+  </si>
+  <si>
+    <t>HURJA/69833/267.06</t>
+  </si>
+  <si>
+    <t>UMHL/33264/512.00</t>
+  </si>
+  <si>
+    <t>AHPC/57390/295.96</t>
+  </si>
+  <si>
+    <t>GRDBL/12566/1,256.93</t>
+  </si>
+  <si>
+    <t>CHDC/56963/2,564.98</t>
+  </si>
+  <si>
+    <t>UPCL/289801/429.38</t>
+  </si>
+  <si>
+    <t>HIDCL/129676/305.26</t>
+  </si>
+  <si>
+    <t>SHL/36437/579.97</t>
+  </si>
+  <si>
+    <t>MEN/24473/592.31</t>
+  </si>
+  <si>
+    <t>SBL/441991/291.32</t>
+  </si>
+  <si>
+    <t>RADHI/151931/749.77</t>
+  </si>
+  <si>
+    <t>HRL/56303/970.75</t>
+  </si>
+  <si>
+    <t>EBL/80186/651.58</t>
+  </si>
+  <si>
+    <t>CBBL/37413/902.93</t>
+  </si>
+  <si>
+    <t>API/313148/303.87</t>
+  </si>
+  <si>
+    <t>HIDCL/139097/307.62</t>
+  </si>
+  <si>
+    <t>ALICL/45462/717.95</t>
+  </si>
+  <si>
+    <t>MEN/51991/589.11</t>
+  </si>
+  <si>
+    <t>NIFRA/102699/283.83</t>
+  </si>
+  <si>
+    <t>GBIME/235959/239.38</t>
+  </si>
+  <si>
+    <t>UPCL/69169/418.32</t>
+  </si>
+  <si>
+    <t>NIFRA/91397/281.53</t>
+  </si>
+  <si>
+    <t>HDHPC/102271/213.95</t>
+  </si>
+  <si>
+    <t>SBL/74004/289.10</t>
+  </si>
+  <si>
+    <t>SBI/123826/406.71</t>
+  </si>
+  <si>
+    <t>EBL/37738/625.02</t>
+  </si>
+  <si>
+    <t>SHEL/53119/280.69</t>
+  </si>
+  <si>
+    <t>JBBL/40077/336.71</t>
+  </si>
+  <si>
+    <t>KBL/63336/211.60</t>
+  </si>
+  <si>
+    <t>MEN/11244/584.69</t>
+  </si>
+  <si>
+    <t>SAHAS/9431/522.63</t>
+  </si>
+  <si>
+    <t>SHPC/7192/593.99</t>
+  </si>
+  <si>
+    <t>BHPL/4600/955.74</t>
+  </si>
+  <si>
+    <t>SARBTM/3677/867.84</t>
+  </si>
+  <si>
+    <t>BPCL/216120/520.35</t>
+  </si>
+  <si>
+    <t>SHIVM/71946/527.42</t>
+  </si>
+  <si>
+    <t>CHDC/11910/2,538.76</t>
+  </si>
+  <si>
+    <t>API/63213/308.51</t>
+  </si>
+  <si>
+    <t>SHL/29365/567.95</t>
+  </si>
+  <si>
+    <t>NRN/67015/2,065.24</t>
+  </si>
+  <si>
+    <t>RADHI/203332/709.82</t>
+  </si>
+  <si>
+    <t>UPCL/238055/421.10</t>
+  </si>
+  <si>
+    <t>SHL/30095/564.54</t>
+  </si>
+  <si>
+    <t>SPDL/33437/388.09</t>
+  </si>
+  <si>
+    <t>BPCL/133115/498.98</t>
+  </si>
+  <si>
+    <t>SHEL/74001/280.22</t>
+  </si>
+  <si>
+    <t>MEN/23070/592.97</t>
+  </si>
+  <si>
+    <t>CHDC/4145/2,542.29</t>
+  </si>
+  <si>
+    <t>SANIMA/29662/315.68</t>
+  </si>
+  <si>
+    <t>SAPDBL/90508/942.56</t>
+  </si>
+  <si>
+    <t>GRDBL/26260/1,216.56</t>
+  </si>
+  <si>
+    <t>NMIC/13843/2,093.15</t>
+  </si>
+  <si>
+    <t>SHIVM/42844/528.77</t>
+  </si>
+  <si>
+    <t>SINDU/23468/886.68</t>
+  </si>
+  <si>
+    <t>GBIME/680592/238.97</t>
+  </si>
+  <si>
+    <t>SHPC/144792/597.63</t>
+  </si>
+  <si>
+    <t>RADHI/104184/756.16</t>
+  </si>
+  <si>
+    <t>MERO/107110/743.99</t>
+  </si>
+  <si>
+    <t>AKPL/296489/255.05</t>
+  </si>
+  <si>
+    <t>BPCL/83003/508.52</t>
+  </si>
+  <si>
+    <t>SPIL/29206/822.39</t>
+  </si>
+  <si>
+    <t>SHIVM/31603/532.47</t>
+  </si>
+  <si>
+    <t>USLB/8079/1,942.52</t>
+  </si>
+  <si>
+    <t>MEN/23541/592.25</t>
+  </si>
+  <si>
+    <t>EBL/154647/650.17</t>
+  </si>
+  <si>
+    <t>HRL/66340/969.80</t>
+  </si>
+  <si>
+    <t>PPCL/143356/343.21</t>
+  </si>
+  <si>
+    <t>SHPC/83475/588.10</t>
+  </si>
+  <si>
+    <t>MLBL/115114/394.59</t>
+  </si>
+  <si>
+    <t>SHPC/725020/596.29</t>
+  </si>
+  <si>
+    <t>NLIC/57456/758.71</t>
+  </si>
+  <si>
+    <t>CZBIL/195281/215.77</t>
+  </si>
+  <si>
+    <t>GBIME/170530/224.72</t>
+  </si>
+  <si>
+    <t>CHDC/12336/2,576.19</t>
+  </si>
+  <si>
+    <t>API/52468/303.58</t>
+  </si>
+  <si>
+    <t>HIDCL/31916/296.30</t>
+  </si>
+  <si>
+    <t>AKPL/26987/251.51</t>
+  </si>
+  <si>
+    <t>HPPL/12633/527.82</t>
+  </si>
+  <si>
+    <t>MEN/10608/590.33</t>
+  </si>
+  <si>
+    <t>AHPC/143916/296.17</t>
+  </si>
+  <si>
+    <t>SPDL/34771/385.63</t>
+  </si>
+  <si>
+    <t>CREST/5960/1,992.44</t>
+  </si>
+  <si>
+    <t>SHL/18605/565.44</t>
+  </si>
+  <si>
+    <t>HDHPC/45212/215.95</t>
+  </si>
+  <si>
+    <t>SHL/218873/569.17</t>
+  </si>
+  <si>
+    <t>SHPC/93235/590.13</t>
+  </si>
+  <si>
+    <t>AHPC/99863/299.15</t>
+  </si>
+  <si>
+    <t>NGPL/70343/383.99</t>
+  </si>
+  <si>
+    <t>SHIVM/32440/529.14</t>
+  </si>
+  <si>
+    <t>RADHI/68600/731.25</t>
+  </si>
+  <si>
+    <t>SHPC/75033/596.36</t>
+  </si>
+  <si>
+    <t>MEN/72795/583.55</t>
+  </si>
+  <si>
+    <t>HPPL/50938/531.06</t>
+  </si>
+  <si>
+    <t>NTC/26766/870.49</t>
+  </si>
+  <si>
+    <t>RADHI/367297/743.56</t>
+  </si>
+  <si>
+    <t>SHEL/89281/284.28</t>
+  </si>
+  <si>
+    <t>SHL/42065/577.81</t>
+  </si>
+  <si>
+    <t>HURJA/75680/261.21</t>
+  </si>
+  <si>
+    <t>SPIL/22917/804.87</t>
+  </si>
+  <si>
+    <t>CHDC/19529/2,583.89</t>
+  </si>
+  <si>
+    <t>AHPC/65273/295.80</t>
+  </si>
+  <si>
+    <t>AKPL/74425/251.33</t>
+  </si>
+  <si>
+    <t>API/34813/305.62</t>
+  </si>
+  <si>
+    <t>BHL/35179/219.23</t>
+  </si>
+  <si>
+    <t>CHDC/12187/2,585.73</t>
+  </si>
+  <si>
+    <t>API/27321/307.55</t>
+  </si>
+  <si>
+    <t>RNLI/16884/509.64</t>
+  </si>
+  <si>
+    <t>NIFRA/27439/284.76</t>
+  </si>
+  <si>
+    <t>BHL/35125/218.64</t>
+  </si>
+  <si>
+    <t>NMIC/5395/2,083.82</t>
+  </si>
+  <si>
+    <t>MEN/17502/597.81</t>
+  </si>
+  <si>
+    <t>SHPC/14128/599.41</t>
+  </si>
+  <si>
+    <t>UMHL/17457/513.76</t>
+  </si>
+  <si>
+    <t>SHIVM/14433/526.80</t>
+  </si>
+  <si>
+    <t>STC/12227/5,083.75</t>
+  </si>
+  <si>
+    <t>SADBL/30489/422.60</t>
+  </si>
+  <si>
+    <t>CBBL/12671/856.91</t>
+  </si>
+  <si>
+    <t>BARUN/18854/538.29</t>
+  </si>
+  <si>
+    <t>BHL/36750/219.51</t>
+  </si>
+  <si>
+    <t>GMLI/178320/2,593.04</t>
+  </si>
+  <si>
+    <t>NRIC/248334/1,293.15</t>
+  </si>
+  <si>
+    <t>NMIC/50244/1,966.39</t>
+  </si>
+  <si>
+    <t>NLG/95246/833.88</t>
+  </si>
+  <si>
+    <t>HDL/15979/1,219.34</t>
+  </si>
+  <si>
+    <t>RADHI/88359/759.50</t>
+  </si>
+  <si>
+    <t>NGPL/91333/387.62</t>
+  </si>
+  <si>
+    <t>BEDC/41194/720.52</t>
+  </si>
+  <si>
+    <t>SMHL/30506/945.01</t>
+  </si>
+  <si>
+    <t>MKCL/15413/1,543.56</t>
+  </si>
+  <si>
+    <t>NGPL/167108/383.27</t>
+  </si>
+  <si>
+    <t>RADHI/35344/739.53</t>
+  </si>
+  <si>
+    <t>AHPC/79564/295.49</t>
+  </si>
+  <si>
+    <t>HDHPC/99805/205.51</t>
+  </si>
+  <si>
+    <t>GHL/76837/254.85</t>
+  </si>
+  <si>
+    <t>KBL/1665641/214.43</t>
+  </si>
+  <si>
+    <t>NRN/135675/2,045.73</t>
+  </si>
+  <si>
+    <t>NGPL/309472/383.34</t>
+  </si>
+  <si>
+    <t>AHPC/382718/298.96</t>
+  </si>
+  <si>
+    <t>OHL/106334/950.32</t>
+  </si>
+  <si>
+    <t>SHPC/37707/596.25</t>
+  </si>
+  <si>
+    <t>NGPL/51820/383.46</t>
+  </si>
+  <si>
+    <t>ALICL/27098/712.29</t>
+  </si>
+  <si>
+    <t>NIFRA/49243/286.30</t>
+  </si>
+  <si>
+    <t>API/40760/304.72</t>
+  </si>
+  <si>
+    <t>RADHI/111092/746.67</t>
+  </si>
+  <si>
+    <t>UPCL/128717/421.63</t>
+  </si>
+  <si>
+    <t>SHL/59939/568.81</t>
+  </si>
+  <si>
+    <t>LBBL/50427/474.56</t>
+  </si>
+  <si>
+    <t>SHEL/57272/277.76</t>
+  </si>
+  <si>
+    <t>SHL/29118/567.63</t>
+  </si>
+  <si>
+    <t>CREST/5550/1,948.84</t>
+  </si>
+  <si>
+    <t>NICA/28973/359.78</t>
+  </si>
+  <si>
+    <t>NMIC/3797/2,044.87</t>
+  </si>
+  <si>
+    <t>LSL/31033/226.68</t>
+  </si>
+  <si>
+    <t>UMHL/432982/505.00</t>
+  </si>
+  <si>
+    <t>RIDI/342174/269.65</t>
+  </si>
+  <si>
+    <t>ANLB/4795/5,368.74</t>
+  </si>
+  <si>
+    <t>MKHL/33237/711.22</t>
+  </si>
+  <si>
+    <t>SHIVM/42810/533.25</t>
+  </si>
+  <si>
+    <t>RADHI/28157/744.64</t>
+  </si>
+  <si>
+    <t>SHEL/45245/285.93</t>
+  </si>
+  <si>
+    <t>SHL/23137/561.72</t>
+  </si>
+  <si>
+    <t>KBL/44699/211.49</t>
+  </si>
+  <si>
+    <t>PPCL/27446/345.03</t>
+  </si>
+  <si>
+    <t>BPCL/190494/515.02</t>
+  </si>
+  <si>
+    <t>SHPC/106954/600.19</t>
+  </si>
+  <si>
+    <t>BEDC/61841/741.86</t>
+  </si>
+  <si>
+    <t>NRN/18047/2,064.36</t>
+  </si>
+  <si>
+    <t>LSL/162271/214.43</t>
+  </si>
+  <si>
+    <t>SARBTM/107308/861.55</t>
+  </si>
+  <si>
+    <t>SIKLES/69184/1,089.97</t>
+  </si>
+  <si>
+    <t>PHCL/62679/600.89</t>
+  </si>
+  <si>
+    <t>NGPL/77541/385.27</t>
+  </si>
+  <si>
+    <t>NIFRA/106351/283.27</t>
+  </si>
+  <si>
+    <t>CHDC/42906/2,578.86</t>
+  </si>
+  <si>
+    <t>NRN/22445/2,065.86</t>
+  </si>
+  <si>
+    <t>NGPL/78999/375.83</t>
+  </si>
+  <si>
+    <t>UHEWA/35844/628.93</t>
+  </si>
+  <si>
+    <t>HIDCL/63995/296.92</t>
+  </si>
+  <si>
+    <t>RADHI/103716/763.57</t>
+  </si>
+  <si>
+    <t>HIDCL/93548/303.59</t>
+  </si>
+  <si>
+    <t>SHIVM/25656/535.81</t>
+  </si>
+  <si>
+    <t>HRL/8745/962.49</t>
+  </si>
+  <si>
+    <t>SHEL/22163/283.26</t>
+  </si>
+  <si>
+    <t>NGPL/128228/382.94</t>
+  </si>
+  <si>
+    <t>AHPC/67402/291.91</t>
+  </si>
+  <si>
+    <t>RIDI/63757/263.18</t>
+  </si>
+  <si>
+    <t>HIDCL/50641/305.46</t>
+  </si>
+  <si>
+    <t>SHEL/52362/274.91</t>
+  </si>
+  <si>
+    <t>SHL/91581/563.21</t>
+  </si>
+  <si>
+    <t>API/93937/304.86</t>
+  </si>
+  <si>
+    <t>HIDCL/72944/306.66</t>
+  </si>
+  <si>
+    <t>GLH/67941/278.85</t>
+  </si>
+  <si>
+    <t>SANIMA/57211/310.07</t>
+  </si>
+  <si>
+    <t>BPCL/80250/561.06</t>
+  </si>
+  <si>
+    <t>SHPC/43018/590.77</t>
+  </si>
+  <si>
+    <t>PRVU/79390/217.11</t>
+  </si>
+  <si>
+    <t>CZBIL/43833/220.43</t>
+  </si>
+  <si>
+    <t>NRIC/7204/1,294.90</t>
+  </si>
+  <si>
+    <t>RADHI/80129/732.20</t>
+  </si>
+  <si>
+    <t>LBBL/94136/466.22</t>
+  </si>
+  <si>
+    <t>UPCL/89699/423.26</t>
+  </si>
+  <si>
+    <t>API/99311/306.42</t>
+  </si>
+  <si>
+    <t>SHL/32481/564.71</t>
+  </si>
+  <si>
+    <t>CORBL/53068/2,264.18</t>
+  </si>
+  <si>
+    <t>JOSHI/77941/423.78</t>
+  </si>
+  <si>
+    <t>GRDBL/25554/1,150.47</t>
+  </si>
+  <si>
+    <t>NRN/13368/2,064.29</t>
+  </si>
+  <si>
+    <t>RADHI/35334/743.38</t>
+  </si>
+  <si>
+    <t>LEC/110/226.33</t>
+  </si>
+  <si>
+    <t>GHL/107/253.91</t>
+  </si>
+  <si>
+    <t>SHPC/42995/586.66</t>
+  </si>
+  <si>
+    <t>UPCL/44354/415.37</t>
+  </si>
+  <si>
+    <t>BNHC/26141/518.72</t>
+  </si>
+  <si>
+    <t>MEN/21771/595.54</t>
+  </si>
+  <si>
+    <t>TVCL/19778/502.09</t>
+  </si>
+  <si>
+    <t>NRN/21291/2,079.31</t>
+  </si>
+  <si>
+    <t>API/55832/305.18</t>
+  </si>
+  <si>
+    <t>MFIL/20013/615.98</t>
+  </si>
+  <si>
+    <t>NGPL/29255/382.50</t>
+  </si>
+  <si>
+    <t>BHL/47205/216.30</t>
+  </si>
+  <si>
+    <t>RADHI/28429/730.02</t>
+  </si>
+  <si>
+    <t>MBJC/22878/318.41</t>
+  </si>
+  <si>
+    <t>SHIVM/10652/526.62</t>
+  </si>
+  <si>
+    <t>AKPL/17086/259.92</t>
+  </si>
+  <si>
+    <t>SAHAS/5775/516.29</t>
+  </si>
+  <si>
+    <t>CHDC/36971/2,575.86</t>
+  </si>
+  <si>
+    <t>BPCL/137936/524.03</t>
+  </si>
+  <si>
+    <t>RADHI/75523/753.06</t>
+  </si>
+  <si>
+    <t>NRN/27631/2,062.11</t>
+  </si>
+  <si>
+    <t>SHPC/62526/595.56</t>
+  </si>
+  <si>
+    <t>ALICL/7405/708.65</t>
+  </si>
+  <si>
+    <t>RADHI/6472/753.35</t>
+  </si>
+  <si>
+    <t>NGPL/6435/379.56</t>
+  </si>
+  <si>
+    <t>BHL/3071/220.89</t>
+  </si>
+  <si>
+    <t>MEN/49694/585.29</t>
+  </si>
+  <si>
+    <t>NIFRA/83303/287.60</t>
+  </si>
+  <si>
+    <t>NMLBBL/28882/664.92</t>
+  </si>
+  <si>
+    <t>HRL/18229/974.31</t>
+  </si>
+  <si>
+    <t>USLB/6252/1,845.31</t>
+  </si>
+  <si>
+    <t>NGPL/256795/391.01</t>
+  </si>
+  <si>
+    <t>UPCL/187676/420.91</t>
+  </si>
+  <si>
+    <t>SAHAS/72226/525.24</t>
+  </si>
+  <si>
+    <t>RIDI/118458/271.60</t>
+  </si>
+  <si>
+    <t>HRL/13006/986.06</t>
+  </si>
+  <si>
+    <t>NRN/17069/2,068.56</t>
+  </si>
+  <si>
+    <t>NICA/37299/373.18</t>
+  </si>
+  <si>
+    <t>UMHL/23263/509.84</t>
+  </si>
+  <si>
+    <t>SHIVM/13223/528.47</t>
+  </si>
+  <si>
+    <t>HRL/7128/965.60</t>
+  </si>
+  <si>
+    <t>RADHI/32596/749.22</t>
+  </si>
+  <si>
+    <t>HRL/13500/961.77</t>
+  </si>
+  <si>
+    <t>SAPDBL/10205/787.50</t>
+  </si>
+  <si>
+    <t>AHL/10800/683.54</t>
+  </si>
+  <si>
+    <t>KPCL/13914/524.71</t>
+  </si>
+  <si>
+    <t>HIDCL/103100/301.50</t>
+  </si>
+  <si>
+    <t>SADBL/45521/422.76</t>
+  </si>
+  <si>
+    <t>KSBBL/40011/446.86</t>
+  </si>
+  <si>
+    <t>CZBIL/75311/213.22</t>
+  </si>
+  <si>
+    <t>HDL/12425/1,217.96</t>
+  </si>
+  <si>
+    <t>NGPL/191615/380.91</t>
+  </si>
+  <si>
+    <t>RADHI/51807/749.87</t>
+  </si>
+  <si>
+    <t>SHL/62123/586.22</t>
+  </si>
+  <si>
+    <t>NRN/6661/2,080.05</t>
+  </si>
+  <si>
+    <t>SHEL/43433/282.85</t>
+  </si>
+  <si>
+    <t>CHDC/6027/2,565.95</t>
+  </si>
+  <si>
+    <t>UPCL/37647/413.80</t>
+  </si>
+  <si>
+    <t>NGPL/35527/385.17</t>
+  </si>
+  <si>
+    <t>RADHI/19036/750.45</t>
+  </si>
+  <si>
+    <t>NRIC/8467/1,284.95</t>
+  </si>
+  <si>
+    <t>RADHI/95245/745.41</t>
+  </si>
+  <si>
+    <t>NMIC/4326/2,070.67</t>
+  </si>
+  <si>
+    <t>RIDI/23475/272.81</t>
+  </si>
+  <si>
+    <t>UPCL/15112/415.96</t>
+  </si>
+  <si>
+    <t>HURJA/10405/273.35</t>
+  </si>
+  <si>
+    <t>SAPDBL/31223/902.55</t>
+  </si>
+  <si>
+    <t>GRDBL/16616/1,176.11</t>
+  </si>
+  <si>
+    <t>SHPC/26173/587.63</t>
+  </si>
+  <si>
+    <t>CORBL/5300/2,579.05</t>
+  </si>
+  <si>
+    <t>BARUN/13520/536.32</t>
+  </si>
+  <si>
+    <t>RADHI/35842/739.04</t>
+  </si>
+  <si>
+    <t>GBIME/87044/236.22</t>
+  </si>
+  <si>
+    <t>NGPL/18245/380.38</t>
+  </si>
+  <si>
+    <t>SHIVM/9714/525.78</t>
+  </si>
+  <si>
+    <t>HRL/2732/975.32</t>
+  </si>
+  <si>
+    <t>HBL/93245/230.83</t>
+  </si>
+  <si>
+    <t>BARUN/14335/540.41</t>
+  </si>
+  <si>
+    <t>SHL/10659/573.65</t>
+  </si>
+  <si>
+    <t>CREST/1340/1,908.34</t>
+  </si>
+  <si>
+    <t>AHPC/8126/294.02</t>
+  </si>
+  <si>
+    <t>UPCL/41345/422.32</t>
+  </si>
+  <si>
+    <t>SHPC/22442/585.29</t>
+  </si>
+  <si>
+    <t>NGPL/31054/384.20</t>
+  </si>
+  <si>
+    <t>AKPL/47960/257.01</t>
+  </si>
+  <si>
+    <t>BPCL/21082/520.30</t>
+  </si>
+  <si>
+    <t>HIDCL/177541/300.10</t>
+  </si>
+  <si>
+    <t>SHPC/18803/597.75</t>
+  </si>
+  <si>
+    <t>CHCL/15604/508.62</t>
+  </si>
+  <si>
+    <t>RADHI/7907/738.36</t>
+  </si>
+  <si>
+    <t>NRN/2055/2,075.88</t>
+  </si>
+  <si>
+    <t>BPCL/12763/475.77</t>
+  </si>
+  <si>
+    <t>ICFC/7390/616.11</t>
+  </si>
+  <si>
+    <t>NMIC/1650/1,964.01</t>
+  </si>
+  <si>
+    <t>SHPC/4910/594.00</t>
+  </si>
+  <si>
+    <t>RADHI/187307/755.08</t>
+  </si>
+  <si>
+    <t>MKHL/125115/723.07</t>
+  </si>
+  <si>
+    <t>UPCL/81248/420.23</t>
+  </si>
+  <si>
+    <t>PRIN/31429/869.35</t>
+  </si>
+  <si>
+    <t>BPCL/41042/504.44</t>
+  </si>
+  <si>
+    <t>UPCL/48326/437.10</t>
+  </si>
+  <si>
+    <t>NMIC/3835/2,173.38</t>
+  </si>
+  <si>
+    <t>NMB/26056/240.58</t>
+  </si>
+  <si>
+    <t>NGPL/13447/386.34</t>
+  </si>
+  <si>
+    <t>LBBL/185186/470.28</t>
+  </si>
+  <si>
+    <t>SHL/91064/561.53</t>
+  </si>
+  <si>
+    <t>NICA/108521/366.35</t>
+  </si>
+  <si>
+    <t>NRIC/26673/1,280.54</t>
+  </si>
+  <si>
+    <t>SHPC/44398/599.82</t>
+  </si>
+  <si>
+    <t>SHPC/31395/591.25</t>
+  </si>
+  <si>
+    <t>NRN/6128/2,056.44</t>
+  </si>
+  <si>
+    <t>SADBL/24210/431.15</t>
+  </si>
+  <si>
+    <t>UPCL/17409/427.09</t>
+  </si>
+  <si>
+    <t>NMIC/3043/2,119.01</t>
+  </si>
+  <si>
+    <t>RADHI/37593/728.94</t>
+  </si>
+  <si>
+    <t>NGPL/50748/384.04</t>
+  </si>
+  <si>
+    <t>API/49530/309.63</t>
+  </si>
+  <si>
+    <t>SHPC/22855/577.97</t>
+  </si>
+  <si>
+    <t>AHPC/35404/292.41</t>
+  </si>
+  <si>
+    <t>UNHPL/37014/344.08</t>
+  </si>
+  <si>
+    <t>SHIVM/22968/537.05</t>
+  </si>
+  <si>
+    <t>BPCL/17585/554.77</t>
+  </si>
+  <si>
+    <t>LBBL/15501/467.66</t>
+  </si>
+  <si>
+    <t>SHPC/10442/597.56</t>
+  </si>
+  <si>
+    <t>PHCL/109704/605.37</t>
+  </si>
+  <si>
+    <t>MLBL/37088/389.85</t>
+  </si>
+  <si>
+    <t>RADHI/11862/781.33</t>
+  </si>
+  <si>
+    <t>HDL/8179/1,181.37</t>
+  </si>
+  <si>
+    <t>BGWT/9513/935.01</t>
+  </si>
+  <si>
+    <t>CHDC/5145/2,576.84</t>
+  </si>
+  <si>
+    <t>NGPL/11802/391.05</t>
+  </si>
+  <si>
+    <t>BPCL/6000/582.47</t>
+  </si>
+  <si>
+    <t>LEC/12310/222.38</t>
   </si>
 </sst>
 </file>
@@ -6008,11 +7353,1894 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC7E8D-1DE3-4DBF-BC92-6657EED87D10}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2124</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2144</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2169</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2179</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2189</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>381</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F66" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F70" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2226</v>
+      </c>
+      <c r="F71" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2230</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2240</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F76" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F77" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2260</v>
+      </c>
+      <c r="F78" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F79" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2275</v>
+      </c>
+      <c r="F81" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2280</v>
+      </c>
+      <c r="F82" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2285</v>
+      </c>
+      <c r="F83" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2294</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F87" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2307</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F88" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2313</v>
+      </c>
+      <c r="F89" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2318</v>
+      </c>
+      <c r="F90" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2322</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F91" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F92" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2332</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EEF453-2C93-48DA-92A9-F02917F02C21}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7889,7 +11117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3009EEF-D0A3-4418-BB02-D308992E6389}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -9769,7 +12997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62503B16-5D5E-43EB-8EDC-28C65E9BFBAD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -11649,7 +14877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>

--- a/Broker Analysis.xlsx
+++ b/Broker Analysis.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Others\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A6D65-43AB-4829-A081-6838A3AFEBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15E106B-0916-434A-8C6D-13A2A4388BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-06-02" sheetId="5" r:id="rId1"/>
-    <sheet name="2025-05-28" sheetId="4" r:id="rId2"/>
-    <sheet name="2025-05-21" sheetId="3" r:id="rId3"/>
-    <sheet name="2025-05-20" sheetId="2" r:id="rId4"/>
-    <sheet name="2025-05-19" sheetId="1" r:id="rId5"/>
+    <sheet name="2025-06-03" sheetId="6" r:id="rId1"/>
+    <sheet name="2025-06-02" sheetId="5" r:id="rId2"/>
+    <sheet name="2025-05-28" sheetId="4" r:id="rId3"/>
+    <sheet name="2025-05-21" sheetId="3" r:id="rId4"/>
+    <sheet name="2025-05-20" sheetId="2" r:id="rId5"/>
+    <sheet name="2025-05-19" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="2334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3348" uniqueCount="2744">
   <si>
     <t>B1</t>
   </si>
@@ -7031,6 +7032,1236 @@
   </si>
   <si>
     <t>LEC/12310/222.38</t>
+  </si>
+  <si>
+    <t>CHDC/7355/2,543.44</t>
+  </si>
+  <si>
+    <t>NIFRA/53711/285.41</t>
+  </si>
+  <si>
+    <t>EBL/21091/645.99</t>
+  </si>
+  <si>
+    <t>HPPL/23640/519.87</t>
+  </si>
+  <si>
+    <t>RNLI/21562/511.59</t>
+  </si>
+  <si>
+    <t>SHPC/28563/588.36</t>
+  </si>
+  <si>
+    <t>HIDCL/33349/306.42</t>
+  </si>
+  <si>
+    <t>SHIVM/18659/530.00</t>
+  </si>
+  <si>
+    <t>HLI/23582/413.77</t>
+  </si>
+  <si>
+    <t>SARBTM/34906/856.82</t>
+  </si>
+  <si>
+    <t>UPCL/70428/418.10</t>
+  </si>
+  <si>
+    <t>SHIVM/26266/525.95</t>
+  </si>
+  <si>
+    <t>MERO/18838/723.97</t>
+  </si>
+  <si>
+    <t>SPDL/33889/383.13</t>
+  </si>
+  <si>
+    <t>NGPL/69970/382.59</t>
+  </si>
+  <si>
+    <t>HDL/6601/1,236.45</t>
+  </si>
+  <si>
+    <t>HPPL/13727/527.87</t>
+  </si>
+  <si>
+    <t>SHPC/12251/589.15</t>
+  </si>
+  <si>
+    <t>AKPL/23797/258.47</t>
+  </si>
+  <si>
+    <t>NRIC/347219/1,293.47</t>
+  </si>
+  <si>
+    <t>HRL/57556/959.77</t>
+  </si>
+  <si>
+    <t>SAHAS/34827/525.36</t>
+  </si>
+  <si>
+    <t>SHPC/29899/588.37</t>
+  </si>
+  <si>
+    <t>NHPC/57077/226.76</t>
+  </si>
+  <si>
+    <t>CHDC/10841/2,536.06</t>
+  </si>
+  <si>
+    <t>RADHI/23979/735.98</t>
+  </si>
+  <si>
+    <t>NICA/43346/360.14</t>
+  </si>
+  <si>
+    <t>UPCL/24967/424.73</t>
+  </si>
+  <si>
+    <t>GHL/37850/259.51</t>
+  </si>
+  <si>
+    <t>LBBL/256961/453.04</t>
+  </si>
+  <si>
+    <t>BPCL/93541/552.54</t>
+  </si>
+  <si>
+    <t>SADBL/76797/429.47</t>
+  </si>
+  <si>
+    <t>LSL/98302/223.68</t>
+  </si>
+  <si>
+    <t>SINDU/16229/835.22</t>
+  </si>
+  <si>
+    <t>GHL/32573/253.27</t>
+  </si>
+  <si>
+    <t>NTC/8210/872.10</t>
+  </si>
+  <si>
+    <t>SHEL/21754/274.63</t>
+  </si>
+  <si>
+    <t>HATHY/4252/1,251.31</t>
+  </si>
+  <si>
+    <t>BARUN/26608/525.95</t>
+  </si>
+  <si>
+    <t>NGPL/34377/386.40</t>
+  </si>
+  <si>
+    <t>NABIL/26837/493.10</t>
+  </si>
+  <si>
+    <t>BHL/46838/220.68</t>
+  </si>
+  <si>
+    <t>CIT/3129/1,917.77</t>
+  </si>
+  <si>
+    <t>CREST/6266/2,002.75</t>
+  </si>
+  <si>
+    <t>SHL/19738/570.27</t>
+  </si>
+  <si>
+    <t>NMIC/5016/2,112.93</t>
+  </si>
+  <si>
+    <t>NIFRA/32651/284.32</t>
+  </si>
+  <si>
+    <t>RIDI/32352/271.74</t>
+  </si>
+  <si>
+    <t>SAHAS/62603/527.22</t>
+  </si>
+  <si>
+    <t>NGPL/55855/384.44</t>
+  </si>
+  <si>
+    <t>CREST/9358/1,950.92</t>
+  </si>
+  <si>
+    <t>NLG/20051/820.55</t>
+  </si>
+  <si>
+    <t>AHPC/50490/296.13</t>
+  </si>
+  <si>
+    <t>TPC/185183/586.04</t>
+  </si>
+  <si>
+    <t>HURJA/435086/263.31</t>
+  </si>
+  <si>
+    <t>RHPL/180291/396.03</t>
+  </si>
+  <si>
+    <t>NMIC/27415/2,045.70</t>
+  </si>
+  <si>
+    <t>CREST/18899/1,916.45</t>
+  </si>
+  <si>
+    <t>BPCL/301991/498.62</t>
+  </si>
+  <si>
+    <t>SHIVM/136140/531.19</t>
+  </si>
+  <si>
+    <t>SADBL/89397/426.00</t>
+  </si>
+  <si>
+    <t>AHPC/73131/296.52</t>
+  </si>
+  <si>
+    <t>MDB/25342/604.48</t>
+  </si>
+  <si>
+    <t>BARUN/31906/542.15</t>
+  </si>
+  <si>
+    <t>UPPER/56651/205.52</t>
+  </si>
+  <si>
+    <t>CREST/4613/2,013.27</t>
+  </si>
+  <si>
+    <t>LBBL/68174/467.00</t>
+  </si>
+  <si>
+    <t>BPCL/59071/514.40</t>
+  </si>
+  <si>
+    <t>NADEP/11120/859.66</t>
+  </si>
+  <si>
+    <t>BARUN/15778/535.85</t>
+  </si>
+  <si>
+    <t>NLG/10270/810.44</t>
+  </si>
+  <si>
+    <t>LBBL/68010/465.10</t>
+  </si>
+  <si>
+    <t>RADHI/26221/742.77</t>
+  </si>
+  <si>
+    <t>NRN/8736/2,035.89</t>
+  </si>
+  <si>
+    <t>NGPL/42199/390.98</t>
+  </si>
+  <si>
+    <t>EBL/21856/648.40</t>
+  </si>
+  <si>
+    <t>NGPL/66326/386.45</t>
+  </si>
+  <si>
+    <t>SHIVM/29888/525.21</t>
+  </si>
+  <si>
+    <t>SADBL/34965/419.69</t>
+  </si>
+  <si>
+    <t>AKJCL/63236/214.99</t>
+  </si>
+  <si>
+    <t>SAHAS/23304/520.99</t>
+  </si>
+  <si>
+    <t>SHIVM/47928/528.30</t>
+  </si>
+  <si>
+    <t>BARUN/38915/529.11</t>
+  </si>
+  <si>
+    <t>SONA/42937/461.28</t>
+  </si>
+  <si>
+    <t>HPPL/26466/531.48</t>
+  </si>
+  <si>
+    <t>KBL/204000/215.39</t>
+  </si>
+  <si>
+    <t>HIDCL/97820/305.39</t>
+  </si>
+  <si>
+    <t>SHPC/32057/604.37</t>
+  </si>
+  <si>
+    <t>NICA/31438/357.93</t>
+  </si>
+  <si>
+    <t>SHEL/32120/278.19</t>
+  </si>
+  <si>
+    <t>RADHI/71557/749.09</t>
+  </si>
+  <si>
+    <t>NRN/19206/2,080.50</t>
+  </si>
+  <si>
+    <t>BHL/106814/218.71</t>
+  </si>
+  <si>
+    <t>NGPL/59470/379.42</t>
+  </si>
+  <si>
+    <t>MEN/35492/584.09</t>
+  </si>
+  <si>
+    <t>SAHAS/162334/527.45</t>
+  </si>
+  <si>
+    <t>NGPL/121676/381.02</t>
+  </si>
+  <si>
+    <t>BPCL/70682/512.30</t>
+  </si>
+  <si>
+    <t>NABBC/15329/1,570.69</t>
+  </si>
+  <si>
+    <t>CORBL/14207/2,401.95</t>
+  </si>
+  <si>
+    <t>RADHI/108334/742.70</t>
+  </si>
+  <si>
+    <t>HURJA/70708/266.77</t>
+  </si>
+  <si>
+    <t>AHPC/62138/295.78</t>
+  </si>
+  <si>
+    <t>UMHL/33122/512.00</t>
+  </si>
+  <si>
+    <t>GRDBL/13013/1,258.63</t>
+  </si>
+  <si>
+    <t>UPCL/338173/430.42</t>
+  </si>
+  <si>
+    <t>CHDC/57225/2,564.83</t>
+  </si>
+  <si>
+    <t>HIDCL/130375/305.29</t>
+  </si>
+  <si>
+    <t>SHL/31792/579.91</t>
+  </si>
+  <si>
+    <t>NGPL/33112/384.68</t>
+  </si>
+  <si>
+    <t>SBL/500340/292.53</t>
+  </si>
+  <si>
+    <t>EBL/126801/652.86</t>
+  </si>
+  <si>
+    <t>RADHI/109975/749.89</t>
+  </si>
+  <si>
+    <t>HRL/55308/970.70</t>
+  </si>
+  <si>
+    <t>API/316073/303.78</t>
+  </si>
+  <si>
+    <t>HIDCL/137659/307.70</t>
+  </si>
+  <si>
+    <t>MEN/60285/588.10</t>
+  </si>
+  <si>
+    <t>ALICL/43381/714.02</t>
+  </si>
+  <si>
+    <t>NIFRA/102831/283.86</t>
+  </si>
+  <si>
+    <t>GBIME/244859/239.41</t>
+  </si>
+  <si>
+    <t>UPCL/68441/418.88</t>
+  </si>
+  <si>
+    <t>NIFRA/93180/281.61</t>
+  </si>
+  <si>
+    <t>HDHPC/103004/213.88</t>
+  </si>
+  <si>
+    <t>RADHI/26123/746.85</t>
+  </si>
+  <si>
+    <t>SBI/137926/406.89</t>
+  </si>
+  <si>
+    <t>EBL/37805/625.30</t>
+  </si>
+  <si>
+    <t>SHEL/61024/279.85</t>
+  </si>
+  <si>
+    <t>JBBL/42227/336.39</t>
+  </si>
+  <si>
+    <t>KBL/57552/211.74</t>
+  </si>
+  <si>
+    <t>MEN/11794/584.31</t>
+  </si>
+  <si>
+    <t>SHPC/8692/591.38</t>
+  </si>
+  <si>
+    <t>BHPL/4655/953.55</t>
+  </si>
+  <si>
+    <t>SAHAS/8421/522.61</t>
+  </si>
+  <si>
+    <t>RIDI/12026/270.82</t>
+  </si>
+  <si>
+    <t>BPCL/218837/521.75</t>
+  </si>
+  <si>
+    <t>SHIVM/74002/527.28</t>
+  </si>
+  <si>
+    <t>CHDC/12417/2,538.11</t>
+  </si>
+  <si>
+    <t>ULBSL/6371/3,346.88</t>
+  </si>
+  <si>
+    <t>HPPL/40992/518.75</t>
+  </si>
+  <si>
+    <t>RADHI/258220/717.22</t>
+  </si>
+  <si>
+    <t>NRN/67535/2,064.96</t>
+  </si>
+  <si>
+    <t>UPCL/236830/422.82</t>
+  </si>
+  <si>
+    <t>BARUN/27747/529.02</t>
+  </si>
+  <si>
+    <t>SPDL/35337/387.48</t>
+  </si>
+  <si>
+    <t>BPCL/133828/501.63</t>
+  </si>
+  <si>
+    <t>SANIMA/47494/316.20</t>
+  </si>
+  <si>
+    <t>MEN/23430/592.78</t>
+  </si>
+  <si>
+    <t>CHDC/4145/2,542.17</t>
+  </si>
+  <si>
+    <t>SHPC/16109/584.44</t>
+  </si>
+  <si>
+    <t>SAPDBL/82184/942.73</t>
+  </si>
+  <si>
+    <t>GRDBL/26460/1,217.71</t>
+  </si>
+  <si>
+    <t>SINDU/32833/886.72</t>
+  </si>
+  <si>
+    <t>NMIC/13918/2,090.36</t>
+  </si>
+  <si>
+    <t>SHIVM/46581/528.15</t>
+  </si>
+  <si>
+    <t>GBIME/784388/239.20</t>
+  </si>
+  <si>
+    <t>AKPL/369481/255.95</t>
+  </si>
+  <si>
+    <t>RADHI/99995/757.00</t>
+  </si>
+  <si>
+    <t>MERO/107325/743.97</t>
+  </si>
+  <si>
+    <t>SHPC/112257/597.38</t>
+  </si>
+  <si>
+    <t>BPCL/106336/516.38</t>
+  </si>
+  <si>
+    <t>SPIL/29206/822.37</t>
+  </si>
+  <si>
+    <t>USLB/11379/1,949.34</t>
+  </si>
+  <si>
+    <t>SHIVM/32850/532.08</t>
+  </si>
+  <si>
+    <t>MEN/27291/590.32</t>
+  </si>
+  <si>
+    <t>EBL/145521/651.63</t>
+  </si>
+  <si>
+    <t>HRL/62325/968.62</t>
+  </si>
+  <si>
+    <t>PPCL/142064/342.90</t>
+  </si>
+  <si>
+    <t>MLBL/115694/394.56</t>
+  </si>
+  <si>
+    <t>SHPC/81275/588.07</t>
+  </si>
+  <si>
+    <t>SHPC/798331/594.91</t>
+  </si>
+  <si>
+    <t>NLIC/58807/758.78</t>
+  </si>
+  <si>
+    <t>CZBIL/198917/215.74</t>
+  </si>
+  <si>
+    <t>GBIME/169188/224.81</t>
+  </si>
+  <si>
+    <t>CHDC/12252/2,575.96</t>
+  </si>
+  <si>
+    <t>API/52438/303.58</t>
+  </si>
+  <si>
+    <t>HIDCL/30736/296.37</t>
+  </si>
+  <si>
+    <t>AKPL/23142/251.51</t>
+  </si>
+  <si>
+    <t>AHPC/145707/296.15</t>
+  </si>
+  <si>
+    <t>SPDL/35771/385.23</t>
+  </si>
+  <si>
+    <t>CREST/6531/1,980.20</t>
+  </si>
+  <si>
+    <t>HRL/12158/961.29</t>
+  </si>
+  <si>
+    <t>SHL/20183/565.87</t>
+  </si>
+  <si>
+    <t>SHL/212759/569.41</t>
+  </si>
+  <si>
+    <t>SHPC/86565/589.75</t>
+  </si>
+  <si>
+    <t>AHPC/88748/299.13</t>
+  </si>
+  <si>
+    <t>SHIVM/45364/527.56</t>
+  </si>
+  <si>
+    <t>NGPL/45286/384.02</t>
+  </si>
+  <si>
+    <t>RADHI/64759/731.74</t>
+  </si>
+  <si>
+    <t>SHPC/74538/595.67</t>
+  </si>
+  <si>
+    <t>MEN/75573/583.35</t>
+  </si>
+  <si>
+    <t>HPPL/45248/531.06</t>
+  </si>
+  <si>
+    <t>NTC/27886/870.10</t>
+  </si>
+  <si>
+    <t>RADHI/386501/745.33</t>
+  </si>
+  <si>
+    <t>SHL/55565/577.48</t>
+  </si>
+  <si>
+    <t>SHEL/89561/284.15</t>
+  </si>
+  <si>
+    <t>HURJA/70813/261.15</t>
+  </si>
+  <si>
+    <t>SPIL/22927/804.88</t>
+  </si>
+  <si>
+    <t>CHDC/19537/2,583.83</t>
+  </si>
+  <si>
+    <t>AHPC/74973/295.63</t>
+  </si>
+  <si>
+    <t>AKPL/78334/251.82</t>
+  </si>
+  <si>
+    <t>API/34983/305.60</t>
+  </si>
+  <si>
+    <t>BHL/35820/219.13</t>
+  </si>
+  <si>
+    <t>CHDC/12463/2,584.20</t>
+  </si>
+  <si>
+    <t>API/27685/307.48</t>
+  </si>
+  <si>
+    <t>RNLI/16911/509.65</t>
+  </si>
+  <si>
+    <t>BHL/37361/218.46</t>
+  </si>
+  <si>
+    <t>NIFRA/25854/284.76</t>
+  </si>
+  <si>
+    <t>NMIC/5335/2,083.39</t>
+  </si>
+  <si>
+    <t>MEN/17576/597.71</t>
+  </si>
+  <si>
+    <t>UMHL/17157/513.76</t>
+  </si>
+  <si>
+    <t>ULBSL/2648/3,329.00</t>
+  </si>
+  <si>
+    <t>SHPC/12179/599.13</t>
+  </si>
+  <si>
+    <t>STC/12629/5,082.01</t>
+  </si>
+  <si>
+    <t>SADBL/30389/422.60</t>
+  </si>
+  <si>
+    <t>BARUN/19804/537.27</t>
+  </si>
+  <si>
+    <t>CBBL/12681/856.93</t>
+  </si>
+  <si>
+    <t>BHL/35243/219.48</t>
+  </si>
+  <si>
+    <t>GMLI/178280/2,593.04</t>
+  </si>
+  <si>
+    <t>NRIC/248146/1,293.13</t>
+  </si>
+  <si>
+    <t>NMIC/46938/1,963.22</t>
+  </si>
+  <si>
+    <t>HDL/17329/1,218.98</t>
+  </si>
+  <si>
+    <t>RADHI/86357/762.77</t>
+  </si>
+  <si>
+    <t>NGPL/85927/387.65</t>
+  </si>
+  <si>
+    <t>SMHL/34061/944.29</t>
+  </si>
+  <si>
+    <t>BEDC/41113/720.52</t>
+  </si>
+  <si>
+    <t>MKCL/15423/1,543.55</t>
+  </si>
+  <si>
+    <t>NGPL/187777/383.35</t>
+  </si>
+  <si>
+    <t>RADHI/31842/740.38</t>
+  </si>
+  <si>
+    <t>AHPC/65864/295.37</t>
+  </si>
+  <si>
+    <t>HDHPC/97627/205.49</t>
+  </si>
+  <si>
+    <t>GHL/78427/254.65</t>
+  </si>
+  <si>
+    <t>KBL/1685747/214.45</t>
+  </si>
+  <si>
+    <t>NRN/142686/2,045.00</t>
+  </si>
+  <si>
+    <t>AHPC/408602/298.59</t>
+  </si>
+  <si>
+    <t>NGPL/320939/383.45</t>
+  </si>
+  <si>
+    <t>OHL/109000/949.54</t>
+  </si>
+  <si>
+    <t>SHPC/37057/596.06</t>
+  </si>
+  <si>
+    <t>NGPL/54793/383.58</t>
+  </si>
+  <si>
+    <t>NIFRA/58285/286.31</t>
+  </si>
+  <si>
+    <t>API/51760/304.03</t>
+  </si>
+  <si>
+    <t>RADHI/105468/747.27</t>
+  </si>
+  <si>
+    <t>UPCL/145987/423.92</t>
+  </si>
+  <si>
+    <t>SHL/62049/569.11</t>
+  </si>
+  <si>
+    <t>LBBL/50062/474.52</t>
+  </si>
+  <si>
+    <t>SHPC/36778/584.13</t>
+  </si>
+  <si>
+    <t>SHL/23318/567.63</t>
+  </si>
+  <si>
+    <t>CREST/4430/1,948.84</t>
+  </si>
+  <si>
+    <t>NMIC/4146/2,032.52</t>
+  </si>
+  <si>
+    <t>SADBL/11828/423.13</t>
+  </si>
+  <si>
+    <t>UMHL/444936/505.23</t>
+  </si>
+  <si>
+    <t>RIDI/277526/269.63</t>
+  </si>
+  <si>
+    <t>BPCL/66774/532.22</t>
+  </si>
+  <si>
+    <t>MKHL/33677/711.29</t>
+  </si>
+  <si>
+    <t>SHIVM/43070/533.21</t>
+  </si>
+  <si>
+    <t>RADHI/27527/747.58</t>
+  </si>
+  <si>
+    <t>SHEL/48245/285.38</t>
+  </si>
+  <si>
+    <t>SHL/22837/562.51</t>
+  </si>
+  <si>
+    <t>KBL/47999/211.69</t>
+  </si>
+  <si>
+    <t>PPCL/28946/344.60</t>
+  </si>
+  <si>
+    <t>BPCL/223390/520.11</t>
+  </si>
+  <si>
+    <t>SHPC/107064/599.73</t>
+  </si>
+  <si>
+    <t>BEDC/60051/741.85</t>
+  </si>
+  <si>
+    <t>NRN/18147/2,064.26</t>
+  </si>
+  <si>
+    <t>LSL/163025/214.45</t>
+  </si>
+  <si>
+    <t>PHCL/56590/600.37</t>
+  </si>
+  <si>
+    <t>SANIMA/101200/318.89</t>
+  </si>
+  <si>
+    <t>NGPL/77881/385.29</t>
+  </si>
+  <si>
+    <t>CHDC/44944/2,576.46</t>
+  </si>
+  <si>
+    <t>NRN/22016/2,065.78</t>
+  </si>
+  <si>
+    <t>NGPL/75399/375.89</t>
+  </si>
+  <si>
+    <t>UHEWA/35840/628.89</t>
+  </si>
+  <si>
+    <t>HIDCL/65055/297.05</t>
+  </si>
+  <si>
+    <t>RADHI/113328/764.25</t>
+  </si>
+  <si>
+    <t>HIDCL/83248/303.59</t>
+  </si>
+  <si>
+    <t>SHIVM/25485/535.81</t>
+  </si>
+  <si>
+    <t>HRL/8994/962.33</t>
+  </si>
+  <si>
+    <t>SHEL/22663/283.20</t>
+  </si>
+  <si>
+    <t>NGPL/127911/382.95</t>
+  </si>
+  <si>
+    <t>AHPC/71002/291.82</t>
+  </si>
+  <si>
+    <t>RIDI/66112/263.06</t>
+  </si>
+  <si>
+    <t>HIDCL/50241/305.46</t>
+  </si>
+  <si>
+    <t>SHPC/17108/597.20</t>
+  </si>
+  <si>
+    <t>HIDCL/74686/306.79</t>
+  </si>
+  <si>
+    <t>BPCL/77945/561.06</t>
+  </si>
+  <si>
+    <t>SHPC/43198/590.62</t>
+  </si>
+  <si>
+    <t>RADHI/15561/751.90</t>
+  </si>
+  <si>
+    <t>RADHI/94012/737.54</t>
+  </si>
+  <si>
+    <t>UPCL/117034/425.37</t>
+  </si>
+  <si>
+    <t>LBBL/97601/465.64</t>
+  </si>
+  <si>
+    <t>API/99611/306.39</t>
+  </si>
+  <si>
+    <t>SAPDBL/16577/908.26</t>
+  </si>
+  <si>
+    <t>CORBL/55666/2,278.00</t>
+  </si>
+  <si>
+    <t>GRDBL/27721/1,156.50</t>
+  </si>
+  <si>
+    <t>NRN/10576/2,064.29</t>
+  </si>
+  <si>
+    <t>CHDC/8504/2,565.04</t>
+  </si>
+  <si>
+    <t>TVCL/700/472.71</t>
+  </si>
+  <si>
+    <t>SONA/351/455.47</t>
+  </si>
+  <si>
+    <t>HURJA/500/247.80</t>
+  </si>
+  <si>
+    <t>SHPC/77351/581.82</t>
+  </si>
+  <si>
+    <t>UPCL/51721/417.57</t>
+  </si>
+  <si>
+    <t>BNHC/24551/518.72</t>
+  </si>
+  <si>
+    <t>SKBBL/14818/803.81</t>
+  </si>
+  <si>
+    <t>NRN/19818/2,078.41</t>
+  </si>
+  <si>
+    <t>API/57332/304.95</t>
+  </si>
+  <si>
+    <t>NGPL/30735/382.54</t>
+  </si>
+  <si>
+    <t>BPCL/20600/546.82</t>
+  </si>
+  <si>
+    <t>RADHI/28723/730.19</t>
+  </si>
+  <si>
+    <t>MBJC/27025/317.22</t>
+  </si>
+  <si>
+    <t>SHIVM/11771/526.10</t>
+  </si>
+  <si>
+    <t>MEN/7636/577.27</t>
+  </si>
+  <si>
+    <t>CHDC/36991/2,567.21</t>
+  </si>
+  <si>
+    <t>BPCL/135506/524.30</t>
+  </si>
+  <si>
+    <t>NRN/28481/2,061.44</t>
+  </si>
+  <si>
+    <t>RADHI/73180/755.21</t>
+  </si>
+  <si>
+    <t>LBBL/70074/470.58</t>
+  </si>
+  <si>
+    <t>RADHI/7472/757.05</t>
+  </si>
+  <si>
+    <t>ALICL/7384/708.65</t>
+  </si>
+  <si>
+    <t>NGPL/8245/379.91</t>
+  </si>
+  <si>
+    <t>MEN/50894/585.11</t>
+  </si>
+  <si>
+    <t>NIFRA/84303/287.58</t>
+  </si>
+  <si>
+    <t>NMLBBL/30141/664.33</t>
+  </si>
+  <si>
+    <t>RADHI/17869/756.43</t>
+  </si>
+  <si>
+    <t>HRL/12002/974.21</t>
+  </si>
+  <si>
+    <t>UPCL/243889/422.70</t>
+  </si>
+  <si>
+    <t>NGPL/219706/390.87</t>
+  </si>
+  <si>
+    <t>RIDI/134406/270.96</t>
+  </si>
+  <si>
+    <t>HRL/16921/983.17</t>
+  </si>
+  <si>
+    <t>NRN/15709/2,063.17</t>
+  </si>
+  <si>
+    <t>NICA/42799/372.17</t>
+  </si>
+  <si>
+    <t>UMHL/16692/509.84</t>
+  </si>
+  <si>
+    <t>BPCL/13201/541.81</t>
+  </si>
+  <si>
+    <t>RADHI/10399/743.93</t>
+  </si>
+  <si>
+    <t>RADHI/27956/750.73</t>
+  </si>
+  <si>
+    <t>HRL/15480/960.40</t>
+  </si>
+  <si>
+    <t>KPCL/15914/523.81</t>
+  </si>
+  <si>
+    <t>HIDCL/96075/302.17</t>
+  </si>
+  <si>
+    <t>SADBL/48621/422.43</t>
+  </si>
+  <si>
+    <t>KSBBL/39511/446.86</t>
+  </si>
+  <si>
+    <t>HDL/12425/1,217.87</t>
+  </si>
+  <si>
+    <t>NGPL/175415/380.91</t>
+  </si>
+  <si>
+    <t>SHL/71323/585.22</t>
+  </si>
+  <si>
+    <t>RADHI/53957/751.06</t>
+  </si>
+  <si>
+    <t>NRN/6761/2,078.97</t>
+  </si>
+  <si>
+    <t>SHEL/42683/282.85</t>
+  </si>
+  <si>
+    <t>UPCL/36702/414.81</t>
+  </si>
+  <si>
+    <t>NGPL/35347/385.21</t>
+  </si>
+  <si>
+    <t>NRIC/9167/1,284.54</t>
+  </si>
+  <si>
+    <t>RADHI/15436/750.97</t>
+  </si>
+  <si>
+    <t>RADHI/90846/746.47</t>
+  </si>
+  <si>
+    <t>NMIC/4316/2,070.67</t>
+  </si>
+  <si>
+    <t>UPCL/13062/416.58</t>
+  </si>
+  <si>
+    <t>HURJA/10465/273.32</t>
+  </si>
+  <si>
+    <t>SAPDBL/31931/905.26</t>
+  </si>
+  <si>
+    <t>SHPC/25673/587.63</t>
+  </si>
+  <si>
+    <t>CORBL/5200/2,579.05</t>
+  </si>
+  <si>
+    <t>GRDBL/10132/1,176.96</t>
+  </si>
+  <si>
+    <t>BARUN/13620/536.07</t>
+  </si>
+  <si>
+    <t>RADHI/35681/739.58</t>
+  </si>
+  <si>
+    <t>GBIME/87094/236.22</t>
+  </si>
+  <si>
+    <t>NGPL/22205/380.66</t>
+  </si>
+  <si>
+    <t>HRL/2792/975.04</t>
+  </si>
+  <si>
+    <t>SHL/10859/573.68</t>
+  </si>
+  <si>
+    <t>BARUN/5280/540.34</t>
+  </si>
+  <si>
+    <t>CREST/1330/1,908.34</t>
+  </si>
+  <si>
+    <t>AHPC/7826/293.93</t>
+  </si>
+  <si>
+    <t>UPCL/61953/424.75</t>
+  </si>
+  <si>
+    <t>RADHI/19349/745.59</t>
+  </si>
+  <si>
+    <t>BPCL/25662/526.43</t>
+  </si>
+  <si>
+    <t>SHPC/19692/585.15</t>
+  </si>
+  <si>
+    <t>AKPL/43010/257.07</t>
+  </si>
+  <si>
+    <t>HIDCL/159221/300.55</t>
+  </si>
+  <si>
+    <t>RADHI/7185/741.66</t>
+  </si>
+  <si>
+    <t>SPHL/5991/696.42</t>
+  </si>
+  <si>
+    <t>HEI/13324/582.80</t>
+  </si>
+  <si>
+    <t>ICFC/6430/616.12</t>
+  </si>
+  <si>
+    <t>HRL/3713/972.03</t>
+  </si>
+  <si>
+    <t>SHPC/5910/592.48</t>
+  </si>
+  <si>
+    <t>BPCL/10240/475.77</t>
+  </si>
+  <si>
+    <t>RADHI/192871/757.12</t>
+  </si>
+  <si>
+    <t>MKHL/126331/723.02</t>
+  </si>
+  <si>
+    <t>UPCL/76690/420.70</t>
+  </si>
+  <si>
+    <t>NGPL/87845/379.12</t>
+  </si>
+  <si>
+    <t>PRIN/33202/868.25</t>
+  </si>
+  <si>
+    <t>UPCL/56807/437.46</t>
+  </si>
+  <si>
+    <t>NMIC/3590/2,173.38</t>
+  </si>
+  <si>
+    <t>NICA/17864/366.34</t>
+  </si>
+  <si>
+    <t>NMB/25956/240.58</t>
+  </si>
+  <si>
+    <t>NLG/7565/777.64</t>
+  </si>
+  <si>
+    <t>LBBL/175446/469.87</t>
+  </si>
+  <si>
+    <t>SHL/88564/561.64</t>
+  </si>
+  <si>
+    <t>NICA/108981/366.30</t>
+  </si>
+  <si>
+    <t>NRN/8628/2,051.00</t>
+  </si>
+  <si>
+    <t>SHPC/27257/591.02</t>
+  </si>
+  <si>
+    <t>UPCL/24749/432.15</t>
+  </si>
+  <si>
+    <t>SADBL/21210/431.15</t>
+  </si>
+  <si>
+    <t>NMIC/3468/2,101.53</t>
+  </si>
+  <si>
+    <t>NGPL/51323/384.12</t>
+  </si>
+  <si>
+    <t>API/49730/309.58</t>
+  </si>
+  <si>
+    <t>SHPC/21973/577.85</t>
+  </si>
+  <si>
+    <t>AHPC/26010/292.41</t>
+  </si>
+  <si>
+    <t>SHIVM/24148/536.43</t>
+  </si>
+  <si>
+    <t>BPCL/18885/556.62</t>
+  </si>
+  <si>
+    <t>UPCL/17961/420.40</t>
+  </si>
+  <si>
+    <t>PHCL/109404/605.37</t>
+  </si>
+  <si>
+    <t>MLBL/46873/389.48</t>
+  </si>
+  <si>
+    <t>RADHI/18362/781.26</t>
+  </si>
+  <si>
+    <t>CHDC/4147/2,576.84</t>
+  </si>
+  <si>
+    <t>NGPL/15702/390.27</t>
+  </si>
+  <si>
+    <t>RADHI/7567/731.57</t>
+  </si>
+  <si>
+    <t>RFPL/7536/479.68</t>
   </si>
 </sst>
 </file>
@@ -7353,11 +8584,1893 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676205A0-C5FF-4AEC-B10B-18D60F60A28C}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2336</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2337</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2341</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2355</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2356</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2394</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2413</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2417</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2418</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2422</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2432</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2450</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2451</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2460</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2480</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2496</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2513</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2514</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2519</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2524</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2534</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2549</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2557</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2567</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2576</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2591</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2619</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2623</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2626</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2627</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2634</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F66" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2638</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2642</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2646</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2651</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2226</v>
+      </c>
+      <c r="F71" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2654</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2668</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2244</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F76" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F77" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2679</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2680</v>
+      </c>
+      <c r="F78" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2684</v>
+      </c>
+      <c r="F79" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2693</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2275</v>
+      </c>
+      <c r="F81" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2697</v>
+      </c>
+      <c r="F82" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F83" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2714</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2719</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2720</v>
+      </c>
+      <c r="F87" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F88" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F89" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2732</v>
+      </c>
+      <c r="F90" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2736</v>
+      </c>
+      <c r="F91" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F92" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2743</v>
+      </c>
+      <c r="F93" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC7E8D-1DE3-4DBF-BC92-6657EED87D10}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9235,7 +12348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EEF453-2C93-48DA-92A9-F02917F02C21}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -11117,7 +14230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3009EEF-D0A3-4418-BB02-D308992E6389}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -12997,7 +16110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62503B16-5D5E-43EB-8EDC-28C65E9BFBAD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -14877,7 +17990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>

--- a/Broker Analysis.xlsx
+++ b/Broker Analysis.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Others\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15E106B-0916-434A-8C6D-13A2A4388BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FCF239-A4DB-4C66-9BC4-F17A54CD5FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-06-03" sheetId="6" r:id="rId1"/>
-    <sheet name="2025-06-02" sheetId="5" r:id="rId2"/>
-    <sheet name="2025-05-28" sheetId="4" r:id="rId3"/>
-    <sheet name="2025-05-21" sheetId="3" r:id="rId4"/>
-    <sheet name="2025-05-20" sheetId="2" r:id="rId5"/>
-    <sheet name="2025-05-19" sheetId="1" r:id="rId6"/>
+    <sheet name="2025-06-04" sheetId="7" r:id="rId1"/>
+    <sheet name="2025-06-03" sheetId="6" r:id="rId2"/>
+    <sheet name="2025-06-02" sheetId="5" r:id="rId3"/>
+    <sheet name="2025-05-28" sheetId="4" r:id="rId4"/>
+    <sheet name="2025-05-21" sheetId="3" r:id="rId5"/>
+    <sheet name="2025-05-20" sheetId="2" r:id="rId6"/>
+    <sheet name="2025-05-19" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3348" uniqueCount="2744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="3140">
   <si>
     <t>B1</t>
   </si>
@@ -8262,6 +8263,1194 @@
   </si>
   <si>
     <t>RFPL/7536/479.68</t>
+  </si>
+  <si>
+    <t>CHDC/7493/2,543.04</t>
+  </si>
+  <si>
+    <t>NIFRA/53572/285.40</t>
+  </si>
+  <si>
+    <t>EBL/21184/646.07</t>
+  </si>
+  <si>
+    <t>HPPL/24040/519.46</t>
+  </si>
+  <si>
+    <t>RNLI/22189/511.52</t>
+  </si>
+  <si>
+    <t>SHPC/22333/588.18</t>
+  </si>
+  <si>
+    <t>SHIVM/19049/529.78</t>
+  </si>
+  <si>
+    <t>HLI/23552/413.75</t>
+  </si>
+  <si>
+    <t>HIDCL/28203/306.42</t>
+  </si>
+  <si>
+    <t>SARBTM/40024/855.25</t>
+  </si>
+  <si>
+    <t>UPCL/64941/418.18</t>
+  </si>
+  <si>
+    <t>MERO/18793/723.97</t>
+  </si>
+  <si>
+    <t>SHIVM/25018/525.86</t>
+  </si>
+  <si>
+    <t>SPDL/33999/383.08</t>
+  </si>
+  <si>
+    <t>NGPL/68470/382.58</t>
+  </si>
+  <si>
+    <t>HDL/6995/1,235.20</t>
+  </si>
+  <si>
+    <t>HPPL/13807/526.48</t>
+  </si>
+  <si>
+    <t>SHPC/11921/589.04</t>
+  </si>
+  <si>
+    <t>NMIC/3061/2,040.49</t>
+  </si>
+  <si>
+    <t>NRIC/347281/1,293.40</t>
+  </si>
+  <si>
+    <t>HRL/63314/957.96</t>
+  </si>
+  <si>
+    <t>SAHAS/38869/525.03</t>
+  </si>
+  <si>
+    <t>SHPC/34028/587.55</t>
+  </si>
+  <si>
+    <t>MEN/24665/585.21</t>
+  </si>
+  <si>
+    <t>CHDC/10966/2,535.77</t>
+  </si>
+  <si>
+    <t>RADHI/22776/735.99</t>
+  </si>
+  <si>
+    <t>NICA/43317/360.13</t>
+  </si>
+  <si>
+    <t>UPCL/25467/424.82</t>
+  </si>
+  <si>
+    <t>GHL/40642/258.48</t>
+  </si>
+  <si>
+    <t>LBBL/257143/453.04</t>
+  </si>
+  <si>
+    <t>BPCL/114502/556.14</t>
+  </si>
+  <si>
+    <t>SADBL/70430/429.39</t>
+  </si>
+  <si>
+    <t>LSL/98612/223.66</t>
+  </si>
+  <si>
+    <t>BARUN/28586/523.05</t>
+  </si>
+  <si>
+    <t>NTC/8230/872.07</t>
+  </si>
+  <si>
+    <t>CIT/3187/1,924.72</t>
+  </si>
+  <si>
+    <t>SHEL/22354/274.56</t>
+  </si>
+  <si>
+    <t>HATHY/4228/1,251.31</t>
+  </si>
+  <si>
+    <t>NGPL/35427/386.26</t>
+  </si>
+  <si>
+    <t>NABIL/27123/493.09</t>
+  </si>
+  <si>
+    <t>BHL/47202/220.63</t>
+  </si>
+  <si>
+    <t>BARUN/17977/525.06</t>
+  </si>
+  <si>
+    <t>CIT/3244/1,917.48</t>
+  </si>
+  <si>
+    <t>CREST/6751/1,998.09</t>
+  </si>
+  <si>
+    <t>NMIC/5415/2,100.10</t>
+  </si>
+  <si>
+    <t>SHL/17828/570.27</t>
+  </si>
+  <si>
+    <t>RIDI/33818/271.40</t>
+  </si>
+  <si>
+    <t>NICA/24338/350.95</t>
+  </si>
+  <si>
+    <t>SAHAS/58920/527.16</t>
+  </si>
+  <si>
+    <t>NGPL/56400/384.42</t>
+  </si>
+  <si>
+    <t>NLG/21801/816.21</t>
+  </si>
+  <si>
+    <t>CREST/7648/1,944.54</t>
+  </si>
+  <si>
+    <t>AHPC/50240/296.06</t>
+  </si>
+  <si>
+    <t>TPC/185513/585.70</t>
+  </si>
+  <si>
+    <t>HURJA/431322/263.24</t>
+  </si>
+  <si>
+    <t>RHPL/180450/396.01</t>
+  </si>
+  <si>
+    <t>NMIC/28615/2,037.73</t>
+  </si>
+  <si>
+    <t>CREST/18849/1,916.33</t>
+  </si>
+  <si>
+    <t>BPCL/299255/498.73</t>
+  </si>
+  <si>
+    <t>SHIVM/136740/531.12</t>
+  </si>
+  <si>
+    <t>SADBL/93384/425.59</t>
+  </si>
+  <si>
+    <t>AHPC/89920/296.13</t>
+  </si>
+  <si>
+    <t>BARUN/32166/527.34</t>
+  </si>
+  <si>
+    <t>BARUN/32427/540.72</t>
+  </si>
+  <si>
+    <t>UPPER/58806/205.40</t>
+  </si>
+  <si>
+    <t>CREST/4269/2,013.27</t>
+  </si>
+  <si>
+    <t>BPCL/86446/528.39</t>
+  </si>
+  <si>
+    <t>LBBL/49297/467.00</t>
+  </si>
+  <si>
+    <t>OMPL/6130/1,814.58</t>
+  </si>
+  <si>
+    <t>NADEP/11320/859.54</t>
+  </si>
+  <si>
+    <t>SAPDBL/11170/861.00</t>
+  </si>
+  <si>
+    <t>LBBL/70285/464.73</t>
+  </si>
+  <si>
+    <t>RADHI/27221/743.62</t>
+  </si>
+  <si>
+    <t>NRN/8725/2,035.89</t>
+  </si>
+  <si>
+    <t>EBL/24856/648.11</t>
+  </si>
+  <si>
+    <t>NGPL/36652/390.92</t>
+  </si>
+  <si>
+    <t>NGPL/66964/386.22</t>
+  </si>
+  <si>
+    <t>SADBL/55928/417.25</t>
+  </si>
+  <si>
+    <t>SHIVM/36887/524.58</t>
+  </si>
+  <si>
+    <t>AKJCL/65306/214.79</t>
+  </si>
+  <si>
+    <t>RIDI/44334/270.65</t>
+  </si>
+  <si>
+    <t>SHIVM/50987/527.83</t>
+  </si>
+  <si>
+    <t>BARUN/42727/525.37</t>
+  </si>
+  <si>
+    <t>SONA/42587/461.19</t>
+  </si>
+  <si>
+    <t>HPPL/26816/530.97</t>
+  </si>
+  <si>
+    <t>KBL/209580/215.29</t>
+  </si>
+  <si>
+    <t>HIDCL/131014/305.81</t>
+  </si>
+  <si>
+    <t>SHPC/30557/604.37</t>
+  </si>
+  <si>
+    <t>NICA/33513/357.75</t>
+  </si>
+  <si>
+    <t>API/34272/302.92</t>
+  </si>
+  <si>
+    <t>RADHI/69065/749.10</t>
+  </si>
+  <si>
+    <t>NRN/19216/2,080.49</t>
+  </si>
+  <si>
+    <t>NGPL/70130/379.48</t>
+  </si>
+  <si>
+    <t>BHL/113002/218.42</t>
+  </si>
+  <si>
+    <t>MEN/35294/583.69</t>
+  </si>
+  <si>
+    <t>SAHAS/163214/527.33</t>
+  </si>
+  <si>
+    <t>NGPL/107436/381.04</t>
+  </si>
+  <si>
+    <t>BPCL/72208/513.17</t>
+  </si>
+  <si>
+    <t>NABBC/15489/1,571.20</t>
+  </si>
+  <si>
+    <t>CORBL/14117/2,405.29</t>
+  </si>
+  <si>
+    <t>RADHI/109324/743.53</t>
+  </si>
+  <si>
+    <t>AHPC/74143/295.45</t>
+  </si>
+  <si>
+    <t>DORDI/50261/406.50</t>
+  </si>
+  <si>
+    <t>HURJA/71688/266.56</t>
+  </si>
+  <si>
+    <t>UMHL/34550/512.04</t>
+  </si>
+  <si>
+    <t>CHDC/55134/2,564.74</t>
+  </si>
+  <si>
+    <t>UPCL/315135/430.56</t>
+  </si>
+  <si>
+    <t>HIDCL/120555/305.29</t>
+  </si>
+  <si>
+    <t>SHL/36002/579.66</t>
+  </si>
+  <si>
+    <t>BARUN/26916/526.72</t>
+  </si>
+  <si>
+    <t>SBL/512841/292.68</t>
+  </si>
+  <si>
+    <t>EBL/127915/652.85</t>
+  </si>
+  <si>
+    <t>RADHI/103951/749.97</t>
+  </si>
+  <si>
+    <t>HRL/55395/970.68</t>
+  </si>
+  <si>
+    <t>API/322954/303.53</t>
+  </si>
+  <si>
+    <t>RADHI/63572/740.36</t>
+  </si>
+  <si>
+    <t>HIDCL/153764/307.77</t>
+  </si>
+  <si>
+    <t>MEN/71755/586.66</t>
+  </si>
+  <si>
+    <t>ALICL/42717/712.97</t>
+  </si>
+  <si>
+    <t>GBIME/244532/239.41</t>
+  </si>
+  <si>
+    <t>RADHI/35837/748.13</t>
+  </si>
+  <si>
+    <t>UPCL/68249/419.21</t>
+  </si>
+  <si>
+    <t>NIFRA/91293/281.63</t>
+  </si>
+  <si>
+    <t>HDHPC/100695/213.85</t>
+  </si>
+  <si>
+    <t>SBI/145799/407.27</t>
+  </si>
+  <si>
+    <t>SHEL/63564/279.60</t>
+  </si>
+  <si>
+    <t>KBL/78502/211.97</t>
+  </si>
+  <si>
+    <t>JBBL/42452/336.35</t>
+  </si>
+  <si>
+    <t>MEN/12294/583.78</t>
+  </si>
+  <si>
+    <t>BARUN/8999/517.81</t>
+  </si>
+  <si>
+    <t>BHPL/4555/953.55</t>
+  </si>
+  <si>
+    <t>RIDI/14026/270.01</t>
+  </si>
+  <si>
+    <t>BPCL/228702/524.28</t>
+  </si>
+  <si>
+    <t>SHIVM/78308/526.95</t>
+  </si>
+  <si>
+    <t>CHDC/12081/2,538.11</t>
+  </si>
+  <si>
+    <t>HPPL/48694/515.69</t>
+  </si>
+  <si>
+    <t>ULBSL/5824/3,348.83</t>
+  </si>
+  <si>
+    <t>RADHI/273816/719.48</t>
+  </si>
+  <si>
+    <t>NRN/67500/2,064.80</t>
+  </si>
+  <si>
+    <t>UPCL/239735/423.15</t>
+  </si>
+  <si>
+    <t>SPDL/39232/386.11</t>
+  </si>
+  <si>
+    <t>SHL/24535/564.57</t>
+  </si>
+  <si>
+    <t>BPCL/134028/501.95</t>
+  </si>
+  <si>
+    <t>SANIMA/53246/315.95</t>
+  </si>
+  <si>
+    <t>MEN/23630/592.67</t>
+  </si>
+  <si>
+    <t>CHDC/4095/2,542.17</t>
+  </si>
+  <si>
+    <t>SHPC/16809/584.09</t>
+  </si>
+  <si>
+    <t>SAPDBL/79923/942.74</t>
+  </si>
+  <si>
+    <t>SINDU/40024/887.75</t>
+  </si>
+  <si>
+    <t>NMIC/13846/2,088.61</t>
+  </si>
+  <si>
+    <t>SHIVM/46227/528.02</t>
+  </si>
+  <si>
+    <t>GBIME/857209/239.19</t>
+  </si>
+  <si>
+    <t>MERO/107960/743.87</t>
+  </si>
+  <si>
+    <t>SHPC/115568/596.83</t>
+  </si>
+  <si>
+    <t>RADHI/79384/757.43</t>
+  </si>
+  <si>
+    <t>AKPL/235158/257.95</t>
+  </si>
+  <si>
+    <t>BPCL/117061/520.28</t>
+  </si>
+  <si>
+    <t>GHL/87029/252.58</t>
+  </si>
+  <si>
+    <t>SHIVM/33140/532.01</t>
+  </si>
+  <si>
+    <t>EBL/134479/651.62</t>
+  </si>
+  <si>
+    <t>PPCL/143054/342.83</t>
+  </si>
+  <si>
+    <t>AKPL/182514/260.65</t>
+  </si>
+  <si>
+    <t>MLBL/121494/394.24</t>
+  </si>
+  <si>
+    <t>SHPC/81795/587.96</t>
+  </si>
+  <si>
+    <t>SHPC/807982/594.72</t>
+  </si>
+  <si>
+    <t>NLIC/59698/758.76</t>
+  </si>
+  <si>
+    <t>GBIME/186492/225.07</t>
+  </si>
+  <si>
+    <t>CZBIL/197866/215.73</t>
+  </si>
+  <si>
+    <t>LSL/133214/216.52</t>
+  </si>
+  <si>
+    <t>API/53551/303.40</t>
+  </si>
+  <si>
+    <t>MEN/11608/589.73</t>
+  </si>
+  <si>
+    <t>HIDCL/24468/296.55</t>
+  </si>
+  <si>
+    <t>SHPC/9957/577.28</t>
+  </si>
+  <si>
+    <t>AHPC/143189/296.13</t>
+  </si>
+  <si>
+    <t>AKPL/101201/264.22</t>
+  </si>
+  <si>
+    <t>SPDL/36072/385.05</t>
+  </si>
+  <si>
+    <t>CREST/6631/1,976.32</t>
+  </si>
+  <si>
+    <t>SHL/20833/565.87</t>
+  </si>
+  <si>
+    <t>SHL/216763/569.39</t>
+  </si>
+  <si>
+    <t>SHPC/87243/589.37</t>
+  </si>
+  <si>
+    <t>SHIVM/62713/525.74</t>
+  </si>
+  <si>
+    <t>AHPC/86449/299.05</t>
+  </si>
+  <si>
+    <t>NGPL/52145/383.99</t>
+  </si>
+  <si>
+    <t>SHPC/80580/594.28</t>
+  </si>
+  <si>
+    <t>MEN/64923/583.35</t>
+  </si>
+  <si>
+    <t>RADHI/46240/731.98</t>
+  </si>
+  <si>
+    <t>NTC/30712/869.10</t>
+  </si>
+  <si>
+    <t>HPPL/47539/530.15</t>
+  </si>
+  <si>
+    <t>RADHI/389015/745.72</t>
+  </si>
+  <si>
+    <t>SHL/56151/577.40</t>
+  </si>
+  <si>
+    <t>SHEL/88831/284.12</t>
+  </si>
+  <si>
+    <t>HURJA/70933/260.94</t>
+  </si>
+  <si>
+    <t>CHDC/19501/2,583.83</t>
+  </si>
+  <si>
+    <t>AHPC/77882/295.44</t>
+  </si>
+  <si>
+    <t>AKPL/58554/252.48</t>
+  </si>
+  <si>
+    <t>API/36305/305.36</t>
+  </si>
+  <si>
+    <t>BHL/42620/218.61</t>
+  </si>
+  <si>
+    <t>CHDC/12389/2,584.20</t>
+  </si>
+  <si>
+    <t>BARUN/18211/521.55</t>
+  </si>
+  <si>
+    <t>RNLI/17783/509.60</t>
+  </si>
+  <si>
+    <t>API/25409/307.48</t>
+  </si>
+  <si>
+    <t>NIFRA/25908/284.76</t>
+  </si>
+  <si>
+    <t>NMIC/5275/2,083.39</t>
+  </si>
+  <si>
+    <t>MEN/17226/597.71</t>
+  </si>
+  <si>
+    <t>SHIVM/16644/526.22</t>
+  </si>
+  <si>
+    <t>UMHL/16477/513.76</t>
+  </si>
+  <si>
+    <t>STC/14390/5,073.40</t>
+  </si>
+  <si>
+    <t>SADBL/30689/422.47</t>
+  </si>
+  <si>
+    <t>BARUN/22112/533.63</t>
+  </si>
+  <si>
+    <t>CBBL/13661/857.94</t>
+  </si>
+  <si>
+    <t>BHL/34598/219.33</t>
+  </si>
+  <si>
+    <t>GMLI/180395/2,592.27</t>
+  </si>
+  <si>
+    <t>NRIC/250055/1,292.98</t>
+  </si>
+  <si>
+    <t>NMIC/53737/1,951.53</t>
+  </si>
+  <si>
+    <t>NLG/95756/833.39</t>
+  </si>
+  <si>
+    <t>HDL/17880/1,218.78</t>
+  </si>
+  <si>
+    <t>RADHI/67005/763.23</t>
+  </si>
+  <si>
+    <t>SMHL/38716/943.21</t>
+  </si>
+  <si>
+    <t>NGPL/82244/387.47</t>
+  </si>
+  <si>
+    <t>BEDC/43103/721.28</t>
+  </si>
+  <si>
+    <t>MKCL/15343/1,543.55</t>
+  </si>
+  <si>
+    <t>NGPL/196659/383.31</t>
+  </si>
+  <si>
+    <t>RADHI/30570/740.54</t>
+  </si>
+  <si>
+    <t>GHL/86091/253.91</t>
+  </si>
+  <si>
+    <t>NHPC/92713/228.26</t>
+  </si>
+  <si>
+    <t>AHPC/63059/295.25</t>
+  </si>
+  <si>
+    <t>KBL/1789749/214.35</t>
+  </si>
+  <si>
+    <t>NRN/145311/2,044.32</t>
+  </si>
+  <si>
+    <t>NGPL/345117/383.43</t>
+  </si>
+  <si>
+    <t>AHPC/432485/298.15</t>
+  </si>
+  <si>
+    <t>OHL/108636/949.53</t>
+  </si>
+  <si>
+    <t>SHPC/40946/594.99</t>
+  </si>
+  <si>
+    <t>ALICL/27528/709.66</t>
+  </si>
+  <si>
+    <t>NGPL/47233/383.57</t>
+  </si>
+  <si>
+    <t>NIFRA/59123/286.28</t>
+  </si>
+  <si>
+    <t>API/58950/303.51</t>
+  </si>
+  <si>
+    <t>RADHI/107292/749.38</t>
+  </si>
+  <si>
+    <t>UPCL/140264/424.09</t>
+  </si>
+  <si>
+    <t>SHL/61549/569.11</t>
+  </si>
+  <si>
+    <t>LBBL/50572/474.40</t>
+  </si>
+  <si>
+    <t>NMIC/10881/1,969.93</t>
+  </si>
+  <si>
+    <t>CREST/5812/1,911.81</t>
+  </si>
+  <si>
+    <t>SHL/19352/567.63</t>
+  </si>
+  <si>
+    <t>NMIC/4006/2,032.52</t>
+  </si>
+  <si>
+    <t>HIDCL/14582/306.49</t>
+  </si>
+  <si>
+    <t>UMHL/460216/505.53</t>
+  </si>
+  <si>
+    <t>RIDI/256996/269.61</t>
+  </si>
+  <si>
+    <t>BPCL/72799/533.95</t>
+  </si>
+  <si>
+    <t>SHIVM/43418/533.12</t>
+  </si>
+  <si>
+    <t>ANLB/3860/5,389.06</t>
+  </si>
+  <si>
+    <t>RADHI/26427/747.72</t>
+  </si>
+  <si>
+    <t>SHEL/46295/285.28</t>
+  </si>
+  <si>
+    <t>SHL/22660/562.58</t>
+  </si>
+  <si>
+    <t>OMPL/6690/1,816.15</t>
+  </si>
+  <si>
+    <t>AKPL/41293/262.15</t>
+  </si>
+  <si>
+    <t>BPCL/241127/522.92</t>
+  </si>
+  <si>
+    <t>SHPC/105014/599.61</t>
+  </si>
+  <si>
+    <t>BEDC/59800/741.83</t>
+  </si>
+  <si>
+    <t>NRN/18447/2,063.62</t>
+  </si>
+  <si>
+    <t>LSL/162925/214.45</t>
+  </si>
+  <si>
+    <t>SARBTM/107658/861.49</t>
+  </si>
+  <si>
+    <t>PHCL/53209/599.11</t>
+  </si>
+  <si>
+    <t>SANIMA/103007/318.80</t>
+  </si>
+  <si>
+    <t>NIFRA/108214/283.29</t>
+  </si>
+  <si>
+    <t>CHDC/46738/2,574.06</t>
+  </si>
+  <si>
+    <t>NRN/23094/2,062.63</t>
+  </si>
+  <si>
+    <t>NGPL/80048/375.98</t>
+  </si>
+  <si>
+    <t>UHEWA/35750/628.89</t>
+  </si>
+  <si>
+    <t>HIDCL/65655/297.17</t>
+  </si>
+  <si>
+    <t>RADHI/125766/765.18</t>
+  </si>
+  <si>
+    <t>HIDCL/84438/303.62</t>
+  </si>
+  <si>
+    <t>SHIVM/25423/535.81</t>
+  </si>
+  <si>
+    <t>SHEL/24026/282.81</t>
+  </si>
+  <si>
+    <t>NGPL/149993/383.26</t>
+  </si>
+  <si>
+    <t>AHPC/70502/291.82</t>
+  </si>
+  <si>
+    <t>RIDI/67871/262.95</t>
+  </si>
+  <si>
+    <t>HIDCL/48623/305.49</t>
+  </si>
+  <si>
+    <t>SHPC/16608/597.20</t>
+  </si>
+  <si>
+    <t>SHL/93881/563.40</t>
+  </si>
+  <si>
+    <t>HIDCL/80336/306.98</t>
+  </si>
+  <si>
+    <t>BPCL/76845/561.06</t>
+  </si>
+  <si>
+    <t>SHPC/43468/590.44</t>
+  </si>
+  <si>
+    <t>HPPL/28437/495.62</t>
+  </si>
+  <si>
+    <t>CZBIL/43933/220.41</t>
+  </si>
+  <si>
+    <t>RADHI/102526/739.25</t>
+  </si>
+  <si>
+    <t>UPCL/116079/425.74</t>
+  </si>
+  <si>
+    <t>LBBL/92958/465.64</t>
+  </si>
+  <si>
+    <t>SAPDBL/17835/912.63</t>
+  </si>
+  <si>
+    <t>CORBL/61977/2,296.12</t>
+  </si>
+  <si>
+    <t>GRDBL/27986/1,159.32</t>
+  </si>
+  <si>
+    <t>NRN/11786/2,060.85</t>
+  </si>
+  <si>
+    <t>CHDC/8444/2,565.04</t>
+  </si>
+  <si>
+    <t>TVCL/780/472.13</t>
+  </si>
+  <si>
+    <t>SHPC/89126/580.04</t>
+  </si>
+  <si>
+    <t>UPCL/60721/418.84</t>
+  </si>
+  <si>
+    <t>BNHC/24071/518.72</t>
+  </si>
+  <si>
+    <t>MEN/20771/595.48</t>
+  </si>
+  <si>
+    <t>NRN/20849/2,076.85</t>
+  </si>
+  <si>
+    <t>API/56371/304.93</t>
+  </si>
+  <si>
+    <t>NGPL/30742/382.53</t>
+  </si>
+  <si>
+    <t>BHL/54080/215.77</t>
+  </si>
+  <si>
+    <t>RADHI/28923/730.31</t>
+  </si>
+  <si>
+    <t>MBJC/27475/317.09</t>
+  </si>
+  <si>
+    <t>SHIVM/11921/526.06</t>
+  </si>
+  <si>
+    <t>MEN/7686/577.29</t>
+  </si>
+  <si>
+    <t>CHDC/40026/2,565.91</t>
+  </si>
+  <si>
+    <t>BPCL/115846/524.40</t>
+  </si>
+  <si>
+    <t>NRN/28841/2,061.16</t>
+  </si>
+  <si>
+    <t>RADHI/78205/756.78</t>
+  </si>
+  <si>
+    <t>ALICL/7684/701.27</t>
+  </si>
+  <si>
+    <t>NGPL/9745/379.99</t>
+  </si>
+  <si>
+    <t>RNLI/6349/509.55</t>
+  </si>
+  <si>
+    <t>AKPL/2576/270.88</t>
+  </si>
+  <si>
+    <t>BHL/3121/220.78</t>
+  </si>
+  <si>
+    <t>MEN/51488/584.91</t>
+  </si>
+  <si>
+    <t>NIFRA/84319/287.58</t>
+  </si>
+  <si>
+    <t>NMLBBL/32573/663.08</t>
+  </si>
+  <si>
+    <t>RADHI/20219/757.59</t>
+  </si>
+  <si>
+    <t>HRL/13733/967.45</t>
+  </si>
+  <si>
+    <t>UPCL/279593/423.36</t>
+  </si>
+  <si>
+    <t>NGPL/227946/390.72</t>
+  </si>
+  <si>
+    <t>SAHAS/70126/525.09</t>
+  </si>
+  <si>
+    <t>RIDI/120406/270.91</t>
+  </si>
+  <si>
+    <t>HRL/17368/982.29</t>
+  </si>
+  <si>
+    <t>HRL/11128/958.67</t>
+  </si>
+  <si>
+    <t>BPCL/12361/541.88</t>
+  </si>
+  <si>
+    <t>RADHI/23676/751.98</t>
+  </si>
+  <si>
+    <t>HRL/16581/958.49</t>
+  </si>
+  <si>
+    <t>KPCL/17914/522.93</t>
+  </si>
+  <si>
+    <t>SHIVM/15936/530.36</t>
+  </si>
+  <si>
+    <t>SAPDBL/10205/788.90</t>
+  </si>
+  <si>
+    <t>HIDCL/86298/302.17</t>
+  </si>
+  <si>
+    <t>HDL/14925/1,216.05</t>
+  </si>
+  <si>
+    <t>CZBIL/80811/213.12</t>
+  </si>
+  <si>
+    <t>NGPL/189384/380.93</t>
+  </si>
+  <si>
+    <t>RADHI/61398/755.46</t>
+  </si>
+  <si>
+    <t>SHL/77823/584.03</t>
+  </si>
+  <si>
+    <t>SHEL/42208/282.85</t>
+  </si>
+  <si>
+    <t>UPCL/37452/415.08</t>
+  </si>
+  <si>
+    <t>NGPL/35695/385.14</t>
+  </si>
+  <si>
+    <t>RADHI/15393/750.97</t>
+  </si>
+  <si>
+    <t>RADHI/89146/746.69</t>
+  </si>
+  <si>
+    <t>RIDI/30975/269.73</t>
+  </si>
+  <si>
+    <t>UPCL/19392/417.15</t>
+  </si>
+  <si>
+    <t>NMIC/1916/2,070.67</t>
+  </si>
+  <si>
+    <t>HPPL/9187/511.06</t>
+  </si>
+  <si>
+    <t>SAPDBL/31387/905.70</t>
+  </si>
+  <si>
+    <t>GRDBL/10632/1,180.04</t>
+  </si>
+  <si>
+    <t>NLG/10737/810.19</t>
+  </si>
+  <si>
+    <t>RADHI/37664/740.36</t>
+  </si>
+  <si>
+    <t>GBIME/87724/236.23</t>
+  </si>
+  <si>
+    <t>NGPL/22215/380.66</t>
+  </si>
+  <si>
+    <t>SHL/12509/572.82</t>
+  </si>
+  <si>
+    <t>BARUN/4310/537.27</t>
+  </si>
+  <si>
+    <t>CREST/1180/1,908.34</t>
+  </si>
+  <si>
+    <t>UPCL/66536/425.21</t>
+  </si>
+  <si>
+    <t>BPCL/30706/531.34</t>
+  </si>
+  <si>
+    <t>AKPL/60035/259.04</t>
+  </si>
+  <si>
+    <t>RADHI/18111/746.41</t>
+  </si>
+  <si>
+    <t>SHPC/17492/584.64</t>
+  </si>
+  <si>
+    <t>HIDCL/174431/301.24</t>
+  </si>
+  <si>
+    <t>CHCL/13104/508.62</t>
+  </si>
+  <si>
+    <t>BPCL/8362/532.90</t>
+  </si>
+  <si>
+    <t>HEI/15324/582.82</t>
+  </si>
+  <si>
+    <t>NMIC/1600/1,964.01</t>
+  </si>
+  <si>
+    <t>RADHI/178125/757.50</t>
+  </si>
+  <si>
+    <t>MKHL/147597/729.23</t>
+  </si>
+  <si>
+    <t>UPCL/80497/420.98</t>
+  </si>
+  <si>
+    <t>NGPL/95595/379.14</t>
+  </si>
+  <si>
+    <t>PRIN/33652/867.91</t>
+  </si>
+  <si>
+    <t>UPCL/58307/437.48</t>
+  </si>
+  <si>
+    <t>NMIC/3790/2,166.84</t>
+  </si>
+  <si>
+    <t>NGPL/15592/386.23</t>
+  </si>
+  <si>
+    <t>LBBL/174456/469.61</t>
+  </si>
+  <si>
+    <t>SHL/89564/561.65</t>
+  </si>
+  <si>
+    <t>NICA/108816/366.30</t>
+  </si>
+  <si>
+    <t>NRIC/22660/1,280.54</t>
+  </si>
+  <si>
+    <t>SHPC/45398/599.38</t>
+  </si>
+  <si>
+    <t>NRN/8468/2,050.78</t>
+  </si>
+  <si>
+    <t>SHPC/21867/591.02</t>
+  </si>
+  <si>
+    <t>UPCL/27749/432.42</t>
+  </si>
+  <si>
+    <t>NMIC/3968/2,084.49</t>
+  </si>
+  <si>
+    <t>RADHI/35957/736.52</t>
+  </si>
+  <si>
+    <t>NGPL/45573/384.12</t>
+  </si>
+  <si>
+    <t>SHPC/20573/577.41</t>
+  </si>
+  <si>
+    <t>OMPL/5190/1,841.80</t>
+  </si>
+  <si>
+    <t>BPCL/17065/556.65</t>
+  </si>
+  <si>
+    <t>UPCL/21141/421.21</t>
+  </si>
+  <si>
+    <t>LBBL/14512/467.66</t>
+  </si>
+  <si>
+    <t>PHCL/109684/605.24</t>
+  </si>
+  <si>
+    <t>MLBL/55335/388.81</t>
+  </si>
+  <si>
+    <t>RADHI/17862/781.26</t>
+  </si>
+  <si>
+    <t>KSBBL/26285/453.41</t>
+  </si>
+  <si>
+    <t>HDL/8169/1,181.37</t>
+  </si>
+  <si>
+    <t>NGPL/16702/390.09</t>
+  </si>
+  <si>
+    <t>RFPL/12536/475.82</t>
   </si>
 </sst>
 </file>
@@ -8584,7 +9773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676205A0-C5FF-4AEC-B10B-18D60F60A28C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C0AFDA-3FBB-41A3-BA62-46EDDC71FB68}">
   <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -8625,19 +9814,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2334</v>
+        <v>2744</v>
       </c>
       <c r="C2" t="s">
-        <v>2335</v>
+        <v>2745</v>
       </c>
       <c r="D2" t="s">
-        <v>2336</v>
+        <v>2746</v>
       </c>
       <c r="E2" t="s">
-        <v>2337</v>
+        <v>2747</v>
       </c>
       <c r="F2" t="s">
-        <v>2338</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8645,16 +9834,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>2339</v>
+        <v>2749</v>
       </c>
       <c r="C3" t="s">
-        <v>2340</v>
+        <v>2750</v>
       </c>
       <c r="D3" t="s">
-        <v>2341</v>
+        <v>2751</v>
       </c>
       <c r="E3" t="s">
-        <v>2342</v>
+        <v>2752</v>
       </c>
       <c r="F3" t="s">
         <v>1895</v>
@@ -8665,19 +9854,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>2343</v>
+        <v>2753</v>
       </c>
       <c r="C4" t="s">
-        <v>2344</v>
+        <v>2754</v>
       </c>
       <c r="D4" t="s">
-        <v>2345</v>
+        <v>2755</v>
       </c>
       <c r="E4" t="s">
-        <v>2346</v>
+        <v>2756</v>
       </c>
       <c r="F4" t="s">
-        <v>2347</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8685,19 +9874,19 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>2348</v>
+        <v>2758</v>
       </c>
       <c r="C5" t="s">
-        <v>2349</v>
+        <v>2759</v>
       </c>
       <c r="D5" t="s">
-        <v>2350</v>
+        <v>2760</v>
       </c>
       <c r="E5" t="s">
-        <v>2351</v>
+        <v>2761</v>
       </c>
       <c r="F5" t="s">
-        <v>2352</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8705,19 +9894,19 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>2353</v>
+        <v>2763</v>
       </c>
       <c r="C6" t="s">
-        <v>2354</v>
+        <v>2764</v>
       </c>
       <c r="D6" t="s">
-        <v>2355</v>
+        <v>2765</v>
       </c>
       <c r="E6" t="s">
-        <v>2356</v>
+        <v>2766</v>
       </c>
       <c r="F6" t="s">
-        <v>2357</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8725,19 +9914,19 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>2358</v>
+        <v>2768</v>
       </c>
       <c r="C7" t="s">
-        <v>2359</v>
+        <v>2769</v>
       </c>
       <c r="D7" t="s">
-        <v>2360</v>
+        <v>2770</v>
       </c>
       <c r="E7" t="s">
-        <v>2361</v>
+        <v>2771</v>
       </c>
       <c r="F7" t="s">
-        <v>2362</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8745,19 +9934,19 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>2363</v>
+        <v>2773</v>
       </c>
       <c r="C8" t="s">
-        <v>2364</v>
+        <v>2774</v>
       </c>
       <c r="D8" t="s">
-        <v>2365</v>
+        <v>2775</v>
       </c>
       <c r="E8" t="s">
-        <v>2366</v>
+        <v>2776</v>
       </c>
       <c r="F8" t="s">
-        <v>2367</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8768,16 +9957,16 @@
         <v>2368</v>
       </c>
       <c r="C9" t="s">
-        <v>2369</v>
+        <v>2778</v>
       </c>
       <c r="D9" t="s">
-        <v>2370</v>
+        <v>2779</v>
       </c>
       <c r="E9" t="s">
-        <v>1923</v>
+        <v>2780</v>
       </c>
       <c r="F9" t="s">
-        <v>2371</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8785,19 +9974,19 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>2372</v>
+        <v>2782</v>
       </c>
       <c r="C10" t="s">
-        <v>2373</v>
+        <v>2783</v>
       </c>
       <c r="D10" t="s">
-        <v>2374</v>
+        <v>2784</v>
       </c>
       <c r="E10" t="s">
-        <v>2375</v>
+        <v>2785</v>
       </c>
       <c r="F10" t="s">
-        <v>2376</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8805,19 +9994,19 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>2377</v>
+        <v>2787</v>
       </c>
       <c r="C11" t="s">
-        <v>2378</v>
+        <v>2788</v>
       </c>
       <c r="D11" t="s">
-        <v>2379</v>
+        <v>2789</v>
       </c>
       <c r="E11" t="s">
-        <v>2380</v>
+        <v>2790</v>
       </c>
       <c r="F11" t="s">
-        <v>2381</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8825,19 +10014,19 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>2382</v>
+        <v>2792</v>
       </c>
       <c r="C12" t="s">
-        <v>2383</v>
+        <v>2793</v>
       </c>
       <c r="D12" t="s">
-        <v>2384</v>
+        <v>2794</v>
       </c>
       <c r="E12" t="s">
-        <v>2385</v>
+        <v>2795</v>
       </c>
       <c r="F12" t="s">
-        <v>2386</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8845,19 +10034,19 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>2387</v>
+        <v>2797</v>
       </c>
       <c r="C13" t="s">
-        <v>2388</v>
+        <v>2798</v>
       </c>
       <c r="D13" t="s">
-        <v>2389</v>
+        <v>2799</v>
       </c>
       <c r="E13" t="s">
-        <v>2390</v>
+        <v>2800</v>
       </c>
       <c r="F13" t="s">
-        <v>2391</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8865,19 +10054,19 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>2392</v>
+        <v>2802</v>
       </c>
       <c r="C14" t="s">
-        <v>2393</v>
+        <v>2803</v>
       </c>
       <c r="D14" t="s">
-        <v>2394</v>
+        <v>2804</v>
       </c>
       <c r="E14" t="s">
-        <v>2395</v>
+        <v>2805</v>
       </c>
       <c r="F14" t="s">
-        <v>2396</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8888,16 +10077,16 @@
         <v>1951</v>
       </c>
       <c r="C15" t="s">
-        <v>2397</v>
+        <v>2807</v>
       </c>
       <c r="D15" t="s">
-        <v>2398</v>
+        <v>2808</v>
       </c>
       <c r="E15" t="s">
         <v>1954</v>
       </c>
       <c r="F15" t="s">
-        <v>2399</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8905,19 +10094,19 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>2400</v>
+        <v>2810</v>
       </c>
       <c r="C16" t="s">
-        <v>2401</v>
+        <v>2811</v>
       </c>
       <c r="D16" t="s">
-        <v>2402</v>
+        <v>2812</v>
       </c>
       <c r="E16" t="s">
-        <v>2403</v>
+        <v>2813</v>
       </c>
       <c r="F16" t="s">
-        <v>2404</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8925,19 +10114,19 @@
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>2405</v>
+        <v>2815</v>
       </c>
       <c r="C17" t="s">
-        <v>2406</v>
+        <v>2816</v>
       </c>
       <c r="D17" t="s">
-        <v>2407</v>
+        <v>2817</v>
       </c>
       <c r="E17" t="s">
-        <v>2408</v>
+        <v>2818</v>
       </c>
       <c r="F17" t="s">
-        <v>2409</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8945,19 +10134,19 @@
         <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>2410</v>
+        <v>2820</v>
       </c>
       <c r="C18" t="s">
-        <v>2411</v>
+        <v>2821</v>
       </c>
       <c r="D18" t="s">
-        <v>2412</v>
+        <v>2822</v>
       </c>
       <c r="E18" t="s">
-        <v>2413</v>
+        <v>2823</v>
       </c>
       <c r="F18" t="s">
-        <v>2414</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8965,16 +10154,16 @@
         <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>2415</v>
+        <v>2825</v>
       </c>
       <c r="C19" t="s">
-        <v>2416</v>
+        <v>2826</v>
       </c>
       <c r="D19" t="s">
-        <v>2417</v>
+        <v>2827</v>
       </c>
       <c r="E19" t="s">
-        <v>2418</v>
+        <v>2828</v>
       </c>
       <c r="F19" t="s">
         <v>1975</v>
@@ -8985,19 +10174,19 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>2419</v>
+        <v>2829</v>
       </c>
       <c r="C20" t="s">
-        <v>2420</v>
+        <v>2830</v>
       </c>
       <c r="D20" t="s">
-        <v>2421</v>
+        <v>2831</v>
       </c>
       <c r="E20" t="s">
-        <v>2422</v>
+        <v>2832</v>
       </c>
       <c r="F20" t="s">
-        <v>2423</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9005,19 +10194,19 @@
         <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>2424</v>
+        <v>2834</v>
       </c>
       <c r="C21" t="s">
-        <v>2425</v>
+        <v>2835</v>
       </c>
       <c r="D21" t="s">
-        <v>2426</v>
+        <v>2836</v>
       </c>
       <c r="E21" t="s">
-        <v>2427</v>
+        <v>2837</v>
       </c>
       <c r="F21" t="s">
-        <v>2428</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9025,19 +10214,19 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>2429</v>
+        <v>2839</v>
       </c>
       <c r="C22" t="s">
-        <v>2430</v>
+        <v>2840</v>
       </c>
       <c r="D22" t="s">
-        <v>2431</v>
+        <v>2841</v>
       </c>
       <c r="E22" t="s">
-        <v>2432</v>
+        <v>2842</v>
       </c>
       <c r="F22" t="s">
-        <v>2433</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9045,19 +10234,19 @@
         <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>2434</v>
+        <v>2844</v>
       </c>
       <c r="C23" t="s">
-        <v>2435</v>
+        <v>2845</v>
       </c>
       <c r="D23" t="s">
-        <v>2436</v>
+        <v>2846</v>
       </c>
       <c r="E23" t="s">
-        <v>2437</v>
+        <v>2847</v>
       </c>
       <c r="F23" t="s">
-        <v>2438</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9065,19 +10254,19 @@
         <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>2439</v>
+        <v>2849</v>
       </c>
       <c r="C24" t="s">
-        <v>2440</v>
+        <v>2850</v>
       </c>
       <c r="D24" t="s">
-        <v>2441</v>
+        <v>2851</v>
       </c>
       <c r="E24" t="s">
-        <v>2442</v>
+        <v>2852</v>
       </c>
       <c r="F24" t="s">
-        <v>2443</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9085,16 +10274,16 @@
         <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>2444</v>
+        <v>2854</v>
       </c>
       <c r="C25" t="s">
-        <v>2445</v>
+        <v>2855</v>
       </c>
       <c r="D25" t="s">
-        <v>2446</v>
+        <v>2856</v>
       </c>
       <c r="E25" t="s">
-        <v>2447</v>
+        <v>2857</v>
       </c>
       <c r="F25" t="s">
         <v>2005</v>
@@ -9105,19 +10294,19 @@
         <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>2448</v>
+        <v>2858</v>
       </c>
       <c r="C26" t="s">
-        <v>2449</v>
+        <v>2859</v>
       </c>
       <c r="D26" t="s">
-        <v>2450</v>
+        <v>2860</v>
       </c>
       <c r="E26" t="s">
-        <v>2451</v>
+        <v>2861</v>
       </c>
       <c r="F26" t="s">
-        <v>2452</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -9125,19 +10314,19 @@
         <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>2453</v>
+        <v>2863</v>
       </c>
       <c r="C27" t="s">
-        <v>2454</v>
+        <v>2864</v>
       </c>
       <c r="D27" t="s">
-        <v>2455</v>
+        <v>2865</v>
       </c>
       <c r="E27" t="s">
-        <v>2456</v>
+        <v>2866</v>
       </c>
       <c r="F27" t="s">
-        <v>2457</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -9145,19 +10334,19 @@
         <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>2458</v>
+        <v>2868</v>
       </c>
       <c r="C28" t="s">
         <v>2459</v>
       </c>
       <c r="D28" t="s">
-        <v>2460</v>
+        <v>2869</v>
       </c>
       <c r="E28" t="s">
-        <v>2461</v>
+        <v>2870</v>
       </c>
       <c r="F28" t="s">
-        <v>2462</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -9165,19 +10354,19 @@
         <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>2463</v>
+        <v>2872</v>
       </c>
       <c r="C29" t="s">
         <v>2464</v>
       </c>
       <c r="D29" t="s">
-        <v>2465</v>
+        <v>2873</v>
       </c>
       <c r="E29" t="s">
-        <v>2466</v>
+        <v>2874</v>
       </c>
       <c r="F29" t="s">
-        <v>2467</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -9185,19 +10374,19 @@
         <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>2468</v>
+        <v>2876</v>
       </c>
       <c r="C30" t="s">
-        <v>2469</v>
+        <v>2877</v>
       </c>
       <c r="D30" t="s">
-        <v>2470</v>
+        <v>2878</v>
       </c>
       <c r="E30" t="s">
-        <v>2471</v>
+        <v>2879</v>
       </c>
       <c r="F30" t="s">
-        <v>2472</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9205,19 +10394,19 @@
         <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>2473</v>
+        <v>2881</v>
       </c>
       <c r="C31" t="s">
-        <v>2474</v>
+        <v>2882</v>
       </c>
       <c r="D31" t="s">
-        <v>2475</v>
+        <v>2883</v>
       </c>
       <c r="E31" t="s">
-        <v>2476</v>
+        <v>2884</v>
       </c>
       <c r="F31" t="s">
-        <v>2477</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9225,19 +10414,19 @@
         <v>180</v>
       </c>
       <c r="B32" t="s">
-        <v>2478</v>
+        <v>2886</v>
       </c>
       <c r="C32" t="s">
-        <v>2479</v>
+        <v>2887</v>
       </c>
       <c r="D32" t="s">
-        <v>2480</v>
+        <v>2888</v>
       </c>
       <c r="E32" t="s">
-        <v>2481</v>
+        <v>2889</v>
       </c>
       <c r="F32" t="s">
-        <v>2482</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -9245,19 +10434,19 @@
         <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>2483</v>
+        <v>2891</v>
       </c>
       <c r="C33" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D33" t="s">
         <v>2484</v>
       </c>
-      <c r="D33" t="s">
-        <v>2485</v>
-      </c>
       <c r="E33" t="s">
-        <v>2486</v>
+        <v>2893</v>
       </c>
       <c r="F33" t="s">
-        <v>2487</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9265,19 +10454,19 @@
         <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>2488</v>
+        <v>2895</v>
       </c>
       <c r="C34" t="s">
-        <v>2489</v>
+        <v>2896</v>
       </c>
       <c r="D34" t="s">
-        <v>2490</v>
+        <v>2897</v>
       </c>
       <c r="E34" t="s">
-        <v>2491</v>
+        <v>2898</v>
       </c>
       <c r="F34" t="s">
-        <v>2492</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9285,7 +10474,7 @@
         <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>2493</v>
+        <v>2900</v>
       </c>
       <c r="C35" t="s">
         <v>2494</v>
@@ -9294,10 +10483,10 @@
         <v>2495</v>
       </c>
       <c r="E35" t="s">
-        <v>2496</v>
+        <v>2901</v>
       </c>
       <c r="F35" t="s">
-        <v>2497</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -9305,19 +10494,19 @@
         <v>204</v>
       </c>
       <c r="B36" t="s">
-        <v>2498</v>
+        <v>2903</v>
       </c>
       <c r="C36" t="s">
-        <v>2499</v>
+        <v>2904</v>
       </c>
       <c r="D36" t="s">
-        <v>2500</v>
+        <v>2905</v>
       </c>
       <c r="E36" t="s">
-        <v>2501</v>
+        <v>2906</v>
       </c>
       <c r="F36" t="s">
-        <v>2502</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9325,19 +10514,19 @@
         <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>2503</v>
+        <v>2908</v>
       </c>
       <c r="C37" t="s">
-        <v>2504</v>
+        <v>2909</v>
       </c>
       <c r="D37" t="s">
-        <v>2505</v>
+        <v>2910</v>
       </c>
       <c r="E37" t="s">
-        <v>2506</v>
+        <v>2911</v>
       </c>
       <c r="F37" t="s">
-        <v>2507</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -9345,19 +10534,19 @@
         <v>216</v>
       </c>
       <c r="B38" t="s">
-        <v>2508</v>
+        <v>2913</v>
       </c>
       <c r="C38" t="s">
-        <v>2509</v>
+        <v>2914</v>
       </c>
       <c r="D38" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E38" t="s">
         <v>2069</v>
       </c>
-      <c r="E38" t="s">
-        <v>2070</v>
-      </c>
       <c r="F38" t="s">
-        <v>2510</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -9365,19 +10554,19 @@
         <v>222</v>
       </c>
       <c r="B39" t="s">
-        <v>2511</v>
+        <v>2917</v>
       </c>
       <c r="C39" t="s">
-        <v>2512</v>
+        <v>2918</v>
       </c>
       <c r="D39" t="s">
-        <v>2513</v>
+        <v>2919</v>
       </c>
       <c r="E39" t="s">
-        <v>2514</v>
+        <v>2920</v>
       </c>
       <c r="F39" t="s">
-        <v>2515</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -9385,19 +10574,19 @@
         <v>228</v>
       </c>
       <c r="B40" t="s">
-        <v>2516</v>
+        <v>2922</v>
       </c>
       <c r="C40" t="s">
-        <v>2517</v>
+        <v>2923</v>
       </c>
       <c r="D40" t="s">
-        <v>2518</v>
+        <v>2924</v>
       </c>
       <c r="E40" t="s">
-        <v>2519</v>
+        <v>2925</v>
       </c>
       <c r="F40" t="s">
-        <v>2520</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -9405,19 +10594,19 @@
         <v>234</v>
       </c>
       <c r="B41" t="s">
-        <v>2521</v>
+        <v>2927</v>
       </c>
       <c r="C41" t="s">
-        <v>2522</v>
+        <v>2928</v>
       </c>
       <c r="D41" t="s">
-        <v>2523</v>
+        <v>2929</v>
       </c>
       <c r="E41" t="s">
-        <v>2524</v>
+        <v>2930</v>
       </c>
       <c r="F41" t="s">
-        <v>2525</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -9425,16 +10614,16 @@
         <v>240</v>
       </c>
       <c r="B42" t="s">
-        <v>2526</v>
+        <v>2932</v>
       </c>
       <c r="C42" t="s">
-        <v>2527</v>
+        <v>2933</v>
       </c>
       <c r="D42" t="s">
-        <v>2528</v>
+        <v>2934</v>
       </c>
       <c r="E42" t="s">
-        <v>2529</v>
+        <v>2935</v>
       </c>
       <c r="F42" t="s">
         <v>2530</v>
@@ -9445,19 +10634,19 @@
         <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>2531</v>
+        <v>2936</v>
       </c>
       <c r="C43" t="s">
-        <v>2532</v>
+        <v>2937</v>
       </c>
       <c r="D43" t="s">
-        <v>2533</v>
+        <v>2938</v>
       </c>
       <c r="E43" t="s">
-        <v>2534</v>
+        <v>2939</v>
       </c>
       <c r="F43" t="s">
-        <v>2535</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -9465,19 +10654,19 @@
         <v>252</v>
       </c>
       <c r="B44" t="s">
-        <v>2536</v>
+        <v>2941</v>
       </c>
       <c r="C44" t="s">
-        <v>2537</v>
+        <v>2942</v>
       </c>
       <c r="D44" t="s">
-        <v>2538</v>
+        <v>2943</v>
       </c>
       <c r="E44" t="s">
-        <v>2539</v>
+        <v>2944</v>
       </c>
       <c r="F44" t="s">
-        <v>2540</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -9485,19 +10674,19 @@
         <v>258</v>
       </c>
       <c r="B45" t="s">
-        <v>2541</v>
+        <v>2946</v>
       </c>
       <c r="C45" t="s">
-        <v>2542</v>
+        <v>2947</v>
       </c>
       <c r="D45" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="E45" t="s">
-        <v>2544</v>
+        <v>2948</v>
       </c>
       <c r="F45" t="s">
-        <v>2545</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -9505,19 +10694,19 @@
         <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>2546</v>
+        <v>2950</v>
       </c>
       <c r="C46" t="s">
-        <v>2547</v>
+        <v>2951</v>
       </c>
       <c r="D46" t="s">
-        <v>2548</v>
+        <v>2952</v>
       </c>
       <c r="E46" t="s">
-        <v>2549</v>
+        <v>2953</v>
       </c>
       <c r="F46" t="s">
-        <v>2550</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9525,19 +10714,19 @@
         <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>2551</v>
+        <v>2955</v>
       </c>
       <c r="C47" t="s">
-        <v>2552</v>
+        <v>2956</v>
       </c>
       <c r="D47" t="s">
-        <v>2553</v>
+        <v>2957</v>
       </c>
       <c r="E47" t="s">
-        <v>2114</v>
+        <v>2958</v>
       </c>
       <c r="F47" t="s">
-        <v>2554</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -9545,19 +10734,19 @@
         <v>276</v>
       </c>
       <c r="B48" t="s">
-        <v>2555</v>
+        <v>2960</v>
       </c>
       <c r="C48" t="s">
-        <v>2556</v>
+        <v>2961</v>
       </c>
       <c r="D48" t="s">
-        <v>2557</v>
+        <v>2962</v>
       </c>
       <c r="E48" t="s">
-        <v>2558</v>
+        <v>2963</v>
       </c>
       <c r="F48" t="s">
-        <v>2559</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -9565,19 +10754,19 @@
         <v>282</v>
       </c>
       <c r="B49" t="s">
-        <v>2560</v>
+        <v>2965</v>
       </c>
       <c r="C49" t="s">
-        <v>2561</v>
+        <v>2966</v>
       </c>
       <c r="D49" t="s">
-        <v>2562</v>
+        <v>2967</v>
       </c>
       <c r="E49" t="s">
-        <v>2563</v>
+        <v>2968</v>
       </c>
       <c r="F49" t="s">
-        <v>2564</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -9585,19 +10774,19 @@
         <v>288</v>
       </c>
       <c r="B50" t="s">
-        <v>2565</v>
+        <v>2970</v>
       </c>
       <c r="C50" t="s">
-        <v>2566</v>
+        <v>2971</v>
       </c>
       <c r="D50" t="s">
-        <v>2567</v>
+        <v>2972</v>
       </c>
       <c r="E50" t="s">
-        <v>2568</v>
+        <v>2973</v>
       </c>
       <c r="F50" t="s">
-        <v>2569</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -9605,19 +10794,19 @@
         <v>294</v>
       </c>
       <c r="B51" t="s">
-        <v>2570</v>
+        <v>2975</v>
       </c>
       <c r="C51" t="s">
-        <v>2571</v>
+        <v>2976</v>
       </c>
       <c r="D51" t="s">
-        <v>2133</v>
+        <v>2977</v>
       </c>
       <c r="E51" t="s">
-        <v>2572</v>
+        <v>2978</v>
       </c>
       <c r="F51" t="s">
-        <v>2573</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -9625,19 +10814,19 @@
         <v>300</v>
       </c>
       <c r="B52" t="s">
-        <v>2574</v>
+        <v>2980</v>
       </c>
       <c r="C52" t="s">
-        <v>2575</v>
+        <v>2981</v>
       </c>
       <c r="D52" t="s">
-        <v>2576</v>
+        <v>2982</v>
       </c>
       <c r="E52" t="s">
-        <v>2577</v>
+        <v>2983</v>
       </c>
       <c r="F52" t="s">
-        <v>2578</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -9645,19 +10834,19 @@
         <v>306</v>
       </c>
       <c r="B53" t="s">
-        <v>2579</v>
+        <v>2985</v>
       </c>
       <c r="C53" t="s">
-        <v>2580</v>
+        <v>2986</v>
       </c>
       <c r="D53" t="s">
-        <v>2581</v>
+        <v>2987</v>
       </c>
       <c r="E53" t="s">
-        <v>2145</v>
+        <v>2582</v>
       </c>
       <c r="F53" t="s">
-        <v>2582</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -9665,19 +10854,19 @@
         <v>312</v>
       </c>
       <c r="B54" t="s">
-        <v>2583</v>
+        <v>2989</v>
       </c>
       <c r="C54" t="s">
-        <v>2584</v>
+        <v>2990</v>
       </c>
       <c r="D54" t="s">
-        <v>2585</v>
+        <v>2991</v>
       </c>
       <c r="E54" t="s">
-        <v>2586</v>
+        <v>2992</v>
       </c>
       <c r="F54" t="s">
-        <v>2587</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -9685,19 +10874,19 @@
         <v>318</v>
       </c>
       <c r="B55" t="s">
-        <v>2588</v>
+        <v>2994</v>
       </c>
       <c r="C55" t="s">
-        <v>2589</v>
+        <v>2995</v>
       </c>
       <c r="D55" t="s">
-        <v>2590</v>
+        <v>2996</v>
       </c>
       <c r="E55" t="s">
-        <v>2591</v>
+        <v>2997</v>
       </c>
       <c r="F55" t="s">
-        <v>2592</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -9705,19 +10894,19 @@
         <v>324</v>
       </c>
       <c r="B56" t="s">
-        <v>2593</v>
+        <v>2999</v>
       </c>
       <c r="C56" t="s">
-        <v>2594</v>
+        <v>3000</v>
       </c>
       <c r="D56" t="s">
-        <v>2595</v>
+        <v>3001</v>
       </c>
       <c r="E56" t="s">
-        <v>2596</v>
+        <v>3002</v>
       </c>
       <c r="F56" t="s">
-        <v>2597</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -9725,19 +10914,19 @@
         <v>330</v>
       </c>
       <c r="B57" t="s">
-        <v>2161</v>
+        <v>3004</v>
       </c>
       <c r="C57" t="s">
         <v>2162</v>
       </c>
       <c r="D57" t="s">
-        <v>2598</v>
+        <v>3005</v>
       </c>
       <c r="E57" t="s">
-        <v>2599</v>
+        <v>3006</v>
       </c>
       <c r="F57" t="s">
-        <v>2600</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9745,19 +10934,19 @@
         <v>336</v>
       </c>
       <c r="B58" t="s">
-        <v>2601</v>
+        <v>3008</v>
       </c>
       <c r="C58" t="s">
-        <v>2602</v>
+        <v>3009</v>
       </c>
       <c r="D58" t="s">
-        <v>2603</v>
+        <v>3010</v>
       </c>
       <c r="E58" t="s">
-        <v>2604</v>
+        <v>3011</v>
       </c>
       <c r="F58" t="s">
-        <v>2605</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -9765,19 +10954,19 @@
         <v>342</v>
       </c>
       <c r="B59" t="s">
-        <v>2606</v>
+        <v>3013</v>
       </c>
       <c r="C59" t="s">
-        <v>2607</v>
+        <v>3014</v>
       </c>
       <c r="D59" t="s">
-        <v>2608</v>
+        <v>3015</v>
       </c>
       <c r="E59" t="s">
         <v>2609</v>
       </c>
       <c r="F59" t="s">
-        <v>2610</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9785,19 +10974,19 @@
         <v>348</v>
       </c>
       <c r="B60" t="s">
-        <v>2611</v>
+        <v>3017</v>
       </c>
       <c r="C60" t="s">
-        <v>2612</v>
+        <v>3018</v>
       </c>
       <c r="D60" t="s">
-        <v>2613</v>
+        <v>3019</v>
       </c>
       <c r="E60" t="s">
-        <v>2614</v>
+        <v>3020</v>
       </c>
       <c r="F60" t="s">
-        <v>2615</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9805,13 +10994,13 @@
         <v>354</v>
       </c>
       <c r="B61" t="s">
-        <v>2181</v>
+        <v>3022</v>
       </c>
       <c r="C61" t="s">
         <v>2182</v>
       </c>
       <c r="D61" t="s">
-        <v>2616</v>
+        <v>3023</v>
       </c>
       <c r="E61" t="s">
         <v>2184</v>
@@ -9825,19 +11014,19 @@
         <v>360</v>
       </c>
       <c r="B62" t="s">
-        <v>2617</v>
+        <v>3024</v>
       </c>
       <c r="C62" t="s">
-        <v>2618</v>
+        <v>3025</v>
       </c>
       <c r="D62" t="s">
         <v>2188</v>
       </c>
       <c r="E62" t="s">
-        <v>2619</v>
+        <v>3026</v>
       </c>
       <c r="F62" t="s">
-        <v>2189</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -9845,19 +11034,19 @@
         <v>366</v>
       </c>
       <c r="B63" t="s">
-        <v>2620</v>
+        <v>3028</v>
       </c>
       <c r="C63" t="s">
-        <v>2621</v>
+        <v>3029</v>
       </c>
       <c r="D63" t="s">
-        <v>2622</v>
+        <v>3030</v>
       </c>
       <c r="E63" t="s">
         <v>2623</v>
       </c>
       <c r="F63" t="s">
-        <v>2624</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -9865,19 +11054,19 @@
         <v>372</v>
       </c>
       <c r="B64" t="s">
-        <v>2625</v>
+        <v>3032</v>
       </c>
       <c r="C64" t="s">
         <v>2197</v>
       </c>
       <c r="D64" t="s">
-        <v>2626</v>
+        <v>3033</v>
       </c>
       <c r="E64" t="s">
-        <v>2627</v>
+        <v>3034</v>
       </c>
       <c r="F64" t="s">
-        <v>2628</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9885,7 +11074,7 @@
         <v>378</v>
       </c>
       <c r="B65" t="s">
-        <v>2629</v>
+        <v>3036</v>
       </c>
       <c r="C65" t="s">
         <v>381</v>
@@ -9905,16 +11094,16 @@
         <v>384</v>
       </c>
       <c r="B66" t="s">
-        <v>2632</v>
+        <v>3037</v>
       </c>
       <c r="C66" t="s">
-        <v>2633</v>
+        <v>3038</v>
       </c>
       <c r="D66" t="s">
-        <v>2634</v>
+        <v>3039</v>
       </c>
       <c r="E66" t="s">
-        <v>2206</v>
+        <v>3040</v>
       </c>
       <c r="F66" t="s">
         <v>2635</v>
@@ -9925,19 +11114,19 @@
         <v>390</v>
       </c>
       <c r="B67" t="s">
-        <v>2636</v>
+        <v>3041</v>
       </c>
       <c r="C67" t="s">
-        <v>2637</v>
+        <v>3042</v>
       </c>
       <c r="D67" t="s">
         <v>2210</v>
       </c>
       <c r="E67" t="s">
-        <v>2638</v>
+        <v>3043</v>
       </c>
       <c r="F67" t="s">
-        <v>2639</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9945,19 +11134,19 @@
         <v>396</v>
       </c>
       <c r="B68" t="s">
-        <v>2640</v>
+        <v>3045</v>
       </c>
       <c r="C68" t="s">
-        <v>2641</v>
+        <v>3046</v>
       </c>
       <c r="D68" t="s">
-        <v>2642</v>
+        <v>3047</v>
       </c>
       <c r="E68" t="s">
         <v>2216</v>
       </c>
       <c r="F68" t="s">
-        <v>2643</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -9965,16 +11154,16 @@
         <v>402</v>
       </c>
       <c r="B69" t="s">
-        <v>2644</v>
+        <v>3049</v>
       </c>
       <c r="C69" t="s">
-        <v>2645</v>
+        <v>3050</v>
       </c>
       <c r="D69" t="s">
-        <v>2646</v>
+        <v>3051</v>
       </c>
       <c r="E69" t="s">
-        <v>2647</v>
+        <v>3052</v>
       </c>
       <c r="F69" t="s">
         <v>2648</v>
@@ -9988,13 +11177,13 @@
         <v>2649</v>
       </c>
       <c r="C70" t="s">
-        <v>2650</v>
+        <v>3053</v>
       </c>
       <c r="D70" t="s">
-        <v>1769</v>
+        <v>3054</v>
       </c>
       <c r="E70" t="s">
-        <v>2651</v>
+        <v>3055</v>
       </c>
       <c r="F70" t="s">
         <v>1770</v>
@@ -10011,13 +11200,13 @@
         <v>1773</v>
       </c>
       <c r="D71" t="s">
+        <v>3056</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3057</v>
+      </c>
+      <c r="F71" t="s">
         <v>1776</v>
-      </c>
-      <c r="E71" t="s">
-        <v>2226</v>
-      </c>
-      <c r="F71" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -10025,19 +11214,19 @@
         <v>420</v>
       </c>
       <c r="B72" t="s">
-        <v>2652</v>
+        <v>3058</v>
       </c>
       <c r="C72" t="s">
-        <v>2653</v>
+        <v>3059</v>
       </c>
       <c r="D72" t="s">
-        <v>2654</v>
+        <v>3060</v>
       </c>
       <c r="E72" t="s">
-        <v>2655</v>
+        <v>3061</v>
       </c>
       <c r="F72" t="s">
-        <v>2656</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -10045,19 +11234,19 @@
         <v>426</v>
       </c>
       <c r="B73" t="s">
-        <v>2657</v>
+        <v>3063</v>
       </c>
       <c r="C73" t="s">
-        <v>2658</v>
+        <v>3064</v>
       </c>
       <c r="D73" t="s">
-        <v>2234</v>
+        <v>3065</v>
       </c>
       <c r="E73" t="s">
-        <v>2659</v>
+        <v>3066</v>
       </c>
       <c r="F73" t="s">
-        <v>2660</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -10071,13 +11260,13 @@
         <v>2662</v>
       </c>
       <c r="D74" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E74" t="s">
         <v>2663</v>
       </c>
-      <c r="E74" t="s">
-        <v>2664</v>
-      </c>
       <c r="F74" t="s">
-        <v>2665</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -10085,19 +11274,19 @@
         <v>438</v>
       </c>
       <c r="B75" t="s">
-        <v>2666</v>
+        <v>3070</v>
       </c>
       <c r="C75" t="s">
-        <v>2667</v>
+        <v>3071</v>
       </c>
       <c r="D75" t="s">
-        <v>2668</v>
+        <v>3072</v>
       </c>
       <c r="E75" t="s">
-        <v>2244</v>
+        <v>3073</v>
       </c>
       <c r="F75" t="s">
-        <v>2245</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -10105,19 +11294,19 @@
         <v>444</v>
       </c>
       <c r="B76" t="s">
-        <v>2669</v>
+        <v>3075</v>
       </c>
       <c r="C76" t="s">
         <v>2670</v>
       </c>
       <c r="D76" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E76" t="s">
         <v>2671</v>
       </c>
-      <c r="E76" t="s">
-        <v>2250</v>
-      </c>
       <c r="F76" t="s">
-        <v>2672</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -10125,19 +11314,19 @@
         <v>450</v>
       </c>
       <c r="B77" t="s">
-        <v>2673</v>
+        <v>3078</v>
       </c>
       <c r="C77" t="s">
-        <v>2674</v>
+        <v>3079</v>
       </c>
       <c r="D77" t="s">
-        <v>2675</v>
+        <v>3080</v>
       </c>
       <c r="E77" t="s">
         <v>2676</v>
       </c>
       <c r="F77" t="s">
-        <v>2677</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -10148,16 +11337,16 @@
         <v>2257</v>
       </c>
       <c r="C78" t="s">
-        <v>2678</v>
+        <v>3082</v>
       </c>
       <c r="D78" t="s">
-        <v>2679</v>
+        <v>3083</v>
       </c>
       <c r="E78" t="s">
         <v>2680</v>
       </c>
       <c r="F78" t="s">
-        <v>2681</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -10165,19 +11354,19 @@
         <v>462</v>
       </c>
       <c r="B79" t="s">
-        <v>2682</v>
+        <v>3085</v>
       </c>
       <c r="C79" t="s">
-        <v>2683</v>
+        <v>3086</v>
       </c>
       <c r="D79" t="s">
-        <v>2264</v>
+        <v>3087</v>
       </c>
       <c r="E79" t="s">
-        <v>2684</v>
+        <v>3088</v>
       </c>
       <c r="F79" t="s">
-        <v>2685</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -10185,7 +11374,7 @@
         <v>468</v>
       </c>
       <c r="B80" t="s">
-        <v>2686</v>
+        <v>3090</v>
       </c>
       <c r="C80" t="s">
         <v>2687</v>
@@ -10194,10 +11383,10 @@
         <v>2688</v>
       </c>
       <c r="E80" t="s">
-        <v>2689</v>
+        <v>3091</v>
       </c>
       <c r="F80" t="s">
-        <v>2690</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -10205,13 +11394,13 @@
         <v>474</v>
       </c>
       <c r="B81" t="s">
-        <v>2691</v>
+        <v>3093</v>
       </c>
       <c r="C81" t="s">
-        <v>2692</v>
+        <v>3094</v>
       </c>
       <c r="D81" t="s">
-        <v>2693</v>
+        <v>3095</v>
       </c>
       <c r="E81" t="s">
         <v>2275</v>
@@ -10228,16 +11417,16 @@
         <v>2277</v>
       </c>
       <c r="C82" t="s">
-        <v>2695</v>
+        <v>3096</v>
       </c>
       <c r="D82" t="s">
-        <v>2696</v>
+        <v>3097</v>
       </c>
       <c r="E82" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="F82" t="s">
-        <v>2698</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -10245,19 +11434,19 @@
         <v>486</v>
       </c>
       <c r="B83" t="s">
-        <v>2699</v>
+        <v>3099</v>
       </c>
       <c r="C83" t="s">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="D83" t="s">
-        <v>2701</v>
+        <v>3101</v>
       </c>
       <c r="E83" t="s">
-        <v>2702</v>
+        <v>3102</v>
       </c>
       <c r="F83" t="s">
-        <v>2703</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -10265,19 +11454,19 @@
         <v>492</v>
       </c>
       <c r="B84" t="s">
-        <v>2704</v>
+        <v>3104</v>
       </c>
       <c r="C84" t="s">
         <v>2288</v>
       </c>
       <c r="D84" t="s">
-        <v>2289</v>
+        <v>3105</v>
       </c>
       <c r="E84" t="s">
         <v>2705</v>
       </c>
       <c r="F84" t="s">
-        <v>2706</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -10285,7 +11474,7 @@
         <v>498</v>
       </c>
       <c r="B85" t="s">
-        <v>2707</v>
+        <v>3107</v>
       </c>
       <c r="C85" t="s">
         <v>2708</v>
@@ -10297,7 +11486,7 @@
         <v>2710</v>
       </c>
       <c r="F85" t="s">
-        <v>2711</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -10305,19 +11494,19 @@
         <v>504</v>
       </c>
       <c r="B86" t="s">
-        <v>2712</v>
+        <v>3109</v>
       </c>
       <c r="C86" t="s">
-        <v>2713</v>
+        <v>3110</v>
       </c>
       <c r="D86" t="s">
-        <v>2714</v>
+        <v>3111</v>
       </c>
       <c r="E86" t="s">
-        <v>2715</v>
+        <v>3112</v>
       </c>
       <c r="F86" t="s">
-        <v>2716</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -10325,19 +11514,19 @@
         <v>510</v>
       </c>
       <c r="B87" t="s">
-        <v>2717</v>
+        <v>3114</v>
       </c>
       <c r="C87" t="s">
-        <v>2718</v>
+        <v>3115</v>
       </c>
       <c r="D87" t="s">
+        <v>3116</v>
+      </c>
+      <c r="E87" t="s">
         <v>2719</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>2720</v>
-      </c>
-      <c r="F87" t="s">
-        <v>2721</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -10345,19 +11534,19 @@
         <v>516</v>
       </c>
       <c r="B88" t="s">
-        <v>2722</v>
+        <v>3117</v>
       </c>
       <c r="C88" t="s">
-        <v>2723</v>
+        <v>3118</v>
       </c>
       <c r="D88" t="s">
-        <v>2724</v>
+        <v>3119</v>
       </c>
       <c r="E88" t="s">
-        <v>2308</v>
+        <v>3120</v>
       </c>
       <c r="F88" t="s">
-        <v>2309</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -10365,19 +11554,19 @@
         <v>522</v>
       </c>
       <c r="B89" t="s">
-        <v>2725</v>
+        <v>3122</v>
       </c>
       <c r="C89" t="s">
-        <v>2726</v>
+        <v>3123</v>
       </c>
       <c r="D89" t="s">
-        <v>2727</v>
+        <v>3124</v>
       </c>
       <c r="E89" t="s">
         <v>2728</v>
       </c>
       <c r="F89" t="s">
-        <v>2729</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -10385,19 +11574,19 @@
         <v>528</v>
       </c>
       <c r="B90" t="s">
-        <v>2315</v>
+        <v>3126</v>
       </c>
       <c r="C90" t="s">
-        <v>2730</v>
+        <v>3127</v>
       </c>
       <c r="D90" t="s">
         <v>2731</v>
       </c>
       <c r="E90" t="s">
-        <v>2732</v>
+        <v>3128</v>
       </c>
       <c r="F90" t="s">
-        <v>2733</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -10411,13 +11600,13 @@
         <v>2320</v>
       </c>
       <c r="D91" t="s">
-        <v>2735</v>
+        <v>3130</v>
       </c>
       <c r="E91" t="s">
-        <v>2736</v>
+        <v>3131</v>
       </c>
       <c r="F91" t="s">
-        <v>2323</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -10425,19 +11614,19 @@
         <v>540</v>
       </c>
       <c r="B92" t="s">
-        <v>2737</v>
+        <v>3133</v>
       </c>
       <c r="C92" t="s">
-        <v>2738</v>
+        <v>3134</v>
       </c>
       <c r="D92" t="s">
-        <v>2739</v>
+        <v>3135</v>
       </c>
       <c r="E92" t="s">
-        <v>2328</v>
+        <v>3136</v>
       </c>
       <c r="F92" t="s">
-        <v>2329</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -10448,13 +11637,13 @@
         <v>2740</v>
       </c>
       <c r="C93" t="s">
-        <v>2741</v>
+        <v>3138</v>
       </c>
       <c r="D93" t="s">
+        <v>3139</v>
+      </c>
+      <c r="E93" t="s">
         <v>2742</v>
-      </c>
-      <c r="E93" t="s">
-        <v>2743</v>
       </c>
       <c r="F93" t="s">
         <v>2332</v>
@@ -10466,6 +11655,1888 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676205A0-C5FF-4AEC-B10B-18D60F60A28C}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2336</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2337</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2341</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2355</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2356</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2394</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2413</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2417</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2418</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2422</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2432</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2450</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2451</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2460</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2480</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2496</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2513</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2514</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2519</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2524</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2534</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2549</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2557</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2567</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2576</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2591</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2619</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2623</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2626</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2627</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2634</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F66" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2638</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2642</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2646</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2651</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2226</v>
+      </c>
+      <c r="F71" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2654</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2668</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2244</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F76" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F77" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2679</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2680</v>
+      </c>
+      <c r="F78" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2684</v>
+      </c>
+      <c r="F79" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2693</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2275</v>
+      </c>
+      <c r="F81" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2697</v>
+      </c>
+      <c r="F82" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F83" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2714</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2719</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2720</v>
+      </c>
+      <c r="F87" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F88" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F89" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2732</v>
+      </c>
+      <c r="F90" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2736</v>
+      </c>
+      <c r="F91" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F92" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2743</v>
+      </c>
+      <c r="F93" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC7E8D-1DE3-4DBF-BC92-6657EED87D10}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -12348,7 +15419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EEF453-2C93-48DA-92A9-F02917F02C21}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -14230,7 +17301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3009EEF-D0A3-4418-BB02-D308992E6389}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -16110,7 +19181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62503B16-5D5E-43EB-8EDC-28C65E9BFBAD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -17990,7 +21061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>

--- a/Broker Analysis.xlsx
+++ b/Broker Analysis.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Others\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FCF239-A4DB-4C66-9BC4-F17A54CD5FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF57EF-A488-4A33-AE43-5CECB340099F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-06-04" sheetId="7" r:id="rId1"/>
-    <sheet name="2025-06-03" sheetId="6" r:id="rId2"/>
-    <sheet name="2025-06-02" sheetId="5" r:id="rId3"/>
-    <sheet name="2025-05-28" sheetId="4" r:id="rId4"/>
-    <sheet name="2025-05-21" sheetId="3" r:id="rId5"/>
-    <sheet name="2025-05-20" sheetId="2" r:id="rId6"/>
-    <sheet name="2025-05-19" sheetId="1" r:id="rId7"/>
+    <sheet name="2025-06-05" sheetId="8" r:id="rId1"/>
+    <sheet name="2025-06-04" sheetId="7" r:id="rId2"/>
+    <sheet name="2025-06-03" sheetId="6" r:id="rId3"/>
+    <sheet name="2025-06-02" sheetId="5" r:id="rId4"/>
+    <sheet name="2025-05-28" sheetId="4" r:id="rId5"/>
+    <sheet name="2025-05-21" sheetId="3" r:id="rId6"/>
+    <sheet name="2025-05-20" sheetId="2" r:id="rId7"/>
+    <sheet name="2025-05-19" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="3140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4464" uniqueCount="3579">
   <si>
     <t>B1</t>
   </si>
@@ -9451,6 +9452,1323 @@
   </si>
   <si>
     <t>RFPL/12536/475.82</t>
+  </si>
+  <si>
+    <t>CHDC/7995/2,542.41</t>
+  </si>
+  <si>
+    <t>NIFRA/49080/285.15</t>
+  </si>
+  <si>
+    <t>HPPL/25730/518.68</t>
+  </si>
+  <si>
+    <t>EBL/19619/647.58</t>
+  </si>
+  <si>
+    <t>SHIVM/21393/525.56</t>
+  </si>
+  <si>
+    <t>SHPC/26393/588.19</t>
+  </si>
+  <si>
+    <t>HPPL/21851/522.45</t>
+  </si>
+  <si>
+    <t>SHIVM/19256/529.62</t>
+  </si>
+  <si>
+    <t>HLI/23682/413.73</t>
+  </si>
+  <si>
+    <t>SARBTM/5873/863.26</t>
+  </si>
+  <si>
+    <t>SARBTM/49266/853.38</t>
+  </si>
+  <si>
+    <t>UPCL/52043/419.00</t>
+  </si>
+  <si>
+    <t>MERO/18610/723.97</t>
+  </si>
+  <si>
+    <t>SHIVM/25767/525.59</t>
+  </si>
+  <si>
+    <t>SPDL/31860/381.04</t>
+  </si>
+  <si>
+    <t>NGPL/55224/383.30</t>
+  </si>
+  <si>
+    <t>HDL/7218/1,234.52</t>
+  </si>
+  <si>
+    <t>SHPC/11423/588.71</t>
+  </si>
+  <si>
+    <t>CREST/3401/1,944.73</t>
+  </si>
+  <si>
+    <t>HPPL/11809/522.54</t>
+  </si>
+  <si>
+    <t>NRIC/352927/1,292.77</t>
+  </si>
+  <si>
+    <t>HRL/63637/956.27</t>
+  </si>
+  <si>
+    <t>SAHAS/41687/525.33</t>
+  </si>
+  <si>
+    <t>MEN/24443/585.14</t>
+  </si>
+  <si>
+    <t>NHPC/42809/225.45</t>
+  </si>
+  <si>
+    <t>CHDC/11194/2,534.08</t>
+  </si>
+  <si>
+    <t>RADHI/27072/739.07</t>
+  </si>
+  <si>
+    <t>NICA/43928/360.13</t>
+  </si>
+  <si>
+    <t>UPCL/26229/428.62</t>
+  </si>
+  <si>
+    <t>SHPC/21171/595.61</t>
+  </si>
+  <si>
+    <t>LBBL/256958/453.01</t>
+  </si>
+  <si>
+    <t>BPCL/79755/558.60</t>
+  </si>
+  <si>
+    <t>SADBL/78445/427.11</t>
+  </si>
+  <si>
+    <t>LSL/98697/223.65</t>
+  </si>
+  <si>
+    <t>BARUN/34205/489.12</t>
+  </si>
+  <si>
+    <t>CIT/3438/1,923.71</t>
+  </si>
+  <si>
+    <t>GHL/25573/251.97</t>
+  </si>
+  <si>
+    <t>NLICL/7772/623.89</t>
+  </si>
+  <si>
+    <t>HATHY/3828/1,247.57</t>
+  </si>
+  <si>
+    <t>NABIL/27103/493.51</t>
+  </si>
+  <si>
+    <t>NGPL/32421/386.66</t>
+  </si>
+  <si>
+    <t>BARUN/18422/509.54</t>
+  </si>
+  <si>
+    <t>BHL/41007/220.00</t>
+  </si>
+  <si>
+    <t>CIT/3047/1,917.31</t>
+  </si>
+  <si>
+    <t>CREST/6931/1,996.17</t>
+  </si>
+  <si>
+    <t>HRL/11704/975.68</t>
+  </si>
+  <si>
+    <t>NMIC/5455/2,098.25</t>
+  </si>
+  <si>
+    <t>SHL/17284/571.54</t>
+  </si>
+  <si>
+    <t>RIDI/33544/271.51</t>
+  </si>
+  <si>
+    <t>SAHAS/71784/527.41</t>
+  </si>
+  <si>
+    <t>AHPC/76534/591.63</t>
+  </si>
+  <si>
+    <t>NGPL/46258/385.09</t>
+  </si>
+  <si>
+    <t>NLG/21707/815.42</t>
+  </si>
+  <si>
+    <t>CREST/8338/1,932.43</t>
+  </si>
+  <si>
+    <t>TPC/176807/586.67</t>
+  </si>
+  <si>
+    <t>HURJA/346719/262.37</t>
+  </si>
+  <si>
+    <t>RHPL/174372/396.00</t>
+  </si>
+  <si>
+    <t>NMIC/30767/2,023.02</t>
+  </si>
+  <si>
+    <t>CREST/18802/1,915.83</t>
+  </si>
+  <si>
+    <t>BPCL/285087/510.13</t>
+  </si>
+  <si>
+    <t>SHIVM/132226/531.22</t>
+  </si>
+  <si>
+    <t>AHPC/146602/591.48</t>
+  </si>
+  <si>
+    <t>SADBL/95690/425.32</t>
+  </si>
+  <si>
+    <t>BARUN/41493/488.13</t>
+  </si>
+  <si>
+    <t>UPPER/59081/205.39</t>
+  </si>
+  <si>
+    <t>CREST/4549/2,001.51</t>
+  </si>
+  <si>
+    <t>NLICL/12083/631.91</t>
+  </si>
+  <si>
+    <t>SPDL/19795/376.28</t>
+  </si>
+  <si>
+    <t>BPCL/97011/537.95</t>
+  </si>
+  <si>
+    <t>LBBL/48297/467.00</t>
+  </si>
+  <si>
+    <t>OMPL/8310/1,831.07</t>
+  </si>
+  <si>
+    <t>AKJCL/49912/426.78</t>
+  </si>
+  <si>
+    <t>SHIVM/18445/529.43</t>
+  </si>
+  <si>
+    <t>RADHI/25861/745.29</t>
+  </si>
+  <si>
+    <t>UMHL/30274/502.07</t>
+  </si>
+  <si>
+    <t>SARBTM/16700/851.51</t>
+  </si>
+  <si>
+    <t>NGPL/80339/386.94</t>
+  </si>
+  <si>
+    <t>AKJCL/121712/429.61</t>
+  </si>
+  <si>
+    <t>SADBL/55460/416.34</t>
+  </si>
+  <si>
+    <t>SHIVM/36449/524.25</t>
+  </si>
+  <si>
+    <t>NRIC/9583/1,264.79</t>
+  </si>
+  <si>
+    <t>SHIVM/52644/527.42</t>
+  </si>
+  <si>
+    <t>NRN/12620/2,035.51</t>
+  </si>
+  <si>
+    <t>BARUN/34015/508.16</t>
+  </si>
+  <si>
+    <t>SONA/34317/461.34</t>
+  </si>
+  <si>
+    <t>PRIN/16123/872.02</t>
+  </si>
+  <si>
+    <t>HIDCL/163566/306.34</t>
+  </si>
+  <si>
+    <t>KBL/205690/215.49</t>
+  </si>
+  <si>
+    <t>SHPC/36090/605.09</t>
+  </si>
+  <si>
+    <t>MEN/23885/579.77</t>
+  </si>
+  <si>
+    <t>NICA/34509/357.61</t>
+  </si>
+  <si>
+    <t>RADHI/78529/755.31</t>
+  </si>
+  <si>
+    <t>NGPL/97076/380.53</t>
+  </si>
+  <si>
+    <t>NRN/11693/2,079.90</t>
+  </si>
+  <si>
+    <t>BHL/99714/218.18</t>
+  </si>
+  <si>
+    <t>MEN/34930/583.89</t>
+  </si>
+  <si>
+    <t>SAHAS/177758/527.03</t>
+  </si>
+  <si>
+    <t>BPCL/70035/521.82</t>
+  </si>
+  <si>
+    <t>NABBC/15586/1,568.30</t>
+  </si>
+  <si>
+    <t>CORBL/13522/2,410.00</t>
+  </si>
+  <si>
+    <t>NGPL/81045/383.37</t>
+  </si>
+  <si>
+    <t>RADHI/78704/745.62</t>
+  </si>
+  <si>
+    <t>AHPC/101878/588.68</t>
+  </si>
+  <si>
+    <t>UMHL/42940/512.68</t>
+  </si>
+  <si>
+    <t>HURJA/75208/266.48</t>
+  </si>
+  <si>
+    <t>DORDI/52100/406.37</t>
+  </si>
+  <si>
+    <t>CHDC/50235/2,563.06</t>
+  </si>
+  <si>
+    <t>UPCL/238386/433.33</t>
+  </si>
+  <si>
+    <t>HIDCL/96548/304.79</t>
+  </si>
+  <si>
+    <t>SHL/37400/579.45</t>
+  </si>
+  <si>
+    <t>DORDI/44877/402.08</t>
+  </si>
+  <si>
+    <t>SBL/528679/292.80</t>
+  </si>
+  <si>
+    <t>EBL/152862/652.69</t>
+  </si>
+  <si>
+    <t>RADHI/93116/752.73</t>
+  </si>
+  <si>
+    <t>UPCL/117237/430.26</t>
+  </si>
+  <si>
+    <t>CBBL/37460/902.93</t>
+  </si>
+  <si>
+    <t>API/324894/302.99</t>
+  </si>
+  <si>
+    <t>HIDCL/257352/307.90</t>
+  </si>
+  <si>
+    <t>RADHI/80214/751.66</t>
+  </si>
+  <si>
+    <t>MEN/67112/587.30</t>
+  </si>
+  <si>
+    <t>AHPC/129574/590.97</t>
+  </si>
+  <si>
+    <t>GBIME/218107/239.59</t>
+  </si>
+  <si>
+    <t>RADHI/51791/757.39</t>
+  </si>
+  <si>
+    <t>NIFRA/106911/281.55</t>
+  </si>
+  <si>
+    <t>UPCL/54300/421.91</t>
+  </si>
+  <si>
+    <t>HDHPC/98161/213.84</t>
+  </si>
+  <si>
+    <t>SBI/171312/410.16</t>
+  </si>
+  <si>
+    <t>KBL/77850/212.22</t>
+  </si>
+  <si>
+    <t>SPIL/19550/822.42</t>
+  </si>
+  <si>
+    <t>JBBL/42396/336.41</t>
+  </si>
+  <si>
+    <t>BPCL/25051/527.73</t>
+  </si>
+  <si>
+    <t>MEN/12144/583.78</t>
+  </si>
+  <si>
+    <t>SHPC/8447/591.38</t>
+  </si>
+  <si>
+    <t>BHPL/4455/953.55</t>
+  </si>
+  <si>
+    <t>NRN/2058/2,061.36</t>
+  </si>
+  <si>
+    <t>BARUN/7536/516.96</t>
+  </si>
+  <si>
+    <t>BPCL/229005/531.53</t>
+  </si>
+  <si>
+    <t>SHIVM/79182/526.82</t>
+  </si>
+  <si>
+    <t>ULBSL/8973/3,357.90</t>
+  </si>
+  <si>
+    <t>CHDC/11145/2,530.89</t>
+  </si>
+  <si>
+    <t>HPPL/52438/512.89</t>
+  </si>
+  <si>
+    <t>NRN/70415/2,060.39</t>
+  </si>
+  <si>
+    <t>RADHI/157578/736.97</t>
+  </si>
+  <si>
+    <t>UPCL/249277/425.40</t>
+  </si>
+  <si>
+    <t>CHDC/14189/2,563.34</t>
+  </si>
+  <si>
+    <t>SPDL/39834/384.14</t>
+  </si>
+  <si>
+    <t>BPCL/84413/512.72</t>
+  </si>
+  <si>
+    <t>MEN/23743/592.37</t>
+  </si>
+  <si>
+    <t>SANIMA/44130/317.83</t>
+  </si>
+  <si>
+    <t>NGPL/26873/377.85</t>
+  </si>
+  <si>
+    <t>CHDC/3576/2,540.31</t>
+  </si>
+  <si>
+    <t>SAPDBL/114083/983.77</t>
+  </si>
+  <si>
+    <t>NMIC/14674/2,079.30</t>
+  </si>
+  <si>
+    <t>SINDU/28705/885.55</t>
+  </si>
+  <si>
+    <t>SHIVM/45752/527.90</t>
+  </si>
+  <si>
+    <t>SPDL/38945/389.51</t>
+  </si>
+  <si>
+    <t>GBIME/908369/239.18</t>
+  </si>
+  <si>
+    <t>AHPC/291776/595.44</t>
+  </si>
+  <si>
+    <t>AKPL/343309/260.67</t>
+  </si>
+  <si>
+    <t>MERO/110899/743.16</t>
+  </si>
+  <si>
+    <t>SHPC/89029/596.78</t>
+  </si>
+  <si>
+    <t>BPCL/96748/538.55</t>
+  </si>
+  <si>
+    <t>RFPL/63838/504.62</t>
+  </si>
+  <si>
+    <t>SPIL/29188/822.37</t>
+  </si>
+  <si>
+    <t>USLB/11537/1,948.85</t>
+  </si>
+  <si>
+    <t>NMFBS/18908/2,415.42</t>
+  </si>
+  <si>
+    <t>EBL/162572/651.63</t>
+  </si>
+  <si>
+    <t>PPCL/154414/342.16</t>
+  </si>
+  <si>
+    <t>MLBL/128271/393.56</t>
+  </si>
+  <si>
+    <t>SANIMA/122509/319.02</t>
+  </si>
+  <si>
+    <t>AKPL/149027/262.23</t>
+  </si>
+  <si>
+    <t>SHPC/727402/594.78</t>
+  </si>
+  <si>
+    <t>GBIME/187876/225.09</t>
+  </si>
+  <si>
+    <t>CZBIL/196301/215.78</t>
+  </si>
+  <si>
+    <t>NLIC/50059/758.79</t>
+  </si>
+  <si>
+    <t>LSL/136574/216.54</t>
+  </si>
+  <si>
+    <t>API/43641/302.73</t>
+  </si>
+  <si>
+    <t>HPPL/14125/526.27</t>
+  </si>
+  <si>
+    <t>HIDCL/20793/295.64</t>
+  </si>
+  <si>
+    <t>SHPC/10423/577.00</t>
+  </si>
+  <si>
+    <t>UPPER/27189/201.65</t>
+  </si>
+  <si>
+    <t>AHPC/251448/592.09</t>
+  </si>
+  <si>
+    <t>AKPL/93008/265.00</t>
+  </si>
+  <si>
+    <t>AKJCL/92390/433.03</t>
+  </si>
+  <si>
+    <t>CREST/7751/1,955.09</t>
+  </si>
+  <si>
+    <t>SPDL/35747/383.34</t>
+  </si>
+  <si>
+    <t>SHL/229671/569.36</t>
+  </si>
+  <si>
+    <t>SHPC/94310/586.89</t>
+  </si>
+  <si>
+    <t>AHPC/141976/597.85</t>
+  </si>
+  <si>
+    <t>SHIVM/72078/525.25</t>
+  </si>
+  <si>
+    <t>RIDI/74427/269.18</t>
+  </si>
+  <si>
+    <t>MEN/93521/582.65</t>
+  </si>
+  <si>
+    <t>SHPC/84411/593.44</t>
+  </si>
+  <si>
+    <t>RADHI/57992/746.35</t>
+  </si>
+  <si>
+    <t>NTC/34369/866.75</t>
+  </si>
+  <si>
+    <t>BHL/134440/218.42</t>
+  </si>
+  <si>
+    <t>RADHI/445377/755.56</t>
+  </si>
+  <si>
+    <t>SHL/67231/575.99</t>
+  </si>
+  <si>
+    <t>SHEL/90187/284.17</t>
+  </si>
+  <si>
+    <t>SPIL/23012/805.05</t>
+  </si>
+  <si>
+    <t>HURJA/60757/260.70</t>
+  </si>
+  <si>
+    <t>AHPC/133318/590.34</t>
+  </si>
+  <si>
+    <t>CHDC/9199/2,582.06</t>
+  </si>
+  <si>
+    <t>AKPL/54221/255.50</t>
+  </si>
+  <si>
+    <t>API/41237/304.47</t>
+  </si>
+  <si>
+    <t>BHL/43922/218.16</t>
+  </si>
+  <si>
+    <t>CHDC/12052/2,582.42</t>
+  </si>
+  <si>
+    <t>AKJCL/68352/421.94</t>
+  </si>
+  <si>
+    <t>AHPC/41014/588.63</t>
+  </si>
+  <si>
+    <t>BARUN/18811/486.95</t>
+  </si>
+  <si>
+    <t>RNLI/16797/509.32</t>
+  </si>
+  <si>
+    <t>NMFBS/11336/2,434.83</t>
+  </si>
+  <si>
+    <t>NMIC/5535/2,076.40</t>
+  </si>
+  <si>
+    <t>MEN/17353/597.78</t>
+  </si>
+  <si>
+    <t>SHPC/10355/599.35</t>
+  </si>
+  <si>
+    <t>ULBSL/2248/3,329.00</t>
+  </si>
+  <si>
+    <t>STC/13534/5,067.77</t>
+  </si>
+  <si>
+    <t>SADBL/30797/422.47</t>
+  </si>
+  <si>
+    <t>UPCL/27046/441.27</t>
+  </si>
+  <si>
+    <t>BARUN/21990/524.05</t>
+  </si>
+  <si>
+    <t>CBBL/10312/862.35</t>
+  </si>
+  <si>
+    <t>GMLI/179615/2,592.64</t>
+  </si>
+  <si>
+    <t>NRIC/249900/1,292.87</t>
+  </si>
+  <si>
+    <t>NMIC/54977/1,948.30</t>
+  </si>
+  <si>
+    <t>NLG/95805/833.24</t>
+  </si>
+  <si>
+    <t>HDL/19766/1,217.79</t>
+  </si>
+  <si>
+    <t>NGPL/112264/388.81</t>
+  </si>
+  <si>
+    <t>UPCL/90863/431.41</t>
+  </si>
+  <si>
+    <t>RADHI/49193/766.32</t>
+  </si>
+  <si>
+    <t>SMHL/42296/944.38</t>
+  </si>
+  <si>
+    <t>BEDC/43076/721.26</t>
+  </si>
+  <si>
+    <t>NGPL/187573/384.28</t>
+  </si>
+  <si>
+    <t>AHPC/134182/589.64</t>
+  </si>
+  <si>
+    <t>RADHI/33071/745.77</t>
+  </si>
+  <si>
+    <t>BARUN/49904/491.37</t>
+  </si>
+  <si>
+    <t>GHL/87271/253.47</t>
+  </si>
+  <si>
+    <t>KBL/1997893/214.79</t>
+  </si>
+  <si>
+    <t>NRN/174644/2,040.68</t>
+  </si>
+  <si>
+    <t>AHPC/794864/595.07</t>
+  </si>
+  <si>
+    <t>NGPL/415856/384.25</t>
+  </si>
+  <si>
+    <t>OHL/108721/949.46</t>
+  </si>
+  <si>
+    <t>NIFRA/75932/285.95</t>
+  </si>
+  <si>
+    <t>ALICL/28268/704.38</t>
+  </si>
+  <si>
+    <t>API/64092/302.75</t>
+  </si>
+  <si>
+    <t>NGPL/48317/384.07</t>
+  </si>
+  <si>
+    <t>SHIVM/24458/526.31</t>
+  </si>
+  <si>
+    <t>RADHI/146674/763.12</t>
+  </si>
+  <si>
+    <t>UPCL/164795/429.16</t>
+  </si>
+  <si>
+    <t>SHL/71938/568.21</t>
+  </si>
+  <si>
+    <t>LBBL/50310/474.65</t>
+  </si>
+  <si>
+    <t>SHPC/42161/582.79</t>
+  </si>
+  <si>
+    <t>BPCL/33450/561.40</t>
+  </si>
+  <si>
+    <t>CREST/5832/1,908.90</t>
+  </si>
+  <si>
+    <t>HIDCL/28439/306.20</t>
+  </si>
+  <si>
+    <t>NMIC/3976/2,034.30</t>
+  </si>
+  <si>
+    <t>UMHL/383512/506.29</t>
+  </si>
+  <si>
+    <t>RIDI/191208/269.67</t>
+  </si>
+  <si>
+    <t>BPCL/78619/543.28</t>
+  </si>
+  <si>
+    <t>AHPC/124134/600.96</t>
+  </si>
+  <si>
+    <t>ANLB/3990/5,389.84</t>
+  </si>
+  <si>
+    <t>RADHI/29514/753.98</t>
+  </si>
+  <si>
+    <t>OMPL/7630/1,831.61</t>
+  </si>
+  <si>
+    <t>AKPL/48118/263.46</t>
+  </si>
+  <si>
+    <t>SHL/22905/563.77</t>
+  </si>
+  <si>
+    <t>USLB/6013/1,930.13</t>
+  </si>
+  <si>
+    <t>BPCL/257379/528.72</t>
+  </si>
+  <si>
+    <t>CGH/100143/850.80</t>
+  </si>
+  <si>
+    <t>SHPC/79752/600.11</t>
+  </si>
+  <si>
+    <t>NRN/18716/2,060.10</t>
+  </si>
+  <si>
+    <t>BEDC/45597/744.81</t>
+  </si>
+  <si>
+    <t>SARBTM/83984/858.97</t>
+  </si>
+  <si>
+    <t>SANIMA/104667/318.78</t>
+  </si>
+  <si>
+    <t>PHCL/47464/597.10</t>
+  </si>
+  <si>
+    <t>NIFRA/103681/283.13</t>
+  </si>
+  <si>
+    <t>CHDC/38723/2,571.25</t>
+  </si>
+  <si>
+    <t>NRN/13532/2,050.05</t>
+  </si>
+  <si>
+    <t>UHEWA/35760/628.89</t>
+  </si>
+  <si>
+    <t>NGPL/63219/377.16</t>
+  </si>
+  <si>
+    <t>HIDCL/65110/297.26</t>
+  </si>
+  <si>
+    <t>RADHI/131398/770.38</t>
+  </si>
+  <si>
+    <t>HIDCL/77198/303.59</t>
+  </si>
+  <si>
+    <t>SHIVM/22923/535.81</t>
+  </si>
+  <si>
+    <t>HRL/11794/958.27</t>
+  </si>
+  <si>
+    <t>SHEL/26983/282.32</t>
+  </si>
+  <si>
+    <t>NGPL/148395/383.70</t>
+  </si>
+  <si>
+    <t>AHPC/103894/583.26</t>
+  </si>
+  <si>
+    <t>RIDI/69093/262.76</t>
+  </si>
+  <si>
+    <t>SHPC/15913/596.82</t>
+  </si>
+  <si>
+    <t>MLBL/24540/394.54</t>
+  </si>
+  <si>
+    <t>SHL/74881/563.37</t>
+  </si>
+  <si>
+    <t>HIDCL/82236/306.94</t>
+  </si>
+  <si>
+    <t>BPCL/37485/599.06</t>
+  </si>
+  <si>
+    <t>GLH/67661/278.85</t>
+  </si>
+  <si>
+    <t>SANIMA/53454/310.08</t>
+  </si>
+  <si>
+    <t>BPCL/73325/565.53</t>
+  </si>
+  <si>
+    <t>SHPC/53638/590.39</t>
+  </si>
+  <si>
+    <t>HPPL/33917/494.68</t>
+  </si>
+  <si>
+    <t>RADHI/16462/754.90</t>
+  </si>
+  <si>
+    <t>RADHI/69499/741.95</t>
+  </si>
+  <si>
+    <t>UPCL/94664/428.81</t>
+  </si>
+  <si>
+    <t>LBBL/78983/466.45</t>
+  </si>
+  <si>
+    <t>API/78511/305.81</t>
+  </si>
+  <si>
+    <t>CORBL/6536/2,314.74</t>
+  </si>
+  <si>
+    <t>CORBL/59755/2,296.51</t>
+  </si>
+  <si>
+    <t>GRDBL/30361/1,176.68</t>
+  </si>
+  <si>
+    <t>JOSHI/78401/423.70</t>
+  </si>
+  <si>
+    <t>NRN/12433/2,058.85</t>
+  </si>
+  <si>
+    <t>CHDC/9360/2,560.88</t>
+  </si>
+  <si>
+    <t>BHL/1400/211.96</t>
+  </si>
+  <si>
+    <t>SHPC/63630/576.33</t>
+  </si>
+  <si>
+    <t>SAPDBL/20122/1,008.87</t>
+  </si>
+  <si>
+    <t>BNHC/23521/518.72</t>
+  </si>
+  <si>
+    <t>SKBBL/15012/803.69</t>
+  </si>
+  <si>
+    <t>UPCL/30414/421.78</t>
+  </si>
+  <si>
+    <t>NRN/14351/2,071.40</t>
+  </si>
+  <si>
+    <t>RADHI/23064/751.31</t>
+  </si>
+  <si>
+    <t>API/45012/304.43</t>
+  </si>
+  <si>
+    <t>BHL/55520/215.50</t>
+  </si>
+  <si>
+    <t>BPCL/15470/579.77</t>
+  </si>
+  <si>
+    <t>SHIVM/11971/526.02</t>
+  </si>
+  <si>
+    <t>MEN/7486/577.51</t>
+  </si>
+  <si>
+    <t>BPCL/269750/564.04</t>
+  </si>
+  <si>
+    <t>RADHI/106820/770.75</t>
+  </si>
+  <si>
+    <t>UPCL/101600/427.21</t>
+  </si>
+  <si>
+    <t>CHDC/14098/2,553.56</t>
+  </si>
+  <si>
+    <t>SHPC/53593/593.70</t>
+  </si>
+  <si>
+    <t>NRN/2589/2,056.57</t>
+  </si>
+  <si>
+    <t>RADHI/6232/757.05</t>
+  </si>
+  <si>
+    <t>NGPL/10265/380.13</t>
+  </si>
+  <si>
+    <t>RNLI/6369/509.56</t>
+  </si>
+  <si>
+    <t>TRH/1100/948.00</t>
+  </si>
+  <si>
+    <t>AKJCL/4460/411.88</t>
+  </si>
+  <si>
+    <t>AHPC/2608/571.76</t>
+  </si>
+  <si>
+    <t>MEN/56630/584.50</t>
+  </si>
+  <si>
+    <t>NMLBBL/35723/661.47</t>
+  </si>
+  <si>
+    <t>RADHI/23868/760.42</t>
+  </si>
+  <si>
+    <t>NIFRA/56269/287.29</t>
+  </si>
+  <si>
+    <t>HRL/14886/967.00</t>
+  </si>
+  <si>
+    <t>UPCL/252631/424.51</t>
+  </si>
+  <si>
+    <t>NGPL/219998/391.51</t>
+  </si>
+  <si>
+    <t>SAHAS/62166/526.43</t>
+  </si>
+  <si>
+    <t>RIDI/102188/270.44</t>
+  </si>
+  <si>
+    <t>HRL/16982/982.04</t>
+  </si>
+  <si>
+    <t>NRN/17709/2,063.17</t>
+  </si>
+  <si>
+    <t>RADHI/39817/749.32</t>
+  </si>
+  <si>
+    <t>UMHL/23142/510.47</t>
+  </si>
+  <si>
+    <t>HRL/12128/957.17</t>
+  </si>
+  <si>
+    <t>RADHI/25156/757.82</t>
+  </si>
+  <si>
+    <t>HRL/18571/957.12</t>
+  </si>
+  <si>
+    <t>KPCL/18514/522.70</t>
+  </si>
+  <si>
+    <t>CGH/7390/872.73</t>
+  </si>
+  <si>
+    <t>SADBL/49231/422.33</t>
+  </si>
+  <si>
+    <t>HIDCL/62798/301.14</t>
+  </si>
+  <si>
+    <t>HDL/14525/1,216.24</t>
+  </si>
+  <si>
+    <t>KSBBL/34260/449.24</t>
+  </si>
+  <si>
+    <t>CZBIL/68811/214.42</t>
+  </si>
+  <si>
+    <t>NGPL/188297/381.05</t>
+  </si>
+  <si>
+    <t>SHL/81992/582.69</t>
+  </si>
+  <si>
+    <t>RADHI/55478/756.50</t>
+  </si>
+  <si>
+    <t>AHPC/68712/587.35</t>
+  </si>
+  <si>
+    <t>NRN/6666/2,078.15</t>
+  </si>
+  <si>
+    <t>CHDC/6217/2,564.38</t>
+  </si>
+  <si>
+    <t>UPCL/31242/418.80</t>
+  </si>
+  <si>
+    <t>NRIC/9567/1,283.84</t>
+  </si>
+  <si>
+    <t>RADHI/16263/751.77</t>
+  </si>
+  <si>
+    <t>SHPC/16539/591.50</t>
+  </si>
+  <si>
+    <t>RADHI/94763/751.07</t>
+  </si>
+  <si>
+    <t>RIDI/24200/269.73</t>
+  </si>
+  <si>
+    <t>HPPL/12297/510.10</t>
+  </si>
+  <si>
+    <t>UPCL/15960/417.17</t>
+  </si>
+  <si>
+    <t>NMIC/1916/2,068.14</t>
+  </si>
+  <si>
+    <t>SAPDBL/58064/988.42</t>
+  </si>
+  <si>
+    <t>CHDC/5491/2,518.60</t>
+  </si>
+  <si>
+    <t>CORBL/5210/2,578.93</t>
+  </si>
+  <si>
+    <t>NLG/12524/802.15</t>
+  </si>
+  <si>
+    <t>SHPC/13811/587.58</t>
+  </si>
+  <si>
+    <t>RADHI/28479/752.40</t>
+  </si>
+  <si>
+    <t>GBIME/87799/236.23</t>
+  </si>
+  <si>
+    <t>NGPL/20225/380.99</t>
+  </si>
+  <si>
+    <t>SHIVM/10225/525.77</t>
+  </si>
+  <si>
+    <t>HRL/3972/974.31</t>
+  </si>
+  <si>
+    <t>HBL/93145/230.84</t>
+  </si>
+  <si>
+    <t>SHL/12709/572.65</t>
+  </si>
+  <si>
+    <t>AHPC/15602/587.86</t>
+  </si>
+  <si>
+    <t>BARUN/5245/508.13</t>
+  </si>
+  <si>
+    <t>UPCL/67132/427.14</t>
+  </si>
+  <si>
+    <t>BPCL/32305/535.72</t>
+  </si>
+  <si>
+    <t>UNHPL/33858/336.58</t>
+  </si>
+  <si>
+    <t>HURJA/33600/264.04</t>
+  </si>
+  <si>
+    <t>AKPL/41269/260.77</t>
+  </si>
+  <si>
+    <t>HIDCL/179238/301.38</t>
+  </si>
+  <si>
+    <t>SHPC/19803/597.75</t>
+  </si>
+  <si>
+    <t>BPCL/16962/553.94</t>
+  </si>
+  <si>
+    <t>RADHI/12780/751.57</t>
+  </si>
+  <si>
+    <t>CHCL/11914/507.50</t>
+  </si>
+  <si>
+    <t>HEI/15674/582.63</t>
+  </si>
+  <si>
+    <t>SHPC/6910/592.48</t>
+  </si>
+  <si>
+    <t>ICFC/6110/616.11</t>
+  </si>
+  <si>
+    <t>SRLI/8751/405.83</t>
+  </si>
+  <si>
+    <t>RADHI/187305/760.88</t>
+  </si>
+  <si>
+    <t>MKHL/142541/730.51</t>
+  </si>
+  <si>
+    <t>UPCL/81171/422.40</t>
+  </si>
+  <si>
+    <t>PRIN/34648/867.00</t>
+  </si>
+  <si>
+    <t>BPCL/43375/522.29</t>
+  </si>
+  <si>
+    <t>UPCL/69391/442.92</t>
+  </si>
+  <si>
+    <t>NGPL/30773/387.19</t>
+  </si>
+  <si>
+    <t>RADHI/10025/761.35</t>
+  </si>
+  <si>
+    <t>NMIC/2640/2,166.84</t>
+  </si>
+  <si>
+    <t>NICA/17364/366.34</t>
+  </si>
+  <si>
+    <t>LBBL/168556/469.61</t>
+  </si>
+  <si>
+    <t>NICA/121914/365.05</t>
+  </si>
+  <si>
+    <t>SHL/65694/561.65</t>
+  </si>
+  <si>
+    <t>NRIC/22440/1,280.54</t>
+  </si>
+  <si>
+    <t>SHPC/38188/600.29</t>
+  </si>
+  <si>
+    <t>UPCL/31709/433.55</t>
+  </si>
+  <si>
+    <t>NRN/5807/2,043.42</t>
+  </si>
+  <si>
+    <t>SADBL/23810/423.36</t>
+  </si>
+  <si>
+    <t>SHPC/16681/590.94</t>
+  </si>
+  <si>
+    <t>NMIC/4008/2,082.93</t>
+  </si>
+  <si>
+    <t>RADHI/30457/741.78</t>
+  </si>
+  <si>
+    <t>NGPL/42738/384.56</t>
+  </si>
+  <si>
+    <t>API/43628/309.37</t>
+  </si>
+  <si>
+    <t>OMPL/7080/1,901.85</t>
+  </si>
+  <si>
+    <t>AHPC/45018/584.73</t>
+  </si>
+  <si>
+    <t>BPCL/25585/575.97</t>
+  </si>
+  <si>
+    <t>SHIVM/25230/536.05</t>
+  </si>
+  <si>
+    <t>UNHPL/35014/344.11</t>
+  </si>
+  <si>
+    <t>UPCL/22210/424.17</t>
+  </si>
+  <si>
+    <t>HPPL/13160/505.84</t>
+  </si>
+  <si>
+    <t>PHCL/112184/604.06</t>
+  </si>
+  <si>
+    <t>MLBL/60035/388.37</t>
+  </si>
+  <si>
+    <t>RADHI/20512/781.26</t>
+  </si>
+  <si>
+    <t>KSBBL/31631/452.73</t>
+  </si>
+  <si>
+    <t>LBBL/28098/453.18</t>
+  </si>
+  <si>
+    <t>CHDC/4265/2,576.84</t>
+  </si>
+  <si>
+    <t>RADHI/8657/763.30</t>
+  </si>
+  <si>
+    <t>AKPL/14500/274.51</t>
+  </si>
+  <si>
+    <t>RFPL/8705/475.82</t>
+  </si>
+  <si>
+    <t>NGPL/9450/390.08</t>
   </si>
 </sst>
 </file>
@@ -9773,11 +11091,1890 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001CC29C-638A-4E4E-829D-66241B93D88A}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3143</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3153</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3157</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3158</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3162</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3168</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3173</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3177</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3182</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3187</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3192</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3196</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3197</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3205</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3210</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3211</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3219</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3224</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3227</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3229</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3234</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3238</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3239</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3242</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3243</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3244</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3249</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3254</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3257</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3259</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3263</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3264</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3268</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3269</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3274</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3288</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3289</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3298</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3303</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3304</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3309</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3314</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3319</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3322</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3323</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3328</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3329</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3338</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3343</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3348</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3349</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3353</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3359</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3364</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3372</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3373</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3374</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3379</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3382</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3383</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3384</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2986</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3393</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3397</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3398</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3402</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3403</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3407</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3411</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3412</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3417</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3421</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3422</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3426</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3427</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3431</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3432</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3439</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3440</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3443</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2630</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3451</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3452</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3459</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3464</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3466</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3468</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3472</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3476</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3478</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3481</v>
+      </c>
+      <c r="F73" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3485</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3489</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3494</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3499</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3502</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3503</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3504</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3509</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3514</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3521</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3522</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3524</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3525</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3526</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3528</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3533</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3536</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3537</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3539</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3540</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3542</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3547</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3551</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3552</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3556</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3557</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3561</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3565</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3566</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3567</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3569</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3571</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3572</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3574</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3576</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3577</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C0AFDA-3FBB-41A3-BA62-46EDDC71FB68}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11654,7 +14851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676205A0-C5FF-4AEC-B10B-18D60F60A28C}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -13536,7 +16733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC7E8D-1DE3-4DBF-BC92-6657EED87D10}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -15419,7 +18616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EEF453-2C93-48DA-92A9-F02917F02C21}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -17301,7 +20498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3009EEF-D0A3-4418-BB02-D308992E6389}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -19181,7 +22378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62503B16-5D5E-43EB-8EDC-28C65E9BFBAD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -21061,7 +24258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>

--- a/Broker Analysis.xlsx
+++ b/Broker Analysis.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Others\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF57EF-A488-4A33-AE43-5CECB340099F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AD01D7-C1BE-4990-AC09-4E4821C239D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-06-05" sheetId="8" r:id="rId1"/>
-    <sheet name="2025-06-04" sheetId="7" r:id="rId2"/>
-    <sheet name="2025-06-03" sheetId="6" r:id="rId3"/>
-    <sheet name="2025-06-02" sheetId="5" r:id="rId4"/>
-    <sheet name="2025-05-28" sheetId="4" r:id="rId5"/>
-    <sheet name="2025-05-21" sheetId="3" r:id="rId6"/>
-    <sheet name="2025-05-20" sheetId="2" r:id="rId7"/>
-    <sheet name="2025-05-19" sheetId="1" r:id="rId8"/>
+    <sheet name="2025-06-08" sheetId="9" r:id="rId1"/>
+    <sheet name="2025-06-05" sheetId="8" r:id="rId2"/>
+    <sheet name="2025-06-04" sheetId="7" r:id="rId3"/>
+    <sheet name="2025-06-03" sheetId="6" r:id="rId4"/>
+    <sheet name="2025-06-02" sheetId="5" r:id="rId5"/>
+    <sheet name="2025-05-28" sheetId="4" r:id="rId6"/>
+    <sheet name="2025-05-21" sheetId="3" r:id="rId7"/>
+    <sheet name="2025-05-20" sheetId="2" r:id="rId8"/>
+    <sheet name="2025-05-19" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4464" uniqueCount="3579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5022" uniqueCount="3579">
   <si>
     <t>B1</t>
   </si>
@@ -11091,10 +11092,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001CC29C-638A-4E4E-829D-66241B93D88A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60595582-9969-482E-9896-05463C5DE0AD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12970,6 +12973,1887 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001CC29C-638A-4E4E-829D-66241B93D88A}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3143</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3153</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3157</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3158</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3162</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3168</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3173</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3177</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3182</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3187</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3192</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3196</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3197</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3205</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3210</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3211</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3219</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3224</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3227</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3229</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3234</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3238</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3239</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3242</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3243</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3244</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3249</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3254</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3257</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3259</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3263</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3264</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3268</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3269</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3274</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3288</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3289</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3298</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3303</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3304</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3309</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3314</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3319</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3322</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3323</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3328</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3329</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3338</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3343</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3348</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3349</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3353</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3359</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3364</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3372</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3373</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3374</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3379</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3382</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3383</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3384</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2986</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3393</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3397</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3398</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3402</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3403</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3407</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3411</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3412</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3417</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3421</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3422</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3426</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3427</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3431</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3432</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3439</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3440</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3443</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2630</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3451</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3452</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3459</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3464</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3466</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3468</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3472</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3476</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3478</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3481</v>
+      </c>
+      <c r="F73" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3485</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3489</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3494</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3499</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3502</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3503</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3504</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3509</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3514</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3521</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3522</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3524</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3525</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3526</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3528</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3533</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3536</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3537</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3539</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3540</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3542</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3547</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3551</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3552</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3556</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3557</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3561</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3565</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3566</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3567</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3569</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3571</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3572</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3574</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3576</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3577</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C0AFDA-3FBB-41A3-BA62-46EDDC71FB68}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -14851,7 +16735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676205A0-C5FF-4AEC-B10B-18D60F60A28C}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -16733,7 +18617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC7E8D-1DE3-4DBF-BC92-6657EED87D10}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -18616,7 +20500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EEF453-2C93-48DA-92A9-F02917F02C21}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -20498,7 +22382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3009EEF-D0A3-4418-BB02-D308992E6389}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -22378,7 +24262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62503B16-5D5E-43EB-8EDC-28C65E9BFBAD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -24258,7 +26142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>

--- a/Broker Analysis.xlsx
+++ b/Broker Analysis.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Others\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF57EF-A488-4A33-AE43-5CECB340099F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719992C1-D957-4EA6-B165-6257610E699A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-06-05" sheetId="8" r:id="rId1"/>
-    <sheet name="2025-06-04" sheetId="7" r:id="rId2"/>
-    <sheet name="2025-06-03" sheetId="6" r:id="rId3"/>
-    <sheet name="2025-06-02" sheetId="5" r:id="rId4"/>
-    <sheet name="2025-05-28" sheetId="4" r:id="rId5"/>
-    <sheet name="2025-05-21" sheetId="3" r:id="rId6"/>
-    <sheet name="2025-05-20" sheetId="2" r:id="rId7"/>
-    <sheet name="2025-05-19" sheetId="1" r:id="rId8"/>
+    <sheet name="2025-06-08" sheetId="9" r:id="rId1"/>
+    <sheet name="2025-06-05" sheetId="8" r:id="rId2"/>
+    <sheet name="2025-06-04" sheetId="7" r:id="rId3"/>
+    <sheet name="2025-06-03" sheetId="6" r:id="rId4"/>
+    <sheet name="2025-06-02" sheetId="5" r:id="rId5"/>
+    <sheet name="2025-05-28" sheetId="4" r:id="rId6"/>
+    <sheet name="2025-05-21" sheetId="3" r:id="rId7"/>
+    <sheet name="2025-05-20" sheetId="2" r:id="rId8"/>
+    <sheet name="2025-05-19" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4464" uniqueCount="3579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5022" uniqueCount="4018">
   <si>
     <t>B1</t>
   </si>
@@ -10769,6 +10770,1323 @@
   </si>
   <si>
     <t>NGPL/9450/390.08</t>
+  </si>
+  <si>
+    <t>NIFRA/62840/283.84</t>
+  </si>
+  <si>
+    <t>SHIVM/30660/523.73</t>
+  </si>
+  <si>
+    <t>EBL/18824/650.07</t>
+  </si>
+  <si>
+    <t>NRN/5866/2,028.83</t>
+  </si>
+  <si>
+    <t>RADHI/12692/775.38</t>
+  </si>
+  <si>
+    <t>SHIVM/16449/530.37</t>
+  </si>
+  <si>
+    <t>HPPL/14912/510.09</t>
+  </si>
+  <si>
+    <t>HLI/13577/412.38</t>
+  </si>
+  <si>
+    <t>SARBTM/5799/863.69</t>
+  </si>
+  <si>
+    <t>JOSHI/10794/412.61</t>
+  </si>
+  <si>
+    <t>SARBTM/48611/850.44</t>
+  </si>
+  <si>
+    <t>SAHAS/31371/524.80</t>
+  </si>
+  <si>
+    <t>RADHI/19455/783.05</t>
+  </si>
+  <si>
+    <t>API/42111/300.22</t>
+  </si>
+  <si>
+    <t>SPDL/29242/378.40</t>
+  </si>
+  <si>
+    <t>NGPL/36287/384.79</t>
+  </si>
+  <si>
+    <t>HDL/7764/1,233.97</t>
+  </si>
+  <si>
+    <t>OMPL/4370/1,806.69</t>
+  </si>
+  <si>
+    <t>SHPC/12617/583.39</t>
+  </si>
+  <si>
+    <t>NRIC/5305/1,266.69</t>
+  </si>
+  <si>
+    <t>NRIC/344540/1,294.17</t>
+  </si>
+  <si>
+    <t>HRL/63961/953.78</t>
+  </si>
+  <si>
+    <t>UPCL/67283/434.43</t>
+  </si>
+  <si>
+    <t>SAHAS/46565/523.89</t>
+  </si>
+  <si>
+    <t>MEN/23626/586.34</t>
+  </si>
+  <si>
+    <t>NRN/10860/2,040.60</t>
+  </si>
+  <si>
+    <t>UPCL/46582/433.02</t>
+  </si>
+  <si>
+    <t>CHDC/8111/2,534.74</t>
+  </si>
+  <si>
+    <t>NICA/45321/360.13</t>
+  </si>
+  <si>
+    <t>RADHI/21853/753.27</t>
+  </si>
+  <si>
+    <t>LBBL/244996/455.56</t>
+  </si>
+  <si>
+    <t>BPCL/99088/571.13</t>
+  </si>
+  <si>
+    <t>SADBL/79046/426.96</t>
+  </si>
+  <si>
+    <t>LSL/102013/223.74</t>
+  </si>
+  <si>
+    <t>CHDC/7353/2,560.33</t>
+  </si>
+  <si>
+    <t>NTC/8220/871.83</t>
+  </si>
+  <si>
+    <t>CIT/3368/1,923.63</t>
+  </si>
+  <si>
+    <t>NLICL/7792/623.89</t>
+  </si>
+  <si>
+    <t>SHIVM/8696/528.98</t>
+  </si>
+  <si>
+    <t>NIMB/19399/211.08</t>
+  </si>
+  <si>
+    <t>NABIL/26194/494.00</t>
+  </si>
+  <si>
+    <t>NGPL/30400/388.82</t>
+  </si>
+  <si>
+    <t>BARUN/20479/503.00</t>
+  </si>
+  <si>
+    <t>BHL/29782/219.51</t>
+  </si>
+  <si>
+    <t>ALICL/8173/697.70</t>
+  </si>
+  <si>
+    <t>CREST/7875/1,981.34</t>
+  </si>
+  <si>
+    <t>NGPL/36911/386.99</t>
+  </si>
+  <si>
+    <t>UPCL/26356/443.25</t>
+  </si>
+  <si>
+    <t>NMIC/6260/2,066.66</t>
+  </si>
+  <si>
+    <t>HRL/10927/975.77</t>
+  </si>
+  <si>
+    <t>SAHAS/63414/526.11</t>
+  </si>
+  <si>
+    <t>CREST/7303/1,906.69</t>
+  </si>
+  <si>
+    <t>NLG/18044/815.93</t>
+  </si>
+  <si>
+    <t>NGPL/35726/385.91</t>
+  </si>
+  <si>
+    <t>AKPL/49664/267.72</t>
+  </si>
+  <si>
+    <t>HURJA/305667/262.78</t>
+  </si>
+  <si>
+    <t>TPC/121799/588.55</t>
+  </si>
+  <si>
+    <t>NMIC/38413/1,963.73</t>
+  </si>
+  <si>
+    <t>RHPL/133823/393.63</t>
+  </si>
+  <si>
+    <t>CREST/18929/1,911.41</t>
+  </si>
+  <si>
+    <t>SHIVM/120796/531.55</t>
+  </si>
+  <si>
+    <t>BPCL/143629/526.25</t>
+  </si>
+  <si>
+    <t>SADBL/100528/425.19</t>
+  </si>
+  <si>
+    <t>AHPC/82175/295.22</t>
+  </si>
+  <si>
+    <t>HIDCL/58455/306.96</t>
+  </si>
+  <si>
+    <t>LICN/20865/971.74</t>
+  </si>
+  <si>
+    <t>SPIL/12666/817.91</t>
+  </si>
+  <si>
+    <t>CREST/5019/1,976.71</t>
+  </si>
+  <si>
+    <t>HDL/6977/1,211.70</t>
+  </si>
+  <si>
+    <t>NLICL/12073/631.92</t>
+  </si>
+  <si>
+    <t>BPCL/77034/553.12</t>
+  </si>
+  <si>
+    <t>LBBL/46809/467.01</t>
+  </si>
+  <si>
+    <t>OMPL/8370/1,823.93</t>
+  </si>
+  <si>
+    <t>UPCL/25609/434.79</t>
+  </si>
+  <si>
+    <t>SAPDBL/12209/881.03</t>
+  </si>
+  <si>
+    <t>LBBL/70784/464.65</t>
+  </si>
+  <si>
+    <t>SARBTM/16500/851.29</t>
+  </si>
+  <si>
+    <t>NRN/6436/2,009.90</t>
+  </si>
+  <si>
+    <t>HIDCL/39353/310.46</t>
+  </si>
+  <si>
+    <t>EBL/18367/657.14</t>
+  </si>
+  <si>
+    <t>NGPL/64869/388.73</t>
+  </si>
+  <si>
+    <t>SADBL/39963/416.63</t>
+  </si>
+  <si>
+    <t>SHIVM/29696/523.48</t>
+  </si>
+  <si>
+    <t>NRIC/7616/1,268.10</t>
+  </si>
+  <si>
+    <t>AKJCL/32541/215.26</t>
+  </si>
+  <si>
+    <t>SHIVM/49291/527.29</t>
+  </si>
+  <si>
+    <t>NRN/12178/2,024.49</t>
+  </si>
+  <si>
+    <t>BARUN/25659/501.18</t>
+  </si>
+  <si>
+    <t>SONA/31855/461.98</t>
+  </si>
+  <si>
+    <t>PHCL/20711/590.35</t>
+  </si>
+  <si>
+    <t>HIDCL/155051/306.56</t>
+  </si>
+  <si>
+    <t>KBL/199340/216.05</t>
+  </si>
+  <si>
+    <t>NICA/35977/357.67</t>
+  </si>
+  <si>
+    <t>MEN/16467/582.57</t>
+  </si>
+  <si>
+    <t>GLH/26445/270.90</t>
+  </si>
+  <si>
+    <t>RADHI/90027/771.75</t>
+  </si>
+  <si>
+    <t>NGPL/95964/382.57</t>
+  </si>
+  <si>
+    <t>BHL/110215/217.89</t>
+  </si>
+  <si>
+    <t>LBBL/36423/460.35</t>
+  </si>
+  <si>
+    <t>NLIC/19347/757.64</t>
+  </si>
+  <si>
+    <t>SAHAS/133143/527.90</t>
+  </si>
+  <si>
+    <t>CHDC/15022/2,555.72</t>
+  </si>
+  <si>
+    <t>CORBL/13814/2,411.09</t>
+  </si>
+  <si>
+    <t>BPCL/49640/549.42</t>
+  </si>
+  <si>
+    <t>MNBBL/55947/361.81</t>
+  </si>
+  <si>
+    <t>RADHI/59315/771.53</t>
+  </si>
+  <si>
+    <t>GRDBL/16279/1,265.34</t>
+  </si>
+  <si>
+    <t>HURJA/66771/266.60</t>
+  </si>
+  <si>
+    <t>DORDI/35222/406.38</t>
+  </si>
+  <si>
+    <t>UMHL/21674/519.90</t>
+  </si>
+  <si>
+    <t>UPCL/240592/439.30</t>
+  </si>
+  <si>
+    <t>CHDC/32409/2,578.68</t>
+  </si>
+  <si>
+    <t>SHL/43615/579.56</t>
+  </si>
+  <si>
+    <t>DORDI/36129/403.34</t>
+  </si>
+  <si>
+    <t>UMRH/23240/559.46</t>
+  </si>
+  <si>
+    <t>SBL/554511/293.12</t>
+  </si>
+  <si>
+    <t>EBL/129345/652.80</t>
+  </si>
+  <si>
+    <t>UPCL/142563/437.62</t>
+  </si>
+  <si>
+    <t>RADHI/74612/756.99</t>
+  </si>
+  <si>
+    <t>CBBL/38138/903.04</t>
+  </si>
+  <si>
+    <t>API/182075/302.63</t>
+  </si>
+  <si>
+    <t>HRL/36259/971.87</t>
+  </si>
+  <si>
+    <t>MEN/55561/587.86</t>
+  </si>
+  <si>
+    <t>ALICL/43621/704.65</t>
+  </si>
+  <si>
+    <t>HIDCL/101681/308.19</t>
+  </si>
+  <si>
+    <t>GBIME/245047/239.81</t>
+  </si>
+  <si>
+    <t>UPCL/62480/434.41</t>
+  </si>
+  <si>
+    <t>NIFRA/96114/280.69</t>
+  </si>
+  <si>
+    <t>HDHPC/93580/213.81</t>
+  </si>
+  <si>
+    <t>SBL/71456/289.86</t>
+  </si>
+  <si>
+    <t>SBI/164074/411.81</t>
+  </si>
+  <si>
+    <t>SPIL/20035/822.48</t>
+  </si>
+  <si>
+    <t>EBL/25082/633.23</t>
+  </si>
+  <si>
+    <t>BPCL/30518/535.78</t>
+  </si>
+  <si>
+    <t>KBL/57927/214.11</t>
+  </si>
+  <si>
+    <t>MEN/11757/584.69</t>
+  </si>
+  <si>
+    <t>SHPC/10170/590.31</t>
+  </si>
+  <si>
+    <t>NRN/2333/2,060.53</t>
+  </si>
+  <si>
+    <t>MBJC/11320/311.16</t>
+  </si>
+  <si>
+    <t>BPCL/165069/539.07</t>
+  </si>
+  <si>
+    <t>SHIVM/76239/526.36</t>
+  </si>
+  <si>
+    <t>API/89719/308.99</t>
+  </si>
+  <si>
+    <t>HEI/38463/575.84</t>
+  </si>
+  <si>
+    <t>BARUN/45020/458.40</t>
+  </si>
+  <si>
+    <t>NRN/65186/2,054.48</t>
+  </si>
+  <si>
+    <t>UPCL/181074/432.72</t>
+  </si>
+  <si>
+    <t>CHDC/25484/2,570.55</t>
+  </si>
+  <si>
+    <t>SHL/35623/565.69</t>
+  </si>
+  <si>
+    <t>SHIVM/27880/526.02</t>
+  </si>
+  <si>
+    <t>BPCL/69585/514.33</t>
+  </si>
+  <si>
+    <t>SANIMA/43272/318.29</t>
+  </si>
+  <si>
+    <t>MEN/22317/592.44</t>
+  </si>
+  <si>
+    <t>RURU/11414/699.35</t>
+  </si>
+  <si>
+    <t>HIDCL/25759/305.14</t>
+  </si>
+  <si>
+    <t>SAPDBL/105971/1,016.25</t>
+  </si>
+  <si>
+    <t>NMIC/16406/2,055.06</t>
+  </si>
+  <si>
+    <t>SHIVM/45140/527.15</t>
+  </si>
+  <si>
+    <t>SINDU/22607/883.67</t>
+  </si>
+  <si>
+    <t>SPDL/48255/387.42</t>
+  </si>
+  <si>
+    <t>GBIME/885989/239.84</t>
+  </si>
+  <si>
+    <t>MERO/107795/744.81</t>
+  </si>
+  <si>
+    <t>AKPL/280943/261.92</t>
+  </si>
+  <si>
+    <t>RADHI/73358/769.19</t>
+  </si>
+  <si>
+    <t>SHPC/62116/590.78</t>
+  </si>
+  <si>
+    <t>BPCL/110610/553.42</t>
+  </si>
+  <si>
+    <t>RFPL/66045/504.46</t>
+  </si>
+  <si>
+    <t>USLB/11567/1,948.85</t>
+  </si>
+  <si>
+    <t>GHL/83808/249.98</t>
+  </si>
+  <si>
+    <t>SPIL/25327/824.10</t>
+  </si>
+  <si>
+    <t>EBL/183153/651.65</t>
+  </si>
+  <si>
+    <t>MLBL/127848/394.14</t>
+  </si>
+  <si>
+    <t>PPCL/117049/338.77</t>
+  </si>
+  <si>
+    <t>SANIMA/119706/319.61</t>
+  </si>
+  <si>
+    <t>HRL/35768/967.73</t>
+  </si>
+  <si>
+    <t>SHPC/466924/590.58</t>
+  </si>
+  <si>
+    <t>CZBIL/194463/216.02</t>
+  </si>
+  <si>
+    <t>GBIME/179532/225.21</t>
+  </si>
+  <si>
+    <t>NLIC/43413/759.61</t>
+  </si>
+  <si>
+    <t>SHIVM/62552/524.84</t>
+  </si>
+  <si>
+    <t>HRL/11091/946.47</t>
+  </si>
+  <si>
+    <t>API/33904/302.33</t>
+  </si>
+  <si>
+    <t>UPPER/36065/200.70</t>
+  </si>
+  <si>
+    <t>SARBTM/7007/843.69</t>
+  </si>
+  <si>
+    <t>AKPL/19511/255.33</t>
+  </si>
+  <si>
+    <t>AKPL/94210/265.51</t>
+  </si>
+  <si>
+    <t>NGPL/46730/388.58</t>
+  </si>
+  <si>
+    <t>CREST/7491/1,930.53</t>
+  </si>
+  <si>
+    <t>SPDL/35090/381.87</t>
+  </si>
+  <si>
+    <t>HRL/12600/956.53</t>
+  </si>
+  <si>
+    <t>SHL/277719/569.38</t>
+  </si>
+  <si>
+    <t>NGPL/180053/386.84</t>
+  </si>
+  <si>
+    <t>SHPC/95241/584.59</t>
+  </si>
+  <si>
+    <t>SHIVM/68619/525.03</t>
+  </si>
+  <si>
+    <t>RIDI/64101/266.51</t>
+  </si>
+  <si>
+    <t>MEN/98505/583.00</t>
+  </si>
+  <si>
+    <t>RADHI/50318/762.79</t>
+  </si>
+  <si>
+    <t>SHPC/64962/587.71</t>
+  </si>
+  <si>
+    <t>NTC/31846/865.09</t>
+  </si>
+  <si>
+    <t>SHEL/95835/275.06</t>
+  </si>
+  <si>
+    <t>RADHI/421019/762.74</t>
+  </si>
+  <si>
+    <t>SHL/51384/575.89</t>
+  </si>
+  <si>
+    <t>SPIL/23455/805.05</t>
+  </si>
+  <si>
+    <t>SHIVM/26492/528.14</t>
+  </si>
+  <si>
+    <t>HURJA/46472/261.01</t>
+  </si>
+  <si>
+    <t>AHPC/53958/294.38</t>
+  </si>
+  <si>
+    <t>CHDC/5676/2,596.74</t>
+  </si>
+  <si>
+    <t>RADHI/13462/782.02</t>
+  </si>
+  <si>
+    <t>AKPL/46355/257.26</t>
+  </si>
+  <si>
+    <t>SHEL/39207/272.23</t>
+  </si>
+  <si>
+    <t>CHDC/12843/2,579.69</t>
+  </si>
+  <si>
+    <t>BARUN/21112/458.62</t>
+  </si>
+  <si>
+    <t>NICA/20863/351.57</t>
+  </si>
+  <si>
+    <t>NIFRA/25247/284.13</t>
+  </si>
+  <si>
+    <t>BHL/31895/217.04</t>
+  </si>
+  <si>
+    <t>MEN/16797/599.00</t>
+  </si>
+  <si>
+    <t>SHPC/14306/597.07</t>
+  </si>
+  <si>
+    <t>NMIC/4115/2,106.27</t>
+  </si>
+  <si>
+    <t>ULBSL/2298/3,346.07</t>
+  </si>
+  <si>
+    <t>NMFBS/5669/1,217.41</t>
+  </si>
+  <si>
+    <t>STC/13026/5,049.02</t>
+  </si>
+  <si>
+    <t>RADHI/56444/761.92</t>
+  </si>
+  <si>
+    <t>UPCL/49616/448.29</t>
+  </si>
+  <si>
+    <t>SADBL/31787/422.27</t>
+  </si>
+  <si>
+    <t>BARUN/19976/520.64</t>
+  </si>
+  <si>
+    <t>GMLI/180842/2,594.87</t>
+  </si>
+  <si>
+    <t>NRIC/250530/1,293.28</t>
+  </si>
+  <si>
+    <t>NMIC/51998/1,943.31</t>
+  </si>
+  <si>
+    <t>NLG/97880/833.23</t>
+  </si>
+  <si>
+    <t>HRL/25250/955.91</t>
+  </si>
+  <si>
+    <t>UPCL/147129/444.75</t>
+  </si>
+  <si>
+    <t>CHCL/97647/512.54</t>
+  </si>
+  <si>
+    <t>SMHL/37565/949.41</t>
+  </si>
+  <si>
+    <t>BEDC/40103/722.15</t>
+  </si>
+  <si>
+    <t>NGPL/55488/390.09</t>
+  </si>
+  <si>
+    <t>SHPC/60675/582.89</t>
+  </si>
+  <si>
+    <t>RADHI/42225/759.22</t>
+  </si>
+  <si>
+    <t>AHPC/76633/294.44</t>
+  </si>
+  <si>
+    <t>GHL/85610/252.84</t>
+  </si>
+  <si>
+    <t>NTC/20796/861.68</t>
+  </si>
+  <si>
+    <t>KBL/1773890/215.10</t>
+  </si>
+  <si>
+    <t>NRN/122009/2,029.57</t>
+  </si>
+  <si>
+    <t>NGPL/443657/385.76</t>
+  </si>
+  <si>
+    <t>AHPC/361927/297.17</t>
+  </si>
+  <si>
+    <t>OHL/110393/949.05</t>
+  </si>
+  <si>
+    <t>API/92837/302.13</t>
+  </si>
+  <si>
+    <t>ALICL/28513/703.21</t>
+  </si>
+  <si>
+    <t>NIFRA/63003/285.01</t>
+  </si>
+  <si>
+    <t>SHIVM/26594/525.55</t>
+  </si>
+  <si>
+    <t>BHL/52531/218.14</t>
+  </si>
+  <si>
+    <t>RADHI/144505/777.96</t>
+  </si>
+  <si>
+    <t>UPCL/155642/434.55</t>
+  </si>
+  <si>
+    <t>SHL/77618/568.19</t>
+  </si>
+  <si>
+    <t>HPPL/70713/498.67</t>
+  </si>
+  <si>
+    <t>LBBL/47989/477.06</t>
+  </si>
+  <si>
+    <t>BPCL/36363/567.69</t>
+  </si>
+  <si>
+    <t>HIDCL/43061/307.60</t>
+  </si>
+  <si>
+    <t>NGPL/30784/393.29</t>
+  </si>
+  <si>
+    <t>CHCL/21679/522.07</t>
+  </si>
+  <si>
+    <t>SHL/14996/569.03</t>
+  </si>
+  <si>
+    <t>UMHL/371046/507.67</t>
+  </si>
+  <si>
+    <t>RADHI/35192/772.70</t>
+  </si>
+  <si>
+    <t>RIDI/105091/269.42</t>
+  </si>
+  <si>
+    <t>BPCL/43633/576.74</t>
+  </si>
+  <si>
+    <t>ANLB/4267/5,389.99</t>
+  </si>
+  <si>
+    <t>OMPL/10870/1,787.19</t>
+  </si>
+  <si>
+    <t>RADHI/22387/763.04</t>
+  </si>
+  <si>
+    <t>NGPL/34251/386.88</t>
+  </si>
+  <si>
+    <t>SHL/23697/564.11</t>
+  </si>
+  <si>
+    <t>USLB/6144/1,924.38</t>
+  </si>
+  <si>
+    <t>BPCL/228958/545.99</t>
+  </si>
+  <si>
+    <t>CGH/100243/850.78</t>
+  </si>
+  <si>
+    <t>NRN/27667/2,057.54</t>
+  </si>
+  <si>
+    <t>BEDC/33223/748.31</t>
+  </si>
+  <si>
+    <t>CHDC/6905/2,557.69</t>
+  </si>
+  <si>
+    <t>SIKLES/67034/1,090.91</t>
+  </si>
+  <si>
+    <t>SANIMA/105037/318.79</t>
+  </si>
+  <si>
+    <t>NIFRA/114822/282.87</t>
+  </si>
+  <si>
+    <t>SARBTM/37503/845.21</t>
+  </si>
+  <si>
+    <t>PHCL/43861/606.50</t>
+  </si>
+  <si>
+    <t>CHDC/25289/2,585.78</t>
+  </si>
+  <si>
+    <t>HIDCL/110760/302.94</t>
+  </si>
+  <si>
+    <t>NRN/15457/2,034.14</t>
+  </si>
+  <si>
+    <t>PHCL/18556/625.81</t>
+  </si>
+  <si>
+    <t>SAHAS/20866/517.04</t>
+  </si>
+  <si>
+    <t>RADHI/147206/774.34</t>
+  </si>
+  <si>
+    <t>NGPL/48238/389.11</t>
+  </si>
+  <si>
+    <t>SHIVM/21918/535.83</t>
+  </si>
+  <si>
+    <t>LICN/8100/920.28</t>
+  </si>
+  <si>
+    <t>USLB/3118/1,894.09</t>
+  </si>
+  <si>
+    <t>NGPL/153434/383.95</t>
+  </si>
+  <si>
+    <t>RIDI/66667/261.48</t>
+  </si>
+  <si>
+    <t>MLBL/23040/394.54</t>
+  </si>
+  <si>
+    <t>SHL/12548/569.44</t>
+  </si>
+  <si>
+    <t>AKPL/25807/264.84</t>
+  </si>
+  <si>
+    <t>SHL/72172/564.84</t>
+  </si>
+  <si>
+    <t>BPCL/47859/624.52</t>
+  </si>
+  <si>
+    <t>HIDCL/70019/307.67</t>
+  </si>
+  <si>
+    <t>GLH/65231/278.85</t>
+  </si>
+  <si>
+    <t>LBBL/29360/466.07</t>
+  </si>
+  <si>
+    <t>BPCL/64913/573.37</t>
+  </si>
+  <si>
+    <t>SHPC/32843/584.53</t>
+  </si>
+  <si>
+    <t>HPPL/30924/494.56</t>
+  </si>
+  <si>
+    <t>RADHI/14057/764.72</t>
+  </si>
+  <si>
+    <t>LBBL/75407/467.00</t>
+  </si>
+  <si>
+    <t>API/82501/305.71</t>
+  </si>
+  <si>
+    <t>UPCL/48930/433.56</t>
+  </si>
+  <si>
+    <t>CORBL/6996/2,328.12</t>
+  </si>
+  <si>
+    <t>SAPDBL/15840/948.75</t>
+  </si>
+  <si>
+    <t>CORBL/49533/2,326.44</t>
+  </si>
+  <si>
+    <t>JOSHI/74624/424.89</t>
+  </si>
+  <si>
+    <t>GRDBL/25047/1,177.84</t>
+  </si>
+  <si>
+    <t>CHDC/6722/2,573.43</t>
+  </si>
+  <si>
+    <t>LBBL/26810/449.93</t>
+  </si>
+  <si>
+    <t>CHCL/59585/504.66</t>
+  </si>
+  <si>
+    <t>SAPDBL/26227/1,021.01</t>
+  </si>
+  <si>
+    <t>SHPC/29520/570.53</t>
+  </si>
+  <si>
+    <t>SKBBL/14829/803.69</t>
+  </si>
+  <si>
+    <t>MEN/17993/595.43</t>
+  </si>
+  <si>
+    <t>RADHI/25907/764.51</t>
+  </si>
+  <si>
+    <t>AKPL/64021/270.07</t>
+  </si>
+  <si>
+    <t>UPCL/27337/433.70</t>
+  </si>
+  <si>
+    <t>BHL/50066/215.13</t>
+  </si>
+  <si>
+    <t>SHIVM/14583/524.20</t>
+  </si>
+  <si>
+    <t>NRIC/4540/1,247.78</t>
+  </si>
+  <si>
+    <t>CHDC/1390/2,564.19</t>
+  </si>
+  <si>
+    <t>MEN/6024/579.86</t>
+  </si>
+  <si>
+    <t>BPCL/236125/571.10</t>
+  </si>
+  <si>
+    <t>RADHI/99209/773.22</t>
+  </si>
+  <si>
+    <t>CHDC/12296/2,555.60</t>
+  </si>
+  <si>
+    <t>LBBL/59096/470.54</t>
+  </si>
+  <si>
+    <t>UPCL/65430/436.40</t>
+  </si>
+  <si>
+    <t>NRN/2988/2,044.15</t>
+  </si>
+  <si>
+    <t>ALICL/7908/693.52</t>
+  </si>
+  <si>
+    <t>RNLI/4469/513.26</t>
+  </si>
+  <si>
+    <t>MERO/2800/737.50</t>
+  </si>
+  <si>
+    <t>SHIVM/3000/534.92</t>
+  </si>
+  <si>
+    <t>NGPL/1750/398.84</t>
+  </si>
+  <si>
+    <t>MEN/54429/584.93</t>
+  </si>
+  <si>
+    <t>NMLBBL/35543/661.82</t>
+  </si>
+  <si>
+    <t>NIFRA/59293/287.26</t>
+  </si>
+  <si>
+    <t>RADHI/19818/767.13</t>
+  </si>
+  <si>
+    <t>HRL/13951/966.39</t>
+  </si>
+  <si>
+    <t>NGPL/204878/392.86</t>
+  </si>
+  <si>
+    <t>SAHAS/89768/526.43</t>
+  </si>
+  <si>
+    <t>CHDC/15232/2,554.68</t>
+  </si>
+  <si>
+    <t>HRL/19831/985.41</t>
+  </si>
+  <si>
+    <t>CHCL/26608/512.99</t>
+  </si>
+  <si>
+    <t>RADHI/45680/760.18</t>
+  </si>
+  <si>
+    <t>NRN/12759/2,055.88</t>
+  </si>
+  <si>
+    <t>NICA/30236/372.16</t>
+  </si>
+  <si>
+    <t>HRL/12388/956.88</t>
+  </si>
+  <si>
+    <t>BPCL/10173/544.27</t>
+  </si>
+  <si>
+    <t>HRL/22169/954.95</t>
+  </si>
+  <si>
+    <t>RADHI/18456/768.45</t>
+  </si>
+  <si>
+    <t>KPCL/18056/521.64</t>
+  </si>
+  <si>
+    <t>NGPL/22237/393.39</t>
+  </si>
+  <si>
+    <t>HIDCL/90585/303.24</t>
+  </si>
+  <si>
+    <t>SADBL/44460/425.35</t>
+  </si>
+  <si>
+    <t>HDL/14325/1,216.24</t>
+  </si>
+  <si>
+    <t>CZBIL/67811/214.52</t>
+  </si>
+  <si>
+    <t>LICN/13768/925.75</t>
+  </si>
+  <si>
+    <t>NGPL/241289/384.23</t>
+  </si>
+  <si>
+    <t>SHL/86126/581.82</t>
+  </si>
+  <si>
+    <t>RADHI/41052/768.94</t>
+  </si>
+  <si>
+    <t>NRN/5641/2,072.02</t>
+  </si>
+  <si>
+    <t>SHIVM/20124/533.81</t>
+  </si>
+  <si>
+    <t>RADHI/30330/781.78</t>
+  </si>
+  <si>
+    <t>SHPC/24271/587.43</t>
+  </si>
+  <si>
+    <t>NRIC/9787/1,282.78</t>
+  </si>
+  <si>
+    <t>CHDC/4202/2,562.50</t>
+  </si>
+  <si>
+    <t>NGPL/23048/388.35</t>
+  </si>
+  <si>
+    <t>RADHI/84469/775.77</t>
+  </si>
+  <si>
+    <t>HPPL/14942/494.48</t>
+  </si>
+  <si>
+    <t>SHPC/6833/591.59</t>
+  </si>
+  <si>
+    <t>HURJA/10275/273.32</t>
+  </si>
+  <si>
+    <t>NMIC/779/2,066.38</t>
+  </si>
+  <si>
+    <t>SAPDBL/65504/1,023.80</t>
+  </si>
+  <si>
+    <t>CHDC/5103/2,517.54</t>
+  </si>
+  <si>
+    <t>BPCL/17594/509.31</t>
+  </si>
+  <si>
+    <t>NLG/12290/800.71</t>
+  </si>
+  <si>
+    <t>RADHI/35908/758.86</t>
+  </si>
+  <si>
+    <t>GBIME/78773/236.31</t>
+  </si>
+  <si>
+    <t>NGPL/14347/382.35</t>
+  </si>
+  <si>
+    <t>LBBL/9310/459.13</t>
+  </si>
+  <si>
+    <t>HRL/3921/973.90</t>
+  </si>
+  <si>
+    <t>HBL/91145/230.84</t>
+  </si>
+  <si>
+    <t>SHL/12749/572.65</t>
+  </si>
+  <si>
+    <t>BARUN/4070/505.94</t>
+  </si>
+  <si>
+    <t>UPCL/4935/437.25</t>
+  </si>
+  <si>
+    <t>AKPL/72032/264.09</t>
+  </si>
+  <si>
+    <t>SHL/29904/566.40</t>
+  </si>
+  <si>
+    <t>SARBTM/18218/846.54</t>
+  </si>
+  <si>
+    <t>UPCL/37390/437.12</t>
+  </si>
+  <si>
+    <t>NGPL/35215/387.84</t>
+  </si>
+  <si>
+    <t>HIDCL/149349/301.84</t>
+  </si>
+  <si>
+    <t>SHPC/20875/597.11</t>
+  </si>
+  <si>
+    <t>CHCL/21942/511.91</t>
+  </si>
+  <si>
+    <t>RADHI/9007/773.50</t>
+  </si>
+  <si>
+    <t>BPCL/7140/578.11</t>
+  </si>
+  <si>
+    <t>HEI/17474/581.68</t>
+  </si>
+  <si>
+    <t>SRLI/8761/405.83</t>
+  </si>
+  <si>
+    <t>NMIC/1590/1,964.01</t>
+  </si>
+  <si>
+    <t>ICFC/5110/622.19</t>
+  </si>
+  <si>
+    <t>CGH/2691/878.03</t>
+  </si>
+  <si>
+    <t>RADHI/171257/779.46</t>
+  </si>
+  <si>
+    <t>MKHL/103994/737.65</t>
+  </si>
+  <si>
+    <t>PRIN/35303/866.28</t>
+  </si>
+  <si>
+    <t>NGPL/67895/383.53</t>
+  </si>
+  <si>
+    <t>UPCL/38175/435.37</t>
+  </si>
+  <si>
+    <t>UPCL/94912/448.81</t>
+  </si>
+  <si>
+    <t>NGPL/20676/389.75</t>
+  </si>
+  <si>
+    <t>NMIC/2620/2,164.58</t>
+  </si>
+  <si>
+    <t>NICA/16642/367.30</t>
+  </si>
+  <si>
+    <t>NMB/23506/240.85</t>
+  </si>
+  <si>
+    <t>LBBL/173556/469.07</t>
+  </si>
+  <si>
+    <t>NICA/110349/365.14</t>
+  </si>
+  <si>
+    <t>SHL/63328/561.68</t>
+  </si>
+  <si>
+    <t>NRIC/21090/1,282.07</t>
+  </si>
+  <si>
+    <t>SMHL/8289/944.57</t>
+  </si>
+  <si>
+    <t>BPCL/21130/623.22</t>
+  </si>
+  <si>
+    <t>SADBL/28810/421.49</t>
+  </si>
+  <si>
+    <t>NRN/5368/2,029.06</t>
+  </si>
+  <si>
+    <t>NMIC/3991/2,081.47</t>
+  </si>
+  <si>
+    <t>UPCL/20894/436.55</t>
+  </si>
+  <si>
+    <t>SHPC/30041/578.73</t>
+  </si>
+  <si>
+    <t>NGPL/39003/384.80</t>
+  </si>
+  <si>
+    <t>OMPL/7190/1,898.68</t>
+  </si>
+  <si>
+    <t>API/28477/310.87</t>
+  </si>
+  <si>
+    <t>UMHL/14600/520.45</t>
+  </si>
+  <si>
+    <t>BPCL/32084/592.18</t>
+  </si>
+  <si>
+    <t>SHIVM/25252/535.95</t>
+  </si>
+  <si>
+    <t>API/20455/310.70</t>
+  </si>
+  <si>
+    <t>LBBL/12729/468.19</t>
+  </si>
+  <si>
+    <t>HPPL/11460/500.23</t>
+  </si>
+  <si>
+    <t>PHCL/93759/606.75</t>
+  </si>
+  <si>
+    <t>RADHI/23562/781.31</t>
+  </si>
+  <si>
+    <t>AKPL/24250/274.34</t>
+  </si>
+  <si>
+    <t>RADHI/5647/800.28</t>
+  </si>
+  <si>
+    <t>SHPC/8025/565.27</t>
   </si>
 </sst>
 </file>
@@ -11091,10 +12409,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001CC29C-638A-4E4E-829D-66241B93D88A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60595582-9969-482E-9896-05463C5DE0AD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F93"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11129,19 +12449,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3140</v>
+        <v>3579</v>
       </c>
       <c r="C2" t="s">
-        <v>3141</v>
+        <v>3580</v>
       </c>
       <c r="D2" t="s">
-        <v>3142</v>
+        <v>3581</v>
       </c>
       <c r="E2" t="s">
-        <v>3143</v>
+        <v>3582</v>
       </c>
       <c r="F2" t="s">
-        <v>3144</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11149,19 +12469,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>3145</v>
+        <v>3584</v>
       </c>
       <c r="C3" t="s">
-        <v>3146</v>
+        <v>3585</v>
       </c>
       <c r="D3" t="s">
-        <v>3147</v>
+        <v>3586</v>
       </c>
       <c r="E3" t="s">
-        <v>3148</v>
+        <v>3587</v>
       </c>
       <c r="F3" t="s">
-        <v>3149</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11169,19 +12489,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>3150</v>
+        <v>3589</v>
       </c>
       <c r="C4" t="s">
-        <v>3151</v>
+        <v>3590</v>
       </c>
       <c r="D4" t="s">
-        <v>3152</v>
+        <v>3591</v>
       </c>
       <c r="E4" t="s">
-        <v>3153</v>
+        <v>3592</v>
       </c>
       <c r="F4" t="s">
-        <v>3154</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11189,19 +12509,19 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>3155</v>
+        <v>3594</v>
       </c>
       <c r="C5" t="s">
-        <v>3156</v>
+        <v>3595</v>
       </c>
       <c r="D5" t="s">
-        <v>3157</v>
+        <v>3596</v>
       </c>
       <c r="E5" t="s">
-        <v>3158</v>
+        <v>3597</v>
       </c>
       <c r="F5" t="s">
-        <v>3159</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11209,19 +12529,19 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>3160</v>
+        <v>3599</v>
       </c>
       <c r="C6" t="s">
-        <v>3161</v>
+        <v>3600</v>
       </c>
       <c r="D6" t="s">
-        <v>3162</v>
+        <v>3601</v>
       </c>
       <c r="E6" t="s">
-        <v>3163</v>
+        <v>3602</v>
       </c>
       <c r="F6" t="s">
-        <v>3164</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -11229,19 +12549,19 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>3165</v>
+        <v>3604</v>
       </c>
       <c r="C7" t="s">
-        <v>3166</v>
+        <v>3605</v>
       </c>
       <c r="D7" t="s">
-        <v>3167</v>
+        <v>3606</v>
       </c>
       <c r="E7" t="s">
-        <v>3168</v>
+        <v>3607</v>
       </c>
       <c r="F7" t="s">
-        <v>3169</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -11249,19 +12569,19 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>3170</v>
+        <v>3609</v>
       </c>
       <c r="C8" t="s">
-        <v>3171</v>
+        <v>3610</v>
       </c>
       <c r="D8" t="s">
-        <v>3172</v>
+        <v>3611</v>
       </c>
       <c r="E8" t="s">
-        <v>3173</v>
+        <v>3612</v>
       </c>
       <c r="F8" t="s">
-        <v>3174</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11269,19 +12589,19 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>2778</v>
+        <v>3614</v>
       </c>
       <c r="C9" t="s">
-        <v>3175</v>
+        <v>3615</v>
       </c>
       <c r="D9" t="s">
-        <v>3176</v>
+        <v>3616</v>
       </c>
       <c r="E9" t="s">
-        <v>3177</v>
+        <v>3617</v>
       </c>
       <c r="F9" t="s">
-        <v>3178</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -11289,19 +12609,19 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>3179</v>
+        <v>3619</v>
       </c>
       <c r="C10" t="s">
-        <v>3180</v>
+        <v>3620</v>
       </c>
       <c r="D10" t="s">
-        <v>3181</v>
+        <v>3621</v>
       </c>
       <c r="E10" t="s">
-        <v>3182</v>
+        <v>3622</v>
       </c>
       <c r="F10" t="s">
-        <v>3183</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11309,19 +12629,19 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>3184</v>
+        <v>3624</v>
       </c>
       <c r="C11" t="s">
-        <v>3185</v>
+        <v>3625</v>
       </c>
       <c r="D11" t="s">
-        <v>3186</v>
+        <v>3626</v>
       </c>
       <c r="E11" t="s">
-        <v>3187</v>
+        <v>3627</v>
       </c>
       <c r="F11" t="s">
-        <v>3188</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11329,19 +12649,19 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>3189</v>
+        <v>3629</v>
       </c>
       <c r="C12" t="s">
-        <v>3190</v>
+        <v>3630</v>
       </c>
       <c r="D12" t="s">
-        <v>3191</v>
+        <v>3631</v>
       </c>
       <c r="E12" t="s">
-        <v>3192</v>
+        <v>3632</v>
       </c>
       <c r="F12" t="s">
-        <v>3193</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11349,19 +12669,19 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>3194</v>
+        <v>3634</v>
       </c>
       <c r="C13" t="s">
-        <v>3195</v>
+        <v>3635</v>
       </c>
       <c r="D13" t="s">
-        <v>3196</v>
+        <v>3636</v>
       </c>
       <c r="E13" t="s">
-        <v>3197</v>
+        <v>3637</v>
       </c>
       <c r="F13" t="s">
-        <v>3198</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11369,19 +12689,19 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>3199</v>
+        <v>3639</v>
       </c>
       <c r="C14" t="s">
-        <v>3200</v>
+        <v>3640</v>
       </c>
       <c r="D14" t="s">
-        <v>3201</v>
+        <v>3641</v>
       </c>
       <c r="E14" t="s">
-        <v>3202</v>
+        <v>3642</v>
       </c>
       <c r="F14" t="s">
-        <v>3203</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11389,19 +12709,19 @@
         <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>1951</v>
+        <v>3644</v>
       </c>
       <c r="C15" t="s">
-        <v>3204</v>
+        <v>3645</v>
       </c>
       <c r="D15" t="s">
-        <v>3205</v>
+        <v>3646</v>
       </c>
       <c r="E15" t="s">
-        <v>3206</v>
+        <v>3647</v>
       </c>
       <c r="F15" t="s">
-        <v>3207</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -11409,19 +12729,19 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>3208</v>
+        <v>3649</v>
       </c>
       <c r="C16" t="s">
-        <v>3209</v>
+        <v>3650</v>
       </c>
       <c r="D16" t="s">
-        <v>3210</v>
+        <v>3651</v>
       </c>
       <c r="E16" t="s">
-        <v>3211</v>
+        <v>3652</v>
       </c>
       <c r="F16" t="s">
-        <v>3212</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11429,19 +12749,19 @@
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>2815</v>
+        <v>3654</v>
       </c>
       <c r="C17" t="s">
-        <v>3213</v>
+        <v>3655</v>
       </c>
       <c r="D17" t="s">
-        <v>2817</v>
+        <v>3656</v>
       </c>
       <c r="E17" t="s">
-        <v>3214</v>
+        <v>3657</v>
       </c>
       <c r="F17" t="s">
-        <v>3215</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11449,19 +12769,19 @@
         <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>3216</v>
+        <v>3659</v>
       </c>
       <c r="C18" t="s">
-        <v>3217</v>
+        <v>3660</v>
       </c>
       <c r="D18" t="s">
-        <v>3218</v>
+        <v>3661</v>
       </c>
       <c r="E18" t="s">
-        <v>3219</v>
+        <v>3662</v>
       </c>
       <c r="F18" t="s">
-        <v>3220</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -11469,19 +12789,19 @@
         <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>3221</v>
+        <v>3664</v>
       </c>
       <c r="C19" t="s">
-        <v>3222</v>
+        <v>3665</v>
       </c>
       <c r="D19" t="s">
-        <v>3223</v>
+        <v>3666</v>
       </c>
       <c r="E19" t="s">
-        <v>3224</v>
+        <v>3667</v>
       </c>
       <c r="F19" t="s">
-        <v>3225</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11489,19 +12809,19 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>3226</v>
+        <v>3669</v>
       </c>
       <c r="C20" t="s">
-        <v>3227</v>
+        <v>3670</v>
       </c>
       <c r="D20" t="s">
-        <v>3228</v>
+        <v>3671</v>
       </c>
       <c r="E20" t="s">
-        <v>3229</v>
+        <v>3672</v>
       </c>
       <c r="F20" t="s">
-        <v>3230</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11509,19 +12829,19 @@
         <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>3231</v>
+        <v>3674</v>
       </c>
       <c r="C21" t="s">
-        <v>3232</v>
+        <v>3675</v>
       </c>
       <c r="D21" t="s">
-        <v>3233</v>
+        <v>3676</v>
       </c>
       <c r="E21" t="s">
-        <v>3234</v>
+        <v>3677</v>
       </c>
       <c r="F21" t="s">
-        <v>3235</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11529,19 +12849,19 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>3236</v>
+        <v>3679</v>
       </c>
       <c r="C22" t="s">
-        <v>3237</v>
+        <v>3680</v>
       </c>
       <c r="D22" t="s">
-        <v>3238</v>
+        <v>3681</v>
       </c>
       <c r="E22" t="s">
-        <v>3239</v>
+        <v>3682</v>
       </c>
       <c r="F22" t="s">
-        <v>3240</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11549,19 +12869,19 @@
         <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>3241</v>
+        <v>3684</v>
       </c>
       <c r="C23" t="s">
-        <v>3242</v>
+        <v>3685</v>
       </c>
       <c r="D23" t="s">
-        <v>3243</v>
+        <v>3686</v>
       </c>
       <c r="E23" t="s">
-        <v>3244</v>
+        <v>3687</v>
       </c>
       <c r="F23" t="s">
-        <v>3245</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -11569,19 +12889,19 @@
         <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>3246</v>
+        <v>3689</v>
       </c>
       <c r="C24" t="s">
-        <v>3247</v>
+        <v>3690</v>
       </c>
       <c r="D24" t="s">
-        <v>3248</v>
+        <v>3691</v>
       </c>
       <c r="E24" t="s">
-        <v>3249</v>
+        <v>3692</v>
       </c>
       <c r="F24" t="s">
-        <v>3250</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11589,19 +12909,19 @@
         <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>3251</v>
+        <v>3694</v>
       </c>
       <c r="C25" t="s">
-        <v>3252</v>
+        <v>3695</v>
       </c>
       <c r="D25" t="s">
-        <v>3253</v>
+        <v>3696</v>
       </c>
       <c r="E25" t="s">
-        <v>3254</v>
+        <v>3697</v>
       </c>
       <c r="F25" t="s">
-        <v>3255</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -11609,19 +12929,19 @@
         <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>3256</v>
+        <v>3699</v>
       </c>
       <c r="C26" t="s">
-        <v>3257</v>
+        <v>3700</v>
       </c>
       <c r="D26" t="s">
-        <v>3258</v>
+        <v>3701</v>
       </c>
       <c r="E26" t="s">
-        <v>3259</v>
+        <v>3702</v>
       </c>
       <c r="F26" t="s">
-        <v>3260</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -11629,19 +12949,19 @@
         <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>3261</v>
+        <v>3704</v>
       </c>
       <c r="C27" t="s">
-        <v>3262</v>
+        <v>3705</v>
       </c>
       <c r="D27" t="s">
-        <v>3263</v>
+        <v>3706</v>
       </c>
       <c r="E27" t="s">
-        <v>3264</v>
+        <v>3707</v>
       </c>
       <c r="F27" t="s">
-        <v>3265</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -11649,19 +12969,19 @@
         <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>3266</v>
+        <v>3709</v>
       </c>
       <c r="C28" t="s">
-        <v>3267</v>
+        <v>3710</v>
       </c>
       <c r="D28" t="s">
-        <v>3268</v>
+        <v>3711</v>
       </c>
       <c r="E28" t="s">
-        <v>3269</v>
+        <v>3712</v>
       </c>
       <c r="F28" t="s">
-        <v>3270</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11669,19 +12989,19 @@
         <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>3271</v>
+        <v>3714</v>
       </c>
       <c r="C29" t="s">
-        <v>3272</v>
+        <v>3715</v>
       </c>
       <c r="D29" t="s">
+        <v>3716</v>
+      </c>
+      <c r="E29" t="s">
         <v>3273</v>
       </c>
-      <c r="E29" t="s">
-        <v>3274</v>
-      </c>
       <c r="F29" t="s">
-        <v>3275</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -11689,19 +13009,19 @@
         <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>3276</v>
+        <v>3718</v>
       </c>
       <c r="C30" t="s">
-        <v>3277</v>
+        <v>3719</v>
       </c>
       <c r="D30" t="s">
-        <v>3278</v>
+        <v>3720</v>
       </c>
       <c r="E30" t="s">
-        <v>3279</v>
+        <v>3721</v>
       </c>
       <c r="F30" t="s">
-        <v>3280</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -11709,19 +13029,19 @@
         <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>3281</v>
+        <v>3723</v>
       </c>
       <c r="C31" t="s">
-        <v>3282</v>
+        <v>3724</v>
       </c>
       <c r="D31" t="s">
-        <v>3283</v>
+        <v>3725</v>
       </c>
       <c r="E31" t="s">
-        <v>3284</v>
+        <v>3726</v>
       </c>
       <c r="F31" t="s">
-        <v>3285</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -11729,19 +13049,19 @@
         <v>180</v>
       </c>
       <c r="B32" t="s">
-        <v>3286</v>
+        <v>3728</v>
       </c>
       <c r="C32" t="s">
-        <v>3287</v>
+        <v>3729</v>
       </c>
       <c r="D32" t="s">
-        <v>3288</v>
+        <v>3730</v>
       </c>
       <c r="E32" t="s">
-        <v>3289</v>
+        <v>3731</v>
       </c>
       <c r="F32" t="s">
-        <v>3290</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11749,19 +13069,19 @@
         <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>3291</v>
+        <v>3733</v>
       </c>
       <c r="C33" t="s">
-        <v>3292</v>
+        <v>3734</v>
       </c>
       <c r="D33" t="s">
-        <v>3293</v>
+        <v>3735</v>
       </c>
       <c r="E33" t="s">
-        <v>3294</v>
+        <v>3736</v>
       </c>
       <c r="F33" t="s">
-        <v>3295</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -11769,19 +13089,19 @@
         <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>3296</v>
+        <v>3738</v>
       </c>
       <c r="C34" t="s">
-        <v>3297</v>
+        <v>3739</v>
       </c>
       <c r="D34" t="s">
-        <v>3298</v>
+        <v>3740</v>
       </c>
       <c r="E34" t="s">
-        <v>3299</v>
+        <v>3741</v>
       </c>
       <c r="F34" t="s">
-        <v>3300</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -11789,19 +13109,19 @@
         <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>3301</v>
+        <v>3743</v>
       </c>
       <c r="C35" t="s">
-        <v>3302</v>
+        <v>3744</v>
       </c>
       <c r="D35" t="s">
-        <v>3303</v>
+        <v>3745</v>
       </c>
       <c r="E35" t="s">
-        <v>3304</v>
+        <v>3746</v>
       </c>
       <c r="F35" t="s">
-        <v>3305</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -11809,19 +13129,19 @@
         <v>204</v>
       </c>
       <c r="B36" t="s">
-        <v>3306</v>
+        <v>3748</v>
       </c>
       <c r="C36" t="s">
-        <v>3307</v>
+        <v>3749</v>
       </c>
       <c r="D36" t="s">
-        <v>3308</v>
+        <v>3750</v>
       </c>
       <c r="E36" t="s">
-        <v>3309</v>
+        <v>3751</v>
       </c>
       <c r="F36" t="s">
-        <v>3310</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -11829,19 +13149,19 @@
         <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>3311</v>
+        <v>3753</v>
       </c>
       <c r="C37" t="s">
-        <v>3312</v>
+        <v>3754</v>
       </c>
       <c r="D37" t="s">
-        <v>3313</v>
+        <v>3755</v>
       </c>
       <c r="E37" t="s">
-        <v>3314</v>
+        <v>3756</v>
       </c>
       <c r="F37" t="s">
-        <v>3315</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -11849,19 +13169,19 @@
         <v>216</v>
       </c>
       <c r="B38" t="s">
-        <v>3316</v>
+        <v>3758</v>
       </c>
       <c r="C38" t="s">
-        <v>3317</v>
+        <v>3759</v>
       </c>
       <c r="D38" t="s">
-        <v>3318</v>
+        <v>3760</v>
       </c>
       <c r="E38" t="s">
-        <v>3319</v>
+        <v>3761</v>
       </c>
       <c r="F38" t="s">
-        <v>3320</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -11869,19 +13189,19 @@
         <v>222</v>
       </c>
       <c r="B39" t="s">
-        <v>3321</v>
+        <v>3763</v>
       </c>
       <c r="C39" t="s">
-        <v>3322</v>
+        <v>3764</v>
       </c>
       <c r="D39" t="s">
-        <v>3323</v>
+        <v>3765</v>
       </c>
       <c r="E39" t="s">
-        <v>3324</v>
+        <v>3766</v>
       </c>
       <c r="F39" t="s">
-        <v>3325</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -11889,19 +13209,19 @@
         <v>228</v>
       </c>
       <c r="B40" t="s">
-        <v>3326</v>
+        <v>3768</v>
       </c>
       <c r="C40" t="s">
-        <v>3327</v>
+        <v>3769</v>
       </c>
       <c r="D40" t="s">
-        <v>3328</v>
+        <v>3770</v>
       </c>
       <c r="E40" t="s">
-        <v>3329</v>
+        <v>3771</v>
       </c>
       <c r="F40" t="s">
-        <v>3330</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -11909,19 +13229,19 @@
         <v>234</v>
       </c>
       <c r="B41" t="s">
-        <v>3331</v>
+        <v>3773</v>
       </c>
       <c r="C41" t="s">
-        <v>3332</v>
+        <v>3774</v>
       </c>
       <c r="D41" t="s">
-        <v>3333</v>
+        <v>3775</v>
       </c>
       <c r="E41" t="s">
-        <v>3334</v>
+        <v>3776</v>
       </c>
       <c r="F41" t="s">
-        <v>3335</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -11929,19 +13249,19 @@
         <v>240</v>
       </c>
       <c r="B42" t="s">
-        <v>3336</v>
+        <v>3778</v>
       </c>
       <c r="C42" t="s">
-        <v>3337</v>
+        <v>3779</v>
       </c>
       <c r="D42" t="s">
-        <v>3338</v>
+        <v>3780</v>
       </c>
       <c r="E42" t="s">
-        <v>3339</v>
+        <v>3781</v>
       </c>
       <c r="F42" t="s">
-        <v>3340</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -11949,19 +13269,19 @@
         <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>3341</v>
+        <v>3783</v>
       </c>
       <c r="C43" t="s">
-        <v>3342</v>
+        <v>3784</v>
       </c>
       <c r="D43" t="s">
-        <v>3343</v>
+        <v>3785</v>
       </c>
       <c r="E43" t="s">
-        <v>3344</v>
+        <v>3786</v>
       </c>
       <c r="F43" t="s">
-        <v>3345</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -11969,19 +13289,19 @@
         <v>252</v>
       </c>
       <c r="B44" t="s">
-        <v>3346</v>
+        <v>3788</v>
       </c>
       <c r="C44" t="s">
-        <v>3347</v>
+        <v>3789</v>
       </c>
       <c r="D44" t="s">
-        <v>3348</v>
+        <v>3790</v>
       </c>
       <c r="E44" t="s">
-        <v>3349</v>
+        <v>3791</v>
       </c>
       <c r="F44" t="s">
-        <v>3350</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -11989,19 +13309,19 @@
         <v>258</v>
       </c>
       <c r="B45" t="s">
-        <v>3351</v>
+        <v>3793</v>
       </c>
       <c r="C45" t="s">
-        <v>3352</v>
+        <v>3794</v>
       </c>
       <c r="D45" t="s">
-        <v>3353</v>
+        <v>3795</v>
       </c>
       <c r="E45" t="s">
-        <v>3354</v>
+        <v>3796</v>
       </c>
       <c r="F45" t="s">
-        <v>3355</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -12009,19 +13329,19 @@
         <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>3356</v>
+        <v>3798</v>
       </c>
       <c r="C46" t="s">
-        <v>3357</v>
+        <v>3799</v>
       </c>
       <c r="D46" t="s">
-        <v>3358</v>
+        <v>3800</v>
       </c>
       <c r="E46" t="s">
-        <v>3359</v>
+        <v>3801</v>
       </c>
       <c r="F46" t="s">
-        <v>3360</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -12029,19 +13349,19 @@
         <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>3361</v>
+        <v>3803</v>
       </c>
       <c r="C47" t="s">
-        <v>3362</v>
+        <v>3804</v>
       </c>
       <c r="D47" t="s">
-        <v>3363</v>
+        <v>3805</v>
       </c>
       <c r="E47" t="s">
-        <v>3364</v>
+        <v>3806</v>
       </c>
       <c r="F47" t="s">
-        <v>3365</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -12049,19 +13369,19 @@
         <v>276</v>
       </c>
       <c r="B48" t="s">
-        <v>3366</v>
+        <v>3808</v>
       </c>
       <c r="C48" t="s">
-        <v>3367</v>
+        <v>3809</v>
       </c>
       <c r="D48" t="s">
-        <v>3368</v>
+        <v>3810</v>
       </c>
       <c r="E48" t="s">
-        <v>3369</v>
+        <v>3811</v>
       </c>
       <c r="F48" t="s">
-        <v>3370</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -12069,19 +13389,19 @@
         <v>282</v>
       </c>
       <c r="B49" t="s">
-        <v>3371</v>
+        <v>3813</v>
       </c>
       <c r="C49" t="s">
-        <v>3372</v>
+        <v>3814</v>
       </c>
       <c r="D49" t="s">
-        <v>3373</v>
+        <v>3815</v>
       </c>
       <c r="E49" t="s">
-        <v>3374</v>
+        <v>3816</v>
       </c>
       <c r="F49" t="s">
-        <v>3375</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -12089,19 +13409,19 @@
         <v>288</v>
       </c>
       <c r="B50" t="s">
-        <v>3376</v>
+        <v>3818</v>
       </c>
       <c r="C50" t="s">
-        <v>3377</v>
+        <v>3819</v>
       </c>
       <c r="D50" t="s">
-        <v>3378</v>
+        <v>3820</v>
       </c>
       <c r="E50" t="s">
-        <v>3379</v>
+        <v>3821</v>
       </c>
       <c r="F50" t="s">
-        <v>3380</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -12109,19 +13429,19 @@
         <v>294</v>
       </c>
       <c r="B51" t="s">
-        <v>3381</v>
+        <v>3823</v>
       </c>
       <c r="C51" t="s">
-        <v>3382</v>
+        <v>3824</v>
       </c>
       <c r="D51" t="s">
-        <v>3383</v>
+        <v>3825</v>
       </c>
       <c r="E51" t="s">
-        <v>3384</v>
+        <v>3826</v>
       </c>
       <c r="F51" t="s">
-        <v>3385</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -12129,19 +13449,19 @@
         <v>300</v>
       </c>
       <c r="B52" t="s">
-        <v>3386</v>
+        <v>3828</v>
       </c>
       <c r="C52" t="s">
-        <v>3387</v>
+        <v>3829</v>
       </c>
       <c r="D52" t="s">
-        <v>3388</v>
+        <v>3830</v>
       </c>
       <c r="E52" t="s">
-        <v>3389</v>
+        <v>3831</v>
       </c>
       <c r="F52" t="s">
-        <v>3390</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -12149,19 +13469,19 @@
         <v>306</v>
       </c>
       <c r="B53" t="s">
-        <v>3391</v>
+        <v>3833</v>
       </c>
       <c r="C53" t="s">
-        <v>3392</v>
+        <v>3834</v>
       </c>
       <c r="D53" t="s">
-        <v>2986</v>
+        <v>3835</v>
       </c>
       <c r="E53" t="s">
-        <v>3393</v>
+        <v>3836</v>
       </c>
       <c r="F53" t="s">
-        <v>3394</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -12169,19 +13489,19 @@
         <v>312</v>
       </c>
       <c r="B54" t="s">
-        <v>3395</v>
+        <v>3838</v>
       </c>
       <c r="C54" t="s">
-        <v>3396</v>
+        <v>3839</v>
       </c>
       <c r="D54" t="s">
-        <v>3397</v>
+        <v>3840</v>
       </c>
       <c r="E54" t="s">
-        <v>3398</v>
+        <v>3841</v>
       </c>
       <c r="F54" t="s">
-        <v>3399</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -12189,19 +13509,19 @@
         <v>318</v>
       </c>
       <c r="B55" t="s">
-        <v>3400</v>
+        <v>3843</v>
       </c>
       <c r="C55" t="s">
-        <v>3401</v>
+        <v>3844</v>
       </c>
       <c r="D55" t="s">
-        <v>3402</v>
+        <v>3845</v>
       </c>
       <c r="E55" t="s">
-        <v>3403</v>
+        <v>3846</v>
       </c>
       <c r="F55" t="s">
-        <v>3404</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -12209,19 +13529,19 @@
         <v>324</v>
       </c>
       <c r="B56" t="s">
-        <v>3405</v>
+        <v>3848</v>
       </c>
       <c r="C56" t="s">
-        <v>3406</v>
+        <v>3849</v>
       </c>
       <c r="D56" t="s">
-        <v>3407</v>
+        <v>3850</v>
       </c>
       <c r="E56" t="s">
-        <v>3408</v>
+        <v>3851</v>
       </c>
       <c r="F56" t="s">
-        <v>3409</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -12229,19 +13549,19 @@
         <v>330</v>
       </c>
       <c r="B57" t="s">
-        <v>2162</v>
+        <v>3853</v>
       </c>
       <c r="C57" t="s">
-        <v>3410</v>
+        <v>3854</v>
       </c>
       <c r="D57" t="s">
-        <v>3411</v>
+        <v>3855</v>
       </c>
       <c r="E57" t="s">
-        <v>3412</v>
+        <v>3856</v>
       </c>
       <c r="F57" t="s">
-        <v>3413</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -12249,19 +13569,19 @@
         <v>336</v>
       </c>
       <c r="B58" t="s">
-        <v>3414</v>
+        <v>3858</v>
       </c>
       <c r="C58" t="s">
-        <v>3415</v>
+        <v>3859</v>
       </c>
       <c r="D58" t="s">
-        <v>3416</v>
+        <v>3860</v>
       </c>
       <c r="E58" t="s">
-        <v>3417</v>
+        <v>3861</v>
       </c>
       <c r="F58" t="s">
-        <v>3418</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -12269,19 +13589,19 @@
         <v>342</v>
       </c>
       <c r="B59" t="s">
-        <v>3419</v>
+        <v>3863</v>
       </c>
       <c r="C59" t="s">
-        <v>3420</v>
+        <v>3864</v>
       </c>
       <c r="D59" t="s">
-        <v>3421</v>
+        <v>3865</v>
       </c>
       <c r="E59" t="s">
-        <v>3422</v>
+        <v>3866</v>
       </c>
       <c r="F59" t="s">
-        <v>3423</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -12289,19 +13609,19 @@
         <v>348</v>
       </c>
       <c r="B60" t="s">
-        <v>3424</v>
+        <v>3868</v>
       </c>
       <c r="C60" t="s">
-        <v>3425</v>
+        <v>3869</v>
       </c>
       <c r="D60" t="s">
-        <v>3426</v>
+        <v>3870</v>
       </c>
       <c r="E60" t="s">
-        <v>3427</v>
+        <v>3871</v>
       </c>
       <c r="F60" t="s">
-        <v>3428</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -12309,19 +13629,19 @@
         <v>354</v>
       </c>
       <c r="B61" t="s">
-        <v>3429</v>
+        <v>3873</v>
       </c>
       <c r="C61" t="s">
-        <v>3430</v>
+        <v>3874</v>
       </c>
       <c r="D61" t="s">
-        <v>3431</v>
+        <v>3875</v>
       </c>
       <c r="E61" t="s">
-        <v>3432</v>
+        <v>3876</v>
       </c>
       <c r="F61" t="s">
-        <v>3433</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -12329,19 +13649,19 @@
         <v>360</v>
       </c>
       <c r="B62" t="s">
-        <v>3434</v>
+        <v>3878</v>
       </c>
       <c r="C62" t="s">
-        <v>3435</v>
+        <v>3879</v>
       </c>
       <c r="D62" t="s">
         <v>2188</v>
       </c>
       <c r="E62" t="s">
-        <v>3436</v>
+        <v>3880</v>
       </c>
       <c r="F62" t="s">
-        <v>3437</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -12349,19 +13669,19 @@
         <v>366</v>
       </c>
       <c r="B63" t="s">
-        <v>3438</v>
+        <v>3882</v>
       </c>
       <c r="C63" t="s">
-        <v>3439</v>
+        <v>3883</v>
       </c>
       <c r="D63" t="s">
-        <v>3440</v>
+        <v>3884</v>
       </c>
       <c r="E63" t="s">
-        <v>3441</v>
+        <v>3885</v>
       </c>
       <c r="F63" t="s">
-        <v>3442</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -12369,19 +13689,19 @@
         <v>372</v>
       </c>
       <c r="B64" t="s">
-        <v>3443</v>
+        <v>3887</v>
       </c>
       <c r="C64" t="s">
-        <v>3444</v>
+        <v>3888</v>
       </c>
       <c r="D64" t="s">
-        <v>3445</v>
+        <v>3889</v>
       </c>
       <c r="E64" t="s">
-        <v>3446</v>
+        <v>3890</v>
       </c>
       <c r="F64" t="s">
-        <v>3447</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -12409,19 +13729,19 @@
         <v>384</v>
       </c>
       <c r="B66" t="s">
-        <v>3449</v>
+        <v>3892</v>
       </c>
       <c r="C66" t="s">
-        <v>3450</v>
+        <v>3893</v>
       </c>
       <c r="D66" t="s">
-        <v>3451</v>
+        <v>3894</v>
       </c>
       <c r="E66" t="s">
-        <v>3452</v>
+        <v>3895</v>
       </c>
       <c r="F66" t="s">
-        <v>3453</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -12429,19 +13749,19 @@
         <v>390</v>
       </c>
       <c r="B67" t="s">
-        <v>3454</v>
+        <v>3897</v>
       </c>
       <c r="C67" t="s">
-        <v>3455</v>
+        <v>3898</v>
       </c>
       <c r="D67" t="s">
-        <v>3456</v>
+        <v>3899</v>
       </c>
       <c r="E67" t="s">
         <v>2210</v>
       </c>
       <c r="F67" t="s">
-        <v>3457</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -12449,19 +13769,19 @@
         <v>396</v>
       </c>
       <c r="B68" t="s">
-        <v>3458</v>
+        <v>3046</v>
       </c>
       <c r="C68" t="s">
-        <v>3046</v>
+        <v>3901</v>
       </c>
       <c r="D68" t="s">
-        <v>3459</v>
+        <v>3902</v>
       </c>
       <c r="E68" t="s">
-        <v>2216</v>
+        <v>3903</v>
       </c>
       <c r="F68" t="s">
-        <v>3460</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -12469,19 +13789,19 @@
         <v>402</v>
       </c>
       <c r="B69" t="s">
-        <v>3461</v>
+        <v>3905</v>
       </c>
       <c r="C69" t="s">
-        <v>3462</v>
+        <v>3906</v>
       </c>
       <c r="D69" t="s">
-        <v>3463</v>
+        <v>3907</v>
       </c>
       <c r="E69" t="s">
-        <v>3464</v>
+        <v>3908</v>
       </c>
       <c r="F69" t="s">
-        <v>3465</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -12489,19 +13809,19 @@
         <v>408</v>
       </c>
       <c r="B70" t="s">
-        <v>3053</v>
+        <v>3910</v>
       </c>
       <c r="C70" t="s">
-        <v>3466</v>
+        <v>3911</v>
       </c>
       <c r="D70" t="s">
         <v>3467</v>
       </c>
       <c r="E70" t="s">
-        <v>3468</v>
+        <v>3912</v>
       </c>
       <c r="F70" t="s">
-        <v>3469</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -12509,19 +13829,19 @@
         <v>414</v>
       </c>
       <c r="B71" t="s">
-        <v>1772</v>
+        <v>3914</v>
       </c>
       <c r="C71" t="s">
         <v>3470</v>
       </c>
       <c r="D71" t="s">
-        <v>3471</v>
+        <v>3915</v>
       </c>
       <c r="E71" t="s">
-        <v>3472</v>
+        <v>3056</v>
       </c>
       <c r="F71" t="s">
-        <v>3056</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -12529,19 +13849,19 @@
         <v>420</v>
       </c>
       <c r="B72" t="s">
-        <v>3473</v>
+        <v>3916</v>
       </c>
       <c r="C72" t="s">
-        <v>3474</v>
+        <v>3917</v>
       </c>
       <c r="D72" t="s">
-        <v>3475</v>
+        <v>3918</v>
       </c>
       <c r="E72" t="s">
-        <v>3476</v>
+        <v>3919</v>
       </c>
       <c r="F72" t="s">
-        <v>3477</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -12549,19 +13869,19 @@
         <v>426</v>
       </c>
       <c r="B73" t="s">
-        <v>3478</v>
+        <v>3921</v>
       </c>
       <c r="C73" t="s">
-        <v>3479</v>
+        <v>3922</v>
       </c>
       <c r="D73" t="s">
-        <v>3480</v>
+        <v>3923</v>
       </c>
       <c r="E73" t="s">
-        <v>3481</v>
+        <v>3924</v>
       </c>
       <c r="F73" t="s">
-        <v>3482</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -12569,19 +13889,19 @@
         <v>432</v>
       </c>
       <c r="B74" t="s">
-        <v>3483</v>
+        <v>3926</v>
       </c>
       <c r="C74" t="s">
-        <v>3484</v>
+        <v>3927</v>
       </c>
       <c r="D74" t="s">
-        <v>2662</v>
+        <v>3928</v>
       </c>
       <c r="E74" t="s">
-        <v>3485</v>
+        <v>3929</v>
       </c>
       <c r="F74" t="s">
-        <v>3486</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -12589,19 +13909,19 @@
         <v>438</v>
       </c>
       <c r="B75" t="s">
-        <v>3487</v>
+        <v>3931</v>
       </c>
       <c r="C75" t="s">
-        <v>3488</v>
+        <v>3932</v>
       </c>
       <c r="D75" t="s">
-        <v>3489</v>
+        <v>3933</v>
       </c>
       <c r="E75" t="s">
+        <v>3934</v>
+      </c>
+      <c r="F75" t="s">
         <v>2245</v>
-      </c>
-      <c r="F75" t="s">
-        <v>3490</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -12609,19 +13929,19 @@
         <v>444</v>
       </c>
       <c r="B76" t="s">
-        <v>3491</v>
+        <v>3935</v>
       </c>
       <c r="C76" t="s">
-        <v>3492</v>
+        <v>3936</v>
       </c>
       <c r="D76" t="s">
-        <v>3493</v>
+        <v>3937</v>
       </c>
       <c r="E76" t="s">
-        <v>3494</v>
+        <v>3938</v>
       </c>
       <c r="F76" t="s">
-        <v>3495</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -12629,19 +13949,19 @@
         <v>450</v>
       </c>
       <c r="B77" t="s">
-        <v>3496</v>
+        <v>3940</v>
       </c>
       <c r="C77" t="s">
-        <v>3497</v>
+        <v>3941</v>
       </c>
       <c r="D77" t="s">
-        <v>3498</v>
+        <v>3942</v>
       </c>
       <c r="E77" t="s">
-        <v>3499</v>
+        <v>3943</v>
       </c>
       <c r="F77" t="s">
-        <v>3500</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -12649,19 +13969,19 @@
         <v>456</v>
       </c>
       <c r="B78" t="s">
-        <v>3501</v>
+        <v>3945</v>
       </c>
       <c r="C78" t="s">
-        <v>3502</v>
+        <v>3946</v>
       </c>
       <c r="D78" t="s">
-        <v>3503</v>
+        <v>3947</v>
       </c>
       <c r="E78" t="s">
-        <v>3504</v>
+        <v>3948</v>
       </c>
       <c r="F78" t="s">
-        <v>3505</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -12669,19 +13989,19 @@
         <v>462</v>
       </c>
       <c r="B79" t="s">
-        <v>3506</v>
+        <v>3950</v>
       </c>
       <c r="C79" t="s">
-        <v>3507</v>
+        <v>3951</v>
       </c>
       <c r="D79" t="s">
-        <v>3508</v>
+        <v>3952</v>
       </c>
       <c r="E79" t="s">
-        <v>3509</v>
+        <v>3953</v>
       </c>
       <c r="F79" t="s">
-        <v>3510</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -12689,19 +14009,19 @@
         <v>468</v>
       </c>
       <c r="B80" t="s">
-        <v>3511</v>
+        <v>3955</v>
       </c>
       <c r="C80" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="D80" t="s">
-        <v>3513</v>
+        <v>3956</v>
       </c>
       <c r="E80" t="s">
-        <v>3514</v>
+        <v>3957</v>
       </c>
       <c r="F80" t="s">
-        <v>3515</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -12709,19 +14029,19 @@
         <v>474</v>
       </c>
       <c r="B81" t="s">
-        <v>3516</v>
+        <v>3959</v>
       </c>
       <c r="C81" t="s">
-        <v>3517</v>
+        <v>3960</v>
       </c>
       <c r="D81" t="s">
-        <v>3518</v>
+        <v>3961</v>
       </c>
       <c r="E81" t="s">
-        <v>3519</v>
+        <v>3962</v>
       </c>
       <c r="F81" t="s">
-        <v>3520</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -12729,19 +14049,19 @@
         <v>480</v>
       </c>
       <c r="B82" t="s">
-        <v>3521</v>
+        <v>3964</v>
       </c>
       <c r="C82" t="s">
-        <v>3522</v>
+        <v>3965</v>
       </c>
       <c r="D82" t="s">
-        <v>3523</v>
+        <v>3966</v>
       </c>
       <c r="E82" t="s">
-        <v>3524</v>
+        <v>3098</v>
       </c>
       <c r="F82" t="s">
-        <v>3098</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -12749,19 +14069,19 @@
         <v>486</v>
       </c>
       <c r="B83" t="s">
-        <v>3525</v>
+        <v>3968</v>
       </c>
       <c r="C83" t="s">
-        <v>3526</v>
+        <v>3969</v>
       </c>
       <c r="D83" t="s">
-        <v>3527</v>
+        <v>3970</v>
       </c>
       <c r="E83" t="s">
-        <v>3528</v>
+        <v>3971</v>
       </c>
       <c r="F83" t="s">
-        <v>3529</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -12769,19 +14089,19 @@
         <v>492</v>
       </c>
       <c r="B84" t="s">
-        <v>3530</v>
+        <v>3973</v>
       </c>
       <c r="C84" t="s">
-        <v>3531</v>
+        <v>3974</v>
       </c>
       <c r="D84" t="s">
-        <v>3532</v>
+        <v>3975</v>
       </c>
       <c r="E84" t="s">
-        <v>3533</v>
+        <v>3976</v>
       </c>
       <c r="F84" t="s">
-        <v>3534</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -12789,19 +14109,19 @@
         <v>498</v>
       </c>
       <c r="B85" t="s">
-        <v>3535</v>
+        <v>3978</v>
       </c>
       <c r="C85" t="s">
-        <v>3536</v>
+        <v>3979</v>
       </c>
       <c r="D85" t="s">
-        <v>3537</v>
+        <v>3980</v>
       </c>
       <c r="E85" t="s">
-        <v>2709</v>
+        <v>3981</v>
       </c>
       <c r="F85" t="s">
-        <v>3538</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -12809,19 +14129,19 @@
         <v>504</v>
       </c>
       <c r="B86" t="s">
-        <v>3539</v>
+        <v>3983</v>
       </c>
       <c r="C86" t="s">
-        <v>3540</v>
+        <v>3984</v>
       </c>
       <c r="D86" t="s">
-        <v>3541</v>
+        <v>3985</v>
       </c>
       <c r="E86" t="s">
-        <v>3542</v>
+        <v>3986</v>
       </c>
       <c r="F86" t="s">
-        <v>3543</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -12829,19 +14149,19 @@
         <v>510</v>
       </c>
       <c r="B87" t="s">
-        <v>3544</v>
+        <v>3988</v>
       </c>
       <c r="C87" t="s">
-        <v>3545</v>
+        <v>3989</v>
       </c>
       <c r="D87" t="s">
-        <v>3546</v>
+        <v>3990</v>
       </c>
       <c r="E87" t="s">
-        <v>3547</v>
+        <v>3991</v>
       </c>
       <c r="F87" t="s">
-        <v>3548</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -12849,19 +14169,19 @@
         <v>516</v>
       </c>
       <c r="B88" t="s">
-        <v>3549</v>
+        <v>3993</v>
       </c>
       <c r="C88" t="s">
-        <v>3550</v>
+        <v>3994</v>
       </c>
       <c r="D88" t="s">
-        <v>3551</v>
+        <v>3995</v>
       </c>
       <c r="E88" t="s">
-        <v>3552</v>
+        <v>3996</v>
       </c>
       <c r="F88" t="s">
-        <v>3553</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -12869,19 +14189,19 @@
         <v>522</v>
       </c>
       <c r="B89" t="s">
-        <v>3554</v>
+        <v>3998</v>
       </c>
       <c r="C89" t="s">
-        <v>3555</v>
+        <v>3999</v>
       </c>
       <c r="D89" t="s">
-        <v>3556</v>
+        <v>4000</v>
       </c>
       <c r="E89" t="s">
-        <v>3557</v>
+        <v>4001</v>
       </c>
       <c r="F89" t="s">
-        <v>3558</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -12889,19 +14209,19 @@
         <v>528</v>
       </c>
       <c r="B90" t="s">
-        <v>3559</v>
+        <v>4003</v>
       </c>
       <c r="C90" t="s">
-        <v>3560</v>
+        <v>4004</v>
       </c>
       <c r="D90" t="s">
-        <v>3561</v>
+        <v>4005</v>
       </c>
       <c r="E90" t="s">
-        <v>3562</v>
+        <v>4006</v>
       </c>
       <c r="F90" t="s">
-        <v>3563</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -12909,19 +14229,19 @@
         <v>534</v>
       </c>
       <c r="B91" t="s">
-        <v>3564</v>
+        <v>4008</v>
       </c>
       <c r="C91" t="s">
-        <v>3565</v>
+        <v>4009</v>
       </c>
       <c r="D91" t="s">
-        <v>3566</v>
+        <v>4010</v>
       </c>
       <c r="E91" t="s">
-        <v>3567</v>
+        <v>4011</v>
       </c>
       <c r="F91" t="s">
-        <v>3568</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -12929,13 +14249,13 @@
         <v>540</v>
       </c>
       <c r="B92" t="s">
-        <v>3569</v>
+        <v>4013</v>
       </c>
       <c r="C92" t="s">
         <v>3570</v>
       </c>
       <c r="D92" t="s">
-        <v>3571</v>
+        <v>4014</v>
       </c>
       <c r="E92" t="s">
         <v>3572</v>
@@ -12952,16 +14272,16 @@
         <v>3574</v>
       </c>
       <c r="C93" t="s">
-        <v>3575</v>
+        <v>4015</v>
       </c>
       <c r="D93" t="s">
-        <v>3576</v>
+        <v>4016</v>
       </c>
       <c r="E93" t="s">
+        <v>4017</v>
+      </c>
+      <c r="F93" t="s">
         <v>3577</v>
-      </c>
-      <c r="F93" t="s">
-        <v>3578</v>
       </c>
     </row>
   </sheetData>
@@ -12970,6 +14290,1887 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001CC29C-638A-4E4E-829D-66241B93D88A}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3143</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3153</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3157</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3158</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3162</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3168</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3173</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3177</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3182</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3187</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3192</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3196</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3197</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3205</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3210</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3211</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3219</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3224</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3227</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3229</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3234</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3238</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3239</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3242</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3243</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3244</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3249</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3254</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3257</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3258</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3259</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3263</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3264</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3268</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3269</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3274</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3288</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3289</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3298</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3303</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3304</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3309</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3314</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3319</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3322</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3323</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3328</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3329</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3338</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3343</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3348</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3349</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3353</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3359</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3364</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3372</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3373</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3374</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3379</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3382</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3383</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3384</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2986</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3393</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3397</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3398</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3402</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3403</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3407</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3411</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3412</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3417</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3421</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3422</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3426</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3427</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3431</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3432</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3439</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3440</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3443</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2630</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3451</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3452</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3459</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3464</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3466</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3468</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3472</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3476</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3478</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3481</v>
+      </c>
+      <c r="F73" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3485</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3489</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3494</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3499</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3502</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3503</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3504</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3509</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3514</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3521</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3522</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3524</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3525</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3526</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3528</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3533</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3536</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3537</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3539</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3540</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3542</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3547</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3551</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3552</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3556</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3557</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3561</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3565</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3566</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3567</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3569</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3571</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3572</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3574</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3576</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3577</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C0AFDA-3FBB-41A3-BA62-46EDDC71FB68}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -14851,7 +18052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676205A0-C5FF-4AEC-B10B-18D60F60A28C}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -16733,7 +19934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC7E8D-1DE3-4DBF-BC92-6657EED87D10}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -18616,7 +21817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EEF453-2C93-48DA-92A9-F02917F02C21}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -20498,7 +23699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3009EEF-D0A3-4418-BB02-D308992E6389}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -22378,7 +25579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62503B16-5D5E-43EB-8EDC-28C65E9BFBAD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -24258,7 +27459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>

--- a/Broker Analysis.xlsx
+++ b/Broker Analysis.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\Others\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719992C1-D957-4EA6-B165-6257610E699A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850793FB-72ED-458E-B5A7-E0F4C121A0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-06-08" sheetId="9" r:id="rId1"/>
-    <sheet name="2025-06-05" sheetId="8" r:id="rId2"/>
-    <sheet name="2025-06-04" sheetId="7" r:id="rId3"/>
-    <sheet name="2025-06-03" sheetId="6" r:id="rId4"/>
-    <sheet name="2025-06-02" sheetId="5" r:id="rId5"/>
-    <sheet name="2025-05-28" sheetId="4" r:id="rId6"/>
-    <sheet name="2025-05-21" sheetId="3" r:id="rId7"/>
-    <sheet name="2025-05-20" sheetId="2" r:id="rId8"/>
-    <sheet name="2025-05-19" sheetId="1" r:id="rId9"/>
+    <sheet name="2025-06-09" sheetId="10" r:id="rId1"/>
+    <sheet name="2025-06-08" sheetId="9" r:id="rId2"/>
+    <sheet name="2025-06-05" sheetId="8" r:id="rId3"/>
+    <sheet name="2025-06-04" sheetId="7" r:id="rId4"/>
+    <sheet name="2025-06-03" sheetId="6" r:id="rId5"/>
+    <sheet name="2025-06-02" sheetId="5" r:id="rId6"/>
+    <sheet name="2025-05-28" sheetId="4" r:id="rId7"/>
+    <sheet name="2025-05-21" sheetId="3" r:id="rId8"/>
+    <sheet name="2025-05-20" sheetId="2" r:id="rId9"/>
+    <sheet name="2025-05-19" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5022" uniqueCount="4018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5580" uniqueCount="4455">
   <si>
     <t>B1</t>
   </si>
@@ -12087,6 +12088,1317 @@
   </si>
   <si>
     <t>SHPC/8025/565.27</t>
+  </si>
+  <si>
+    <t>SHIVM/37483/522.58</t>
+  </si>
+  <si>
+    <t>NIFRA/67466/283.44</t>
+  </si>
+  <si>
+    <t>RADHI/21208/780.02</t>
+  </si>
+  <si>
+    <t>NRN/7659/2,023.41</t>
+  </si>
+  <si>
+    <t>CHCL/28186/522.83</t>
+  </si>
+  <si>
+    <t>SHIVM/17904/529.45</t>
+  </si>
+  <si>
+    <t>OMPL/3280/1,643.84</t>
+  </si>
+  <si>
+    <t>PRVU/25122/208.64</t>
+  </si>
+  <si>
+    <t>HLI/12386/411.85</t>
+  </si>
+  <si>
+    <t>NGPL/13074/387.55</t>
+  </si>
+  <si>
+    <t>SARBTM/48606/849.41</t>
+  </si>
+  <si>
+    <t>SAHAS/26750/524.35</t>
+  </si>
+  <si>
+    <t>SPDL/30364/377.46</t>
+  </si>
+  <si>
+    <t>NMB/41849/244.17</t>
+  </si>
+  <si>
+    <t>SHIVM/19508/524.64</t>
+  </si>
+  <si>
+    <t>HDL/7184/1,236.27</t>
+  </si>
+  <si>
+    <t>OMPL/4740/1,788.67</t>
+  </si>
+  <si>
+    <t>HRL/8554/966.79</t>
+  </si>
+  <si>
+    <t>CREST/3076/1,923.83</t>
+  </si>
+  <si>
+    <t>NMIC/2497/2,020.92</t>
+  </si>
+  <si>
+    <t>NRIC/406804/1,292.95</t>
+  </si>
+  <si>
+    <t>HRL/62760/953.58</t>
+  </si>
+  <si>
+    <t>UPCL/100982/437.93</t>
+  </si>
+  <si>
+    <t>SAHAS/46623/523.11</t>
+  </si>
+  <si>
+    <t>MEN/19831/586.31</t>
+  </si>
+  <si>
+    <t>CHDC/11060/2,583.40</t>
+  </si>
+  <si>
+    <t>NRN/11505/2,040.09</t>
+  </si>
+  <si>
+    <t>UPCL/51944/433.20</t>
+  </si>
+  <si>
+    <t>RADHI/21117/755.20</t>
+  </si>
+  <si>
+    <t>SPDL/24454/374.01</t>
+  </si>
+  <si>
+    <t>LBBL/207375/460.65</t>
+  </si>
+  <si>
+    <t>BPCL/84095/572.74</t>
+  </si>
+  <si>
+    <t>SADBL/74021/426.97</t>
+  </si>
+  <si>
+    <t>CHDC/9684/2,562.62</t>
+  </si>
+  <si>
+    <t>LSL/95283/223.74</t>
+  </si>
+  <si>
+    <t>NTC/8125/871.83</t>
+  </si>
+  <si>
+    <t>CIT/3354/1,923.52</t>
+  </si>
+  <si>
+    <t>API/15887/301.05</t>
+  </si>
+  <si>
+    <t>NABIL/28477/494.01</t>
+  </si>
+  <si>
+    <t>NGPL/24610/388.12</t>
+  </si>
+  <si>
+    <t>BARUN/14511/490.04</t>
+  </si>
+  <si>
+    <t>SHPC/10414/574.34</t>
+  </si>
+  <si>
+    <t>ALICL/8421/689.48</t>
+  </si>
+  <si>
+    <t>CREST/7465/1,980.97</t>
+  </si>
+  <si>
+    <t>NGPL/45102/387.11</t>
+  </si>
+  <si>
+    <t>SHPC/24117/581.60</t>
+  </si>
+  <si>
+    <t>NMIC/6370/2,057.03</t>
+  </si>
+  <si>
+    <t>UPCL/19407/444.64</t>
+  </si>
+  <si>
+    <t>SAHAS/69701/525.54</t>
+  </si>
+  <si>
+    <t>CGH/40346/889.16</t>
+  </si>
+  <si>
+    <t>CREST/7913/1,893.56</t>
+  </si>
+  <si>
+    <t>HRL/15488/953.02</t>
+  </si>
+  <si>
+    <t>AKPL/50955/267.83</t>
+  </si>
+  <si>
+    <t>NMIC/38255/1,961.58</t>
+  </si>
+  <si>
+    <t>HURJA/270681/261.43</t>
+  </si>
+  <si>
+    <t>RADHI/73658/796.97</t>
+  </si>
+  <si>
+    <t>TPC/56774/583.55</t>
+  </si>
+  <si>
+    <t>RHPL/104372/390.35</t>
+  </si>
+  <si>
+    <t>BPCL/116527/548.51</t>
+  </si>
+  <si>
+    <t>SHIVM/88455/529.81</t>
+  </si>
+  <si>
+    <t>SADBL/98970/425.21</t>
+  </si>
+  <si>
+    <t>NRN/12600/2,023.19</t>
+  </si>
+  <si>
+    <t>HIDCL/62856/306.61</t>
+  </si>
+  <si>
+    <t>LICN/20939/971.74</t>
+  </si>
+  <si>
+    <t>SPIL/22583/815.34</t>
+  </si>
+  <si>
+    <t>CREST/5839/1,943.43</t>
+  </si>
+  <si>
+    <t>NLIC/14051/753.27</t>
+  </si>
+  <si>
+    <t>HDL/7146/1,211.53</t>
+  </si>
+  <si>
+    <t>BPCL/52707/557.18</t>
+  </si>
+  <si>
+    <t>LBBL/47276/466.49</t>
+  </si>
+  <si>
+    <t>UPCL/36472/437.03</t>
+  </si>
+  <si>
+    <t>OMPL/8180/1,817.37</t>
+  </si>
+  <si>
+    <t>SPDL/36121/380.88</t>
+  </si>
+  <si>
+    <t>LBBL/71034/464.55</t>
+  </si>
+  <si>
+    <t>CHDC/5304/2,540.13</t>
+  </si>
+  <si>
+    <t>HIDCL/39727/310.46</t>
+  </si>
+  <si>
+    <t>EBL/18437/657.09</t>
+  </si>
+  <si>
+    <t>SHIVM/30338/523.40</t>
+  </si>
+  <si>
+    <t>SMHL/13633/1,075.03</t>
+  </si>
+  <si>
+    <t>NGPL/34392/388.58</t>
+  </si>
+  <si>
+    <t>SADBL/28919/416.07</t>
+  </si>
+  <si>
+    <t>NRIC/9222/1,268.58</t>
+  </si>
+  <si>
+    <t>SHIVM/51759/526.85</t>
+  </si>
+  <si>
+    <t>NRN/12345/2,023.96</t>
+  </si>
+  <si>
+    <t>BARUN/27410/489.43</t>
+  </si>
+  <si>
+    <t>PHCL/19761/590.20</t>
+  </si>
+  <si>
+    <t>GLH/41397/262.39</t>
+  </si>
+  <si>
+    <t>KBL/192619/216.11</t>
+  </si>
+  <si>
+    <t>HIDCL/127421/306.49</t>
+  </si>
+  <si>
+    <t>NICA/37222/357.51</t>
+  </si>
+  <si>
+    <t>API/33891/300.71</t>
+  </si>
+  <si>
+    <t>MEN/16507/582.53</t>
+  </si>
+  <si>
+    <t>RADHI/88671/773.75</t>
+  </si>
+  <si>
+    <t>NGPL/123037/382.62</t>
+  </si>
+  <si>
+    <t>BHL/138980/216.83</t>
+  </si>
+  <si>
+    <t>LBBL/38900/459.80</t>
+  </si>
+  <si>
+    <t>HURJA/62920/265.45</t>
+  </si>
+  <si>
+    <t>SAHAS/122672/527.71</t>
+  </si>
+  <si>
+    <t>CORBL/12614/2,411.09</t>
+  </si>
+  <si>
+    <t>BPCL/45717/554.83</t>
+  </si>
+  <si>
+    <t>API/91326/301.40</t>
+  </si>
+  <si>
+    <t>MNBBL/60440/361.66</t>
+  </si>
+  <si>
+    <t>RADHI/47785/776.73</t>
+  </si>
+  <si>
+    <t>DORDI/73004/402.60</t>
+  </si>
+  <si>
+    <t>GRDBL/17537/1,267.84</t>
+  </si>
+  <si>
+    <t>BPCL/15391/605.60</t>
+  </si>
+  <si>
+    <t>SANIMA/30632/319.27</t>
+  </si>
+  <si>
+    <t>CHDC/27537/2,577.28</t>
+  </si>
+  <si>
+    <t>NRIC/43777/1,277.47</t>
+  </si>
+  <si>
+    <t>UPCL/122525/440.94</t>
+  </si>
+  <si>
+    <t>SHL/47584/579.28</t>
+  </si>
+  <si>
+    <t>BARUN/34433/444.99</t>
+  </si>
+  <si>
+    <t>SBL/550991/293.57</t>
+  </si>
+  <si>
+    <t>EBL/112936/652.79</t>
+  </si>
+  <si>
+    <t>RADHI/81433/757.57</t>
+  </si>
+  <si>
+    <t>UPCL/74791/447.54</t>
+  </si>
+  <si>
+    <t>CYCL/20390/1,645.70</t>
+  </si>
+  <si>
+    <t>RADHI/70440/775.53</t>
+  </si>
+  <si>
+    <t>HRL/50773/968.84</t>
+  </si>
+  <si>
+    <t>API/119872/299.34</t>
+  </si>
+  <si>
+    <t>AHPC/117850/295.15</t>
+  </si>
+  <si>
+    <t>SHIVM/63264/526.31</t>
+  </si>
+  <si>
+    <t>GBIME/245741/239.78</t>
+  </si>
+  <si>
+    <t>UPCL/120566/438.33</t>
+  </si>
+  <si>
+    <t>NIFRA/100142/280.63</t>
+  </si>
+  <si>
+    <t>CGH/31308/888.61</t>
+  </si>
+  <si>
+    <t>SHL/36458/569.06</t>
+  </si>
+  <si>
+    <t>SBI/164100/411.79</t>
+  </si>
+  <si>
+    <t>SPIL/21281/822.68</t>
+  </si>
+  <si>
+    <t>EBL/23986/634.70</t>
+  </si>
+  <si>
+    <t>JBBL/36710/337.75</t>
+  </si>
+  <si>
+    <t>OHL/12437/907.34</t>
+  </si>
+  <si>
+    <t>MEN/11707/584.69</t>
+  </si>
+  <si>
+    <t>NRN/2568/2,060.33</t>
+  </si>
+  <si>
+    <t>MBJC/11365/310.92</t>
+  </si>
+  <si>
+    <t>CREST/1725/1,953.96</t>
+  </si>
+  <si>
+    <t>BPCL/140059/550.74</t>
+  </si>
+  <si>
+    <t>SHIVM/74057/525.61</t>
+  </si>
+  <si>
+    <t>HPPL/47093/502.52</t>
+  </si>
+  <si>
+    <t>HEI/38913/575.76</t>
+  </si>
+  <si>
+    <t>BARUN/48487/451.51</t>
+  </si>
+  <si>
+    <t>NRN/49391/2,049.45</t>
+  </si>
+  <si>
+    <t>UPCL/210206/434.02</t>
+  </si>
+  <si>
+    <t>CHDC/15292/2,566.58</t>
+  </si>
+  <si>
+    <t>SHIVM/33980/525.82</t>
+  </si>
+  <si>
+    <t>SHL/23302/566.08</t>
+  </si>
+  <si>
+    <t>SANIMA/42924/318.24</t>
+  </si>
+  <si>
+    <t>MEN/22008/592.30</t>
+  </si>
+  <si>
+    <t>BPCL/29283/508.75</t>
+  </si>
+  <si>
+    <t>RURU/12164/699.35</t>
+  </si>
+  <si>
+    <t>HIDCL/25071/304.31</t>
+  </si>
+  <si>
+    <t>SAPDBL/116266/1,021.31</t>
+  </si>
+  <si>
+    <t>NMIC/18488/2,025.88</t>
+  </si>
+  <si>
+    <t>SHIVM/40665/525.48</t>
+  </si>
+  <si>
+    <t>RFPL/27829/503.73</t>
+  </si>
+  <si>
+    <t>HDL/8616/1,223.22</t>
+  </si>
+  <si>
+    <t>GBIME/879248/239.90</t>
+  </si>
+  <si>
+    <t>AKPL/371487/262.94</t>
+  </si>
+  <si>
+    <t>MERO/103093/745.87</t>
+  </si>
+  <si>
+    <t>RADHI/80073/771.10</t>
+  </si>
+  <si>
+    <t>NRN/25131/2,019.89</t>
+  </si>
+  <si>
+    <t>BPCL/113489/565.36</t>
+  </si>
+  <si>
+    <t>GHL/100614/252.25</t>
+  </si>
+  <si>
+    <t>USLB/11667/1,948.85</t>
+  </si>
+  <si>
+    <t>SPIL/25360/824.06</t>
+  </si>
+  <si>
+    <t>SHIVM/30561/532.61</t>
+  </si>
+  <si>
+    <t>EBL/201069/651.69</t>
+  </si>
+  <si>
+    <t>MLBL/102857/393.46</t>
+  </si>
+  <si>
+    <t>SANIMA/116735/319.98</t>
+  </si>
+  <si>
+    <t>HRL/31511/966.76</t>
+  </si>
+  <si>
+    <t>PPCL/84669/333.53</t>
+  </si>
+  <si>
+    <t>SHPC/496522/583.27</t>
+  </si>
+  <si>
+    <t>GBIME/195746/225.25</t>
+  </si>
+  <si>
+    <t>CZBIL/178688/216.43</t>
+  </si>
+  <si>
+    <t>BARUN/73050/425.51</t>
+  </si>
+  <si>
+    <t>LSL/128027/216.61</t>
+  </si>
+  <si>
+    <t>HRL/12211/946.41</t>
+  </si>
+  <si>
+    <t>API/34623/302.03</t>
+  </si>
+  <si>
+    <t>UPPER/38900/200.32</t>
+  </si>
+  <si>
+    <t>AHPC/24074/296.06</t>
+  </si>
+  <si>
+    <t>SARBTM/7013/843.39</t>
+  </si>
+  <si>
+    <t>AKPL/106410/266.12</t>
+  </si>
+  <si>
+    <t>NGPL/49860/388.23</t>
+  </si>
+  <si>
+    <t>CREST/9699/1,875.98</t>
+  </si>
+  <si>
+    <t>SHEL/61548/273.22</t>
+  </si>
+  <si>
+    <t>SHL/21794/566.41</t>
+  </si>
+  <si>
+    <t>SHL/281915/569.49</t>
+  </si>
+  <si>
+    <t>NGPL/174205/386.67</t>
+  </si>
+  <si>
+    <t>SHPC/79527/580.39</t>
+  </si>
+  <si>
+    <t>SHIVM/59921/523.14</t>
+  </si>
+  <si>
+    <t>GHL/98714/260.58</t>
+  </si>
+  <si>
+    <t>MEN/93562/582.65</t>
+  </si>
+  <si>
+    <t>RADHI/66322/765.62</t>
+  </si>
+  <si>
+    <t>BHL/142597/216.93</t>
+  </si>
+  <si>
+    <t>NTC/34294/862.97</t>
+  </si>
+  <si>
+    <t>SHEL/107598/272.77</t>
+  </si>
+  <si>
+    <t>RADHI/420146/768.82</t>
+  </si>
+  <si>
+    <t>SHL/43914/575.78</t>
+  </si>
+  <si>
+    <t>SPDL/52974/379.87</t>
+  </si>
+  <si>
+    <t>SPIL/23482/805.05</t>
+  </si>
+  <si>
+    <t>SHIVM/32157/527.59</t>
+  </si>
+  <si>
+    <t>CHDC/6319/2,607.49</t>
+  </si>
+  <si>
+    <t>SHEL/56107/271.62</t>
+  </si>
+  <si>
+    <t>RADHI/14687/787.67</t>
+  </si>
+  <si>
+    <t>AHPC/37734/291.62</t>
+  </si>
+  <si>
+    <t>API/27473/301.47</t>
+  </si>
+  <si>
+    <t>CHDC/12486/2,581.15</t>
+  </si>
+  <si>
+    <t>BARUN/23308/449.23</t>
+  </si>
+  <si>
+    <t>BHL/41617/216.47</t>
+  </si>
+  <si>
+    <t>NRN/4372/2,021.13</t>
+  </si>
+  <si>
+    <t>NIFRA/27147/283.89</t>
+  </si>
+  <si>
+    <t>MEN/16530/599.11</t>
+  </si>
+  <si>
+    <t>NMIC/4345/2,098.33</t>
+  </si>
+  <si>
+    <t>ULBSL/2548/3,346.70</t>
+  </si>
+  <si>
+    <t>NGPL/17514/386.75</t>
+  </si>
+  <si>
+    <t>SHIVM/13404/524.81</t>
+  </si>
+  <si>
+    <t>STC/12247/5,036.00</t>
+  </si>
+  <si>
+    <t>UPCL/65608/455.54</t>
+  </si>
+  <si>
+    <t>RADHI/45564/763.49</t>
+  </si>
+  <si>
+    <t>SADBL/31807/422.25</t>
+  </si>
+  <si>
+    <t>BARUN/15176/519.29</t>
+  </si>
+  <si>
+    <t>GMLI/177819/2,597.90</t>
+  </si>
+  <si>
+    <t>NRIC/216826/1,293.74</t>
+  </si>
+  <si>
+    <t>NMIC/65720/1,905.93</t>
+  </si>
+  <si>
+    <t>NLG/96946/833.37</t>
+  </si>
+  <si>
+    <t>HDL/18056/1,226.61</t>
+  </si>
+  <si>
+    <t>UPCL/143582/449.95</t>
+  </si>
+  <si>
+    <t>CHCL/106312/515.67</t>
+  </si>
+  <si>
+    <t>SMHL/46635/980.96</t>
+  </si>
+  <si>
+    <t>BPCL/49810/585.06</t>
+  </si>
+  <si>
+    <t>BEDC/39376/722.42</t>
+  </si>
+  <si>
+    <t>SHPC/87650/580.20</t>
+  </si>
+  <si>
+    <t>NTC/32831/855.40</t>
+  </si>
+  <si>
+    <t>RADHI/32850/764.28</t>
+  </si>
+  <si>
+    <t>HDHPC/89821/203.60</t>
+  </si>
+  <si>
+    <t>BARUN/43978/460.89</t>
+  </si>
+  <si>
+    <t>KBL/1771144/215.13</t>
+  </si>
+  <si>
+    <t>NGPL/454280/385.56</t>
+  </si>
+  <si>
+    <t>NRN/82042/2,026.03</t>
+  </si>
+  <si>
+    <t>OHL/109586/949.12</t>
+  </si>
+  <si>
+    <t>LSL/435156/220.43</t>
+  </si>
+  <si>
+    <t>API/132775/299.83</t>
+  </si>
+  <si>
+    <t>ALICL/29213/698.97</t>
+  </si>
+  <si>
+    <t>NIFRA/62613/283.24</t>
+  </si>
+  <si>
+    <t>SHIVM/27566/523.92</t>
+  </si>
+  <si>
+    <t>AHPC/40748/297.90</t>
+  </si>
+  <si>
+    <t>RADHI/156071/782.10</t>
+  </si>
+  <si>
+    <t>UPCL/126223/436.73</t>
+  </si>
+  <si>
+    <t>SHL/66954/568.64</t>
+  </si>
+  <si>
+    <t>HPPL/72813/500.32</t>
+  </si>
+  <si>
+    <t>LBBL/52252/476.78</t>
+  </si>
+  <si>
+    <t>BPCL/32676/568.16</t>
+  </si>
+  <si>
+    <t>CHDC/7619/2,613.31</t>
+  </si>
+  <si>
+    <t>NGPL/47716/392.81</t>
+  </si>
+  <si>
+    <t>HIDCL/51961/307.83</t>
+  </si>
+  <si>
+    <t>CHCL/21179/522.44</t>
+  </si>
+  <si>
+    <t>UMHL/318083/509.08</t>
+  </si>
+  <si>
+    <t>RADHI/75777/783.02</t>
+  </si>
+  <si>
+    <t>RIDI/96928/269.28</t>
+  </si>
+  <si>
+    <t>ANLB/4254/5,391.32</t>
+  </si>
+  <si>
+    <t>SHIVM/36697/533.42</t>
+  </si>
+  <si>
+    <t>OMPL/12220/1,764.03</t>
+  </si>
+  <si>
+    <t>NGPL/39710/387.15</t>
+  </si>
+  <si>
+    <t>RADHI/20152/764.98</t>
+  </si>
+  <si>
+    <t>USLB/6364/1,933.97</t>
+  </si>
+  <si>
+    <t>SHL/20929/566.05</t>
+  </si>
+  <si>
+    <t>BPCL/247863/558.89</t>
+  </si>
+  <si>
+    <t>NRN/25483/2,054.88</t>
+  </si>
+  <si>
+    <t>BEDC/22602/747.77</t>
+  </si>
+  <si>
+    <t>CHDC/6970/2,552.24</t>
+  </si>
+  <si>
+    <t>LSL/74487/221.52</t>
+  </si>
+  <si>
+    <t>SANIMA/107037/318.66</t>
+  </si>
+  <si>
+    <t>SARBTM/40627/841.02</t>
+  </si>
+  <si>
+    <t>NIFRA/112959/282.41</t>
+  </si>
+  <si>
+    <t>SHPC/51545/586.00</t>
+  </si>
+  <si>
+    <t>CHDC/19192/2,581.85</t>
+  </si>
+  <si>
+    <t>HIDCL/111159/302.97</t>
+  </si>
+  <si>
+    <t>NRN/12812/2,025.51</t>
+  </si>
+  <si>
+    <t>UPCL/25746/437.18</t>
+  </si>
+  <si>
+    <t>SAHAS/20846/517.04</t>
+  </si>
+  <si>
+    <t>RADHI/146844/775.74</t>
+  </si>
+  <si>
+    <t>CHCL/57841/542.09</t>
+  </si>
+  <si>
+    <t>NGPL/56244/389.09</t>
+  </si>
+  <si>
+    <t>SHIVM/20918/535.73</t>
+  </si>
+  <si>
+    <t>LICN/8000/920.28</t>
+  </si>
+  <si>
+    <t>NGPL/154292/383.94</t>
+  </si>
+  <si>
+    <t>RIDI/67627/261.56</t>
+  </si>
+  <si>
+    <t>MLBL/22540/394.86</t>
+  </si>
+  <si>
+    <t>HURJA/28612/257.00</t>
+  </si>
+  <si>
+    <t>SHL/12408/569.44</t>
+  </si>
+  <si>
+    <t>SHL/74447/564.68</t>
+  </si>
+  <si>
+    <t>BPCL/42977/631.48</t>
+  </si>
+  <si>
+    <t>HIDCL/70229/307.68</t>
+  </si>
+  <si>
+    <t>NRN/5717/2,024.19</t>
+  </si>
+  <si>
+    <t>BPCL/65679/576.40</t>
+  </si>
+  <si>
+    <t>SHPC/29308/581.98</t>
+  </si>
+  <si>
+    <t>PRVU/76790/217.70</t>
+  </si>
+  <si>
+    <t>HPPL/22491/493.38</t>
+  </si>
+  <si>
+    <t>CZBIL/41184/221.07</t>
+  </si>
+  <si>
+    <t>LBBL/64586/466.99</t>
+  </si>
+  <si>
+    <t>UPCL/71772/438.07</t>
+  </si>
+  <si>
+    <t>API/65310/301.53</t>
+  </si>
+  <si>
+    <t>CORBL/7096/2,329.01</t>
+  </si>
+  <si>
+    <t>HIDCL/49532/306.26</t>
+  </si>
+  <si>
+    <t>CORBL/39232/2,350.55</t>
+  </si>
+  <si>
+    <t>SAPDBL/15411/952.99</t>
+  </si>
+  <si>
+    <t>JOSHI/28352/437.67</t>
+  </si>
+  <si>
+    <t>UPCL/35409/426.62</t>
+  </si>
+  <si>
+    <t>LBBL/28310/449.46</t>
+  </si>
+  <si>
+    <t>CHDC/70/2,703.57</t>
+  </si>
+  <si>
+    <t>SONA/300/453.00</t>
+  </si>
+  <si>
+    <t>SAPDBL/27520/1,038.35</t>
+  </si>
+  <si>
+    <t>CHCL/56899/504.70</t>
+  </si>
+  <si>
+    <t>SHPC/31784/571.16</t>
+  </si>
+  <si>
+    <t>SKBBL/15168/803.69</t>
+  </si>
+  <si>
+    <t>MEN/18493/595.34</t>
+  </si>
+  <si>
+    <t>NRN/9603/2,050.30</t>
+  </si>
+  <si>
+    <t>CHDC/6139/2,606.16</t>
+  </si>
+  <si>
+    <t>BPCL/18347/616.60</t>
+  </si>
+  <si>
+    <t>BHL/52051/215.09</t>
+  </si>
+  <si>
+    <t>UPCL/22167/434.86</t>
+  </si>
+  <si>
+    <t>SHIVM/17359/523.16</t>
+  </si>
+  <si>
+    <t>MBJC/27525/317.08</t>
+  </si>
+  <si>
+    <t>CHDC/1534/2,575.80</t>
+  </si>
+  <si>
+    <t>NRN/1780/2,030.61</t>
+  </si>
+  <si>
+    <t>SAHAS/6565/517.24</t>
+  </si>
+  <si>
+    <t>BPCL/207373/577.66</t>
+  </si>
+  <si>
+    <t>RADHI/68927/775.04</t>
+  </si>
+  <si>
+    <t>CHDC/9906/2,568.27</t>
+  </si>
+  <si>
+    <t>UPCL/51263/441.81</t>
+  </si>
+  <si>
+    <t>ALICL/7858/693.09</t>
+  </si>
+  <si>
+    <t>RADHI/6587/767.06</t>
+  </si>
+  <si>
+    <t>NRN/1373/2,008.15</t>
+  </si>
+  <si>
+    <t>SHIVM/3850/531.18</t>
+  </si>
+  <si>
+    <t>AKPL/3436/270.66</t>
+  </si>
+  <si>
+    <t>MEN/62677/584.95</t>
+  </si>
+  <si>
+    <t>NMLBBL/37164/660.91</t>
+  </si>
+  <si>
+    <t>NIFRA/76923/286.36</t>
+  </si>
+  <si>
+    <t>RADHI/19408/768.88</t>
+  </si>
+  <si>
+    <t>USLB/6546/1,849.19</t>
+  </si>
+  <si>
+    <t>NGPL/199118/392.68</t>
+  </si>
+  <si>
+    <t>CHDC/23033/2,584.91</t>
+  </si>
+  <si>
+    <t>SHPC/74046/590.96</t>
+  </si>
+  <si>
+    <t>SAHAS/57708/521.38</t>
+  </si>
+  <si>
+    <t>HRL/22751/982.71</t>
+  </si>
+  <si>
+    <t>RADHI/47650/760.31</t>
+  </si>
+  <si>
+    <t>NRN/15748/2,043.98</t>
+  </si>
+  <si>
+    <t>NICA/27934/372.12</t>
+  </si>
+  <si>
+    <t>HRL/10858/955.97</t>
+  </si>
+  <si>
+    <t>SHIVM/12485/527.90</t>
+  </si>
+  <si>
+    <t>HRL/22631/954.29</t>
+  </si>
+  <si>
+    <t>RADHI/20161/770.83</t>
+  </si>
+  <si>
+    <t>AHL/14385/674.65</t>
+  </si>
+  <si>
+    <t>CGH/6645/873.20</t>
+  </si>
+  <si>
+    <t>HIDCL/136234/304.28</t>
+  </si>
+  <si>
+    <t>SADBL/44496/425.35</t>
+  </si>
+  <si>
+    <t>HDL/12825/1,218.25</t>
+  </si>
+  <si>
+    <t>BPCL/23991/568.88</t>
+  </si>
+  <si>
+    <t>CZBIL/70161/214.34</t>
+  </si>
+  <si>
+    <t>NGPL/237502/384.01</t>
+  </si>
+  <si>
+    <t>SHL/86326/581.78</t>
+  </si>
+  <si>
+    <t>RADHI/32967/769.46</t>
+  </si>
+  <si>
+    <t>AHPC/45459/295.95</t>
+  </si>
+  <si>
+    <t>SHIVM/21804/533.33</t>
+  </si>
+  <si>
+    <t>RADHI/30730/782.22</t>
+  </si>
+  <si>
+    <t>SHPC/19191/581.42</t>
+  </si>
+  <si>
+    <t>NRIC/8487/1,283.45</t>
+  </si>
+  <si>
+    <t>CHDC/3702/2,589.30</t>
+  </si>
+  <si>
+    <t>AKPL/29699/263.96</t>
+  </si>
+  <si>
+    <t>RADHI/71784/782.39</t>
+  </si>
+  <si>
+    <t>HPPL/14167/493.68</t>
+  </si>
+  <si>
+    <t>NMIC/589/2,066.38</t>
+  </si>
+  <si>
+    <t>ALICL/4275/725.79</t>
+  </si>
+  <si>
+    <t>BPCL/5037/581.64</t>
+  </si>
+  <si>
+    <t>SAPDBL/40415/1,034.51</t>
+  </si>
+  <si>
+    <t>CHDC/5933/2,530.88</t>
+  </si>
+  <si>
+    <t>BPCL/16719/509.52</t>
+  </si>
+  <si>
+    <t>GBIME/78713/236.31</t>
+  </si>
+  <si>
+    <t>RADHI/19633/764.64</t>
+  </si>
+  <si>
+    <t>NGPL/19162/383.05</t>
+  </si>
+  <si>
+    <t>LBBL/9671/459.13</t>
+  </si>
+  <si>
+    <t>HRL/3811/973.79</t>
+  </si>
+  <si>
+    <t>CHCL/6184/525.06</t>
+  </si>
+  <si>
+    <t>NGPL/7504/382.69</t>
+  </si>
+  <si>
+    <t>BARUN/3870/502.00</t>
+  </si>
+  <si>
+    <t>NGPL/71063/388.15</t>
+  </si>
+  <si>
+    <t>SHL/40554/565.91</t>
+  </si>
+  <si>
+    <t>UPCL/47149/440.64</t>
+  </si>
+  <si>
+    <t>AKPL/68737/264.92</t>
+  </si>
+  <si>
+    <t>SARBTM/19016/846.31</t>
+  </si>
+  <si>
+    <t>HIDCL/135623/301.81</t>
+  </si>
+  <si>
+    <t>SHPC/23275/594.95</t>
+  </si>
+  <si>
+    <t>CHCL/21072/512.09</t>
+  </si>
+  <si>
+    <t>RADHI/11677/778.76</t>
+  </si>
+  <si>
+    <t>SHIVM/10445/524.03</t>
+  </si>
+  <si>
+    <t>NMIC/1550/1,964.01</t>
+  </si>
+  <si>
+    <t>ICFC/5020/622.19</t>
+  </si>
+  <si>
+    <t>HATHY/2305/1,254.77</t>
+  </si>
+  <si>
+    <t>RADHI/148223/783.50</t>
+  </si>
+  <si>
+    <t>MKHL/99116/737.60</t>
+  </si>
+  <si>
+    <t>NGPL/118838/384.45</t>
+  </si>
+  <si>
+    <t>PRIN/32267/861.14</t>
+  </si>
+  <si>
+    <t>SHL/42677/568.63</t>
+  </si>
+  <si>
+    <t>UPCL/74210/451.74</t>
+  </si>
+  <si>
+    <t>RADHI/8121/801.29</t>
+  </si>
+  <si>
+    <t>NGPL/20530/389.67</t>
+  </si>
+  <si>
+    <t>NRN/3715/2,046.75</t>
+  </si>
+  <si>
+    <t>NMIC/1900/2,164.58</t>
+  </si>
+  <si>
+    <t>LBBL/145112/469.04</t>
+  </si>
+  <si>
+    <t>NRN/23185/2,038.65</t>
+  </si>
+  <si>
+    <t>NICA/108349/365.14</t>
+  </si>
+  <si>
+    <t>NRIC/22290/1,282.11</t>
+  </si>
+  <si>
+    <t>SHL/41598/561.69</t>
+  </si>
+  <si>
+    <t>SADBL/33810/419.99</t>
+  </si>
+  <si>
+    <t>BPCL/21180/623.44</t>
+  </si>
+  <si>
+    <t>NRN/4518/2,025.04</t>
+  </si>
+  <si>
+    <t>UPCL/20529/443.27</t>
+  </si>
+  <si>
+    <t>NMIC/3151/2,081.47</t>
+  </si>
+  <si>
+    <t>SHPC/46799/580.81</t>
+  </si>
+  <si>
+    <t>NGPL/40470/384.47</t>
+  </si>
+  <si>
+    <t>OMPL/7220/1,896.21</t>
+  </si>
+  <si>
+    <t>BPCL/8815/642.41</t>
+  </si>
+  <si>
+    <t>NMIC/2415/2,403.58</t>
+  </si>
+  <si>
+    <t>BPCL/26507/602.28</t>
+  </si>
+  <si>
+    <t>SHIVM/26715/535.03</t>
+  </si>
+  <si>
+    <t>LBBL/13512/468.18</t>
+  </si>
+  <si>
+    <t>HIDCL/18108/310.95</t>
+  </si>
+  <si>
+    <t>NGPL/13647/387.50</t>
+  </si>
+  <si>
+    <t>PHCL/82159/601.02</t>
+  </si>
+  <si>
+    <t>MLBL/68821/388.64</t>
+  </si>
+  <si>
+    <t>KSBBL/46677/449.73</t>
+  </si>
+  <si>
+    <t>LBBL/33112/451.25</t>
+  </si>
+  <si>
+    <t>SJLIC/26256/431.37</t>
+  </si>
+  <si>
+    <t>AKPL/33577/273.55</t>
+  </si>
+  <si>
+    <t>CHDC/3072/2,610.50</t>
+  </si>
+  <si>
+    <t>SHL/6400/566.54</t>
+  </si>
+  <si>
+    <t>SHPC/6225/565.27</t>
   </si>
 </sst>
 </file>
@@ -12409,11 +13721,3771 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDA9053-1E1E-4544-B000-C7441587AE1E}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4018</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4020</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4021</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4023</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4024</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4025</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4026</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4029</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4030</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4031</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4033</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4034</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4035</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4036</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4039</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4041</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4044</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4046</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4048</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4049</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4051</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4054</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3616</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4055</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4056</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4057</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4058</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4059</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4061</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4062</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4063</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4064</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4066</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4068</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4069</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4072</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4073</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4074</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4077</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4078</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4079</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4082</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4083</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4084</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4087</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4088</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4089</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4091</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3655</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4092</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4093</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4095</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4096</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4097</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4098</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4117</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4133</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4136</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4137</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4138</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4140</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4142</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4147</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4148</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4150</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4151</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4152</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4155</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4156</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4157</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4160</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4161</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4162</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4165</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4166</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4167</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4169</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4170</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4171</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4172</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4174</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4175</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4176</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4177</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4180</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4181</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4182</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4185</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4186</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4187</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4189</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4190</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4191</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4192</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4195</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4196</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4197</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4199</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4200</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4201</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4202</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4204</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4205</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4206</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4207</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4209</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4210</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4211</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4212</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4214</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4215</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4216</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4217</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4219</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4220</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4221</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4222</v>
+      </c>
+      <c r="F43" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4224</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4225</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4226</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4227</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4229</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4230</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4231</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4232</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4234</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4236</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4237</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4239</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4240</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4241</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4242</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4244</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4245</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4246</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4247</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4249</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4250</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4251</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4252</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4254</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4255</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4256</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4257</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4259</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4261</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4262</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4265</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4266</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4267</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4269</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4270</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4271</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4272</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4274</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4275</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4276</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4277</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4279</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4280</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4281</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4282</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4284</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4285</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4286</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4287</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4291</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4293</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4294</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4295</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4296</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4299</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4300</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4301</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4304</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4305</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4306</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4309</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3877</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4313</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4314</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4315</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4318</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4319</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4320</v>
+      </c>
+      <c r="F63" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4323</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4324</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4325</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4327</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4329</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4330</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4331</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4332</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4334</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4335</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4337</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4339</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4340</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4342</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4344</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4345</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4346</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3908</v>
+      </c>
+      <c r="F69" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4349</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3912</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4351</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4352</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3915</v>
+      </c>
+      <c r="F71" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4353</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4354</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4355</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4356</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4359</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4360</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4361</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4363</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4364</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4365</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4366</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4368</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4369</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4370</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3933</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4372</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4373</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4374</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4375</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4377</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4378</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4379</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4380</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4382</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4383</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4384</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4385</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4387</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4388</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4389</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4390</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4392</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4393</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4394</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4395</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4396</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4397</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4398</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3964</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4400</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4401</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4404</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4405</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4406</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4410</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4411</v>
+      </c>
+      <c r="F84" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3978</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3979</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4413</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4414</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4416</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4417</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4418</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4419</v>
+      </c>
+      <c r="F86" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4422</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4423</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4424</v>
+      </c>
+      <c r="F87" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4426</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4427</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4428</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4429</v>
+      </c>
+      <c r="F88" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4431</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4432</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4433</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4434</v>
+      </c>
+      <c r="F89" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4437</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4438</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4439</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4441</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4442</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4443</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4444</v>
+      </c>
+      <c r="F91" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4447</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4448</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4449</v>
+      </c>
+      <c r="F92" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4451</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4452</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4453</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2332</v>
+      </c>
+      <c r="F93" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E40" t="s">
+        <v>232</v>
+      </c>
+      <c r="F40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" t="s">
+        <v>256</v>
+      </c>
+      <c r="F44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" t="s">
+        <v>260</v>
+      </c>
+      <c r="D45" t="s">
+        <v>261</v>
+      </c>
+      <c r="E45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" t="s">
+        <v>273</v>
+      </c>
+      <c r="E47" t="s">
+        <v>274</v>
+      </c>
+      <c r="F47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" t="s">
+        <v>278</v>
+      </c>
+      <c r="D48" t="s">
+        <v>279</v>
+      </c>
+      <c r="E48" t="s">
+        <v>280</v>
+      </c>
+      <c r="F48" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>283</v>
+      </c>
+      <c r="C49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" t="s">
+        <v>285</v>
+      </c>
+      <c r="E49" t="s">
+        <v>286</v>
+      </c>
+      <c r="F49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>289</v>
+      </c>
+      <c r="C50" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" t="s">
+        <v>291</v>
+      </c>
+      <c r="E50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" t="s">
+        <v>297</v>
+      </c>
+      <c r="E51" t="s">
+        <v>298</v>
+      </c>
+      <c r="F51" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" t="s">
+        <v>303</v>
+      </c>
+      <c r="E52" t="s">
+        <v>304</v>
+      </c>
+      <c r="F52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>307</v>
+      </c>
+      <c r="C53" t="s">
+        <v>308</v>
+      </c>
+      <c r="D53" t="s">
+        <v>309</v>
+      </c>
+      <c r="E53" t="s">
+        <v>310</v>
+      </c>
+      <c r="F53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" t="s">
+        <v>313</v>
+      </c>
+      <c r="C54" t="s">
+        <v>314</v>
+      </c>
+      <c r="D54" t="s">
+        <v>315</v>
+      </c>
+      <c r="E54" t="s">
+        <v>316</v>
+      </c>
+      <c r="F54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>319</v>
+      </c>
+      <c r="C55" t="s">
+        <v>320</v>
+      </c>
+      <c r="D55" t="s">
+        <v>321</v>
+      </c>
+      <c r="E55" t="s">
+        <v>322</v>
+      </c>
+      <c r="F55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C56" t="s">
+        <v>326</v>
+      </c>
+      <c r="D56" t="s">
+        <v>327</v>
+      </c>
+      <c r="E56" t="s">
+        <v>328</v>
+      </c>
+      <c r="F56" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" t="s">
+        <v>331</v>
+      </c>
+      <c r="C57" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57" t="s">
+        <v>333</v>
+      </c>
+      <c r="E57" t="s">
+        <v>334</v>
+      </c>
+      <c r="F57" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>336</v>
+      </c>
+      <c r="B58" t="s">
+        <v>337</v>
+      </c>
+      <c r="C58" t="s">
+        <v>338</v>
+      </c>
+      <c r="D58" t="s">
+        <v>339</v>
+      </c>
+      <c r="E58" t="s">
+        <v>340</v>
+      </c>
+      <c r="F58" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C59" t="s">
+        <v>344</v>
+      </c>
+      <c r="D59" t="s">
+        <v>345</v>
+      </c>
+      <c r="E59" t="s">
+        <v>346</v>
+      </c>
+      <c r="F59" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>349</v>
+      </c>
+      <c r="C60" t="s">
+        <v>350</v>
+      </c>
+      <c r="D60" t="s">
+        <v>351</v>
+      </c>
+      <c r="E60" t="s">
+        <v>352</v>
+      </c>
+      <c r="F60" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>355</v>
+      </c>
+      <c r="C61" t="s">
+        <v>356</v>
+      </c>
+      <c r="D61" t="s">
+        <v>357</v>
+      </c>
+      <c r="E61" t="s">
+        <v>358</v>
+      </c>
+      <c r="F61" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" t="s">
+        <v>361</v>
+      </c>
+      <c r="C62" t="s">
+        <v>362</v>
+      </c>
+      <c r="D62" t="s">
+        <v>363</v>
+      </c>
+      <c r="E62" t="s">
+        <v>364</v>
+      </c>
+      <c r="F62" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" t="s">
+        <v>367</v>
+      </c>
+      <c r="C63" t="s">
+        <v>368</v>
+      </c>
+      <c r="D63" t="s">
+        <v>369</v>
+      </c>
+      <c r="E63" t="s">
+        <v>370</v>
+      </c>
+      <c r="F63" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C64" t="s">
+        <v>374</v>
+      </c>
+      <c r="D64" t="s">
+        <v>375</v>
+      </c>
+      <c r="E64" t="s">
+        <v>376</v>
+      </c>
+      <c r="F64" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
+        <v>379</v>
+      </c>
+      <c r="C65" t="s">
+        <v>380</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" t="s">
+        <v>382</v>
+      </c>
+      <c r="F65" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="s">
+        <v>385</v>
+      </c>
+      <c r="C66" t="s">
+        <v>386</v>
+      </c>
+      <c r="D66" t="s">
+        <v>387</v>
+      </c>
+      <c r="E66" t="s">
+        <v>388</v>
+      </c>
+      <c r="F66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" t="s">
+        <v>391</v>
+      </c>
+      <c r="C67" t="s">
+        <v>392</v>
+      </c>
+      <c r="D67" t="s">
+        <v>393</v>
+      </c>
+      <c r="E67" t="s">
+        <v>394</v>
+      </c>
+      <c r="F67" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>397</v>
+      </c>
+      <c r="C68" t="s">
+        <v>398</v>
+      </c>
+      <c r="D68" t="s">
+        <v>399</v>
+      </c>
+      <c r="E68" t="s">
+        <v>400</v>
+      </c>
+      <c r="F68" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>402</v>
+      </c>
+      <c r="B69" t="s">
+        <v>403</v>
+      </c>
+      <c r="C69" t="s">
+        <v>404</v>
+      </c>
+      <c r="D69" t="s">
+        <v>405</v>
+      </c>
+      <c r="E69" t="s">
+        <v>406</v>
+      </c>
+      <c r="F69" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>409</v>
+      </c>
+      <c r="C70" t="s">
+        <v>410</v>
+      </c>
+      <c r="D70" t="s">
+        <v>411</v>
+      </c>
+      <c r="E70" t="s">
+        <v>412</v>
+      </c>
+      <c r="F70" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>415</v>
+      </c>
+      <c r="C71" t="s">
+        <v>416</v>
+      </c>
+      <c r="D71" t="s">
+        <v>417</v>
+      </c>
+      <c r="E71" t="s">
+        <v>418</v>
+      </c>
+      <c r="F71" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72" t="s">
+        <v>421</v>
+      </c>
+      <c r="C72" t="s">
+        <v>422</v>
+      </c>
+      <c r="D72" t="s">
+        <v>423</v>
+      </c>
+      <c r="E72" t="s">
+        <v>424</v>
+      </c>
+      <c r="F72" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>426</v>
+      </c>
+      <c r="B73" t="s">
+        <v>427</v>
+      </c>
+      <c r="C73" t="s">
+        <v>428</v>
+      </c>
+      <c r="D73" t="s">
+        <v>429</v>
+      </c>
+      <c r="E73" t="s">
+        <v>430</v>
+      </c>
+      <c r="F73" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
+        <v>433</v>
+      </c>
+      <c r="C74" t="s">
+        <v>434</v>
+      </c>
+      <c r="D74" t="s">
+        <v>435</v>
+      </c>
+      <c r="E74" t="s">
+        <v>436</v>
+      </c>
+      <c r="F74" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>439</v>
+      </c>
+      <c r="C75" t="s">
+        <v>440</v>
+      </c>
+      <c r="D75" t="s">
+        <v>441</v>
+      </c>
+      <c r="E75" t="s">
+        <v>442</v>
+      </c>
+      <c r="F75" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" t="s">
+        <v>445</v>
+      </c>
+      <c r="C76" t="s">
+        <v>446</v>
+      </c>
+      <c r="D76" t="s">
+        <v>447</v>
+      </c>
+      <c r="E76" t="s">
+        <v>448</v>
+      </c>
+      <c r="F76" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" t="s">
+        <v>451</v>
+      </c>
+      <c r="C77" t="s">
+        <v>452</v>
+      </c>
+      <c r="D77" t="s">
+        <v>453</v>
+      </c>
+      <c r="E77" t="s">
+        <v>454</v>
+      </c>
+      <c r="F77" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>457</v>
+      </c>
+      <c r="C78" t="s">
+        <v>458</v>
+      </c>
+      <c r="D78" t="s">
+        <v>459</v>
+      </c>
+      <c r="E78" t="s">
+        <v>460</v>
+      </c>
+      <c r="F78" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>462</v>
+      </c>
+      <c r="B79" t="s">
+        <v>463</v>
+      </c>
+      <c r="C79" t="s">
+        <v>464</v>
+      </c>
+      <c r="D79" t="s">
+        <v>465</v>
+      </c>
+      <c r="E79" t="s">
+        <v>466</v>
+      </c>
+      <c r="F79" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" t="s">
+        <v>469</v>
+      </c>
+      <c r="C80" t="s">
+        <v>470</v>
+      </c>
+      <c r="D80" t="s">
+        <v>471</v>
+      </c>
+      <c r="E80" t="s">
+        <v>472</v>
+      </c>
+      <c r="F80" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81" t="s">
+        <v>475</v>
+      </c>
+      <c r="C81" t="s">
+        <v>476</v>
+      </c>
+      <c r="D81" t="s">
+        <v>477</v>
+      </c>
+      <c r="E81" t="s">
+        <v>478</v>
+      </c>
+      <c r="F81" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" t="s">
+        <v>481</v>
+      </c>
+      <c r="C82" t="s">
+        <v>482</v>
+      </c>
+      <c r="D82" t="s">
+        <v>483</v>
+      </c>
+      <c r="E82" t="s">
+        <v>484</v>
+      </c>
+      <c r="F82" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>487</v>
+      </c>
+      <c r="C83" t="s">
+        <v>488</v>
+      </c>
+      <c r="D83" t="s">
+        <v>489</v>
+      </c>
+      <c r="E83" t="s">
+        <v>490</v>
+      </c>
+      <c r="F83" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" t="s">
+        <v>493</v>
+      </c>
+      <c r="C84" t="s">
+        <v>494</v>
+      </c>
+      <c r="D84" t="s">
+        <v>495</v>
+      </c>
+      <c r="E84" t="s">
+        <v>496</v>
+      </c>
+      <c r="F84" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>498</v>
+      </c>
+      <c r="B85" t="s">
+        <v>499</v>
+      </c>
+      <c r="C85" t="s">
+        <v>500</v>
+      </c>
+      <c r="D85" t="s">
+        <v>501</v>
+      </c>
+      <c r="E85" t="s">
+        <v>502</v>
+      </c>
+      <c r="F85" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" t="s">
+        <v>505</v>
+      </c>
+      <c r="C86" t="s">
+        <v>506</v>
+      </c>
+      <c r="D86" t="s">
+        <v>507</v>
+      </c>
+      <c r="E86" t="s">
+        <v>508</v>
+      </c>
+      <c r="F86" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>511</v>
+      </c>
+      <c r="C87" t="s">
+        <v>512</v>
+      </c>
+      <c r="D87" t="s">
+        <v>513</v>
+      </c>
+      <c r="E87" t="s">
+        <v>514</v>
+      </c>
+      <c r="F87" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
+        <v>517</v>
+      </c>
+      <c r="C88" t="s">
+        <v>518</v>
+      </c>
+      <c r="D88" t="s">
+        <v>519</v>
+      </c>
+      <c r="E88" t="s">
+        <v>520</v>
+      </c>
+      <c r="F88" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>523</v>
+      </c>
+      <c r="C89" t="s">
+        <v>524</v>
+      </c>
+      <c r="D89" t="s">
+        <v>525</v>
+      </c>
+      <c r="E89" t="s">
+        <v>526</v>
+      </c>
+      <c r="F89" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" t="s">
+        <v>529</v>
+      </c>
+      <c r="C90" t="s">
+        <v>530</v>
+      </c>
+      <c r="D90" t="s">
+        <v>531</v>
+      </c>
+      <c r="E90" t="s">
+        <v>532</v>
+      </c>
+      <c r="F90" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>535</v>
+      </c>
+      <c r="C91" t="s">
+        <v>536</v>
+      </c>
+      <c r="D91" t="s">
+        <v>537</v>
+      </c>
+      <c r="E91" t="s">
+        <v>538</v>
+      </c>
+      <c r="F91" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" t="s">
+        <v>541</v>
+      </c>
+      <c r="C92" t="s">
+        <v>542</v>
+      </c>
+      <c r="D92" t="s">
+        <v>543</v>
+      </c>
+      <c r="E92" t="s">
+        <v>544</v>
+      </c>
+      <c r="F92" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" t="s">
+        <v>547</v>
+      </c>
+      <c r="C93" t="s">
+        <v>548</v>
+      </c>
+      <c r="D93" t="s">
+        <v>549</v>
+      </c>
+      <c r="E93" t="s">
+        <v>550</v>
+      </c>
+      <c r="F93" t="s">
+        <v>551</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60595582-9969-482E-9896-05463C5DE0AD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F93"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14289,7 +19361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001CC29C-638A-4E4E-829D-66241B93D88A}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -16170,7 +21242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C0AFDA-3FBB-41A3-BA62-46EDDC71FB68}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -18052,7 +23124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676205A0-C5FF-4AEC-B10B-18D60F60A28C}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -19934,7 +25006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC7E8D-1DE3-4DBF-BC92-6657EED87D10}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -21817,7 +26889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EEF453-2C93-48DA-92A9-F02917F02C21}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -23699,7 +28771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3009EEF-D0A3-4418-BB02-D308992E6389}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -25579,7 +30651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62503B16-5D5E-43EB-8EDC-28C65E9BFBAD}">
   <dimension ref="A1:F93"/>
   <sheetViews>
@@ -27457,1884 +32529,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F93"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" t="s">
-        <v>184</v>
-      </c>
-      <c r="F32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C34" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" t="s">
-        <v>195</v>
-      </c>
-      <c r="E34" t="s">
-        <v>196</v>
-      </c>
-      <c r="F34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C35" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E35" t="s">
-        <v>202</v>
-      </c>
-      <c r="F35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" t="s">
-        <v>206</v>
-      </c>
-      <c r="D36" t="s">
-        <v>207</v>
-      </c>
-      <c r="E36" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" t="s">
-        <v>217</v>
-      </c>
-      <c r="C38" t="s">
-        <v>218</v>
-      </c>
-      <c r="D38" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" t="s">
-        <v>220</v>
-      </c>
-      <c r="F38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>222</v>
-      </c>
-      <c r="B39" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" t="s">
-        <v>225</v>
-      </c>
-      <c r="E39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F39" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D40" t="s">
-        <v>231</v>
-      </c>
-      <c r="E40" t="s">
-        <v>232</v>
-      </c>
-      <c r="F40" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>234</v>
-      </c>
-      <c r="B41" t="s">
-        <v>235</v>
-      </c>
-      <c r="C41" t="s">
-        <v>236</v>
-      </c>
-      <c r="D41" t="s">
-        <v>237</v>
-      </c>
-      <c r="E41" t="s">
-        <v>238</v>
-      </c>
-      <c r="F41" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" t="s">
-        <v>241</v>
-      </c>
-      <c r="C42" t="s">
-        <v>242</v>
-      </c>
-      <c r="D42" t="s">
-        <v>243</v>
-      </c>
-      <c r="E42" t="s">
-        <v>244</v>
-      </c>
-      <c r="F42" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" t="s">
-        <v>247</v>
-      </c>
-      <c r="C43" t="s">
-        <v>248</v>
-      </c>
-      <c r="D43" t="s">
-        <v>249</v>
-      </c>
-      <c r="E43" t="s">
-        <v>250</v>
-      </c>
-      <c r="F43" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>252</v>
-      </c>
-      <c r="B44" t="s">
-        <v>253</v>
-      </c>
-      <c r="C44" t="s">
-        <v>254</v>
-      </c>
-      <c r="D44" t="s">
-        <v>255</v>
-      </c>
-      <c r="E44" t="s">
-        <v>256</v>
-      </c>
-      <c r="F44" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" t="s">
-        <v>259</v>
-      </c>
-      <c r="C45" t="s">
-        <v>260</v>
-      </c>
-      <c r="D45" t="s">
-        <v>261</v>
-      </c>
-      <c r="E45" t="s">
-        <v>262</v>
-      </c>
-      <c r="F45" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" t="s">
-        <v>265</v>
-      </c>
-      <c r="C46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46" t="s">
-        <v>267</v>
-      </c>
-      <c r="E46" t="s">
-        <v>268</v>
-      </c>
-      <c r="F46" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>270</v>
-      </c>
-      <c r="B47" t="s">
-        <v>271</v>
-      </c>
-      <c r="C47" t="s">
-        <v>272</v>
-      </c>
-      <c r="D47" t="s">
-        <v>273</v>
-      </c>
-      <c r="E47" t="s">
-        <v>274</v>
-      </c>
-      <c r="F47" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>276</v>
-      </c>
-      <c r="B48" t="s">
-        <v>277</v>
-      </c>
-      <c r="C48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D48" t="s">
-        <v>279</v>
-      </c>
-      <c r="E48" t="s">
-        <v>280</v>
-      </c>
-      <c r="F48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>282</v>
-      </c>
-      <c r="B49" t="s">
-        <v>283</v>
-      </c>
-      <c r="C49" t="s">
-        <v>284</v>
-      </c>
-      <c r="D49" t="s">
-        <v>285</v>
-      </c>
-      <c r="E49" t="s">
-        <v>286</v>
-      </c>
-      <c r="F49" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>288</v>
-      </c>
-      <c r="B50" t="s">
-        <v>289</v>
-      </c>
-      <c r="C50" t="s">
-        <v>290</v>
-      </c>
-      <c r="D50" t="s">
-        <v>291</v>
-      </c>
-      <c r="E50" t="s">
-        <v>292</v>
-      </c>
-      <c r="F50" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>294</v>
-      </c>
-      <c r="B51" t="s">
-        <v>295</v>
-      </c>
-      <c r="C51" t="s">
-        <v>296</v>
-      </c>
-      <c r="D51" t="s">
-        <v>297</v>
-      </c>
-      <c r="E51" t="s">
-        <v>298</v>
-      </c>
-      <c r="F51" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>300</v>
-      </c>
-      <c r="B52" t="s">
-        <v>301</v>
-      </c>
-      <c r="C52" t="s">
-        <v>302</v>
-      </c>
-      <c r="D52" t="s">
-        <v>303</v>
-      </c>
-      <c r="E52" t="s">
-        <v>304</v>
-      </c>
-      <c r="F52" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>306</v>
-      </c>
-      <c r="B53" t="s">
-        <v>307</v>
-      </c>
-      <c r="C53" t="s">
-        <v>308</v>
-      </c>
-      <c r="D53" t="s">
-        <v>309</v>
-      </c>
-      <c r="E53" t="s">
-        <v>310</v>
-      </c>
-      <c r="F53" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>312</v>
-      </c>
-      <c r="B54" t="s">
-        <v>313</v>
-      </c>
-      <c r="C54" t="s">
-        <v>314</v>
-      </c>
-      <c r="D54" t="s">
-        <v>315</v>
-      </c>
-      <c r="E54" t="s">
-        <v>316</v>
-      </c>
-      <c r="F54" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>318</v>
-      </c>
-      <c r="B55" t="s">
-        <v>319</v>
-      </c>
-      <c r="C55" t="s">
-        <v>320</v>
-      </c>
-      <c r="D55" t="s">
-        <v>321</v>
-      </c>
-      <c r="E55" t="s">
-        <v>322</v>
-      </c>
-      <c r="F55" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>324</v>
-      </c>
-      <c r="B56" t="s">
-        <v>325</v>
-      </c>
-      <c r="C56" t="s">
-        <v>326</v>
-      </c>
-      <c r="D56" t="s">
-        <v>327</v>
-      </c>
-      <c r="E56" t="s">
-        <v>328</v>
-      </c>
-      <c r="F56" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>330</v>
-      </c>
-      <c r="B57" t="s">
-        <v>331</v>
-      </c>
-      <c r="C57" t="s">
-        <v>332</v>
-      </c>
-      <c r="D57" t="s">
-        <v>333</v>
-      </c>
-      <c r="E57" t="s">
-        <v>334</v>
-      </c>
-      <c r="F57" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>336</v>
-      </c>
-      <c r="B58" t="s">
-        <v>337</v>
-      </c>
-      <c r="C58" t="s">
-        <v>338</v>
-      </c>
-      <c r="D58" t="s">
-        <v>339</v>
-      </c>
-      <c r="E58" t="s">
-        <v>340</v>
-      </c>
-      <c r="F58" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>342</v>
-      </c>
-      <c r="B59" t="s">
-        <v>343</v>
-      </c>
-      <c r="C59" t="s">
-        <v>344</v>
-      </c>
-      <c r="D59" t="s">
-        <v>345</v>
-      </c>
-      <c r="E59" t="s">
-        <v>346</v>
-      </c>
-      <c r="F59" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>348</v>
-      </c>
-      <c r="B60" t="s">
-        <v>349</v>
-      </c>
-      <c r="C60" t="s">
-        <v>350</v>
-      </c>
-      <c r="D60" t="s">
-        <v>351</v>
-      </c>
-      <c r="E60" t="s">
-        <v>352</v>
-      </c>
-      <c r="F60" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>354</v>
-      </c>
-      <c r="B61" t="s">
-        <v>355</v>
-      </c>
-      <c r="C61" t="s">
-        <v>356</v>
-      </c>
-      <c r="D61" t="s">
-        <v>357</v>
-      </c>
-      <c r="E61" t="s">
-        <v>358</v>
-      </c>
-      <c r="F61" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>360</v>
-      </c>
-      <c r="B62" t="s">
-        <v>361</v>
-      </c>
-      <c r="C62" t="s">
-        <v>362</v>
-      </c>
-      <c r="D62" t="s">
-        <v>363</v>
-      </c>
-      <c r="E62" t="s">
-        <v>364</v>
-      </c>
-      <c r="F62" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>366</v>
-      </c>
-      <c r="B63" t="s">
-        <v>367</v>
-      </c>
-      <c r="C63" t="s">
-        <v>368</v>
-      </c>
-      <c r="D63" t="s">
-        <v>369</v>
-      </c>
-      <c r="E63" t="s">
-        <v>370</v>
-      </c>
-      <c r="F63" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>372</v>
-      </c>
-      <c r="B64" t="s">
-        <v>373</v>
-      </c>
-      <c r="C64" t="s">
-        <v>374</v>
-      </c>
-      <c r="D64" t="s">
-        <v>375</v>
-      </c>
-      <c r="E64" t="s">
-        <v>376</v>
-      </c>
-      <c r="F64" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>378</v>
-      </c>
-      <c r="B65" t="s">
-        <v>379</v>
-      </c>
-      <c r="C65" t="s">
-        <v>380</v>
-      </c>
-      <c r="D65" t="s">
-        <v>381</v>
-      </c>
-      <c r="E65" t="s">
-        <v>382</v>
-      </c>
-      <c r="F65" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>384</v>
-      </c>
-      <c r="B66" t="s">
-        <v>385</v>
-      </c>
-      <c r="C66" t="s">
-        <v>386</v>
-      </c>
-      <c r="D66" t="s">
-        <v>387</v>
-      </c>
-      <c r="E66" t="s">
-        <v>388</v>
-      </c>
-      <c r="F66" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B67" t="s">
-        <v>391</v>
-      </c>
-      <c r="C67" t="s">
-        <v>392</v>
-      </c>
-      <c r="D67" t="s">
-        <v>393</v>
-      </c>
-      <c r="E67" t="s">
-        <v>394</v>
-      </c>
-      <c r="F67" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>396</v>
-      </c>
-      <c r="B68" t="s">
-        <v>397</v>
-      </c>
-      <c r="C68" t="s">
-        <v>398</v>
-      </c>
-      <c r="D68" t="s">
-        <v>399</v>
-      </c>
-      <c r="E68" t="s">
-        <v>400</v>
-      </c>
-      <c r="F68" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>402</v>
-      </c>
-      <c r="B69" t="s">
-        <v>403</v>
-      </c>
-      <c r="C69" t="s">
-        <v>404</v>
-      </c>
-      <c r="D69" t="s">
-        <v>405</v>
-      </c>
-      <c r="E69" t="s">
-        <v>406</v>
-      </c>
-      <c r="F69" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>408</v>
-      </c>
-      <c r="B70" t="s">
-        <v>409</v>
-      </c>
-      <c r="C70" t="s">
-        <v>410</v>
-      </c>
-      <c r="D70" t="s">
-        <v>411</v>
-      </c>
-      <c r="E70" t="s">
-        <v>412</v>
-      </c>
-      <c r="F70" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>414</v>
-      </c>
-      <c r="B71" t="s">
-        <v>415</v>
-      </c>
-      <c r="C71" t="s">
-        <v>416</v>
-      </c>
-      <c r="D71" t="s">
-        <v>417</v>
-      </c>
-      <c r="E71" t="s">
-        <v>418</v>
-      </c>
-      <c r="F71" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>420</v>
-      </c>
-      <c r="B72" t="s">
-        <v>421</v>
-      </c>
-      <c r="C72" t="s">
-        <v>422</v>
-      </c>
-      <c r="D72" t="s">
-        <v>423</v>
-      </c>
-      <c r="E72" t="s">
-        <v>424</v>
-      </c>
-      <c r="F72" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>426</v>
-      </c>
-      <c r="B73" t="s">
-        <v>427</v>
-      </c>
-      <c r="C73" t="s">
-        <v>428</v>
-      </c>
-      <c r="D73" t="s">
-        <v>429</v>
-      </c>
-      <c r="E73" t="s">
-        <v>430</v>
-      </c>
-      <c r="F73" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>432</v>
-      </c>
-      <c r="B74" t="s">
-        <v>433</v>
-      </c>
-      <c r="C74" t="s">
-        <v>434</v>
-      </c>
-      <c r="D74" t="s">
-        <v>435</v>
-      </c>
-      <c r="E74" t="s">
-        <v>436</v>
-      </c>
-      <c r="F74" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>438</v>
-      </c>
-      <c r="B75" t="s">
-        <v>439</v>
-      </c>
-      <c r="C75" t="s">
-        <v>440</v>
-      </c>
-      <c r="D75" t="s">
-        <v>441</v>
-      </c>
-      <c r="E75" t="s">
-        <v>442</v>
-      </c>
-      <c r="F75" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>444</v>
-      </c>
-      <c r="B76" t="s">
-        <v>445</v>
-      </c>
-      <c r="C76" t="s">
-        <v>446</v>
-      </c>
-      <c r="D76" t="s">
-        <v>447</v>
-      </c>
-      <c r="E76" t="s">
-        <v>448</v>
-      </c>
-      <c r="F76" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>450</v>
-      </c>
-      <c r="B77" t="s">
-        <v>451</v>
-      </c>
-      <c r="C77" t="s">
-        <v>452</v>
-      </c>
-      <c r="D77" t="s">
-        <v>453</v>
-      </c>
-      <c r="E77" t="s">
-        <v>454</v>
-      </c>
-      <c r="F77" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>456</v>
-      </c>
-      <c r="B78" t="s">
-        <v>457</v>
-      </c>
-      <c r="C78" t="s">
-        <v>458</v>
-      </c>
-      <c r="D78" t="s">
-        <v>459</v>
-      </c>
-      <c r="E78" t="s">
-        <v>460</v>
-      </c>
-      <c r="F78" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>462</v>
-      </c>
-      <c r="B79" t="s">
-        <v>463</v>
-      </c>
-      <c r="C79" t="s">
-        <v>464</v>
-      </c>
-      <c r="D79" t="s">
-        <v>465</v>
-      </c>
-      <c r="E79" t="s">
-        <v>466</v>
-      </c>
-      <c r="F79" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>468</v>
-      </c>
-      <c r="B80" t="s">
-        <v>469</v>
-      </c>
-      <c r="C80" t="s">
-        <v>470</v>
-      </c>
-      <c r="D80" t="s">
-        <v>471</v>
-      </c>
-      <c r="E80" t="s">
-        <v>472</v>
-      </c>
-      <c r="F80" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>474</v>
-      </c>
-      <c r="B81" t="s">
-        <v>475</v>
-      </c>
-      <c r="C81" t="s">
-        <v>476</v>
-      </c>
-      <c r="D81" t="s">
-        <v>477</v>
-      </c>
-      <c r="E81" t="s">
-        <v>478</v>
-      </c>
-      <c r="F81" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>480</v>
-      </c>
-      <c r="B82" t="s">
-        <v>481</v>
-      </c>
-      <c r="C82" t="s">
-        <v>482</v>
-      </c>
-      <c r="D82" t="s">
-        <v>483</v>
-      </c>
-      <c r="E82" t="s">
-        <v>484</v>
-      </c>
-      <c r="F82" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>486</v>
-      </c>
-      <c r="B83" t="s">
-        <v>487</v>
-      </c>
-      <c r="C83" t="s">
-        <v>488</v>
-      </c>
-      <c r="D83" t="s">
-        <v>489</v>
-      </c>
-      <c r="E83" t="s">
-        <v>490</v>
-      </c>
-      <c r="F83" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>492</v>
-      </c>
-      <c r="B84" t="s">
-        <v>493</v>
-      </c>
-      <c r="C84" t="s">
-        <v>494</v>
-      </c>
-      <c r="D84" t="s">
-        <v>495</v>
-      </c>
-      <c r="E84" t="s">
-        <v>496</v>
-      </c>
-      <c r="F84" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>498</v>
-      </c>
-      <c r="B85" t="s">
-        <v>499</v>
-      </c>
-      <c r="C85" t="s">
-        <v>500</v>
-      </c>
-      <c r="D85" t="s">
-        <v>501</v>
-      </c>
-      <c r="E85" t="s">
-        <v>502</v>
-      </c>
-      <c r="F85" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>504</v>
-      </c>
-      <c r="B86" t="s">
-        <v>505</v>
-      </c>
-      <c r="C86" t="s">
-        <v>506</v>
-      </c>
-      <c r="D86" t="s">
-        <v>507</v>
-      </c>
-      <c r="E86" t="s">
-        <v>508</v>
-      </c>
-      <c r="F86" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>510</v>
-      </c>
-      <c r="B87" t="s">
-        <v>511</v>
-      </c>
-      <c r="C87" t="s">
-        <v>512</v>
-      </c>
-      <c r="D87" t="s">
-        <v>513</v>
-      </c>
-      <c r="E87" t="s">
-        <v>514</v>
-      </c>
-      <c r="F87" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>516</v>
-      </c>
-      <c r="B88" t="s">
-        <v>517</v>
-      </c>
-      <c r="C88" t="s">
-        <v>518</v>
-      </c>
-      <c r="D88" t="s">
-        <v>519</v>
-      </c>
-      <c r="E88" t="s">
-        <v>520</v>
-      </c>
-      <c r="F88" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>522</v>
-      </c>
-      <c r="B89" t="s">
-        <v>523</v>
-      </c>
-      <c r="C89" t="s">
-        <v>524</v>
-      </c>
-      <c r="D89" t="s">
-        <v>525</v>
-      </c>
-      <c r="E89" t="s">
-        <v>526</v>
-      </c>
-      <c r="F89" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>528</v>
-      </c>
-      <c r="B90" t="s">
-        <v>529</v>
-      </c>
-      <c r="C90" t="s">
-        <v>530</v>
-      </c>
-      <c r="D90" t="s">
-        <v>531</v>
-      </c>
-      <c r="E90" t="s">
-        <v>532</v>
-      </c>
-      <c r="F90" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>534</v>
-      </c>
-      <c r="B91" t="s">
-        <v>535</v>
-      </c>
-      <c r="C91" t="s">
-        <v>536</v>
-      </c>
-      <c r="D91" t="s">
-        <v>537</v>
-      </c>
-      <c r="E91" t="s">
-        <v>538</v>
-      </c>
-      <c r="F91" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>540</v>
-      </c>
-      <c r="B92" t="s">
-        <v>541</v>
-      </c>
-      <c r="C92" t="s">
-        <v>542</v>
-      </c>
-      <c r="D92" t="s">
-        <v>543</v>
-      </c>
-      <c r="E92" t="s">
-        <v>544</v>
-      </c>
-      <c r="F92" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>546</v>
-      </c>
-      <c r="B93" t="s">
-        <v>547</v>
-      </c>
-      <c r="C93" t="s">
-        <v>548</v>
-      </c>
-      <c r="D93" t="s">
-        <v>549</v>
-      </c>
-      <c r="E93" t="s">
-        <v>550</v>
-      </c>
-      <c r="F93" t="s">
-        <v>551</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>